--- a/data/treeMeasurements/TreeMeasurements.xlsx
+++ b/data/treeMeasurements/TreeMeasurements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/treeMeasurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F635B282-C81B-4F47-953A-FAB6E0305C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18821697-81D2-C745-9106-EF454B255385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data!$A$1:$E$631</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4636" uniqueCount="1437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4654" uniqueCount="1442">
   <si>
     <t>Metadata for Phenological Monitoring - FUELINEX 2024</t>
   </si>
@@ -4337,6 +4336,21 @@
   </si>
   <si>
     <t>apical shoot died, new lateral shoot measured, lateral shoot where the tag is</t>
+  </si>
+  <si>
+    <t>apical meristem died</t>
+  </si>
+  <si>
+    <t>mark from 2024 buried, therefore new mark, measurement from last year is 39.4</t>
+  </si>
+  <si>
+    <t>apical shoot snapped off</t>
+  </si>
+  <si>
+    <t>no (trunk 2)</t>
+  </si>
+  <si>
+    <t>apical and lateral meristems are dead, lateral shoot measured only has living lateral buds</t>
   </si>
 </sst>
 </file>
@@ -4346,11 +4360,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4414,7 +4435,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4443,6 +4464,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFE7E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -4489,52 +4516,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6456,9 +6489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R820"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A575" zoomScale="150" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O586" sqref="O586"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O530" sqref="O530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6917,6 +6950,9 @@
         <v>14</v>
       </c>
       <c r="K12" s="17"/>
+      <c r="N12" s="14">
+        <v>56.4</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
@@ -6948,7 +6984,9 @@
       <c r="K13" s="18"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
+      <c r="N13" s="19">
+        <v>47</v>
+      </c>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
@@ -6982,6 +7020,9 @@
         <v>14</v>
       </c>
       <c r="K14" s="17"/>
+      <c r="N14" s="20">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
@@ -7013,7 +7054,9 @@
       <c r="K15" s="18"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+      <c r="N15">
+        <v>47.9</v>
+      </c>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -7047,6 +7090,9 @@
         <v>14</v>
       </c>
       <c r="K16" s="17"/>
+      <c r="N16" s="20">
+        <v>52</v>
+      </c>
     </row>
     <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
@@ -7428,7 +7474,9 @@
       <c r="K27" s="18"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
+      <c r="N27" s="14">
+        <v>39.4</v>
+      </c>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
@@ -7462,6 +7510,9 @@
         <v>14</v>
       </c>
       <c r="K28" s="17"/>
+      <c r="N28" s="19">
+        <v>72</v>
+      </c>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
@@ -7493,11 +7544,15 @@
       <c r="K29" s="18"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
+      <c r="N29" s="14">
+        <v>66.400000000000006</v>
+      </c>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
+      <c r="R29" s="14" t="s">
+        <v>1437</v>
+      </c>
     </row>
     <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
@@ -7527,6 +7582,9 @@
         <v>14</v>
       </c>
       <c r="K30" s="17"/>
+      <c r="N30">
+        <v>50.6</v>
+      </c>
     </row>
     <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
@@ -7558,7 +7616,9 @@
       <c r="K31" s="18"/>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
+      <c r="N31" s="14">
+        <v>56.5</v>
+      </c>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
@@ -7942,6 +8002,9 @@
         <v>14</v>
       </c>
       <c r="K42" s="17"/>
+      <c r="N42">
+        <v>51.4</v>
+      </c>
     </row>
     <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
@@ -7973,7 +8036,9 @@
       <c r="K43" s="18"/>
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
+      <c r="N43" s="14">
+        <v>27.7</v>
+      </c>
       <c r="O43" s="14"/>
       <c r="P43" s="14"/>
       <c r="Q43" s="14"/>
@@ -8007,6 +8072,9 @@
         <v>14</v>
       </c>
       <c r="K44" s="17"/>
+      <c r="N44">
+        <v>67.099999999999994</v>
+      </c>
     </row>
     <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
@@ -8038,7 +8106,9 @@
       <c r="K45" s="18"/>
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
+      <c r="N45" s="14">
+        <v>36.4</v>
+      </c>
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
@@ -8072,6 +8142,9 @@
         <v>14</v>
       </c>
       <c r="K46" s="17"/>
+      <c r="N46">
+        <v>46.1</v>
+      </c>
     </row>
     <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
@@ -8453,7 +8526,9 @@
       <c r="K57" s="18"/>
       <c r="L57" s="14"/>
       <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
+      <c r="N57" s="40">
+        <v>49.9</v>
+      </c>
       <c r="O57" s="14"/>
       <c r="P57" s="14"/>
       <c r="Q57" s="14"/>
@@ -8487,6 +8562,9 @@
         <v>14</v>
       </c>
       <c r="K58" s="17"/>
+      <c r="N58" s="41">
+        <v>50</v>
+      </c>
     </row>
     <row r="59" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
@@ -8518,7 +8596,9 @@
       <c r="K59" s="18"/>
       <c r="L59" s="14"/>
       <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
+      <c r="N59" s="40">
+        <v>52.5</v>
+      </c>
       <c r="O59" s="14"/>
       <c r="P59" s="14"/>
       <c r="Q59" s="14"/>
@@ -8552,6 +8632,9 @@
         <v>14</v>
       </c>
       <c r="K60" s="17"/>
+      <c r="N60" s="40">
+        <v>56.6</v>
+      </c>
     </row>
     <row r="61" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
@@ -8583,7 +8666,9 @@
       <c r="K61" s="18"/>
       <c r="L61" s="14"/>
       <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
+      <c r="N61" s="40">
+        <v>43.4</v>
+      </c>
       <c r="O61" s="14"/>
       <c r="P61" s="14"/>
       <c r="Q61" s="14"/>
@@ -8967,6 +9052,9 @@
         <v>14</v>
       </c>
       <c r="K72" s="17"/>
+      <c r="N72">
+        <v>59.5</v>
+      </c>
     </row>
     <row r="73" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
@@ -8998,7 +9086,9 @@
       <c r="K73" s="18"/>
       <c r="L73" s="14"/>
       <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
+      <c r="N73" s="14">
+        <v>46.5</v>
+      </c>
       <c r="O73" s="14"/>
       <c r="P73" s="14"/>
       <c r="Q73" s="14"/>
@@ -9032,6 +9122,9 @@
         <v>14</v>
       </c>
       <c r="K74" s="17"/>
+      <c r="N74">
+        <v>50.9</v>
+      </c>
     </row>
     <row r="75" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
@@ -9063,7 +9156,9 @@
       <c r="K75" s="18"/>
       <c r="L75" s="14"/>
       <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
+      <c r="N75" s="14">
+        <v>51.5</v>
+      </c>
       <c r="O75" s="14"/>
       <c r="P75" s="14"/>
       <c r="Q75" s="14"/>
@@ -9097,6 +9192,12 @@
         <v>14</v>
       </c>
       <c r="K76" s="17"/>
+      <c r="N76">
+        <v>59.6</v>
+      </c>
+      <c r="R76" s="39" t="s">
+        <v>1438</v>
+      </c>
     </row>
     <row r="77" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
@@ -9478,7 +9579,9 @@
       <c r="K87" s="18"/>
       <c r="L87" s="14"/>
       <c r="M87" s="14"/>
-      <c r="N87" s="14"/>
+      <c r="N87" s="14">
+        <v>42.5</v>
+      </c>
       <c r="O87" s="14"/>
       <c r="P87" s="14"/>
       <c r="Q87" s="14"/>
@@ -9512,6 +9615,9 @@
         <v>14</v>
       </c>
       <c r="K88" s="17"/>
+      <c r="N88">
+        <v>66.5</v>
+      </c>
     </row>
     <row r="89" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
@@ -9543,7 +9649,9 @@
       <c r="K89" s="18"/>
       <c r="L89" s="14"/>
       <c r="M89" s="14"/>
-      <c r="N89" s="14"/>
+      <c r="N89" s="14">
+        <v>55.9</v>
+      </c>
       <c r="O89" s="14"/>
       <c r="P89" s="14"/>
       <c r="Q89" s="14"/>
@@ -9577,6 +9685,9 @@
         <v>14</v>
       </c>
       <c r="K90" s="17"/>
+      <c r="N90">
+        <v>43.6</v>
+      </c>
     </row>
     <row r="91" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
@@ -9608,7 +9719,9 @@
       <c r="K91" s="18"/>
       <c r="L91" s="14"/>
       <c r="M91" s="14"/>
-      <c r="N91" s="14"/>
+      <c r="N91" s="14">
+        <v>71.5</v>
+      </c>
       <c r="O91" s="14"/>
       <c r="P91" s="14"/>
       <c r="Q91" s="14"/>
@@ -13281,6 +13394,9 @@
         <v>414</v>
       </c>
       <c r="K192" s="17"/>
+      <c r="N192">
+        <v>31.8</v>
+      </c>
     </row>
     <row r="193" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="14" t="s">
@@ -13312,7 +13428,9 @@
       <c r="K193" s="18"/>
       <c r="L193" s="14"/>
       <c r="M193" s="14"/>
-      <c r="N193" s="14"/>
+      <c r="N193" s="14">
+        <v>22.7</v>
+      </c>
       <c r="O193" s="14"/>
       <c r="P193" s="14"/>
       <c r="Q193" s="14"/>
@@ -13346,6 +13464,9 @@
         <v>414</v>
       </c>
       <c r="K194" s="17"/>
+      <c r="N194">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="195" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="14" t="s">
@@ -13377,7 +13498,9 @@
       <c r="K195" s="18"/>
       <c r="L195" s="14"/>
       <c r="M195" s="14"/>
-      <c r="N195" s="14"/>
+      <c r="N195" s="20">
+        <v>13</v>
+      </c>
       <c r="O195" s="14"/>
       <c r="P195" s="14"/>
       <c r="Q195" s="14"/>
@@ -13411,6 +13534,9 @@
         <v>414</v>
       </c>
       <c r="K196" s="17"/>
+      <c r="N196">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="197" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="14" t="s">
@@ -13792,7 +13918,9 @@
       <c r="K207" s="18"/>
       <c r="L207" s="14"/>
       <c r="M207" s="14"/>
-      <c r="N207" s="14"/>
+      <c r="N207" s="14">
+        <v>17.8</v>
+      </c>
       <c r="O207" s="14"/>
       <c r="P207" s="14"/>
       <c r="Q207" s="14"/>
@@ -13826,6 +13954,9 @@
         <v>414</v>
       </c>
       <c r="K208" s="17"/>
+      <c r="N208">
+        <v>32.5</v>
+      </c>
     </row>
     <row r="209" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="14" t="s">
@@ -13857,7 +13988,9 @@
       <c r="K209" s="18"/>
       <c r="L209" s="14"/>
       <c r="M209" s="14"/>
-      <c r="N209" s="14"/>
+      <c r="N209" s="14">
+        <v>23.9</v>
+      </c>
       <c r="O209" s="14"/>
       <c r="P209" s="14"/>
       <c r="Q209" s="14"/>
@@ -13891,6 +14024,9 @@
         <v>414</v>
       </c>
       <c r="K210" s="17"/>
+      <c r="N210" s="19">
+        <v>41</v>
+      </c>
     </row>
     <row r="211" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="14" t="s">
@@ -13922,7 +14058,9 @@
       <c r="K211" s="18"/>
       <c r="L211" s="14"/>
       <c r="M211" s="14"/>
-      <c r="N211" s="14"/>
+      <c r="N211" s="14">
+        <v>31.7</v>
+      </c>
       <c r="O211" s="14"/>
       <c r="P211" s="14"/>
       <c r="Q211" s="14"/>
@@ -14306,6 +14444,9 @@
         <v>414</v>
       </c>
       <c r="K222" s="17"/>
+      <c r="N222">
+        <v>30.4</v>
+      </c>
     </row>
     <row r="223" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="14" t="s">
@@ -14337,7 +14478,9 @@
       <c r="K223" s="18"/>
       <c r="L223" s="14"/>
       <c r="M223" s="14"/>
-      <c r="N223" s="14"/>
+      <c r="N223" s="14">
+        <v>31.2</v>
+      </c>
       <c r="O223" s="14"/>
       <c r="P223" s="14"/>
       <c r="Q223" s="14"/>
@@ -14371,6 +14514,9 @@
         <v>414</v>
       </c>
       <c r="K224" s="17"/>
+      <c r="N224">
+        <v>29.3</v>
+      </c>
     </row>
     <row r="225" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="14" t="s">
@@ -14402,7 +14548,9 @@
       <c r="K225" s="18"/>
       <c r="L225" s="14"/>
       <c r="M225" s="14"/>
-      <c r="N225" s="14"/>
+      <c r="N225" s="14">
+        <v>25.4</v>
+      </c>
       <c r="O225" s="14"/>
       <c r="P225" s="14"/>
       <c r="Q225" s="14"/>
@@ -14436,6 +14584,9 @@
         <v>414</v>
       </c>
       <c r="K226" s="17"/>
+      <c r="N226">
+        <v>20.8</v>
+      </c>
     </row>
     <row r="227" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="14" t="s">
@@ -14817,7 +14968,9 @@
       <c r="K237" s="18"/>
       <c r="L237" s="14"/>
       <c r="M237" s="14"/>
-      <c r="N237" s="14"/>
+      <c r="N237" s="20">
+        <v>25</v>
+      </c>
       <c r="O237" s="14"/>
       <c r="P237" s="14"/>
       <c r="Q237" s="14"/>
@@ -14851,6 +15004,9 @@
         <v>414</v>
       </c>
       <c r="K238" s="17"/>
+      <c r="N238">
+        <v>37.9</v>
+      </c>
     </row>
     <row r="239" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="14" t="s">
@@ -14882,7 +15038,9 @@
       <c r="K239" s="18"/>
       <c r="L239" s="14"/>
       <c r="M239" s="14"/>
-      <c r="N239" s="14"/>
+      <c r="N239" s="14">
+        <v>38.200000000000003</v>
+      </c>
       <c r="O239" s="14"/>
       <c r="P239" s="14"/>
       <c r="Q239" s="14"/>
@@ -14916,6 +15074,9 @@
         <v>414</v>
       </c>
       <c r="K240" s="17"/>
+      <c r="N240">
+        <v>27.9</v>
+      </c>
     </row>
     <row r="241" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="14" t="s">
@@ -14947,7 +15108,9 @@
       <c r="K241" s="18"/>
       <c r="L241" s="14"/>
       <c r="M241" s="14"/>
-      <c r="N241" s="14"/>
+      <c r="N241" s="14">
+        <v>32.700000000000003</v>
+      </c>
       <c r="O241" s="14"/>
       <c r="P241" s="14"/>
       <c r="Q241" s="14"/>
@@ -15333,6 +15496,9 @@
         <v>414</v>
       </c>
       <c r="K252" s="17"/>
+      <c r="N252">
+        <v>23.7</v>
+      </c>
     </row>
     <row r="253" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="14" t="s">
@@ -15364,7 +15530,9 @@
       <c r="K253" s="18"/>
       <c r="L253" s="14"/>
       <c r="M253" s="14"/>
-      <c r="N253" s="14"/>
+      <c r="N253" s="14">
+        <v>36.4</v>
+      </c>
       <c r="O253" s="14"/>
       <c r="P253" s="14"/>
       <c r="Q253" s="14"/>
@@ -15398,6 +15566,9 @@
         <v>414</v>
       </c>
       <c r="K254" s="17"/>
+      <c r="N254">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="255" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="14" t="s">
@@ -15429,7 +15600,9 @@
       <c r="K255" s="18"/>
       <c r="L255" s="14"/>
       <c r="M255" s="14"/>
-      <c r="N255" s="14"/>
+      <c r="N255" s="14">
+        <v>28.2</v>
+      </c>
       <c r="O255" s="14"/>
       <c r="P255" s="14"/>
       <c r="Q255" s="14"/>
@@ -15463,6 +15636,9 @@
         <v>414</v>
       </c>
       <c r="K256" s="17"/>
+      <c r="N256" s="37">
+        <v>25</v>
+      </c>
     </row>
     <row r="257" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="14" t="s">
@@ -15844,7 +16020,9 @@
       <c r="K267" s="18"/>
       <c r="L267" s="14"/>
       <c r="M267" s="14"/>
-      <c r="N267" s="14"/>
+      <c r="N267" s="14">
+        <v>31.8</v>
+      </c>
       <c r="O267" s="14"/>
       <c r="P267" s="14"/>
       <c r="Q267" s="14"/>
@@ -15878,6 +16056,9 @@
         <v>414</v>
       </c>
       <c r="K268" s="17"/>
+      <c r="N268" s="19">
+        <v>30</v>
+      </c>
     </row>
     <row r="269" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="14" t="s">
@@ -15909,7 +16090,9 @@
       <c r="K269" s="18"/>
       <c r="L269" s="14"/>
       <c r="M269" s="14"/>
-      <c r="N269" s="14"/>
+      <c r="N269" s="14">
+        <v>25.6</v>
+      </c>
       <c r="O269" s="14"/>
       <c r="P269" s="14"/>
       <c r="Q269" s="14"/>
@@ -15943,6 +16126,9 @@
         <v>414</v>
       </c>
       <c r="K270" s="17"/>
+      <c r="N270">
+        <v>33.4</v>
+      </c>
     </row>
     <row r="271" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="14" t="s">
@@ -15974,7 +16160,9 @@
       <c r="K271" s="18"/>
       <c r="L271" s="14"/>
       <c r="M271" s="14"/>
-      <c r="N271" s="14"/>
+      <c r="N271" s="14">
+        <v>17.100000000000001</v>
+      </c>
       <c r="O271" s="14"/>
       <c r="P271" s="14"/>
       <c r="Q271" s="14"/>
@@ -16366,6 +16554,12 @@
         <v>325</v>
       </c>
       <c r="K282" s="17"/>
+      <c r="Q282" s="38" t="s">
+        <v>1424</v>
+      </c>
+      <c r="R282" s="34" t="s">
+        <v>1434</v>
+      </c>
     </row>
     <row r="283" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="14" t="s">
@@ -16397,11 +16591,15 @@
       <c r="K283" s="18"/>
       <c r="L283" s="14"/>
       <c r="M283" s="14"/>
-      <c r="N283" s="14"/>
+      <c r="N283" s="14" t="s">
+        <v>1396</v>
+      </c>
       <c r="O283" s="14"/>
       <c r="P283" s="14"/>
       <c r="Q283" s="14"/>
-      <c r="R283" s="14"/>
+      <c r="R283" s="14" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="284" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
@@ -16431,6 +16629,9 @@
         <v>325</v>
       </c>
       <c r="K284" s="17"/>
+      <c r="N284">
+        <v>39.299999999999997</v>
+      </c>
     </row>
     <row r="285" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="14" t="s">
@@ -16462,7 +16663,9 @@
       <c r="K285" s="18"/>
       <c r="L285" s="14"/>
       <c r="M285" s="14"/>
-      <c r="N285" s="14"/>
+      <c r="N285" s="14">
+        <v>32.5</v>
+      </c>
       <c r="O285" s="14"/>
       <c r="P285" s="14"/>
       <c r="Q285" s="14"/>
@@ -16496,6 +16699,9 @@
         <v>325</v>
       </c>
       <c r="K286" s="17"/>
+      <c r="N286">
+        <v>63.2</v>
+      </c>
     </row>
     <row r="287" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="14" t="s">
@@ -16883,7 +17089,9 @@
       <c r="K297" s="18"/>
       <c r="L297" s="14"/>
       <c r="M297" s="14"/>
-      <c r="N297" s="14"/>
+      <c r="N297" s="14">
+        <v>65.5</v>
+      </c>
       <c r="O297" s="14"/>
       <c r="P297" s="14"/>
       <c r="Q297" s="14"/>
@@ -16917,6 +17125,9 @@
         <v>325</v>
       </c>
       <c r="K298" s="17"/>
+      <c r="N298">
+        <v>63.9</v>
+      </c>
     </row>
     <row r="299" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="14" t="s">
@@ -16948,7 +17159,9 @@
       <c r="K299" s="18"/>
       <c r="L299" s="14"/>
       <c r="M299" s="14"/>
-      <c r="N299" s="14"/>
+      <c r="N299" s="14">
+        <v>37.6</v>
+      </c>
       <c r="O299" s="14"/>
       <c r="P299" s="14"/>
       <c r="Q299" s="14"/>
@@ -16982,6 +17195,9 @@
         <v>325</v>
       </c>
       <c r="K300" s="17"/>
+      <c r="N300">
+        <v>39.299999999999997</v>
+      </c>
     </row>
     <row r="301" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="14" t="s">
@@ -17013,11 +17229,17 @@
       <c r="K301" s="18"/>
       <c r="L301" s="14"/>
       <c r="M301" s="14"/>
-      <c r="N301" s="14"/>
+      <c r="N301" s="14">
+        <v>38.4</v>
+      </c>
       <c r="O301" s="14"/>
       <c r="P301" s="14"/>
-      <c r="Q301" s="14"/>
-      <c r="R301" s="14"/>
+      <c r="Q301" s="14" t="s">
+        <v>1424</v>
+      </c>
+      <c r="R301" s="14" t="s">
+        <v>1441</v>
+      </c>
     </row>
     <row r="302" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
@@ -17397,6 +17619,9 @@
         <v>325</v>
       </c>
       <c r="K312" s="17"/>
+      <c r="N312">
+        <v>47.2</v>
+      </c>
     </row>
     <row r="313" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="14" t="s">
@@ -17428,7 +17653,9 @@
       <c r="K313" s="18"/>
       <c r="L313" s="14"/>
       <c r="M313" s="14"/>
-      <c r="N313" s="14"/>
+      <c r="N313" s="14">
+        <v>60.9</v>
+      </c>
       <c r="O313" s="14"/>
       <c r="P313" s="14"/>
       <c r="Q313" s="14"/>
@@ -17462,6 +17689,9 @@
         <v>325</v>
       </c>
       <c r="K314" s="17"/>
+      <c r="N314">
+        <v>50.9</v>
+      </c>
     </row>
     <row r="315" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="14" t="s">
@@ -17493,7 +17723,9 @@
       <c r="K315" s="18"/>
       <c r="L315" s="14"/>
       <c r="M315" s="14"/>
-      <c r="N315" s="14"/>
+      <c r="N315" s="14">
+        <v>57.4</v>
+      </c>
       <c r="O315" s="14"/>
       <c r="P315" s="14"/>
       <c r="Q315" s="14"/>
@@ -17527,6 +17759,9 @@
         <v>325</v>
       </c>
       <c r="K316" s="17"/>
+      <c r="N316">
+        <v>64.599999999999994</v>
+      </c>
     </row>
     <row r="317" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="14" t="s">
@@ -17908,7 +18143,9 @@
       <c r="K327" s="18"/>
       <c r="L327" s="14"/>
       <c r="M327" s="14"/>
-      <c r="N327" s="14"/>
+      <c r="N327" s="14">
+        <v>21.5</v>
+      </c>
       <c r="O327" s="14"/>
       <c r="P327" s="14"/>
       <c r="Q327" s="14"/>
@@ -17942,6 +18179,12 @@
         <v>325</v>
       </c>
       <c r="K328" s="17"/>
+      <c r="N328">
+        <v>28.9</v>
+      </c>
+      <c r="R328" s="38" t="s">
+        <v>1426</v>
+      </c>
     </row>
     <row r="329" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="14" t="s">
@@ -17973,7 +18216,9 @@
       <c r="K329" s="18"/>
       <c r="L329" s="14"/>
       <c r="M329" s="14"/>
-      <c r="N329" s="14"/>
+      <c r="N329" s="14">
+        <v>56.2</v>
+      </c>
       <c r="O329" s="14"/>
       <c r="P329" s="14"/>
       <c r="Q329" s="14"/>
@@ -18007,6 +18252,9 @@
         <v>325</v>
       </c>
       <c r="K330" s="17"/>
+      <c r="N330">
+        <v>32.200000000000003</v>
+      </c>
     </row>
     <row r="331" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="14" t="s">
@@ -18038,7 +18286,9 @@
       <c r="K331" s="18"/>
       <c r="L331" s="14"/>
       <c r="M331" s="14"/>
-      <c r="N331" s="14"/>
+      <c r="N331" s="14">
+        <v>43.3</v>
+      </c>
       <c r="O331" s="14"/>
       <c r="P331" s="14"/>
       <c r="Q331" s="14"/>
@@ -18422,6 +18672,9 @@
         <v>325</v>
       </c>
       <c r="K342" s="17"/>
+      <c r="N342">
+        <v>44.4</v>
+      </c>
     </row>
     <row r="343" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="14" t="s">
@@ -18453,7 +18706,9 @@
       <c r="K343" s="18"/>
       <c r="L343" s="14"/>
       <c r="M343" s="14"/>
-      <c r="N343" s="14"/>
+      <c r="N343" s="14">
+        <v>59.6</v>
+      </c>
       <c r="O343" s="14"/>
       <c r="P343" s="14"/>
       <c r="Q343" s="14"/>
@@ -18487,6 +18742,9 @@
         <v>325</v>
       </c>
       <c r="K344" s="17"/>
+      <c r="N344">
+        <v>36.5</v>
+      </c>
     </row>
     <row r="345" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="14" t="s">
@@ -18518,11 +18776,13 @@
       <c r="K345" s="18"/>
       <c r="L345" s="14"/>
       <c r="M345" s="14"/>
-      <c r="N345" s="14"/>
+      <c r="N345" s="14">
+        <v>55.2</v>
+      </c>
       <c r="O345" s="14"/>
       <c r="P345" s="14"/>
       <c r="Q345" s="14"/>
-      <c r="R345" s="14"/>
+      <c r="R345" s="42"/>
     </row>
     <row r="346" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="4" t="s">
@@ -18552,6 +18812,12 @@
         <v>325</v>
       </c>
       <c r="K346" s="17"/>
+      <c r="Q346" s="38" t="s">
+        <v>1424</v>
+      </c>
+      <c r="R346" s="34" t="s">
+        <v>1434</v>
+      </c>
     </row>
     <row r="347" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="14" t="s">
@@ -18936,7 +19202,9 @@
       <c r="K357" s="18"/>
       <c r="L357" s="14"/>
       <c r="M357" s="14"/>
-      <c r="N357" s="14"/>
+      <c r="N357" s="14">
+        <v>31.5</v>
+      </c>
       <c r="O357" s="14"/>
       <c r="P357" s="14"/>
       <c r="Q357" s="14"/>
@@ -18970,6 +19238,9 @@
         <v>325</v>
       </c>
       <c r="K358" s="17"/>
+      <c r="N358">
+        <v>37.4</v>
+      </c>
     </row>
     <row r="359" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="14" t="s">
@@ -19001,7 +19272,9 @@
       <c r="K359" s="18"/>
       <c r="L359" s="14"/>
       <c r="M359" s="14"/>
-      <c r="N359" s="14"/>
+      <c r="N359" s="14">
+        <v>40.5</v>
+      </c>
       <c r="O359" s="14"/>
       <c r="P359" s="14"/>
       <c r="Q359" s="14"/>
@@ -19035,6 +19308,9 @@
         <v>325</v>
       </c>
       <c r="K360" s="17"/>
+      <c r="N360" s="19">
+        <v>62</v>
+      </c>
     </row>
     <row r="361" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="14" t="s">
@@ -19066,7 +19342,9 @@
       <c r="K361" s="18"/>
       <c r="L361" s="14"/>
       <c r="M361" s="14"/>
-      <c r="N361" s="14"/>
+      <c r="N361" s="14">
+        <v>60.4</v>
+      </c>
       <c r="O361" s="14"/>
       <c r="P361" s="14"/>
       <c r="Q361" s="14"/>
@@ -22357,6 +22635,9 @@
         <v>325</v>
       </c>
       <c r="K452" s="17"/>
+      <c r="N452">
+        <v>27.2</v>
+      </c>
     </row>
     <row r="453" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="14" t="s">
@@ -22388,7 +22669,9 @@
       <c r="K453" s="18"/>
       <c r="L453" s="14"/>
       <c r="M453" s="14"/>
-      <c r="N453" s="14"/>
+      <c r="N453" s="14">
+        <v>27.8</v>
+      </c>
       <c r="O453" s="14"/>
       <c r="P453" s="14"/>
       <c r="Q453" s="14"/>
@@ -22422,6 +22705,9 @@
         <v>325</v>
       </c>
       <c r="K454" s="17"/>
+      <c r="N454">
+        <v>31.1</v>
+      </c>
     </row>
     <row r="455" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="14" t="s">
@@ -22453,7 +22739,9 @@
       <c r="K455" s="18"/>
       <c r="L455" s="14"/>
       <c r="M455" s="14"/>
-      <c r="N455" s="14"/>
+      <c r="N455" s="14">
+        <v>39.1</v>
+      </c>
       <c r="O455" s="14"/>
       <c r="P455" s="14"/>
       <c r="Q455" s="14"/>
@@ -22487,6 +22775,9 @@
         <v>325</v>
       </c>
       <c r="K456" s="17"/>
+      <c r="N456">
+        <v>23.3</v>
+      </c>
     </row>
     <row r="457" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="14" t="s">
@@ -22694,6 +22985,15 @@
         <v>325</v>
       </c>
       <c r="K462" s="17"/>
+      <c r="N462" s="19">
+        <v>24</v>
+      </c>
+      <c r="Q462" s="38" t="s">
+        <v>1424</v>
+      </c>
+      <c r="R462" s="38" t="s">
+        <v>1433</v>
+      </c>
     </row>
     <row r="463" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="14" t="s">
@@ -22725,7 +23025,9 @@
       <c r="K463" s="18"/>
       <c r="L463" s="14"/>
       <c r="M463" s="14"/>
-      <c r="N463" s="14"/>
+      <c r="N463" s="20">
+        <v>43</v>
+      </c>
       <c r="O463" s="14"/>
       <c r="P463" s="14"/>
       <c r="Q463" s="14"/>
@@ -22759,6 +23061,9 @@
         <v>325</v>
       </c>
       <c r="K464" s="17"/>
+      <c r="N464">
+        <v>48.6</v>
+      </c>
     </row>
     <row r="465" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="14" t="s">
@@ -22790,7 +23095,9 @@
       <c r="K465" s="18"/>
       <c r="L465" s="14"/>
       <c r="M465" s="14"/>
-      <c r="N465" s="14"/>
+      <c r="N465" s="14">
+        <v>21.9</v>
+      </c>
       <c r="O465" s="14"/>
       <c r="P465" s="14"/>
       <c r="Q465" s="14"/>
@@ -22824,6 +23131,9 @@
         <v>325</v>
       </c>
       <c r="K466" s="17"/>
+      <c r="N466">
+        <v>33.9</v>
+      </c>
     </row>
     <row r="467" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="14" t="s">
@@ -22855,7 +23165,9 @@
       <c r="K467" s="18"/>
       <c r="L467" s="14"/>
       <c r="M467" s="14"/>
-      <c r="N467" s="14"/>
+      <c r="N467" s="14">
+        <v>28.9</v>
+      </c>
       <c r="O467" s="14"/>
       <c r="P467" s="14"/>
       <c r="Q467" s="14"/>
@@ -22889,6 +23201,9 @@
         <v>325</v>
       </c>
       <c r="K468" s="17"/>
+      <c r="N468" s="19">
+        <v>32</v>
+      </c>
     </row>
     <row r="469" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="14" t="s">
@@ -22920,7 +23235,9 @@
       <c r="K469" s="18"/>
       <c r="L469" s="14"/>
       <c r="M469" s="14"/>
-      <c r="N469" s="14"/>
+      <c r="N469" s="14">
+        <v>25.1</v>
+      </c>
       <c r="O469" s="14"/>
       <c r="P469" s="14"/>
       <c r="Q469" s="14"/>
@@ -22954,6 +23271,9 @@
         <v>325</v>
       </c>
       <c r="K470" s="17"/>
+      <c r="N470">
+        <v>19.8</v>
+      </c>
     </row>
     <row r="471" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="14" t="s">
@@ -22985,7 +23305,9 @@
       <c r="K471" s="18"/>
       <c r="L471" s="14"/>
       <c r="M471" s="14"/>
-      <c r="N471" s="14"/>
+      <c r="N471" s="14">
+        <v>26.7</v>
+      </c>
       <c r="O471" s="14"/>
       <c r="P471" s="14"/>
       <c r="Q471" s="14"/>
@@ -23193,7 +23515,9 @@
       <c r="K477" s="18"/>
       <c r="L477" s="14"/>
       <c r="M477" s="14"/>
-      <c r="N477" s="14"/>
+      <c r="N477" s="14">
+        <v>24.6</v>
+      </c>
       <c r="O477" s="14"/>
       <c r="P477" s="14"/>
       <c r="Q477" s="14"/>
@@ -23227,6 +23551,9 @@
         <v>325</v>
       </c>
       <c r="K478" s="17"/>
+      <c r="N478">
+        <v>27.9</v>
+      </c>
     </row>
     <row r="479" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="14" t="s">
@@ -23258,7 +23585,9 @@
       <c r="K479" s="18"/>
       <c r="L479" s="14"/>
       <c r="M479" s="14"/>
-      <c r="N479" s="14"/>
+      <c r="N479" s="14">
+        <v>33.4</v>
+      </c>
       <c r="O479" s="14"/>
       <c r="P479" s="14"/>
       <c r="Q479" s="14"/>
@@ -23292,6 +23621,9 @@
         <v>325</v>
       </c>
       <c r="K480" s="17"/>
+      <c r="N480">
+        <v>28.4</v>
+      </c>
     </row>
     <row r="481" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="14" t="s">
@@ -23323,7 +23655,9 @@
       <c r="K481" s="18"/>
       <c r="L481" s="14"/>
       <c r="M481" s="14"/>
-      <c r="N481" s="14"/>
+      <c r="N481" s="14">
+        <v>27.1</v>
+      </c>
       <c r="O481" s="14"/>
       <c r="P481" s="14"/>
       <c r="Q481" s="14"/>
@@ -23357,6 +23691,9 @@
         <v>325</v>
       </c>
       <c r="K482" s="17"/>
+      <c r="N482">
+        <v>34.299999999999997</v>
+      </c>
     </row>
     <row r="483" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="14" t="s">
@@ -23388,7 +23725,9 @@
       <c r="K483" s="18"/>
       <c r="L483" s="14"/>
       <c r="M483" s="14"/>
-      <c r="N483" s="14"/>
+      <c r="N483" s="14">
+        <v>37.200000000000003</v>
+      </c>
       <c r="O483" s="14"/>
       <c r="P483" s="14"/>
       <c r="Q483" s="14"/>
@@ -23422,6 +23761,9 @@
         <v>325</v>
       </c>
       <c r="K484" s="17"/>
+      <c r="N484">
+        <v>25.4</v>
+      </c>
     </row>
     <row r="485" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="14" t="s">
@@ -23453,7 +23795,9 @@
       <c r="K485" s="18"/>
       <c r="L485" s="14"/>
       <c r="M485" s="14"/>
-      <c r="N485" s="14"/>
+      <c r="N485" s="14">
+        <v>34.5</v>
+      </c>
       <c r="O485" s="14"/>
       <c r="P485" s="14"/>
       <c r="Q485" s="14"/>
@@ -23487,6 +23831,9 @@
         <v>325</v>
       </c>
       <c r="K486" s="17"/>
+      <c r="N486">
+        <v>23.1</v>
+      </c>
     </row>
     <row r="487" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="14" t="s">
@@ -23694,6 +24041,9 @@
         <v>325</v>
       </c>
       <c r="K492" s="17"/>
+      <c r="N492">
+        <v>21.6</v>
+      </c>
     </row>
     <row r="493" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="14" t="s">
@@ -23725,7 +24075,9 @@
       <c r="K493" s="18"/>
       <c r="L493" s="14"/>
       <c r="M493" s="14"/>
-      <c r="N493" s="14"/>
+      <c r="N493" s="20">
+        <v>35</v>
+      </c>
       <c r="O493" s="14"/>
       <c r="P493" s="14"/>
       <c r="Q493" s="14"/>
@@ -23759,6 +24111,12 @@
         <v>325</v>
       </c>
       <c r="K494" s="17"/>
+      <c r="N494">
+        <v>24.9</v>
+      </c>
+      <c r="R494" s="38" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="495" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="14" t="s">
@@ -23790,11 +24148,15 @@
       <c r="K495" s="18"/>
       <c r="L495" s="14"/>
       <c r="M495" s="14"/>
-      <c r="N495" s="14"/>
+      <c r="N495" s="14" t="s">
+        <v>1396</v>
+      </c>
       <c r="O495" s="14"/>
       <c r="P495" s="14"/>
       <c r="Q495" s="14"/>
-      <c r="R495" s="14"/>
+      <c r="R495" s="14" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="496" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="4" t="s">
@@ -23824,6 +24186,9 @@
         <v>325</v>
       </c>
       <c r="K496" s="17"/>
+      <c r="N496">
+        <v>30.9</v>
+      </c>
     </row>
     <row r="497" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="14" t="s">
@@ -23855,7 +24220,9 @@
       <c r="K497" s="18"/>
       <c r="L497" s="14"/>
       <c r="M497" s="14"/>
-      <c r="N497" s="14"/>
+      <c r="N497" s="14">
+        <v>30.1</v>
+      </c>
       <c r="O497" s="14"/>
       <c r="P497" s="14"/>
       <c r="Q497" s="14"/>
@@ -23889,6 +24256,9 @@
         <v>325</v>
       </c>
       <c r="K498" s="17"/>
+      <c r="N498">
+        <v>37.799999999999997</v>
+      </c>
     </row>
     <row r="499" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="14" t="s">
@@ -23920,7 +24290,9 @@
       <c r="K499" s="18"/>
       <c r="L499" s="14"/>
       <c r="M499" s="14"/>
-      <c r="N499" s="14"/>
+      <c r="N499" s="20">
+        <v>29</v>
+      </c>
       <c r="O499" s="14"/>
       <c r="P499" s="14"/>
       <c r="Q499" s="14"/>
@@ -23954,6 +24326,9 @@
         <v>325</v>
       </c>
       <c r="K500" s="17"/>
+      <c r="N500">
+        <v>39.299999999999997</v>
+      </c>
     </row>
     <row r="501" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="14" t="s">
@@ -23985,7 +24360,9 @@
       <c r="K501" s="18"/>
       <c r="L501" s="14"/>
       <c r="M501" s="14"/>
-      <c r="N501" s="14"/>
+      <c r="N501" s="14">
+        <v>31.1</v>
+      </c>
       <c r="O501" s="14"/>
       <c r="P501" s="14"/>
       <c r="Q501" s="14"/>
@@ -24200,7 +24577,9 @@
       <c r="K507" s="18"/>
       <c r="L507" s="14"/>
       <c r="M507" s="14"/>
-      <c r="N507" s="14"/>
+      <c r="N507" s="14">
+        <v>33.799999999999997</v>
+      </c>
       <c r="O507" s="14"/>
       <c r="P507" s="14"/>
       <c r="Q507" s="14"/>
@@ -24234,6 +24613,9 @@
         <v>325</v>
       </c>
       <c r="K508" s="17"/>
+      <c r="N508">
+        <v>25.3</v>
+      </c>
     </row>
     <row r="509" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="14" t="s">
@@ -24265,7 +24647,9 @@
       <c r="K509" s="18"/>
       <c r="L509" s="14"/>
       <c r="M509" s="14"/>
-      <c r="N509" s="14"/>
+      <c r="N509" s="14">
+        <v>34.1</v>
+      </c>
       <c r="O509" s="14"/>
       <c r="P509" s="14"/>
       <c r="Q509" s="14"/>
@@ -24303,6 +24687,18 @@
         <v>325</v>
       </c>
       <c r="K510" s="17"/>
+      <c r="N510">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="O510">
+        <v>21.5</v>
+      </c>
+      <c r="Q510" s="38" t="s">
+        <v>1440</v>
+      </c>
+      <c r="R510" s="38" t="s">
+        <v>1433</v>
+      </c>
     </row>
     <row r="511" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="14" t="s">
@@ -24334,7 +24730,9 @@
       <c r="K511" s="18"/>
       <c r="L511" s="14"/>
       <c r="M511" s="14"/>
-      <c r="N511" s="14"/>
+      <c r="N511" s="14">
+        <v>26.6</v>
+      </c>
       <c r="O511" s="14"/>
       <c r="P511" s="14"/>
       <c r="Q511" s="14"/>
@@ -24368,6 +24766,9 @@
         <v>325</v>
       </c>
       <c r="K512" s="17"/>
+      <c r="N512">
+        <v>23.7</v>
+      </c>
     </row>
     <row r="513" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="14" t="s">
@@ -24399,7 +24800,9 @@
       <c r="K513" s="18"/>
       <c r="L513" s="14"/>
       <c r="M513" s="14"/>
-      <c r="N513" s="14"/>
+      <c r="N513" s="14">
+        <v>31.2</v>
+      </c>
       <c r="O513" s="14"/>
       <c r="P513" s="14"/>
       <c r="Q513" s="14"/>
@@ -24433,6 +24836,9 @@
         <v>325</v>
       </c>
       <c r="K514" s="17"/>
+      <c r="N514">
+        <v>37.4</v>
+      </c>
     </row>
     <row r="515" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="14" t="s">
@@ -24464,7 +24870,9 @@
       <c r="K515" s="18"/>
       <c r="L515" s="14"/>
       <c r="M515" s="14"/>
-      <c r="N515" s="14"/>
+      <c r="N515" s="14">
+        <v>28.4</v>
+      </c>
       <c r="O515" s="14"/>
       <c r="P515" s="14"/>
       <c r="Q515" s="14"/>
@@ -24498,6 +24906,9 @@
         <v>325</v>
       </c>
       <c r="K516" s="17"/>
+      <c r="N516">
+        <v>31.8</v>
+      </c>
     </row>
     <row r="517" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="14" t="s">
@@ -24718,6 +25129,9 @@
         <v>325</v>
       </c>
       <c r="K522" s="17"/>
+      <c r="N522">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="523" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="14" t="s">
@@ -24749,7 +25163,9 @@
       <c r="K523" s="18"/>
       <c r="L523" s="14"/>
       <c r="M523" s="14"/>
-      <c r="N523" s="14"/>
+      <c r="N523" s="14">
+        <v>26.9</v>
+      </c>
       <c r="O523" s="14"/>
       <c r="P523" s="14"/>
       <c r="Q523" s="14"/>
@@ -24783,6 +25199,9 @@
         <v>325</v>
       </c>
       <c r="K524" s="17"/>
+      <c r="N524">
+        <v>26.4</v>
+      </c>
     </row>
     <row r="525" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="14" t="s">
@@ -24814,7 +25233,9 @@
       <c r="K525" s="18"/>
       <c r="L525" s="14"/>
       <c r="M525" s="14"/>
-      <c r="N525" s="14"/>
+      <c r="N525" s="14">
+        <v>38.1</v>
+      </c>
       <c r="O525" s="14"/>
       <c r="P525" s="14"/>
       <c r="Q525" s="14"/>
@@ -24850,6 +25271,9 @@
       <c r="K526" s="4" t="s">
         <v>1249</v>
       </c>
+      <c r="N526">
+        <v>41.6</v>
+      </c>
       <c r="R526" s="26"/>
     </row>
     <row r="527" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24882,7 +25306,9 @@
       <c r="K527" s="18"/>
       <c r="L527" s="14"/>
       <c r="M527" s="14"/>
-      <c r="N527" s="14"/>
+      <c r="N527" s="14">
+        <v>34.799999999999997</v>
+      </c>
       <c r="O527" s="14"/>
       <c r="P527" s="14"/>
       <c r="Q527" s="14"/>
@@ -24916,6 +25342,9 @@
         <v>325</v>
       </c>
       <c r="K528" s="17"/>
+      <c r="N528">
+        <v>22.6</v>
+      </c>
     </row>
     <row r="529" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="14" t="s">
@@ -24947,7 +25376,9 @@
       <c r="K529" s="18"/>
       <c r="L529" s="14"/>
       <c r="M529" s="14"/>
-      <c r="N529" s="14"/>
+      <c r="N529" s="14">
+        <v>27.9</v>
+      </c>
       <c r="O529" s="14"/>
       <c r="P529" s="14"/>
       <c r="Q529" s="14"/>
@@ -24981,6 +25412,9 @@
         <v>325</v>
       </c>
       <c r="K530" s="17"/>
+      <c r="N530">
+        <v>26.7</v>
+      </c>
     </row>
     <row r="531" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="14" t="s">
@@ -25012,7 +25446,9 @@
       <c r="K531" s="18"/>
       <c r="L531" s="14"/>
       <c r="M531" s="14"/>
-      <c r="N531" s="14"/>
+      <c r="N531" s="14">
+        <v>28.4</v>
+      </c>
       <c r="O531" s="14"/>
       <c r="P531" s="14"/>
       <c r="Q531" s="14"/>
@@ -25220,7 +25656,9 @@
       <c r="K537" s="18"/>
       <c r="L537" s="14"/>
       <c r="M537" s="14"/>
-      <c r="N537" s="14"/>
+      <c r="N537" s="14">
+        <v>26.7</v>
+      </c>
       <c r="O537" s="14"/>
       <c r="P537" s="14"/>
       <c r="Q537" s="14"/>
@@ -25254,6 +25692,9 @@
         <v>325</v>
       </c>
       <c r="K538" s="17"/>
+      <c r="N538">
+        <v>32.1</v>
+      </c>
     </row>
     <row r="539" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="14" t="s">
@@ -25285,7 +25726,9 @@
       <c r="K539" s="18"/>
       <c r="L539" s="14"/>
       <c r="M539" s="14"/>
-      <c r="N539" s="14"/>
+      <c r="N539" s="14">
+        <v>29.2</v>
+      </c>
       <c r="O539" s="14"/>
       <c r="P539" s="14"/>
       <c r="Q539" s="14"/>
@@ -25319,6 +25762,9 @@
         <v>325</v>
       </c>
       <c r="K540" s="17"/>
+      <c r="N540">
+        <v>32.200000000000003</v>
+      </c>
     </row>
     <row r="541" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="14" t="s">
@@ -25350,7 +25796,9 @@
       <c r="K541" s="18"/>
       <c r="L541" s="14"/>
       <c r="M541" s="14"/>
-      <c r="N541" s="14"/>
+      <c r="N541" s="14">
+        <v>25.9</v>
+      </c>
       <c r="O541" s="14"/>
       <c r="P541" s="14"/>
       <c r="Q541" s="14"/>
@@ -30088,7 +30536,7 @@
       <c r="K820" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <tableParts count="1">

--- a/data/treeMeasurements/TreeMeasurements.xlsx
+++ b/data/treeMeasurements/TreeMeasurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/treeMeasurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B1193D-BC9B-354E-A5F2-ACCD6CFB538F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066E5356-7E7F-0542-B741-88B4822AB4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="-2480" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4647" uniqueCount="1434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4688" uniqueCount="1435">
   <si>
     <t>tree_ID</t>
   </si>
@@ -4282,9 +4282,6 @@
     <t>need to measure second shoot</t>
   </si>
   <si>
-    <t>newly measured shoot</t>
-  </si>
-  <si>
     <t>apical shoot died, new lateral shoot measured, lateral shoot where the tag is</t>
   </si>
   <si>
@@ -4325,6 +4322,12 @@
   </si>
   <si>
     <t>measured shoot from 2024 is dead, second shoot is measured and newly marked. newly measured shoot was also measured for shoot elongation in 2024. main trunk is still alive and its height is measured on highest lateral bud</t>
+  </si>
+  <si>
+    <t>newly measured shoot;looks dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 trunks, only the "main trunk" can be confirmed as the reference one. </t>
   </si>
 </sst>
 </file>
@@ -4334,11 +4337,32 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4416,12 +4440,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -4452,47 +4482,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5223,28 +5252,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S820"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A447" zoomScale="189" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M453" sqref="M453"/>
+    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O600" sqref="O600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
     <col min="2" max="2" width="5.83203125" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
     <col min="9" max="9" width="20.5" customWidth="1"/>
-    <col min="10" max="11" width="14.33203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="19" style="18" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="0.1640625" customWidth="1"/>
+    <col min="12" max="12" width="18.83203125" style="18" customWidth="1"/>
     <col min="13" max="13" width="25.5" customWidth="1"/>
     <col min="14" max="14" width="17.1640625" customWidth="1"/>
     <col min="15" max="15" width="23" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
     <col min="17" max="17" width="17.83203125" customWidth="1"/>
     <col min="18" max="18" width="25.83203125" customWidth="1"/>
     <col min="19" max="19" width="17.1640625" customWidth="1"/>
@@ -5303,7 +5333,7 @@
         <v>1395</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>1406</v>
@@ -5343,6 +5373,9 @@
       <c r="N2">
         <v>44.5</v>
       </c>
+      <c r="P2">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -5380,7 +5413,9 @@
         <v>47.5</v>
       </c>
       <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="P3">
+        <v>37</v>
+      </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
@@ -5419,6 +5454,9 @@
       <c r="N4">
         <v>61.5</v>
       </c>
+      <c r="P4">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -5456,7 +5494,9 @@
         <v>43.2</v>
       </c>
       <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="P5">
+        <v>37</v>
+      </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -5495,6 +5535,9 @@
       <c r="N6">
         <v>78.5</v>
       </c>
+      <c r="P6">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -5532,7 +5575,9 @@
         <v>62.9</v>
       </c>
       <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="P7">
+        <v>37</v>
+      </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -5571,6 +5616,9 @@
       <c r="N8" s="18">
         <v>49</v>
       </c>
+      <c r="P8">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -5608,7 +5656,9 @@
         <v>79.5</v>
       </c>
       <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="P9">
+        <v>37</v>
+      </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -5647,6 +5697,9 @@
       <c r="N10" s="18">
         <v>54</v>
       </c>
+      <c r="P10">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -5684,7 +5737,9 @@
         <v>46.5</v>
       </c>
       <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="P11">
+        <v>37</v>
+      </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -5717,9 +5772,14 @@
         <v>7</v>
       </c>
       <c r="K12" s="6"/>
-      <c r="L12"/>
+      <c r="L12">
+        <v>7.2</v>
+      </c>
       <c r="N12" s="3">
         <v>56.4</v>
+      </c>
+      <c r="P12">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5750,13 +5810,17 @@
         <v>7</v>
       </c>
       <c r="K13" s="7"/>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3">
+        <v>5.13</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="8">
         <v>47</v>
       </c>
       <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="P13">
+        <v>57</v>
+      </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -5789,9 +5853,14 @@
         <v>7</v>
       </c>
       <c r="K14" s="6"/>
-      <c r="L14"/>
+      <c r="L14">
+        <v>6.29</v>
+      </c>
       <c r="N14" s="9">
         <v>48</v>
+      </c>
+      <c r="P14">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5822,13 +5891,17 @@
         <v>7</v>
       </c>
       <c r="K15" s="7"/>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3">
+        <v>6.27</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15">
         <v>47.9</v>
       </c>
       <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="P15">
+        <v>57</v>
+      </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -5861,9 +5934,14 @@
         <v>7</v>
       </c>
       <c r="K16" s="6"/>
-      <c r="L16"/>
+      <c r="L16">
+        <v>7.04</v>
+      </c>
       <c r="N16" s="9">
         <v>52</v>
+      </c>
+      <c r="P16">
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5902,7 +5980,9 @@
         <v>44.1</v>
       </c>
       <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="P17">
+        <v>37</v>
+      </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -5941,6 +6021,9 @@
       <c r="N18">
         <v>38.200000000000003</v>
       </c>
+      <c r="P18">
+        <v>37</v>
+      </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -5978,7 +6061,9 @@
         <v>48.6</v>
       </c>
       <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="P19">
+        <v>37</v>
+      </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
@@ -6017,6 +6102,9 @@
       <c r="N20">
         <v>51.4</v>
       </c>
+      <c r="P20">
+        <v>37</v>
+      </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -6054,7 +6142,9 @@
         <v>51.5</v>
       </c>
       <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="P21">
+        <v>37</v>
+      </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
@@ -6093,6 +6183,9 @@
       <c r="N22" s="18">
         <v>40.4</v>
       </c>
+      <c r="P22">
+        <v>37</v>
+      </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -6130,7 +6223,9 @@
         <v>67.8</v>
       </c>
       <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="P23">
+        <v>37</v>
+      </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -6169,6 +6264,9 @@
       <c r="N24" s="18">
         <v>62</v>
       </c>
+      <c r="P24">
+        <v>37</v>
+      </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -6206,7 +6304,9 @@
         <v>49.3</v>
       </c>
       <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+      <c r="P25">
+        <v>37</v>
+      </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -6245,6 +6345,9 @@
       <c r="N26" s="18">
         <v>44.2</v>
       </c>
+      <c r="P26">
+        <v>37</v>
+      </c>
     </row>
     <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
@@ -6274,13 +6377,17 @@
         <v>7</v>
       </c>
       <c r="K27" s="7"/>
-      <c r="L27" s="3"/>
+      <c r="L27" s="3">
+        <v>8.3000000000000007</v>
+      </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3">
         <v>39.4</v>
       </c>
       <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
+      <c r="P27">
+        <v>57</v>
+      </c>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
@@ -6313,9 +6420,14 @@
         <v>7</v>
       </c>
       <c r="K28" s="6"/>
-      <c r="L28"/>
+      <c r="L28">
+        <v>9.7899999999999991</v>
+      </c>
       <c r="N28" s="8">
         <v>72</v>
+      </c>
+      <c r="P28">
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6346,17 +6458,21 @@
         <v>7</v>
       </c>
       <c r="K29" s="7"/>
-      <c r="L29" s="3"/>
+      <c r="L29" s="3">
+        <v>8.06</v>
+      </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3">
         <v>66.400000000000006</v>
       </c>
       <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
+      <c r="P29">
+        <v>57</v>
+      </c>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6387,9 +6503,14 @@
         <v>7</v>
       </c>
       <c r="K30" s="6"/>
-      <c r="L30"/>
+      <c r="L30">
+        <v>5.9</v>
+      </c>
       <c r="N30">
         <v>50.6</v>
+      </c>
+      <c r="P30">
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6420,13 +6541,17 @@
         <v>7</v>
       </c>
       <c r="K31" s="7"/>
-      <c r="L31" s="3"/>
+      <c r="L31" s="3">
+        <v>7.55</v>
+      </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3">
         <v>56.5</v>
       </c>
       <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
+      <c r="P31">
+        <v>57</v>
+      </c>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -6465,6 +6590,9 @@
       <c r="N32" s="8">
         <v>46</v>
       </c>
+      <c r="P32">
+        <v>37</v>
+      </c>
     </row>
     <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
@@ -6502,7 +6630,9 @@
         <v>45</v>
       </c>
       <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
+      <c r="P33">
+        <v>37</v>
+      </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -6541,6 +6671,9 @@
       <c r="N34">
         <v>44.5</v>
       </c>
+      <c r="P34">
+        <v>37</v>
+      </c>
     </row>
     <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
@@ -6578,7 +6711,9 @@
         <v>49.4</v>
       </c>
       <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
+      <c r="P35">
+        <v>37</v>
+      </c>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
@@ -6617,6 +6752,9 @@
       <c r="N36">
         <v>44.5</v>
       </c>
+      <c r="P36">
+        <v>37</v>
+      </c>
     </row>
     <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
@@ -6654,7 +6792,9 @@
         <v>47.4</v>
       </c>
       <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
+      <c r="P37">
+        <v>37</v>
+      </c>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
@@ -6693,6 +6833,9 @@
       <c r="N38" s="18">
         <v>50.6</v>
       </c>
+      <c r="P38">
+        <v>37</v>
+      </c>
     </row>
     <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
@@ -6730,7 +6873,9 @@
         <v>50</v>
       </c>
       <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
+      <c r="P39">
+        <v>37</v>
+      </c>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
@@ -6769,6 +6914,9 @@
       <c r="N40" s="18">
         <v>42.6</v>
       </c>
+      <c r="P40">
+        <v>37</v>
+      </c>
     </row>
     <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
@@ -6806,7 +6954,9 @@
         <v>40.6</v>
       </c>
       <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
+      <c r="P41">
+        <v>37</v>
+      </c>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
@@ -6839,9 +6989,14 @@
         <v>7</v>
       </c>
       <c r="K42" s="6"/>
-      <c r="L42"/>
+      <c r="L42">
+        <v>8.19</v>
+      </c>
       <c r="N42">
         <v>51.4</v>
+      </c>
+      <c r="P42">
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6872,13 +7027,17 @@
         <v>7</v>
       </c>
       <c r="K43" s="7"/>
-      <c r="L43" s="3"/>
+      <c r="L43" s="3">
+        <v>3.91</v>
+      </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3">
         <v>27.7</v>
       </c>
       <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
+      <c r="P43">
+        <v>57</v>
+      </c>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
@@ -6911,9 +7070,14 @@
         <v>7</v>
       </c>
       <c r="K44" s="6"/>
-      <c r="L44"/>
+      <c r="L44">
+        <v>8.5500000000000007</v>
+      </c>
       <c r="N44">
         <v>67.099999999999994</v>
+      </c>
+      <c r="P44">
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6944,13 +7108,17 @@
         <v>7</v>
       </c>
       <c r="K45" s="7"/>
-      <c r="L45" s="3"/>
+      <c r="L45" s="3">
+        <v>5.67</v>
+      </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3">
         <v>36.4</v>
       </c>
       <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
+      <c r="P45">
+        <v>57</v>
+      </c>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
@@ -6983,9 +7151,14 @@
         <v>7</v>
       </c>
       <c r="K46" s="6"/>
-      <c r="L46"/>
+      <c r="L46">
+        <v>5.52</v>
+      </c>
       <c r="N46">
         <v>46.1</v>
+      </c>
+      <c r="P46">
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7024,7 +7197,9 @@
         <v>37.4</v>
       </c>
       <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
+      <c r="P47">
+        <v>37</v>
+      </c>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
@@ -7063,6 +7238,9 @@
       <c r="N48">
         <v>44.5</v>
       </c>
+      <c r="P48">
+        <v>37</v>
+      </c>
     </row>
     <row r="49" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
@@ -7100,7 +7278,9 @@
         <v>39.299999999999997</v>
       </c>
       <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
+      <c r="P49">
+        <v>37</v>
+      </c>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
@@ -7139,6 +7319,9 @@
       <c r="N50">
         <v>32.6</v>
       </c>
+      <c r="P50">
+        <v>37</v>
+      </c>
     </row>
     <row r="51" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
@@ -7176,7 +7359,9 @@
         <v>55.4</v>
       </c>
       <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
+      <c r="P51">
+        <v>37</v>
+      </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
@@ -7215,6 +7400,9 @@
       <c r="N52" s="18">
         <v>41.4</v>
       </c>
+      <c r="P52">
+        <v>37</v>
+      </c>
     </row>
     <row r="53" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
@@ -7252,7 +7440,9 @@
         <v>58</v>
       </c>
       <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
+      <c r="P53">
+        <v>37</v>
+      </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
@@ -7291,6 +7481,9 @@
       <c r="N54" s="18">
         <v>49.2</v>
       </c>
+      <c r="P54">
+        <v>37</v>
+      </c>
     </row>
     <row r="55" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
@@ -7328,7 +7521,9 @@
         <v>64.400000000000006</v>
       </c>
       <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
+      <c r="P55">
+        <v>37</v>
+      </c>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
@@ -7367,6 +7562,9 @@
       <c r="N56" s="18">
         <v>46.2</v>
       </c>
+      <c r="P56">
+        <v>37</v>
+      </c>
     </row>
     <row r="57" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
@@ -7396,13 +7594,17 @@
         <v>7</v>
       </c>
       <c r="K57" s="7"/>
-      <c r="L57" s="3"/>
+      <c r="L57" s="3">
+        <v>6.3</v>
+      </c>
       <c r="M57" s="3"/>
       <c r="N57" s="15">
         <v>49.9</v>
       </c>
       <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
+      <c r="P57">
+        <v>57</v>
+      </c>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
@@ -7435,9 +7637,14 @@
         <v>7</v>
       </c>
       <c r="K58" s="6"/>
-      <c r="L58"/>
+      <c r="L58">
+        <v>7.14</v>
+      </c>
       <c r="N58" s="20">
         <v>50</v>
+      </c>
+      <c r="P58">
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7468,13 +7675,17 @@
         <v>7</v>
       </c>
       <c r="K59" s="7"/>
-      <c r="L59" s="3"/>
+      <c r="L59" s="3">
+        <v>7.54</v>
+      </c>
       <c r="M59" s="3"/>
       <c r="N59" s="15">
         <v>52.5</v>
       </c>
       <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
+      <c r="P59">
+        <v>57</v>
+      </c>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
@@ -7507,9 +7718,14 @@
         <v>7</v>
       </c>
       <c r="K60" s="6"/>
-      <c r="L60"/>
+      <c r="L60">
+        <v>5.89</v>
+      </c>
       <c r="N60" s="15">
         <v>56.6</v>
+      </c>
+      <c r="P60">
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7540,13 +7756,17 @@
         <v>7</v>
       </c>
       <c r="K61" s="7"/>
-      <c r="L61" s="3"/>
+      <c r="L61" s="3">
+        <v>6.39</v>
+      </c>
       <c r="M61" s="3"/>
       <c r="N61" s="15">
         <v>43.4</v>
       </c>
       <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
+      <c r="P61">
+        <v>57</v>
+      </c>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
@@ -7585,6 +7805,9 @@
       <c r="N62">
         <v>58.8</v>
       </c>
+      <c r="P62">
+        <v>37</v>
+      </c>
     </row>
     <row r="63" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
@@ -7622,7 +7845,9 @@
         <v>59.1</v>
       </c>
       <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
+      <c r="P63">
+        <v>37</v>
+      </c>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
@@ -7661,6 +7886,9 @@
       <c r="N64">
         <v>42.1</v>
       </c>
+      <c r="P64">
+        <v>37</v>
+      </c>
     </row>
     <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
@@ -7698,7 +7926,9 @@
         <v>68.599999999999994</v>
       </c>
       <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
+      <c r="P65">
+        <v>37</v>
+      </c>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
@@ -7737,6 +7967,9 @@
       <c r="N66">
         <v>42.8</v>
       </c>
+      <c r="P66">
+        <v>37</v>
+      </c>
     </row>
     <row r="67" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
@@ -7774,7 +8007,9 @@
         <v>53.4</v>
       </c>
       <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
+      <c r="P67">
+        <v>37</v>
+      </c>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
@@ -7813,6 +8048,9 @@
       <c r="N68" s="18">
         <v>60.3</v>
       </c>
+      <c r="P68">
+        <v>37</v>
+      </c>
     </row>
     <row r="69" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
@@ -7850,7 +8088,9 @@
         <v>39.4</v>
       </c>
       <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
+      <c r="P69">
+        <v>37</v>
+      </c>
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
@@ -7889,6 +8129,9 @@
       <c r="N70" s="18">
         <v>52.1</v>
       </c>
+      <c r="P70">
+        <v>37</v>
+      </c>
     </row>
     <row r="71" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
@@ -7926,7 +8169,9 @@
         <v>58.9</v>
       </c>
       <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
+      <c r="P71">
+        <v>37</v>
+      </c>
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
@@ -7959,9 +8204,14 @@
         <v>7</v>
       </c>
       <c r="K72" s="6"/>
-      <c r="L72"/>
+      <c r="L72">
+        <v>6.96</v>
+      </c>
       <c r="N72">
         <v>59.5</v>
+      </c>
+      <c r="P72">
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7992,13 +8242,17 @@
         <v>7</v>
       </c>
       <c r="K73" s="7"/>
-      <c r="L73" s="3"/>
+      <c r="L73" s="3">
+        <v>7.3</v>
+      </c>
       <c r="M73" s="3"/>
       <c r="N73" s="3">
         <v>46.5</v>
       </c>
       <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
+      <c r="P73">
+        <v>57</v>
+      </c>
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
       <c r="S73" s="3"/>
@@ -8031,9 +8285,14 @@
         <v>7</v>
       </c>
       <c r="K74" s="6"/>
-      <c r="L74"/>
+      <c r="L74">
+        <v>6.94</v>
+      </c>
       <c r="N74">
         <v>50.9</v>
+      </c>
+      <c r="P74">
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8064,13 +8323,17 @@
         <v>7</v>
       </c>
       <c r="K75" s="7"/>
-      <c r="L75" s="3"/>
+      <c r="L75" s="3">
+        <v>7.19</v>
+      </c>
       <c r="M75" s="3"/>
       <c r="N75" s="3">
         <v>51.5</v>
       </c>
       <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
+      <c r="P75">
+        <v>57</v>
+      </c>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
@@ -8104,13 +8367,16 @@
       </c>
       <c r="K76" s="6"/>
       <c r="L76">
-        <v>7.95</v>
+        <v>6.76</v>
       </c>
       <c r="N76">
         <v>59.6</v>
       </c>
-      <c r="S76" s="39" t="s">
-        <v>1422</v>
+      <c r="P76">
+        <v>57</v>
+      </c>
+      <c r="S76" s="19" t="s">
+        <v>1421</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8149,7 +8415,9 @@
         <v>48.1</v>
       </c>
       <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
+      <c r="P77">
+        <v>37</v>
+      </c>
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
       <c r="S77" s="3"/>
@@ -8188,6 +8456,9 @@
       <c r="N78">
         <v>48.6</v>
       </c>
+      <c r="P78">
+        <v>37</v>
+      </c>
     </row>
     <row r="79" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
@@ -8225,7 +8496,9 @@
         <v>37.5</v>
       </c>
       <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
+      <c r="P79">
+        <v>37</v>
+      </c>
       <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
       <c r="S79" s="3"/>
@@ -8264,6 +8537,9 @@
       <c r="N80">
         <v>33.5</v>
       </c>
+      <c r="P80">
+        <v>37</v>
+      </c>
     </row>
     <row r="81" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
@@ -8301,7 +8577,9 @@
         <v>32.9</v>
       </c>
       <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
+      <c r="P81">
+        <v>37</v>
+      </c>
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
       <c r="S81" s="3"/>
@@ -8340,6 +8618,9 @@
       <c r="N82" s="18">
         <v>38.5</v>
       </c>
+      <c r="P82">
+        <v>37</v>
+      </c>
     </row>
     <row r="83" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
@@ -8377,7 +8658,9 @@
         <v>46.1</v>
       </c>
       <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
+      <c r="P83">
+        <v>37</v>
+      </c>
       <c r="Q83" s="3"/>
       <c r="R83" s="3"/>
       <c r="S83" s="3"/>
@@ -8416,6 +8699,9 @@
       <c r="N84" s="18">
         <v>61</v>
       </c>
+      <c r="P84">
+        <v>37</v>
+      </c>
     </row>
     <row r="85" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
@@ -8453,7 +8739,9 @@
         <v>42.9</v>
       </c>
       <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
+      <c r="P85">
+        <v>37</v>
+      </c>
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
       <c r="S85" s="3"/>
@@ -8492,6 +8780,9 @@
       <c r="N86" s="18">
         <v>64.900000000000006</v>
       </c>
+      <c r="P86">
+        <v>37</v>
+      </c>
     </row>
     <row r="87" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
@@ -8521,13 +8812,17 @@
         <v>7</v>
       </c>
       <c r="K87" s="7"/>
-      <c r="L87" s="3"/>
+      <c r="L87" s="3">
+        <v>6.8</v>
+      </c>
       <c r="M87" s="3"/>
       <c r="N87" s="3">
         <v>42.5</v>
       </c>
       <c r="O87" s="3"/>
-      <c r="P87" s="3"/>
+      <c r="P87">
+        <v>57</v>
+      </c>
       <c r="Q87" s="3"/>
       <c r="R87" s="3"/>
       <c r="S87" s="3"/>
@@ -8560,9 +8855,14 @@
         <v>7</v>
       </c>
       <c r="K88" s="6"/>
-      <c r="L88"/>
+      <c r="L88">
+        <v>7.8</v>
+      </c>
       <c r="N88">
         <v>66.5</v>
+      </c>
+      <c r="P88">
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8593,13 +8893,17 @@
         <v>7</v>
       </c>
       <c r="K89" s="7"/>
-      <c r="L89" s="3"/>
+      <c r="L89" s="3">
+        <v>8.6199999999999992</v>
+      </c>
       <c r="M89" s="3"/>
       <c r="N89" s="3">
         <v>55.9</v>
       </c>
       <c r="O89" s="3"/>
-      <c r="P89" s="3"/>
+      <c r="P89">
+        <v>57</v>
+      </c>
       <c r="Q89" s="3"/>
       <c r="R89" s="3"/>
       <c r="S89" s="3"/>
@@ -8632,9 +8936,14 @@
         <v>7</v>
       </c>
       <c r="K90" s="6"/>
-      <c r="L90"/>
+      <c r="L90">
+        <v>6.58</v>
+      </c>
       <c r="N90">
         <v>43.6</v>
+      </c>
+      <c r="P90">
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8665,13 +8974,17 @@
         <v>7</v>
       </c>
       <c r="K91" s="7"/>
-      <c r="L91" s="3"/>
+      <c r="L91" s="3">
+        <v>7.93</v>
+      </c>
       <c r="M91" s="3"/>
       <c r="N91" s="3">
         <v>71.5</v>
       </c>
       <c r="O91" s="3"/>
-      <c r="P91" s="3"/>
+      <c r="P91">
+        <v>57</v>
+      </c>
       <c r="Q91" s="3"/>
       <c r="R91" s="3"/>
       <c r="S91" s="3"/>
@@ -8710,6 +9023,9 @@
       <c r="N92" s="8">
         <v>53</v>
       </c>
+      <c r="P92">
+        <v>37</v>
+      </c>
     </row>
     <row r="93" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
@@ -8747,7 +9063,9 @@
         <v>58.8</v>
       </c>
       <c r="O93" s="3"/>
-      <c r="P93" s="3"/>
+      <c r="P93">
+        <v>37</v>
+      </c>
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
       <c r="S93" s="3"/>
@@ -8786,6 +9104,9 @@
       <c r="N94" s="8">
         <v>46</v>
       </c>
+      <c r="P94">
+        <v>37</v>
+      </c>
     </row>
     <row r="95" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
@@ -8831,7 +9152,9 @@
       <c r="O95" s="11">
         <v>95.4</v>
       </c>
-      <c r="P95" s="3"/>
+      <c r="P95">
+        <v>37</v>
+      </c>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
@@ -8870,6 +9193,9 @@
       <c r="N96">
         <v>67.2</v>
       </c>
+      <c r="P96">
+        <v>37</v>
+      </c>
     </row>
     <row r="97" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
@@ -8907,7 +9233,9 @@
         <v>82.9</v>
       </c>
       <c r="O97" s="3"/>
-      <c r="P97" s="3"/>
+      <c r="P97">
+        <v>37</v>
+      </c>
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
       <c r="S97" s="3"/>
@@ -8946,6 +9274,9 @@
       <c r="N98" s="18">
         <v>106.8</v>
       </c>
+      <c r="P98">
+        <v>37</v>
+      </c>
     </row>
     <row r="99" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
@@ -8983,7 +9314,9 @@
         <v>104.9</v>
       </c>
       <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
+      <c r="P99">
+        <v>37</v>
+      </c>
       <c r="Q99" s="3"/>
       <c r="R99" s="3"/>
       <c r="S99" s="3"/>
@@ -9022,6 +9355,9 @@
       <c r="N100" s="18">
         <v>108.9</v>
       </c>
+      <c r="P100">
+        <v>37</v>
+      </c>
     </row>
     <row r="101" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
@@ -9059,7 +9395,9 @@
         <v>92.9</v>
       </c>
       <c r="O101" s="3"/>
-      <c r="P101" s="3"/>
+      <c r="P101">
+        <v>37</v>
+      </c>
       <c r="Q101" s="3"/>
       <c r="R101" s="3"/>
       <c r="S101" s="3"/>
@@ -9096,12 +9434,20 @@
         <v>407</v>
       </c>
       <c r="K102" s="6"/>
-      <c r="L102"/>
+      <c r="L102">
+        <v>7.11</v>
+      </c>
+      <c r="M102">
+        <v>6.05</v>
+      </c>
       <c r="N102">
         <v>71.400000000000006</v>
       </c>
       <c r="O102">
         <v>60.3</v>
+      </c>
+      <c r="P102">
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9140,7 +9486,9 @@
         <v>87.1</v>
       </c>
       <c r="O103" s="3"/>
-      <c r="P103" s="3"/>
+      <c r="P103">
+        <v>57</v>
+      </c>
       <c r="Q103" s="3"/>
       <c r="R103" s="3"/>
       <c r="S103" s="3"/>
@@ -9173,9 +9521,14 @@
         <v>407</v>
       </c>
       <c r="K104" s="6"/>
-      <c r="L104"/>
+      <c r="L104">
+        <v>9.33</v>
+      </c>
       <c r="N104">
         <v>99.2</v>
+      </c>
+      <c r="P104">
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9210,15 +9563,21 @@
         <v>407</v>
       </c>
       <c r="K105" s="7"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
+      <c r="L105" s="3">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="M105" s="3">
+        <v>4.7300000000000004</v>
+      </c>
       <c r="N105" s="3">
         <v>45.4</v>
       </c>
       <c r="O105" s="3">
         <v>41.8</v>
       </c>
-      <c r="P105" s="3"/>
+      <c r="P105">
+        <v>57</v>
+      </c>
       <c r="Q105" s="3"/>
       <c r="R105" s="3"/>
       <c r="S105" s="3"/>
@@ -9255,12 +9614,20 @@
         <v>407</v>
       </c>
       <c r="K106" s="6"/>
-      <c r="L106"/>
+      <c r="L106">
+        <v>7.18</v>
+      </c>
+      <c r="M106">
+        <v>5.3</v>
+      </c>
       <c r="N106">
         <v>77.8</v>
       </c>
       <c r="O106">
         <v>42</v>
+      </c>
+      <c r="P106">
+        <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9299,7 +9666,9 @@
         <v>80.3</v>
       </c>
       <c r="O107" s="3"/>
-      <c r="P107" s="3"/>
+      <c r="P107">
+        <v>37</v>
+      </c>
       <c r="Q107" s="3"/>
       <c r="R107" s="3"/>
       <c r="S107" s="3"/>
@@ -9338,6 +9707,9 @@
       <c r="N108">
         <v>53.2</v>
       </c>
+      <c r="P108">
+        <v>37</v>
+      </c>
     </row>
     <row r="109" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
@@ -9375,7 +9747,9 @@
         <v>76.2</v>
       </c>
       <c r="O109" s="3"/>
-      <c r="P109" s="3"/>
+      <c r="P109">
+        <v>37</v>
+      </c>
       <c r="Q109" s="3"/>
       <c r="R109" s="3"/>
       <c r="S109" s="3"/>
@@ -9424,6 +9798,9 @@
       <c r="O110">
         <v>76.3</v>
       </c>
+      <c r="P110">
+        <v>37</v>
+      </c>
     </row>
     <row r="111" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
@@ -9461,7 +9838,9 @@
         <v>49.2</v>
       </c>
       <c r="O111" s="3"/>
-      <c r="P111" s="3"/>
+      <c r="P111">
+        <v>37</v>
+      </c>
       <c r="Q111" s="3"/>
       <c r="R111" s="3"/>
       <c r="S111" s="3"/>
@@ -9500,6 +9879,9 @@
       <c r="N112" s="18">
         <v>117.9</v>
       </c>
+      <c r="P112">
+        <v>37</v>
+      </c>
     </row>
     <row r="113" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
@@ -9537,7 +9919,9 @@
         <v>104.8</v>
       </c>
       <c r="O113" s="3"/>
-      <c r="P113" s="3"/>
+      <c r="P113">
+        <v>37</v>
+      </c>
       <c r="Q113" s="3"/>
       <c r="R113" s="3"/>
       <c r="S113" s="3"/>
@@ -9576,6 +9960,9 @@
       <c r="N114" s="18">
         <v>70.8</v>
       </c>
+      <c r="P114">
+        <v>37</v>
+      </c>
     </row>
     <row r="115" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
@@ -9613,7 +10000,9 @@
         <v>56.5</v>
       </c>
       <c r="O115" s="3"/>
-      <c r="P115" s="3"/>
+      <c r="P115">
+        <v>37</v>
+      </c>
       <c r="Q115" s="3"/>
       <c r="R115" s="3"/>
       <c r="S115" s="3"/>
@@ -9652,6 +10041,9 @@
       <c r="N116" s="18">
         <v>61.6</v>
       </c>
+      <c r="P116">
+        <v>37</v>
+      </c>
     </row>
     <row r="117" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
@@ -9681,13 +10073,17 @@
         <v>407</v>
       </c>
       <c r="K117" s="7"/>
-      <c r="L117" s="3"/>
+      <c r="L117" s="3">
+        <v>6.77</v>
+      </c>
       <c r="M117" s="3"/>
       <c r="N117" s="3">
         <v>56.8</v>
       </c>
       <c r="O117" s="3"/>
-      <c r="P117" s="3"/>
+      <c r="P117">
+        <v>57</v>
+      </c>
       <c r="Q117" s="3"/>
       <c r="R117" s="3"/>
       <c r="S117" s="3"/>
@@ -9720,9 +10116,14 @@
         <v>407</v>
       </c>
       <c r="K118" s="6"/>
-      <c r="L118"/>
+      <c r="L118">
+        <v>8.17</v>
+      </c>
       <c r="N118">
         <v>57.1</v>
+      </c>
+      <c r="P118">
+        <v>57</v>
       </c>
     </row>
     <row r="119" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9757,7 +10158,9 @@
         <v>407</v>
       </c>
       <c r="K119" s="7"/>
-      <c r="L119" s="3"/>
+      <c r="L119" s="3">
+        <v>7.34</v>
+      </c>
       <c r="M119" s="3"/>
       <c r="N119" s="3">
         <v>75.900000000000006</v>
@@ -9765,7 +10168,9 @@
       <c r="O119" s="3">
         <v>58.6</v>
       </c>
-      <c r="P119" s="3"/>
+      <c r="P119">
+        <v>57</v>
+      </c>
       <c r="Q119" s="3"/>
       <c r="R119" s="3"/>
       <c r="S119" s="3"/>
@@ -9798,9 +10203,14 @@
         <v>407</v>
       </c>
       <c r="K120" s="6"/>
-      <c r="L120"/>
+      <c r="L120">
+        <v>10.79</v>
+      </c>
       <c r="N120">
         <v>82.4</v>
+      </c>
+      <c r="P120">
+        <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9831,13 +10241,17 @@
         <v>407</v>
       </c>
       <c r="K121" s="7"/>
-      <c r="L121" s="3"/>
+      <c r="L121" s="3">
+        <v>7.61</v>
+      </c>
       <c r="M121" s="3"/>
       <c r="N121" s="3">
         <v>63.9</v>
       </c>
       <c r="O121" s="3"/>
-      <c r="P121" s="3"/>
+      <c r="P121">
+        <v>57</v>
+      </c>
       <c r="Q121" s="3"/>
       <c r="R121" s="3"/>
       <c r="S121" s="3"/>
@@ -9876,6 +10290,9 @@
       <c r="N122">
         <v>57.5</v>
       </c>
+      <c r="P122">
+        <v>37</v>
+      </c>
     </row>
     <row r="123" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
@@ -9913,7 +10330,9 @@
         <v>64.2</v>
       </c>
       <c r="O123" s="3"/>
-      <c r="P123" s="3"/>
+      <c r="P123">
+        <v>37</v>
+      </c>
       <c r="Q123" s="3"/>
       <c r="R123" s="3"/>
       <c r="S123" s="3"/>
@@ -9952,6 +10371,9 @@
       <c r="N124">
         <v>91.2</v>
       </c>
+      <c r="P124">
+        <v>37</v>
+      </c>
     </row>
     <row r="125" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
@@ -9989,7 +10411,9 @@
         <v>87.3</v>
       </c>
       <c r="O125" s="3"/>
-      <c r="P125" s="3"/>
+      <c r="P125">
+        <v>37</v>
+      </c>
       <c r="Q125" s="3"/>
       <c r="R125" s="3"/>
       <c r="S125" s="3"/>
@@ -10035,6 +10459,9 @@
       <c r="O126">
         <v>43.4</v>
       </c>
+      <c r="P126">
+        <v>37</v>
+      </c>
     </row>
     <row r="127" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
@@ -10072,7 +10499,9 @@
         <v>66.900000000000006</v>
       </c>
       <c r="O127" s="3"/>
-      <c r="P127" s="3"/>
+      <c r="P127">
+        <v>37</v>
+      </c>
       <c r="Q127" s="3"/>
       <c r="R127" s="3"/>
       <c r="S127" s="3"/>
@@ -10111,6 +10540,9 @@
       <c r="N128" s="18">
         <v>69.2</v>
       </c>
+      <c r="P128">
+        <v>37</v>
+      </c>
     </row>
     <row r="129" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
@@ -10148,7 +10580,9 @@
         <v>78.5</v>
       </c>
       <c r="O129" s="3"/>
-      <c r="P129" s="3"/>
+      <c r="P129">
+        <v>37</v>
+      </c>
       <c r="Q129" s="3"/>
       <c r="R129" s="3"/>
       <c r="S129" s="3"/>
@@ -10187,6 +10621,9 @@
       <c r="N130" s="18">
         <v>103.4</v>
       </c>
+      <c r="P130">
+        <v>37</v>
+      </c>
     </row>
     <row r="131" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
@@ -10224,7 +10661,9 @@
         <v>82.4</v>
       </c>
       <c r="O131" s="3"/>
-      <c r="P131" s="3"/>
+      <c r="P131">
+        <v>37</v>
+      </c>
       <c r="Q131" s="3"/>
       <c r="R131" s="3"/>
       <c r="S131" s="3"/>
@@ -10261,12 +10700,20 @@
         <v>407</v>
       </c>
       <c r="K132" s="6"/>
-      <c r="L132"/>
+      <c r="L132">
+        <v>8.08</v>
+      </c>
+      <c r="M132" s="3">
+        <v>4.4400000000000004</v>
+      </c>
       <c r="N132">
         <v>81.900000000000006</v>
       </c>
       <c r="O132" s="8">
         <v>53</v>
+      </c>
+      <c r="P132">
+        <v>57</v>
       </c>
     </row>
     <row r="133" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10301,15 +10748,21 @@
         <v>407</v>
       </c>
       <c r="K133" s="7"/>
-      <c r="L133" s="3"/>
-      <c r="M133" s="3"/>
+      <c r="L133" s="22">
+        <v>8.39</v>
+      </c>
+      <c r="M133" s="3">
+        <v>5.09</v>
+      </c>
       <c r="N133" s="3">
         <v>85.8</v>
       </c>
       <c r="O133" s="3">
         <v>62.1</v>
       </c>
-      <c r="P133" s="3"/>
+      <c r="P133">
+        <v>57</v>
+      </c>
       <c r="Q133" s="3"/>
       <c r="R133" s="3"/>
       <c r="S133" s="3"/>
@@ -10342,9 +10795,14 @@
         <v>407</v>
       </c>
       <c r="K134" s="6"/>
-      <c r="L134"/>
+      <c r="L134">
+        <v>7.52</v>
+      </c>
       <c r="N134">
         <v>72.599999999999994</v>
+      </c>
+      <c r="P134">
+        <v>57</v>
       </c>
     </row>
     <row r="135" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10375,13 +10833,17 @@
         <v>407</v>
       </c>
       <c r="K135" s="7"/>
-      <c r="L135" s="3"/>
+      <c r="L135" s="3">
+        <v>8.0299999999999994</v>
+      </c>
       <c r="M135" s="3"/>
       <c r="N135" s="3">
         <v>70.2</v>
       </c>
       <c r="O135" s="3"/>
-      <c r="P135" s="3"/>
+      <c r="P135">
+        <v>57</v>
+      </c>
       <c r="Q135" s="3"/>
       <c r="R135" s="3"/>
       <c r="S135" s="3"/>
@@ -10418,12 +10880,20 @@
         <v>407</v>
       </c>
       <c r="K136" s="6"/>
-      <c r="L136"/>
+      <c r="L136">
+        <v>5.44</v>
+      </c>
+      <c r="M136" s="36" t="s">
+        <v>1389</v>
+      </c>
       <c r="N136">
         <v>56.4</v>
       </c>
       <c r="O136" s="17" t="s">
         <v>1389</v>
+      </c>
+      <c r="P136">
+        <v>57</v>
       </c>
       <c r="S136" s="17" t="s">
         <v>1414</v>
@@ -10465,7 +10935,9 @@
         <v>75.7</v>
       </c>
       <c r="O137" s="3"/>
-      <c r="P137" s="3"/>
+      <c r="P137">
+        <v>37</v>
+      </c>
       <c r="Q137" s="3"/>
       <c r="R137" s="3"/>
       <c r="S137" s="3"/>
@@ -10511,8 +10983,11 @@
       <c r="N138">
         <v>50.7</v>
       </c>
-      <c r="O138" s="36">
+      <c r="O138">
         <v>54.1</v>
+      </c>
+      <c r="P138">
+        <v>37</v>
       </c>
     </row>
     <row r="139" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10551,7 +11026,9 @@
         <v>65.5</v>
       </c>
       <c r="O139" s="3"/>
-      <c r="P139" s="3"/>
+      <c r="P139">
+        <v>37</v>
+      </c>
       <c r="Q139" s="3"/>
       <c r="R139" s="3"/>
       <c r="S139" s="3"/>
@@ -10600,6 +11077,9 @@
       <c r="O140">
         <v>64</v>
       </c>
+      <c r="P140">
+        <v>37</v>
+      </c>
     </row>
     <row r="141" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
@@ -10637,7 +11117,9 @@
         <v>105.7</v>
       </c>
       <c r="O141" s="3"/>
-      <c r="P141" s="3"/>
+      <c r="P141">
+        <v>37</v>
+      </c>
       <c r="Q141" s="3"/>
       <c r="R141" s="3"/>
       <c r="S141" s="3"/>
@@ -10676,6 +11158,9 @@
       <c r="N142" s="18">
         <v>57.6</v>
       </c>
+      <c r="P142">
+        <v>37</v>
+      </c>
     </row>
     <row r="143" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
@@ -10713,7 +11198,9 @@
         <v>81.5</v>
       </c>
       <c r="O143" s="3"/>
-      <c r="P143" s="3"/>
+      <c r="P143">
+        <v>37</v>
+      </c>
       <c r="Q143" s="3"/>
       <c r="R143" s="3"/>
       <c r="S143" s="3"/>
@@ -10752,6 +11239,9 @@
       <c r="N144" s="18">
         <v>101.6</v>
       </c>
+      <c r="P144">
+        <v>37</v>
+      </c>
     </row>
     <row r="145" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
@@ -10797,7 +11287,9 @@
       <c r="O145" s="3">
         <v>25.3</v>
       </c>
-      <c r="P145" s="3"/>
+      <c r="P145">
+        <v>37</v>
+      </c>
       <c r="Q145" s="3"/>
       <c r="R145" s="3"/>
       <c r="S145" s="3"/>
@@ -10836,6 +11328,9 @@
       <c r="N146" s="18">
         <v>66.7</v>
       </c>
+      <c r="P146">
+        <v>37</v>
+      </c>
     </row>
     <row r="147" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
@@ -10865,13 +11360,17 @@
         <v>407</v>
       </c>
       <c r="K147" s="7"/>
-      <c r="L147" s="3"/>
+      <c r="L147" s="22">
+        <v>11.16</v>
+      </c>
       <c r="M147" s="3"/>
       <c r="N147" s="3">
         <v>136.80000000000001</v>
       </c>
       <c r="O147" s="3"/>
-      <c r="P147" s="3"/>
+      <c r="P147">
+        <v>57</v>
+      </c>
       <c r="Q147" s="3"/>
       <c r="R147" s="3"/>
       <c r="S147" s="3"/>
@@ -10904,9 +11403,14 @@
         <v>407</v>
       </c>
       <c r="K148" s="6"/>
-      <c r="L148"/>
+      <c r="L148" s="22">
+        <v>6.88</v>
+      </c>
       <c r="N148">
         <v>65.900000000000006</v>
+      </c>
+      <c r="P148">
+        <v>57</v>
       </c>
     </row>
     <row r="149" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10937,13 +11441,17 @@
         <v>407</v>
       </c>
       <c r="K149" s="7"/>
-      <c r="L149" s="3"/>
+      <c r="L149" s="22">
+        <v>8.57</v>
+      </c>
       <c r="M149" s="3"/>
       <c r="N149" s="3">
         <v>119.3</v>
       </c>
       <c r="O149" s="3"/>
-      <c r="P149" s="3"/>
+      <c r="P149">
+        <v>57</v>
+      </c>
       <c r="Q149" s="3"/>
       <c r="R149" s="3"/>
       <c r="S149" s="3"/>
@@ -10980,12 +11488,23 @@
         <v>407</v>
       </c>
       <c r="K150" s="6"/>
-      <c r="L150"/>
+      <c r="L150" s="22">
+        <v>6.37</v>
+      </c>
+      <c r="M150" s="36" t="s">
+        <v>1389</v>
+      </c>
       <c r="N150" s="8">
         <v>100</v>
       </c>
       <c r="O150">
         <v>103.9</v>
+      </c>
+      <c r="P150">
+        <v>57</v>
+      </c>
+      <c r="S150" s="36" t="s">
+        <v>1434</v>
       </c>
     </row>
     <row r="151" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11016,13 +11535,17 @@
         <v>407</v>
       </c>
       <c r="K151" s="7"/>
-      <c r="L151" s="3"/>
+      <c r="L151" s="22">
+        <v>8.33</v>
+      </c>
       <c r="M151" s="3"/>
       <c r="N151" s="3">
         <v>71.900000000000006</v>
       </c>
       <c r="O151" s="3"/>
-      <c r="P151" s="3"/>
+      <c r="P151">
+        <v>57</v>
+      </c>
       <c r="Q151" s="3"/>
       <c r="R151" s="3"/>
       <c r="S151" s="3"/>
@@ -11061,6 +11584,9 @@
       <c r="N152">
         <v>98.5</v>
       </c>
+      <c r="P152">
+        <v>37</v>
+      </c>
     </row>
     <row r="153" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
@@ -11098,7 +11624,9 @@
         <v>85.4</v>
       </c>
       <c r="O153" s="3"/>
-      <c r="P153" s="3"/>
+      <c r="P153">
+        <v>37</v>
+      </c>
       <c r="Q153" s="3"/>
       <c r="R153" s="3"/>
       <c r="S153" s="3"/>
@@ -11137,6 +11665,9 @@
       <c r="N154">
         <v>61.2</v>
       </c>
+      <c r="P154">
+        <v>37</v>
+      </c>
     </row>
     <row r="155" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
@@ -11182,7 +11713,9 @@
       <c r="O155" s="3">
         <v>47.2</v>
       </c>
-      <c r="P155" s="3"/>
+      <c r="P155">
+        <v>37</v>
+      </c>
       <c r="Q155" s="3"/>
       <c r="R155" s="3"/>
       <c r="S155" s="3"/>
@@ -11221,6 +11754,9 @@
       <c r="N156">
         <v>129.80000000000001</v>
       </c>
+      <c r="P156">
+        <v>37</v>
+      </c>
     </row>
     <row r="157" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
@@ -11258,7 +11794,9 @@
         <v>90.2</v>
       </c>
       <c r="O157" s="3"/>
-      <c r="P157" s="3"/>
+      <c r="P157">
+        <v>37</v>
+      </c>
       <c r="Q157" s="3"/>
       <c r="R157" s="3"/>
       <c r="S157" s="3"/>
@@ -11297,6 +11835,9 @@
       <c r="N158" s="18">
         <v>69.2</v>
       </c>
+      <c r="P158">
+        <v>37</v>
+      </c>
     </row>
     <row r="159" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
@@ -11334,7 +11875,9 @@
         <v>103.8</v>
       </c>
       <c r="O159" s="3"/>
-      <c r="P159" s="3"/>
+      <c r="P159">
+        <v>37</v>
+      </c>
       <c r="Q159" s="3"/>
       <c r="R159" s="3"/>
       <c r="S159" s="3"/>
@@ -11373,6 +11916,9 @@
       <c r="N160" s="18">
         <v>138</v>
       </c>
+      <c r="P160">
+        <v>37</v>
+      </c>
     </row>
     <row r="161" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
@@ -11410,7 +11956,9 @@
         <v>45.9</v>
       </c>
       <c r="O161" s="3"/>
-      <c r="P161" s="3"/>
+      <c r="P161">
+        <v>37</v>
+      </c>
       <c r="Q161" s="3"/>
       <c r="R161" s="3"/>
       <c r="S161" s="3"/>
@@ -11443,9 +11991,14 @@
         <v>407</v>
       </c>
       <c r="K162" s="6"/>
-      <c r="L162"/>
+      <c r="L162">
+        <v>11.6</v>
+      </c>
       <c r="N162" s="8">
         <v>110</v>
+      </c>
+      <c r="P162">
+        <v>57</v>
       </c>
     </row>
     <row r="163" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11480,15 +12033,21 @@
         <v>407</v>
       </c>
       <c r="K163" s="7"/>
-      <c r="L163" s="3"/>
-      <c r="M163" s="3"/>
+      <c r="L163" s="3">
+        <v>5.45</v>
+      </c>
+      <c r="M163" s="3">
+        <v>4.49</v>
+      </c>
       <c r="N163" s="3">
         <v>62.4</v>
       </c>
       <c r="O163" s="3">
         <v>63.4</v>
       </c>
-      <c r="P163" s="3"/>
+      <c r="P163">
+        <v>57</v>
+      </c>
       <c r="Q163" s="3"/>
       <c r="R163" s="3"/>
       <c r="S163" s="3"/>
@@ -11525,12 +12084,20 @@
         <v>407</v>
       </c>
       <c r="K164" s="6"/>
-      <c r="L164"/>
+      <c r="L164">
+        <v>7.41</v>
+      </c>
+      <c r="M164">
+        <v>6.03</v>
+      </c>
       <c r="N164">
         <v>68.900000000000006</v>
       </c>
       <c r="O164">
         <v>59.9</v>
+      </c>
+      <c r="P164">
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11561,13 +12128,17 @@
         <v>407</v>
       </c>
       <c r="K165" s="7"/>
-      <c r="L165" s="3"/>
+      <c r="L165" s="3">
+        <v>6.36</v>
+      </c>
       <c r="M165" s="3"/>
       <c r="N165" s="3">
         <v>67.3</v>
       </c>
       <c r="O165" s="3"/>
-      <c r="P165" s="3"/>
+      <c r="P165">
+        <v>57</v>
+      </c>
       <c r="Q165" s="3"/>
       <c r="R165" s="3"/>
       <c r="S165" s="3"/>
@@ -11600,9 +12171,14 @@
         <v>407</v>
       </c>
       <c r="K166" s="6"/>
-      <c r="L166"/>
+      <c r="L166">
+        <v>7.11</v>
+      </c>
       <c r="N166">
         <v>50.9</v>
+      </c>
+      <c r="P166">
+        <v>57</v>
       </c>
     </row>
     <row r="167" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11649,7 +12225,9 @@
       <c r="O167" s="3">
         <v>51.8</v>
       </c>
-      <c r="P167" s="3"/>
+      <c r="P167">
+        <v>37</v>
+      </c>
       <c r="Q167" s="3"/>
       <c r="R167" s="3"/>
       <c r="S167" s="3"/>
@@ -11688,6 +12266,9 @@
       <c r="N168">
         <v>62.7</v>
       </c>
+      <c r="P168">
+        <v>37</v>
+      </c>
     </row>
     <row r="169" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
@@ -11733,7 +12314,9 @@
       <c r="O169" s="3">
         <v>95.7</v>
       </c>
-      <c r="P169" s="3"/>
+      <c r="P169">
+        <v>37</v>
+      </c>
       <c r="Q169" s="3"/>
       <c r="R169" s="3"/>
       <c r="S169" s="3"/>
@@ -11772,6 +12355,9 @@
       <c r="N170">
         <v>52.9</v>
       </c>
+      <c r="P170">
+        <v>37</v>
+      </c>
     </row>
     <row r="171" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
@@ -11809,7 +12395,9 @@
         <v>78.5</v>
       </c>
       <c r="O171" s="3"/>
-      <c r="P171" s="3"/>
+      <c r="P171">
+        <v>37</v>
+      </c>
       <c r="Q171" s="3"/>
       <c r="R171" s="3"/>
       <c r="S171" s="3"/>
@@ -11858,6 +12446,9 @@
       <c r="O172">
         <v>43.9</v>
       </c>
+      <c r="P172">
+        <v>37</v>
+      </c>
     </row>
     <row r="173" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
@@ -11895,7 +12486,9 @@
         <v>101.5</v>
       </c>
       <c r="O173" s="3"/>
-      <c r="P173" s="3"/>
+      <c r="P173">
+        <v>37</v>
+      </c>
       <c r="Q173" s="3"/>
       <c r="R173" s="3"/>
       <c r="S173" s="3"/>
@@ -11944,6 +12537,9 @@
       <c r="O174">
         <v>4.9000000000000004</v>
       </c>
+      <c r="P174">
+        <v>37</v>
+      </c>
     </row>
     <row r="175" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
@@ -11981,7 +12577,9 @@
         <v>99.6</v>
       </c>
       <c r="O175" s="3"/>
-      <c r="P175" s="3"/>
+      <c r="P175">
+        <v>37</v>
+      </c>
       <c r="Q175" s="3"/>
       <c r="R175" s="3"/>
       <c r="S175" s="3"/>
@@ -12020,6 +12618,9 @@
       <c r="N176" s="18">
         <v>87.2</v>
       </c>
+      <c r="P176">
+        <v>37</v>
+      </c>
     </row>
     <row r="177" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
@@ -12049,13 +12650,17 @@
         <v>407</v>
       </c>
       <c r="K177" s="7"/>
-      <c r="L177" s="3"/>
+      <c r="L177" s="3">
+        <v>4.83</v>
+      </c>
       <c r="M177" s="3"/>
       <c r="N177" s="3">
         <v>54.9</v>
       </c>
       <c r="O177" s="3"/>
-      <c r="P177" s="3"/>
+      <c r="P177">
+        <v>57</v>
+      </c>
       <c r="Q177" s="3"/>
       <c r="R177" s="3"/>
       <c r="S177" s="3"/>
@@ -12088,9 +12693,14 @@
         <v>407</v>
       </c>
       <c r="K178" s="6"/>
-      <c r="L178"/>
+      <c r="L178">
+        <v>7.72</v>
+      </c>
       <c r="N178">
         <v>56.4</v>
+      </c>
+      <c r="P178">
+        <v>57</v>
       </c>
     </row>
     <row r="179" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12121,13 +12731,17 @@
         <v>407</v>
       </c>
       <c r="K179" s="7"/>
-      <c r="L179" s="3"/>
+      <c r="L179" s="3">
+        <v>10.79</v>
+      </c>
       <c r="M179" s="3"/>
       <c r="N179" s="3">
         <v>90.4</v>
       </c>
       <c r="O179" s="3"/>
-      <c r="P179" s="3"/>
+      <c r="P179">
+        <v>57</v>
+      </c>
       <c r="Q179" s="3"/>
       <c r="R179" s="3"/>
       <c r="S179" s="3"/>
@@ -12160,9 +12774,14 @@
         <v>407</v>
       </c>
       <c r="K180" s="6"/>
-      <c r="L180"/>
+      <c r="L180">
+        <v>6.69</v>
+      </c>
       <c r="N180">
         <v>77.900000000000006</v>
+      </c>
+      <c r="P180">
+        <v>57</v>
       </c>
     </row>
     <row r="181" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12193,13 +12812,17 @@
         <v>407</v>
       </c>
       <c r="K181" s="7"/>
-      <c r="L181" s="3"/>
+      <c r="L181" s="3">
+        <v>5.15</v>
+      </c>
       <c r="M181" s="3"/>
       <c r="N181" s="3">
         <v>50.2</v>
       </c>
       <c r="O181" s="3"/>
-      <c r="P181" s="3"/>
+      <c r="P181">
+        <v>57</v>
+      </c>
       <c r="Q181" s="3"/>
       <c r="R181" s="3"/>
       <c r="S181" s="3"/>
@@ -12238,6 +12861,9 @@
       <c r="N182">
         <v>45.8</v>
       </c>
+      <c r="P182">
+        <v>37</v>
+      </c>
     </row>
     <row r="183" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
@@ -12275,7 +12901,9 @@
         <v>35.4</v>
       </c>
       <c r="O183" s="3"/>
-      <c r="P183" s="3"/>
+      <c r="P183">
+        <v>37</v>
+      </c>
       <c r="Q183" s="3"/>
       <c r="R183" s="3"/>
       <c r="S183" s="3"/>
@@ -12314,6 +12942,9 @@
       <c r="N184" s="8">
         <v>25</v>
       </c>
+      <c r="P184">
+        <v>37</v>
+      </c>
     </row>
     <row r="185" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
@@ -12351,7 +12982,9 @@
         <v>15.3</v>
       </c>
       <c r="O185" s="3"/>
-      <c r="P185" s="3"/>
+      <c r="P185">
+        <v>37</v>
+      </c>
       <c r="Q185" s="3"/>
       <c r="R185" s="3"/>
       <c r="S185" s="3"/>
@@ -12390,6 +13023,9 @@
       <c r="N186">
         <v>36.6</v>
       </c>
+      <c r="P186">
+        <v>37</v>
+      </c>
     </row>
     <row r="187" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
@@ -12427,7 +13063,9 @@
         <v>28.5</v>
       </c>
       <c r="O187" s="3"/>
-      <c r="P187" s="3"/>
+      <c r="P187">
+        <v>37</v>
+      </c>
       <c r="Q187" s="3"/>
       <c r="R187" s="3"/>
       <c r="S187" s="3"/>
@@ -12466,6 +13104,9 @@
       <c r="N188" s="18">
         <v>27.1</v>
       </c>
+      <c r="P188">
+        <v>37</v>
+      </c>
     </row>
     <row r="189" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
@@ -12503,7 +13144,9 @@
         <v>34</v>
       </c>
       <c r="O189" s="3"/>
-      <c r="P189" s="3"/>
+      <c r="P189">
+        <v>37</v>
+      </c>
       <c r="Q189" s="3"/>
       <c r="R189" s="3"/>
       <c r="S189" s="3"/>
@@ -12542,6 +13185,9 @@
       <c r="N190" s="18">
         <v>33.6</v>
       </c>
+      <c r="P190">
+        <v>37</v>
+      </c>
     </row>
     <row r="191" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
@@ -12579,7 +13225,9 @@
         <v>34.200000000000003</v>
       </c>
       <c r="O191" s="3"/>
-      <c r="P191" s="3"/>
+      <c r="P191">
+        <v>37</v>
+      </c>
       <c r="Q191" s="3"/>
       <c r="R191" s="3"/>
       <c r="S191" s="3"/>
@@ -12612,9 +13260,14 @@
         <v>407</v>
       </c>
       <c r="K192" s="6"/>
-      <c r="L192"/>
+      <c r="L192">
+        <v>10.11</v>
+      </c>
       <c r="N192">
         <v>31.8</v>
+      </c>
+      <c r="P192">
+        <v>57</v>
       </c>
     </row>
     <row r="193" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12645,13 +13298,17 @@
         <v>407</v>
       </c>
       <c r="K193" s="7"/>
-      <c r="L193" s="3"/>
+      <c r="L193" s="3">
+        <v>9.91</v>
+      </c>
       <c r="M193" s="3"/>
       <c r="N193" s="3">
         <v>22.7</v>
       </c>
       <c r="O193" s="3"/>
-      <c r="P193" s="3"/>
+      <c r="P193">
+        <v>57</v>
+      </c>
       <c r="Q193" s="3"/>
       <c r="R193" s="3"/>
       <c r="S193" s="3"/>
@@ -12684,9 +13341,14 @@
         <v>407</v>
       </c>
       <c r="K194" s="6"/>
-      <c r="L194"/>
+      <c r="L194">
+        <v>8.8800000000000008</v>
+      </c>
       <c r="N194">
         <v>29.5</v>
+      </c>
+      <c r="P194">
+        <v>57</v>
       </c>
     </row>
     <row r="195" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12717,13 +13379,17 @@
         <v>407</v>
       </c>
       <c r="K195" s="7"/>
-      <c r="L195" s="3"/>
+      <c r="L195" s="3">
+        <v>6.64</v>
+      </c>
       <c r="M195" s="3"/>
       <c r="N195" s="9">
         <v>13</v>
       </c>
       <c r="O195" s="3"/>
-      <c r="P195" s="3"/>
+      <c r="P195">
+        <v>57</v>
+      </c>
       <c r="Q195" s="3"/>
       <c r="R195" s="3"/>
       <c r="S195" s="3"/>
@@ -12756,9 +13422,14 @@
         <v>407</v>
       </c>
       <c r="K196" s="6"/>
-      <c r="L196"/>
+      <c r="L196">
+        <v>11.19</v>
+      </c>
       <c r="N196">
         <v>42.9</v>
+      </c>
+      <c r="P196">
+        <v>57</v>
       </c>
     </row>
     <row r="197" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12797,7 +13468,9 @@
         <v>32.299999999999997</v>
       </c>
       <c r="O197" s="3"/>
-      <c r="P197" s="3"/>
+      <c r="P197">
+        <v>37</v>
+      </c>
       <c r="Q197" s="3"/>
       <c r="R197" s="3"/>
       <c r="S197" s="3"/>
@@ -12836,6 +13509,9 @@
       <c r="N198" s="8">
         <v>36</v>
       </c>
+      <c r="P198">
+        <v>37</v>
+      </c>
     </row>
     <row r="199" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
@@ -12873,7 +13549,9 @@
         <v>33</v>
       </c>
       <c r="O199" s="3"/>
-      <c r="P199" s="3"/>
+      <c r="P199">
+        <v>37</v>
+      </c>
       <c r="Q199" s="3"/>
       <c r="R199" s="3"/>
       <c r="S199" s="3"/>
@@ -12912,6 +13590,9 @@
       <c r="N200">
         <v>23.5</v>
       </c>
+      <c r="P200">
+        <v>37</v>
+      </c>
     </row>
     <row r="201" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
@@ -12949,7 +13630,9 @@
         <v>26</v>
       </c>
       <c r="O201" s="3"/>
-      <c r="P201" s="3"/>
+      <c r="P201">
+        <v>37</v>
+      </c>
       <c r="Q201" s="3"/>
       <c r="R201" s="3"/>
       <c r="S201" s="3"/>
@@ -12988,6 +13671,9 @@
       <c r="N202" s="18">
         <v>40.5</v>
       </c>
+      <c r="P202">
+        <v>37</v>
+      </c>
     </row>
     <row r="203" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
@@ -13025,7 +13711,9 @@
         <v>30.9</v>
       </c>
       <c r="O203" s="3"/>
-      <c r="P203" s="3"/>
+      <c r="P203">
+        <v>37</v>
+      </c>
       <c r="Q203" s="3"/>
       <c r="R203" s="3"/>
       <c r="S203" s="3"/>
@@ -13064,6 +13752,9 @@
       <c r="N204" s="18">
         <v>26.5</v>
       </c>
+      <c r="P204">
+        <v>37</v>
+      </c>
     </row>
     <row r="205" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
@@ -13101,7 +13792,9 @@
         <v>43.8</v>
       </c>
       <c r="O205" s="3"/>
-      <c r="P205" s="3"/>
+      <c r="P205">
+        <v>37</v>
+      </c>
       <c r="Q205" s="3"/>
       <c r="R205" s="3"/>
       <c r="S205" s="3"/>
@@ -13140,6 +13833,9 @@
       <c r="N206" s="18">
         <v>42.4</v>
       </c>
+      <c r="P206">
+        <v>37</v>
+      </c>
     </row>
     <row r="207" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
@@ -13169,13 +13865,17 @@
         <v>407</v>
       </c>
       <c r="K207" s="7"/>
-      <c r="L207" s="3"/>
+      <c r="L207" s="3">
+        <v>7.34</v>
+      </c>
       <c r="M207" s="3"/>
       <c r="N207" s="3">
         <v>17.8</v>
       </c>
       <c r="O207" s="3"/>
-      <c r="P207" s="3"/>
+      <c r="P207">
+        <v>57</v>
+      </c>
       <c r="Q207" s="3"/>
       <c r="R207" s="3"/>
       <c r="S207" s="3"/>
@@ -13208,9 +13908,14 @@
         <v>407</v>
       </c>
       <c r="K208" s="6"/>
-      <c r="L208"/>
+      <c r="L208">
+        <v>10.35</v>
+      </c>
       <c r="N208">
         <v>32.5</v>
+      </c>
+      <c r="P208">
+        <v>57</v>
       </c>
     </row>
     <row r="209" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13241,13 +13946,17 @@
         <v>407</v>
       </c>
       <c r="K209" s="7"/>
-      <c r="L209" s="3"/>
+      <c r="L209" s="3">
+        <v>7.98</v>
+      </c>
       <c r="M209" s="3"/>
       <c r="N209" s="3">
         <v>23.9</v>
       </c>
       <c r="O209" s="3"/>
-      <c r="P209" s="3"/>
+      <c r="P209">
+        <v>57</v>
+      </c>
       <c r="Q209" s="3"/>
       <c r="R209" s="3"/>
       <c r="S209" s="3"/>
@@ -13280,9 +13989,14 @@
         <v>407</v>
       </c>
       <c r="K210" s="6"/>
-      <c r="L210"/>
+      <c r="L210">
+        <v>13.24</v>
+      </c>
       <c r="N210" s="8">
         <v>41</v>
+      </c>
+      <c r="P210">
+        <v>57</v>
       </c>
     </row>
     <row r="211" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13313,13 +14027,17 @@
         <v>407</v>
       </c>
       <c r="K211" s="7"/>
-      <c r="L211" s="3"/>
+      <c r="L211" s="3">
+        <v>9.61</v>
+      </c>
       <c r="M211" s="3"/>
       <c r="N211" s="3">
         <v>31.7</v>
       </c>
       <c r="O211" s="3"/>
-      <c r="P211" s="3"/>
+      <c r="P211">
+        <v>57</v>
+      </c>
       <c r="Q211" s="3"/>
       <c r="R211" s="3"/>
       <c r="S211" s="3"/>
@@ -13358,6 +14076,9 @@
       <c r="N212">
         <v>32.799999999999997</v>
       </c>
+      <c r="P212">
+        <v>37</v>
+      </c>
     </row>
     <row r="213" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
@@ -13395,7 +14116,9 @@
         <v>28</v>
       </c>
       <c r="O213" s="3"/>
-      <c r="P213" s="3"/>
+      <c r="P213">
+        <v>37</v>
+      </c>
       <c r="Q213" s="3"/>
       <c r="R213" s="3"/>
       <c r="S213" s="3"/>
@@ -13434,6 +14157,9 @@
       <c r="N214">
         <v>24.8</v>
       </c>
+      <c r="P214">
+        <v>37</v>
+      </c>
     </row>
     <row r="215" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
@@ -13471,7 +14197,9 @@
         <v>27.2</v>
       </c>
       <c r="O215" s="3"/>
-      <c r="P215" s="3"/>
+      <c r="P215">
+        <v>37</v>
+      </c>
       <c r="Q215" s="3"/>
       <c r="R215" s="3"/>
       <c r="S215" s="3"/>
@@ -13510,6 +14238,9 @@
       <c r="N216">
         <v>33.799999999999997</v>
       </c>
+      <c r="P216">
+        <v>37</v>
+      </c>
     </row>
     <row r="217" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
@@ -13547,7 +14278,9 @@
         <v>19.600000000000001</v>
       </c>
       <c r="O217" s="3"/>
-      <c r="P217" s="3"/>
+      <c r="P217">
+        <v>37</v>
+      </c>
       <c r="Q217" s="3"/>
       <c r="R217" s="3"/>
       <c r="S217" s="3"/>
@@ -13586,6 +14319,9 @@
       <c r="N218" s="18">
         <v>30.6</v>
       </c>
+      <c r="P218">
+        <v>37</v>
+      </c>
     </row>
     <row r="219" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
@@ -13623,7 +14359,9 @@
         <v>18.600000000000001</v>
       </c>
       <c r="O219" s="3"/>
-      <c r="P219" s="3"/>
+      <c r="P219">
+        <v>37</v>
+      </c>
       <c r="Q219" s="3"/>
       <c r="R219" s="3"/>
       <c r="S219" s="3"/>
@@ -13662,6 +14400,9 @@
       <c r="N220" s="18">
         <v>38.700000000000003</v>
       </c>
+      <c r="P220">
+        <v>37</v>
+      </c>
     </row>
     <row r="221" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
@@ -13699,7 +14440,9 @@
         <v>32.6</v>
       </c>
       <c r="O221" s="3"/>
-      <c r="P221" s="3"/>
+      <c r="P221">
+        <v>37</v>
+      </c>
       <c r="Q221" s="3"/>
       <c r="R221" s="3"/>
       <c r="S221" s="3"/>
@@ -13732,9 +14475,14 @@
         <v>407</v>
       </c>
       <c r="K222" s="6"/>
-      <c r="L222"/>
+      <c r="L222">
+        <v>9.43</v>
+      </c>
       <c r="N222">
         <v>30.4</v>
+      </c>
+      <c r="P222">
+        <v>57</v>
       </c>
     </row>
     <row r="223" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13765,13 +14513,17 @@
         <v>407</v>
       </c>
       <c r="K223" s="7"/>
-      <c r="L223" s="3"/>
+      <c r="L223" s="3">
+        <v>9.26</v>
+      </c>
       <c r="M223" s="3"/>
       <c r="N223" s="3">
         <v>31.2</v>
       </c>
       <c r="O223" s="3"/>
-      <c r="P223" s="3"/>
+      <c r="P223">
+        <v>57</v>
+      </c>
       <c r="Q223" s="3"/>
       <c r="R223" s="3"/>
       <c r="S223" s="3"/>
@@ -13804,9 +14556,14 @@
         <v>407</v>
       </c>
       <c r="K224" s="6"/>
-      <c r="L224"/>
+      <c r="L224">
+        <v>7.54</v>
+      </c>
       <c r="N224">
         <v>29.3</v>
+      </c>
+      <c r="P224">
+        <v>57</v>
       </c>
     </row>
     <row r="225" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13837,13 +14594,17 @@
         <v>407</v>
       </c>
       <c r="K225" s="7"/>
-      <c r="L225" s="3"/>
+      <c r="L225" s="3">
+        <v>9.83</v>
+      </c>
       <c r="M225" s="3"/>
       <c r="N225" s="3">
         <v>25.4</v>
       </c>
       <c r="O225" s="3"/>
-      <c r="P225" s="3"/>
+      <c r="P225">
+        <v>57</v>
+      </c>
       <c r="Q225" s="3"/>
       <c r="R225" s="3"/>
       <c r="S225" s="3"/>
@@ -13876,9 +14637,14 @@
         <v>407</v>
       </c>
       <c r="K226" s="6"/>
-      <c r="L226"/>
+      <c r="L226">
+        <v>7.17</v>
+      </c>
       <c r="N226">
         <v>20.8</v>
+      </c>
+      <c r="P226">
+        <v>57</v>
       </c>
     </row>
     <row r="227" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13917,7 +14683,9 @@
         <v>32.5</v>
       </c>
       <c r="O227" s="3"/>
-      <c r="P227" s="3"/>
+      <c r="P227">
+        <v>37</v>
+      </c>
       <c r="Q227" s="3"/>
       <c r="R227" s="3"/>
       <c r="S227" s="3"/>
@@ -13956,6 +14724,9 @@
       <c r="N228">
         <v>29.6</v>
       </c>
+      <c r="P228">
+        <v>37</v>
+      </c>
     </row>
     <row r="229" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
@@ -13993,7 +14764,9 @@
         <v>24.2</v>
       </c>
       <c r="O229" s="3"/>
-      <c r="P229" s="3"/>
+      <c r="P229">
+        <v>37</v>
+      </c>
       <c r="Q229" s="3"/>
       <c r="R229" s="3"/>
       <c r="S229" s="3"/>
@@ -14032,6 +14805,9 @@
       <c r="N230">
         <v>24.1</v>
       </c>
+      <c r="P230">
+        <v>37</v>
+      </c>
     </row>
     <row r="231" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
@@ -14069,7 +14845,9 @@
         <v>40.200000000000003</v>
       </c>
       <c r="O231" s="3"/>
-      <c r="P231" s="3"/>
+      <c r="P231">
+        <v>37</v>
+      </c>
       <c r="Q231" s="3"/>
       <c r="R231" s="3"/>
       <c r="S231" s="3"/>
@@ -14108,6 +14886,9 @@
       <c r="N232" s="18">
         <v>23</v>
       </c>
+      <c r="P232">
+        <v>37</v>
+      </c>
     </row>
     <row r="233" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
@@ -14145,7 +14926,9 @@
         <v>26.4</v>
       </c>
       <c r="O233" s="3"/>
-      <c r="P233" s="3"/>
+      <c r="P233">
+        <v>37</v>
+      </c>
       <c r="Q233" s="3"/>
       <c r="R233" s="3"/>
       <c r="S233" s="3"/>
@@ -14184,6 +14967,9 @@
       <c r="N234" s="18">
         <v>22.9</v>
       </c>
+      <c r="P234">
+        <v>37</v>
+      </c>
     </row>
     <row r="235" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
@@ -14221,7 +15007,9 @@
         <v>37.9</v>
       </c>
       <c r="O235" s="3"/>
-      <c r="P235" s="3"/>
+      <c r="P235">
+        <v>37</v>
+      </c>
       <c r="Q235" s="3"/>
       <c r="R235" s="3"/>
       <c r="S235" s="3"/>
@@ -14260,6 +15048,9 @@
       <c r="N236" s="18">
         <v>36.4</v>
       </c>
+      <c r="P236">
+        <v>37</v>
+      </c>
     </row>
     <row r="237" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
@@ -14289,13 +15080,17 @@
         <v>407</v>
       </c>
       <c r="K237" s="7"/>
-      <c r="L237" s="3"/>
+      <c r="L237" s="3">
+        <v>6.8</v>
+      </c>
       <c r="M237" s="3"/>
       <c r="N237" s="9">
         <v>25</v>
       </c>
       <c r="O237" s="3"/>
-      <c r="P237" s="3"/>
+      <c r="P237">
+        <v>57</v>
+      </c>
       <c r="Q237" s="3"/>
       <c r="R237" s="3"/>
       <c r="S237" s="3"/>
@@ -14328,9 +15123,14 @@
         <v>407</v>
       </c>
       <c r="K238" s="6"/>
-      <c r="L238"/>
+      <c r="L238">
+        <v>9.0399999999999991</v>
+      </c>
       <c r="N238">
         <v>37.9</v>
+      </c>
+      <c r="P238">
+        <v>57</v>
       </c>
     </row>
     <row r="239" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14361,13 +15161,17 @@
         <v>407</v>
       </c>
       <c r="K239" s="7"/>
-      <c r="L239" s="3"/>
+      <c r="L239" s="3">
+        <v>8.58</v>
+      </c>
       <c r="M239" s="3"/>
       <c r="N239" s="3">
         <v>38.200000000000003</v>
       </c>
       <c r="O239" s="3"/>
-      <c r="P239" s="3"/>
+      <c r="P239">
+        <v>57</v>
+      </c>
       <c r="Q239" s="3"/>
       <c r="R239" s="3"/>
       <c r="S239" s="3"/>
@@ -14400,9 +15204,14 @@
         <v>407</v>
       </c>
       <c r="K240" s="6"/>
-      <c r="L240"/>
+      <c r="L240">
+        <v>7.22</v>
+      </c>
       <c r="N240">
         <v>27.9</v>
+      </c>
+      <c r="P240">
+        <v>57</v>
       </c>
     </row>
     <row r="241" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14433,13 +15242,17 @@
         <v>407</v>
       </c>
       <c r="K241" s="7"/>
-      <c r="L241" s="3"/>
+      <c r="L241" s="3">
+        <v>10.4</v>
+      </c>
       <c r="M241" s="3"/>
       <c r="N241" s="3">
         <v>32.700000000000003</v>
       </c>
       <c r="O241" s="3"/>
-      <c r="P241" s="3"/>
+      <c r="P241">
+        <v>57</v>
+      </c>
       <c r="Q241" s="3"/>
       <c r="R241" s="3"/>
       <c r="S241" s="3"/>
@@ -14478,6 +15291,9 @@
       <c r="N242">
         <v>26.8</v>
       </c>
+      <c r="P242">
+        <v>37</v>
+      </c>
     </row>
     <row r="243" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
@@ -14515,7 +15331,9 @@
         <v>38.799999999999997</v>
       </c>
       <c r="O243" s="3"/>
-      <c r="P243" s="3"/>
+      <c r="P243">
+        <v>37</v>
+      </c>
       <c r="Q243" s="3"/>
       <c r="R243" s="3"/>
       <c r="S243" s="3"/>
@@ -14554,6 +15372,9 @@
       <c r="N244">
         <v>27.4</v>
       </c>
+      <c r="P244">
+        <v>37</v>
+      </c>
     </row>
     <row r="245" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
@@ -14591,7 +15412,9 @@
         <v>22.4</v>
       </c>
       <c r="O245" s="3"/>
-      <c r="P245" s="3"/>
+      <c r="P245">
+        <v>37</v>
+      </c>
       <c r="Q245" s="3"/>
       <c r="R245" s="3"/>
       <c r="S245" s="11" t="s">
@@ -14632,6 +15455,9 @@
       <c r="N246">
         <v>31.1</v>
       </c>
+      <c r="P246">
+        <v>37</v>
+      </c>
     </row>
     <row r="247" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
@@ -14669,7 +15495,9 @@
         <v>40.299999999999997</v>
       </c>
       <c r="O247" s="3"/>
-      <c r="P247" s="3"/>
+      <c r="P247">
+        <v>37</v>
+      </c>
       <c r="Q247" s="3"/>
       <c r="R247" s="3"/>
       <c r="S247" s="3"/>
@@ -14708,6 +15536,9 @@
       <c r="N248" s="18">
         <v>42.8</v>
       </c>
+      <c r="P248">
+        <v>37</v>
+      </c>
     </row>
     <row r="249" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
@@ -14745,7 +15576,9 @@
         <v>23.4</v>
       </c>
       <c r="O249" s="3"/>
-      <c r="P249" s="3"/>
+      <c r="P249">
+        <v>37</v>
+      </c>
       <c r="Q249" s="3"/>
       <c r="R249" s="3"/>
       <c r="S249" s="3"/>
@@ -14784,6 +15617,9 @@
       <c r="N250" s="18">
         <v>42.4</v>
       </c>
+      <c r="P250">
+        <v>37</v>
+      </c>
     </row>
     <row r="251" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
@@ -14821,7 +15657,9 @@
         <v>24</v>
       </c>
       <c r="O251" s="3"/>
-      <c r="P251" s="3"/>
+      <c r="P251">
+        <v>37</v>
+      </c>
       <c r="Q251" s="3"/>
       <c r="R251" s="3"/>
       <c r="S251" s="3"/>
@@ -14854,9 +15692,14 @@
         <v>407</v>
       </c>
       <c r="K252" s="6"/>
-      <c r="L252"/>
+      <c r="L252" s="22">
+        <v>6.99</v>
+      </c>
       <c r="N252">
         <v>23.7</v>
+      </c>
+      <c r="P252">
+        <v>57</v>
       </c>
     </row>
     <row r="253" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14887,13 +15730,17 @@
         <v>407</v>
       </c>
       <c r="K253" s="7"/>
-      <c r="L253" s="3"/>
+      <c r="L253" s="22">
+        <v>10.32</v>
+      </c>
       <c r="M253" s="3"/>
       <c r="N253" s="3">
         <v>36.4</v>
       </c>
       <c r="O253" s="3"/>
-      <c r="P253" s="3"/>
+      <c r="P253">
+        <v>57</v>
+      </c>
       <c r="Q253" s="3"/>
       <c r="R253" s="3"/>
       <c r="S253" s="3"/>
@@ -14926,9 +15773,14 @@
         <v>407</v>
       </c>
       <c r="K254" s="6"/>
-      <c r="L254"/>
+      <c r="L254" s="22">
+        <v>9.89</v>
+      </c>
       <c r="N254">
         <v>29.5</v>
+      </c>
+      <c r="P254">
+        <v>57</v>
       </c>
     </row>
     <row r="255" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14959,13 +15811,17 @@
         <v>407</v>
       </c>
       <c r="K255" s="7"/>
-      <c r="L255" s="3"/>
+      <c r="L255" s="22">
+        <v>8.5399999999999991</v>
+      </c>
       <c r="M255" s="3"/>
       <c r="N255" s="3">
         <v>28.2</v>
       </c>
       <c r="O255" s="3"/>
-      <c r="P255" s="3"/>
+      <c r="P255">
+        <v>57</v>
+      </c>
       <c r="Q255" s="3"/>
       <c r="R255" s="3"/>
       <c r="S255" s="3"/>
@@ -14998,9 +15854,14 @@
         <v>407</v>
       </c>
       <c r="K256" s="6"/>
-      <c r="L256"/>
+      <c r="L256" s="22">
+        <v>10.32</v>
+      </c>
       <c r="N256" s="18">
         <v>25</v>
+      </c>
+      <c r="P256">
+        <v>57</v>
       </c>
     </row>
     <row r="257" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15039,7 +15900,9 @@
         <v>35</v>
       </c>
       <c r="O257" s="3"/>
-      <c r="P257" s="3"/>
+      <c r="P257">
+        <v>37</v>
+      </c>
       <c r="Q257" s="3"/>
       <c r="R257" s="3"/>
       <c r="S257" s="3"/>
@@ -15078,6 +15941,9 @@
       <c r="N258" s="8">
         <v>30</v>
       </c>
+      <c r="P258">
+        <v>37</v>
+      </c>
     </row>
     <row r="259" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
@@ -15115,7 +15981,9 @@
         <v>34.1</v>
       </c>
       <c r="O259" s="3"/>
-      <c r="P259" s="3"/>
+      <c r="P259">
+        <v>37</v>
+      </c>
       <c r="Q259" s="3"/>
       <c r="R259" s="3"/>
       <c r="S259" s="3"/>
@@ -15154,6 +16022,9 @@
       <c r="N260">
         <v>33.799999999999997</v>
       </c>
+      <c r="P260">
+        <v>37</v>
+      </c>
     </row>
     <row r="261" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
@@ -15191,7 +16062,9 @@
         <v>33.9</v>
       </c>
       <c r="O261" s="3"/>
-      <c r="P261" s="3"/>
+      <c r="P261">
+        <v>37</v>
+      </c>
       <c r="Q261" s="3"/>
       <c r="R261" s="3"/>
       <c r="S261" s="3"/>
@@ -15230,6 +16103,9 @@
       <c r="N262" s="18">
         <v>30.6</v>
       </c>
+      <c r="P262">
+        <v>37</v>
+      </c>
     </row>
     <row r="263" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
@@ -15267,7 +16143,9 @@
         <v>25.8</v>
       </c>
       <c r="O263" s="3"/>
-      <c r="P263" s="3"/>
+      <c r="P263">
+        <v>37</v>
+      </c>
       <c r="Q263" s="3"/>
       <c r="R263" s="3"/>
       <c r="S263" s="3"/>
@@ -15306,6 +16184,9 @@
       <c r="N264" s="21">
         <v>32.4</v>
       </c>
+      <c r="P264">
+        <v>37</v>
+      </c>
     </row>
     <row r="265" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
@@ -15343,7 +16224,9 @@
         <v>40.6</v>
       </c>
       <c r="O265" s="3"/>
-      <c r="P265" s="3"/>
+      <c r="P265">
+        <v>37</v>
+      </c>
       <c r="Q265" s="3"/>
       <c r="R265" s="3"/>
       <c r="S265" s="3"/>
@@ -15382,6 +16265,9 @@
       <c r="N266" s="18">
         <v>39.799999999999997</v>
       </c>
+      <c r="P266">
+        <v>37</v>
+      </c>
     </row>
     <row r="267" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
@@ -15411,13 +16297,17 @@
         <v>407</v>
       </c>
       <c r="K267" s="7"/>
-      <c r="L267" s="3"/>
+      <c r="L267">
+        <v>10.01</v>
+      </c>
       <c r="M267" s="3"/>
       <c r="N267" s="3">
         <v>31.8</v>
       </c>
       <c r="O267" s="3"/>
-      <c r="P267" s="3"/>
+      <c r="P267">
+        <v>57</v>
+      </c>
       <c r="Q267" s="3"/>
       <c r="R267" s="3"/>
       <c r="S267" s="3"/>
@@ -15450,9 +16340,14 @@
         <v>407</v>
       </c>
       <c r="K268" s="6"/>
-      <c r="L268"/>
+      <c r="L268" s="3">
+        <v>8.17</v>
+      </c>
       <c r="N268" s="8">
         <v>30</v>
+      </c>
+      <c r="P268">
+        <v>57</v>
       </c>
     </row>
     <row r="269" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15483,13 +16378,17 @@
         <v>407</v>
       </c>
       <c r="K269" s="7"/>
-      <c r="L269" s="3"/>
+      <c r="L269">
+        <v>7.91</v>
+      </c>
       <c r="M269" s="3"/>
       <c r="N269" s="3">
         <v>25.6</v>
       </c>
       <c r="O269" s="3"/>
-      <c r="P269" s="3"/>
+      <c r="P269">
+        <v>57</v>
+      </c>
       <c r="Q269" s="3"/>
       <c r="R269" s="3"/>
       <c r="S269" s="3"/>
@@ -15522,9 +16421,14 @@
         <v>407</v>
       </c>
       <c r="K270" s="6"/>
-      <c r="L270"/>
+      <c r="L270" s="3">
+        <v>9.16</v>
+      </c>
       <c r="N270">
         <v>33.4</v>
+      </c>
+      <c r="P270">
+        <v>57</v>
       </c>
     </row>
     <row r="271" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15555,13 +16459,17 @@
         <v>407</v>
       </c>
       <c r="K271" s="7"/>
-      <c r="L271" s="3"/>
+      <c r="L271">
+        <v>8.1199999999999992</v>
+      </c>
       <c r="M271" s="3"/>
       <c r="N271" s="3">
         <v>17.100000000000001</v>
       </c>
       <c r="O271" s="3"/>
-      <c r="P271" s="3"/>
+      <c r="P271">
+        <v>57</v>
+      </c>
       <c r="Q271" s="3"/>
       <c r="R271" s="3"/>
       <c r="S271" s="3"/>
@@ -15600,7 +16508,10 @@
       <c r="N272">
         <v>44</v>
       </c>
-      <c r="S272" s="33" t="s">
+      <c r="P272">
+        <v>37</v>
+      </c>
+      <c r="S272" s="11" t="s">
         <v>1390</v>
       </c>
     </row>
@@ -15640,7 +16551,9 @@
         <v>65.099999999999994</v>
       </c>
       <c r="O273" s="3"/>
-      <c r="P273" s="3"/>
+      <c r="P273">
+        <v>37</v>
+      </c>
       <c r="Q273" s="3"/>
       <c r="R273" s="3"/>
       <c r="S273" s="3"/>
@@ -15679,6 +16592,9 @@
       <c r="N274">
         <v>39.9</v>
       </c>
+      <c r="P274">
+        <v>37</v>
+      </c>
     </row>
     <row r="275" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
@@ -15716,10 +16632,12 @@
         <v>33</v>
       </c>
       <c r="O275" s="3"/>
-      <c r="P275" s="3"/>
+      <c r="P275">
+        <v>37</v>
+      </c>
       <c r="Q275" s="3"/>
       <c r="R275" s="3"/>
-      <c r="S275" s="33" t="s">
+      <c r="S275" s="11" t="s">
         <v>1390</v>
       </c>
     </row>
@@ -15757,7 +16675,10 @@
       <c r="N276" s="8">
         <v>39</v>
       </c>
-      <c r="S276" s="33" t="s">
+      <c r="P276">
+        <v>37</v>
+      </c>
+      <c r="S276" s="11" t="s">
         <v>1390</v>
       </c>
     </row>
@@ -15797,7 +16718,9 @@
         <v>45.2</v>
       </c>
       <c r="O277" s="3"/>
-      <c r="P277" s="3"/>
+      <c r="P277">
+        <v>37</v>
+      </c>
       <c r="Q277" s="3"/>
       <c r="R277" s="3"/>
       <c r="S277" s="3"/>
@@ -15836,6 +16759,9 @@
       <c r="N278" s="18">
         <v>41</v>
       </c>
+      <c r="P278">
+        <v>37</v>
+      </c>
     </row>
     <row r="279" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
@@ -15873,14 +16799,16 @@
         <v>59.6</v>
       </c>
       <c r="O279" s="3"/>
-      <c r="P279" s="3"/>
+      <c r="P279">
+        <v>37</v>
+      </c>
       <c r="Q279" s="3" t="s">
         <v>1410</v>
       </c>
       <c r="R279" s="3" t="s">
-        <v>1431</v>
-      </c>
-      <c r="S279" s="34" t="s">
+        <v>1430</v>
+      </c>
+      <c r="S279" s="12" t="s">
         <v>1391</v>
       </c>
     </row>
@@ -15918,6 +16846,9 @@
       <c r="N280" s="18">
         <v>32.1</v>
       </c>
+      <c r="P280">
+        <v>37</v>
+      </c>
     </row>
     <row r="281" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
@@ -15955,7 +16886,9 @@
         <v>62.1</v>
       </c>
       <c r="O281" s="3"/>
-      <c r="P281" s="3"/>
+      <c r="P281">
+        <v>37</v>
+      </c>
       <c r="Q281" s="3"/>
       <c r="R281" s="3"/>
       <c r="S281" s="3"/>
@@ -15994,13 +16927,16 @@
       <c r="N282">
         <v>23.6</v>
       </c>
+      <c r="P282">
+        <v>57</v>
+      </c>
       <c r="Q282" s="19" t="s">
         <v>1410</v>
       </c>
-      <c r="R282" s="31" t="s">
+      <c r="R282" s="30" t="s">
         <v>1410</v>
       </c>
-      <c r="S282" s="32" t="s">
+      <c r="S282" s="17" t="s">
         <v>1418</v>
       </c>
     </row>
@@ -16032,13 +16968,17 @@
         <v>318</v>
       </c>
       <c r="K283" s="7"/>
-      <c r="L283" s="3"/>
+      <c r="L283" s="3" t="s">
+        <v>1389</v>
+      </c>
       <c r="M283" s="3"/>
       <c r="N283" s="3" t="s">
         <v>1389</v>
       </c>
       <c r="O283" s="3"/>
-      <c r="P283" s="3"/>
+      <c r="P283">
+        <v>57</v>
+      </c>
       <c r="Q283" s="3"/>
       <c r="R283" s="3"/>
       <c r="S283" s="3" t="s">
@@ -16073,9 +17013,14 @@
         <v>318</v>
       </c>
       <c r="K284" s="6"/>
-      <c r="L284"/>
+      <c r="L284">
+        <v>4.7300000000000004</v>
+      </c>
       <c r="N284">
         <v>39.299999999999997</v>
+      </c>
+      <c r="P284">
+        <v>57</v>
       </c>
     </row>
     <row r="285" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16106,13 +17051,17 @@
         <v>318</v>
       </c>
       <c r="K285" s="7"/>
-      <c r="L285" s="3"/>
+      <c r="L285" s="3">
+        <v>3.32</v>
+      </c>
       <c r="M285" s="3"/>
       <c r="N285" s="3">
         <v>32.5</v>
       </c>
       <c r="O285" s="3"/>
-      <c r="P285" s="3"/>
+      <c r="P285">
+        <v>57</v>
+      </c>
       <c r="Q285" s="3"/>
       <c r="R285" s="3"/>
       <c r="S285" s="3"/>
@@ -16145,9 +17094,14 @@
         <v>318</v>
       </c>
       <c r="K286" s="6"/>
-      <c r="L286"/>
+      <c r="L286">
+        <v>5.13</v>
+      </c>
       <c r="N286">
         <v>63.2</v>
+      </c>
+      <c r="P286">
+        <v>57</v>
       </c>
     </row>
     <row r="287" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16186,7 +17140,9 @@
         <v>42.3</v>
       </c>
       <c r="O287" s="3"/>
-      <c r="P287" s="3"/>
+      <c r="P287">
+        <v>37</v>
+      </c>
       <c r="Q287" s="3"/>
       <c r="R287" s="3"/>
       <c r="S287" s="3"/>
@@ -16225,6 +17181,9 @@
       <c r="N288">
         <v>29.4</v>
       </c>
+      <c r="P288">
+        <v>37</v>
+      </c>
     </row>
     <row r="289" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
@@ -16262,7 +17221,9 @@
         <v>48.9</v>
       </c>
       <c r="O289" s="3"/>
-      <c r="P289" s="3"/>
+      <c r="P289">
+        <v>37</v>
+      </c>
       <c r="Q289" s="3"/>
       <c r="R289" s="3"/>
       <c r="S289" s="3"/>
@@ -16301,6 +17262,9 @@
       <c r="N290">
         <v>50.3</v>
       </c>
+      <c r="P290">
+        <v>37</v>
+      </c>
     </row>
     <row r="291" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
@@ -16338,14 +17302,16 @@
         <v>47.8</v>
       </c>
       <c r="O291" s="3"/>
-      <c r="P291" s="3"/>
+      <c r="P291">
+        <v>37</v>
+      </c>
       <c r="Q291" s="3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="R291" s="3" t="s">
-        <v>1431</v>
-      </c>
-      <c r="S291" s="34" t="s">
+        <v>1430</v>
+      </c>
+      <c r="S291" s="12" t="s">
         <v>1391</v>
       </c>
     </row>
@@ -16377,8 +17343,14 @@
         <v>318</v>
       </c>
       <c r="K292" s="6"/>
+      <c r="L292" s="37" t="s">
+        <v>1389</v>
+      </c>
       <c r="N292" s="26" t="s">
         <v>1389</v>
+      </c>
+      <c r="P292">
+        <v>37</v>
       </c>
       <c r="S292" s="12" t="s">
         <v>1394</v>
@@ -16420,7 +17392,9 @@
         <v>59.8</v>
       </c>
       <c r="O293" s="3"/>
-      <c r="P293" s="3"/>
+      <c r="P293">
+        <v>37</v>
+      </c>
       <c r="Q293" s="3"/>
       <c r="R293" s="3"/>
       <c r="S293" s="3"/>
@@ -16453,8 +17427,14 @@
         <v>318</v>
       </c>
       <c r="K294" s="6"/>
+      <c r="L294" s="37" t="s">
+        <v>1389</v>
+      </c>
       <c r="N294" s="27" t="s">
         <v>1389</v>
+      </c>
+      <c r="P294">
+        <v>37</v>
       </c>
       <c r="S294" s="12" t="s">
         <v>1394</v>
@@ -16496,7 +17476,9 @@
         <v>84.4</v>
       </c>
       <c r="O295" s="3"/>
-      <c r="P295" s="3"/>
+      <c r="P295">
+        <v>37</v>
+      </c>
       <c r="Q295" s="3"/>
       <c r="R295" s="3"/>
       <c r="S295" s="3"/>
@@ -16535,6 +17517,9 @@
       <c r="N296" s="18">
         <v>49.6</v>
       </c>
+      <c r="P296">
+        <v>37</v>
+      </c>
     </row>
     <row r="297" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
@@ -16564,13 +17549,17 @@
         <v>318</v>
       </c>
       <c r="K297" s="7"/>
-      <c r="L297" s="3"/>
+      <c r="L297" s="3">
+        <v>6.11</v>
+      </c>
       <c r="M297" s="3"/>
       <c r="N297" s="3">
         <v>65.5</v>
       </c>
       <c r="O297" s="3"/>
-      <c r="P297" s="3"/>
+      <c r="P297">
+        <v>57</v>
+      </c>
       <c r="Q297" s="3"/>
       <c r="R297" s="3"/>
       <c r="S297" s="3"/>
@@ -16603,9 +17592,14 @@
         <v>318</v>
       </c>
       <c r="K298" s="6"/>
-      <c r="L298"/>
+      <c r="L298">
+        <v>6.99</v>
+      </c>
       <c r="N298">
         <v>63.9</v>
+      </c>
+      <c r="P298">
+        <v>57</v>
       </c>
     </row>
     <row r="299" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16636,13 +17630,17 @@
         <v>318</v>
       </c>
       <c r="K299" s="7"/>
-      <c r="L299" s="3"/>
+      <c r="L299" s="3">
+        <v>4.97</v>
+      </c>
       <c r="M299" s="3"/>
       <c r="N299" s="3">
         <v>37.6</v>
       </c>
       <c r="O299" s="3"/>
-      <c r="P299" s="3"/>
+      <c r="P299">
+        <v>57</v>
+      </c>
       <c r="Q299" s="3"/>
       <c r="R299" s="3"/>
       <c r="S299" s="3"/>
@@ -16675,9 +17673,14 @@
         <v>318</v>
       </c>
       <c r="K300" s="6"/>
-      <c r="L300"/>
+      <c r="L300">
+        <v>5.64</v>
+      </c>
       <c r="N300">
         <v>39.299999999999997</v>
+      </c>
+      <c r="P300">
+        <v>57</v>
       </c>
     </row>
     <row r="301" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16708,19 +17711,23 @@
         <v>318</v>
       </c>
       <c r="K301" s="7"/>
-      <c r="L301" s="3"/>
+      <c r="L301" s="3">
+        <v>5.47</v>
+      </c>
       <c r="M301" s="3"/>
       <c r="N301" s="3">
         <v>38.4</v>
       </c>
       <c r="O301" s="3"/>
-      <c r="P301" s="3"/>
+      <c r="P301">
+        <v>57</v>
+      </c>
       <c r="Q301" s="3" t="s">
         <v>1410</v>
       </c>
       <c r="R301" s="3"/>
       <c r="S301" s="3" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="302" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16757,6 +17764,9 @@
       <c r="N302">
         <v>26.9</v>
       </c>
+      <c r="P302">
+        <v>37</v>
+      </c>
     </row>
     <row r="303" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
@@ -16794,7 +17804,9 @@
         <v>46.8</v>
       </c>
       <c r="O303" s="3"/>
-      <c r="P303" s="3"/>
+      <c r="P303">
+        <v>37</v>
+      </c>
       <c r="Q303" s="3"/>
       <c r="R303" s="3"/>
       <c r="S303" s="3"/>
@@ -16833,6 +17845,9 @@
       <c r="N304">
         <v>29.9</v>
       </c>
+      <c r="P304">
+        <v>37</v>
+      </c>
     </row>
     <row r="305" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
@@ -16870,7 +17885,9 @@
         <v>46.2</v>
       </c>
       <c r="O305" s="3"/>
-      <c r="P305" s="3"/>
+      <c r="P305">
+        <v>37</v>
+      </c>
       <c r="Q305" s="3"/>
       <c r="R305" s="3"/>
       <c r="S305" s="3"/>
@@ -16909,6 +17926,9 @@
       <c r="N306">
         <v>36.9</v>
       </c>
+      <c r="P306">
+        <v>37</v>
+      </c>
     </row>
     <row r="307" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
@@ -16946,7 +17966,9 @@
         <v>56.8</v>
       </c>
       <c r="O307" s="3"/>
-      <c r="P307" s="3"/>
+      <c r="P307">
+        <v>37</v>
+      </c>
       <c r="Q307" s="3"/>
       <c r="R307" s="3"/>
       <c r="S307" s="3"/>
@@ -16985,6 +18007,9 @@
       <c r="N308" s="18">
         <v>35.5</v>
       </c>
+      <c r="P308">
+        <v>37</v>
+      </c>
     </row>
     <row r="309" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
@@ -17022,7 +18047,9 @@
         <v>27.4</v>
       </c>
       <c r="O309" s="3"/>
-      <c r="P309" s="3"/>
+      <c r="P309">
+        <v>37</v>
+      </c>
       <c r="Q309" s="3"/>
       <c r="R309" s="3"/>
       <c r="S309" s="3"/>
@@ -17061,6 +18088,9 @@
       <c r="N310" s="18">
         <v>42.8</v>
       </c>
+      <c r="P310">
+        <v>37</v>
+      </c>
     </row>
     <row r="311" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
@@ -17098,7 +18128,9 @@
         <v>49</v>
       </c>
       <c r="O311" s="3"/>
-      <c r="P311" s="3"/>
+      <c r="P311">
+        <v>37</v>
+      </c>
       <c r="Q311" s="3"/>
       <c r="R311" s="3"/>
       <c r="S311" s="3"/>
@@ -17131,9 +18163,14 @@
         <v>318</v>
       </c>
       <c r="K312" s="6"/>
-      <c r="L312"/>
+      <c r="L312">
+        <v>6.14</v>
+      </c>
       <c r="N312">
         <v>47.2</v>
+      </c>
+      <c r="P312">
+        <v>57</v>
       </c>
     </row>
     <row r="313" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17164,13 +18201,17 @@
         <v>318</v>
       </c>
       <c r="K313" s="7"/>
-      <c r="L313" s="3"/>
+      <c r="L313" s="3">
+        <v>6.32</v>
+      </c>
       <c r="M313" s="3"/>
       <c r="N313" s="3">
         <v>60.9</v>
       </c>
       <c r="O313" s="3"/>
-      <c r="P313" s="3"/>
+      <c r="P313">
+        <v>57</v>
+      </c>
       <c r="Q313" s="3"/>
       <c r="R313" s="3"/>
       <c r="S313" s="3"/>
@@ -17203,9 +18244,14 @@
         <v>318</v>
       </c>
       <c r="K314" s="6"/>
-      <c r="L314"/>
+      <c r="L314">
+        <v>4.71</v>
+      </c>
       <c r="N314">
         <v>50.9</v>
+      </c>
+      <c r="P314">
+        <v>57</v>
       </c>
     </row>
     <row r="315" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17236,13 +18282,17 @@
         <v>318</v>
       </c>
       <c r="K315" s="7"/>
-      <c r="L315" s="3"/>
+      <c r="L315" s="3">
+        <v>6.37</v>
+      </c>
       <c r="M315" s="3"/>
       <c r="N315" s="3">
         <v>57.4</v>
       </c>
       <c r="O315" s="3"/>
-      <c r="P315" s="3"/>
+      <c r="P315">
+        <v>57</v>
+      </c>
       <c r="Q315" s="3"/>
       <c r="R315" s="3"/>
       <c r="S315" s="3"/>
@@ -17275,9 +18325,14 @@
         <v>318</v>
       </c>
       <c r="K316" s="6"/>
-      <c r="L316"/>
+      <c r="L316">
+        <v>5.88</v>
+      </c>
       <c r="N316">
         <v>64.599999999999994</v>
+      </c>
+      <c r="P316">
+        <v>57</v>
       </c>
     </row>
     <row r="317" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17316,7 +18371,9 @@
         <v>65.900000000000006</v>
       </c>
       <c r="O317" s="3"/>
-      <c r="P317" s="3"/>
+      <c r="P317">
+        <v>37</v>
+      </c>
       <c r="Q317" s="3"/>
       <c r="R317" s="3"/>
       <c r="S317" s="3"/>
@@ -17355,6 +18412,9 @@
       <c r="N318">
         <v>37.1</v>
       </c>
+      <c r="P318">
+        <v>37</v>
+      </c>
     </row>
     <row r="319" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
@@ -17392,7 +18452,9 @@
         <v>32.299999999999997</v>
       </c>
       <c r="O319" s="3"/>
-      <c r="P319" s="3"/>
+      <c r="P319">
+        <v>37</v>
+      </c>
       <c r="Q319" s="3"/>
       <c r="R319" s="3"/>
       <c r="S319" s="3"/>
@@ -17431,13 +18493,16 @@
       <c r="N320">
         <v>35.700000000000003</v>
       </c>
-      <c r="Q320" s="31" t="s">
-        <v>1431</v>
-      </c>
-      <c r="R320" s="31" t="s">
-        <v>1431</v>
-      </c>
-      <c r="S320" s="34"/>
+      <c r="P320">
+        <v>37</v>
+      </c>
+      <c r="Q320" s="30" t="s">
+        <v>1430</v>
+      </c>
+      <c r="R320" s="30" t="s">
+        <v>1430</v>
+      </c>
+      <c r="S320" s="12"/>
     </row>
     <row r="321" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
@@ -17475,7 +18540,9 @@
         <v>44.4</v>
       </c>
       <c r="O321" s="3"/>
-      <c r="P321" s="3"/>
+      <c r="P321">
+        <v>37</v>
+      </c>
       <c r="Q321" s="3"/>
       <c r="R321" s="3"/>
       <c r="S321" s="3"/>
@@ -17514,6 +18581,9 @@
       <c r="N322" s="27">
         <v>29.8</v>
       </c>
+      <c r="P322">
+        <v>37</v>
+      </c>
     </row>
     <row r="323" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
@@ -17551,7 +18621,9 @@
         <v>29.1</v>
       </c>
       <c r="O323" s="3"/>
-      <c r="P323" s="3"/>
+      <c r="P323">
+        <v>37</v>
+      </c>
       <c r="Q323" s="3"/>
       <c r="R323" s="3"/>
       <c r="S323" s="3"/>
@@ -17590,6 +18662,9 @@
       <c r="N324" s="27">
         <v>37.799999999999997</v>
       </c>
+      <c r="P324">
+        <v>37</v>
+      </c>
     </row>
     <row r="325" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
@@ -17627,7 +18702,9 @@
         <v>63.4</v>
       </c>
       <c r="O325" s="3"/>
-      <c r="P325" s="3"/>
+      <c r="P325">
+        <v>37</v>
+      </c>
       <c r="Q325" s="3"/>
       <c r="R325" s="3"/>
       <c r="S325" s="3"/>
@@ -17666,6 +18743,9 @@
       <c r="N326" s="27">
         <v>38.5</v>
       </c>
+      <c r="P326">
+        <v>37</v>
+      </c>
     </row>
     <row r="327" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
@@ -17695,13 +18775,17 @@
         <v>318</v>
       </c>
       <c r="K327" s="7"/>
-      <c r="L327" s="3"/>
+      <c r="L327" s="3">
+        <v>5.15</v>
+      </c>
       <c r="M327" s="3"/>
       <c r="N327" s="3">
         <v>21.5</v>
       </c>
       <c r="O327" s="3"/>
-      <c r="P327" s="3"/>
+      <c r="P327">
+        <v>57</v>
+      </c>
       <c r="Q327" s="3"/>
       <c r="R327" s="3"/>
       <c r="S327" s="3"/>
@@ -17734,9 +18818,14 @@
         <v>318</v>
       </c>
       <c r="K328" s="6"/>
-      <c r="L328"/>
+      <c r="L328">
+        <v>5.92</v>
+      </c>
       <c r="N328">
         <v>28.9</v>
+      </c>
+      <c r="P328">
+        <v>57</v>
       </c>
       <c r="S328" s="19" t="s">
         <v>1412</v>
@@ -17770,13 +18859,17 @@
         <v>318</v>
       </c>
       <c r="K329" s="7"/>
-      <c r="L329" s="3"/>
+      <c r="L329" s="3">
+        <v>5.4</v>
+      </c>
       <c r="M329" s="3"/>
       <c r="N329" s="3">
         <v>56.2</v>
       </c>
       <c r="O329" s="3"/>
-      <c r="P329" s="3"/>
+      <c r="P329">
+        <v>57</v>
+      </c>
       <c r="Q329" s="3"/>
       <c r="R329" s="3"/>
       <c r="S329" s="3"/>
@@ -17809,9 +18902,14 @@
         <v>318</v>
       </c>
       <c r="K330" s="6"/>
-      <c r="L330"/>
+      <c r="L330">
+        <v>5.82</v>
+      </c>
       <c r="N330">
         <v>32.200000000000003</v>
+      </c>
+      <c r="P330">
+        <v>57</v>
       </c>
     </row>
     <row r="331" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17842,13 +18940,17 @@
         <v>318</v>
       </c>
       <c r="K331" s="7"/>
-      <c r="L331" s="3"/>
+      <c r="L331" s="3">
+        <v>5.37</v>
+      </c>
       <c r="M331" s="3"/>
       <c r="N331" s="3">
         <v>43.3</v>
       </c>
       <c r="O331" s="3"/>
-      <c r="P331" s="3"/>
+      <c r="P331">
+        <v>57</v>
+      </c>
       <c r="Q331" s="3"/>
       <c r="R331" s="3"/>
       <c r="S331" s="3"/>
@@ -17887,13 +18989,16 @@
       <c r="N332">
         <v>56.9</v>
       </c>
-      <c r="Q332" s="31" t="s">
-        <v>1431</v>
-      </c>
-      <c r="R332" s="31" t="s">
-        <v>1431</v>
-      </c>
-      <c r="S332" s="34"/>
+      <c r="P332">
+        <v>37</v>
+      </c>
+      <c r="Q332" s="30" t="s">
+        <v>1430</v>
+      </c>
+      <c r="R332" s="30" t="s">
+        <v>1430</v>
+      </c>
+      <c r="S332" s="12"/>
     </row>
     <row r="333" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
@@ -17931,14 +19036,16 @@
         <v>53.8</v>
       </c>
       <c r="O333" s="3"/>
-      <c r="P333" s="3"/>
-      <c r="Q333" s="31" t="s">
-        <v>1431</v>
-      </c>
-      <c r="R333" s="31" t="s">
-        <v>1431</v>
-      </c>
-      <c r="S333" s="34"/>
+      <c r="P333">
+        <v>37</v>
+      </c>
+      <c r="Q333" s="30" t="s">
+        <v>1430</v>
+      </c>
+      <c r="R333" s="30" t="s">
+        <v>1430</v>
+      </c>
+      <c r="S333" s="12"/>
     </row>
     <row r="334" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
@@ -17974,13 +19081,16 @@
       <c r="N334">
         <v>46</v>
       </c>
-      <c r="Q334" s="31" t="s">
-        <v>1431</v>
-      </c>
-      <c r="R334" s="31" t="s">
-        <v>1431</v>
-      </c>
-      <c r="S334" s="34"/>
+      <c r="P334">
+        <v>37</v>
+      </c>
+      <c r="Q334" s="30" t="s">
+        <v>1430</v>
+      </c>
+      <c r="R334" s="30" t="s">
+        <v>1430</v>
+      </c>
+      <c r="S334" s="12"/>
     </row>
     <row r="335" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
@@ -18018,7 +19128,9 @@
         <v>46.5</v>
       </c>
       <c r="O335" s="3"/>
-      <c r="P335" s="3"/>
+      <c r="P335">
+        <v>37</v>
+      </c>
       <c r="Q335" s="3"/>
       <c r="R335" s="3"/>
       <c r="S335" s="3"/>
@@ -18057,6 +19169,9 @@
       <c r="N336">
         <v>58.6</v>
       </c>
+      <c r="P336">
+        <v>37</v>
+      </c>
     </row>
     <row r="337" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
@@ -18094,14 +19209,16 @@
         <v>53.5</v>
       </c>
       <c r="O337" s="3"/>
-      <c r="P337" s="3"/>
-      <c r="Q337" s="31" t="s">
-        <v>1431</v>
-      </c>
-      <c r="R337" s="31" t="s">
-        <v>1431</v>
-      </c>
-      <c r="S337" s="34" t="s">
+      <c r="P337">
+        <v>37</v>
+      </c>
+      <c r="Q337" s="30" t="s">
+        <v>1430</v>
+      </c>
+      <c r="R337" s="30" t="s">
+        <v>1430</v>
+      </c>
+      <c r="S337" s="12" t="s">
         <v>1391</v>
       </c>
     </row>
@@ -18139,6 +19256,9 @@
       <c r="N338" s="18">
         <v>47.4</v>
       </c>
+      <c r="P338">
+        <v>37</v>
+      </c>
     </row>
     <row r="339" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
@@ -18176,14 +19296,16 @@
         <v>43.8</v>
       </c>
       <c r="O339" s="3"/>
-      <c r="P339" s="3"/>
-      <c r="Q339" s="31" t="s">
-        <v>1431</v>
-      </c>
-      <c r="R339" s="31" t="s">
-        <v>1431</v>
-      </c>
-      <c r="S339" s="34"/>
+      <c r="P339">
+        <v>37</v>
+      </c>
+      <c r="Q339" s="30" t="s">
+        <v>1430</v>
+      </c>
+      <c r="R339" s="30" t="s">
+        <v>1430</v>
+      </c>
+      <c r="S339" s="12"/>
     </row>
     <row r="340" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
@@ -18219,6 +19341,9 @@
       <c r="N340" s="18">
         <v>30.1</v>
       </c>
+      <c r="P340">
+        <v>37</v>
+      </c>
     </row>
     <row r="341" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
@@ -18256,7 +19381,9 @@
         <v>60</v>
       </c>
       <c r="O341" s="3"/>
-      <c r="P341" s="3"/>
+      <c r="P341">
+        <v>37</v>
+      </c>
       <c r="Q341" s="3"/>
       <c r="R341" s="3"/>
       <c r="S341" s="3"/>
@@ -18289,9 +19416,14 @@
         <v>318</v>
       </c>
       <c r="K342" s="6"/>
-      <c r="L342"/>
+      <c r="L342">
+        <v>5.53</v>
+      </c>
       <c r="N342">
         <v>44.4</v>
+      </c>
+      <c r="P342">
+        <v>57</v>
       </c>
     </row>
     <row r="343" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18322,13 +19454,17 @@
         <v>318</v>
       </c>
       <c r="K343" s="7"/>
-      <c r="L343" s="3"/>
+      <c r="L343" s="3">
+        <v>5.93</v>
+      </c>
       <c r="M343" s="3"/>
       <c r="N343" s="3">
         <v>59.6</v>
       </c>
       <c r="O343" s="3"/>
-      <c r="P343" s="3"/>
+      <c r="P343">
+        <v>57</v>
+      </c>
       <c r="Q343" s="3"/>
       <c r="R343" s="3"/>
       <c r="S343" s="3"/>
@@ -18361,9 +19497,14 @@
         <v>318</v>
       </c>
       <c r="K344" s="6"/>
-      <c r="L344"/>
+      <c r="L344">
+        <v>5.88</v>
+      </c>
       <c r="N344">
         <v>36.5</v>
+      </c>
+      <c r="P344">
+        <v>57</v>
       </c>
     </row>
     <row r="345" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18394,13 +19535,17 @@
         <v>318</v>
       </c>
       <c r="K345" s="7"/>
-      <c r="L345" s="3"/>
+      <c r="L345" s="3">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="M345" s="3"/>
       <c r="N345" s="3">
         <v>55.2</v>
       </c>
       <c r="O345" s="3"/>
-      <c r="P345" s="3"/>
+      <c r="P345">
+        <v>57</v>
+      </c>
       <c r="Q345" s="3"/>
       <c r="R345" s="3"/>
       <c r="S345" s="19"/>
@@ -18439,13 +19584,16 @@
       <c r="N346">
         <v>56.2</v>
       </c>
-      <c r="Q346" s="31" t="s">
-        <v>1431</v>
-      </c>
-      <c r="R346" s="31" t="s">
-        <v>1431</v>
-      </c>
-      <c r="S346" s="32"/>
+      <c r="P346">
+        <v>57</v>
+      </c>
+      <c r="Q346" s="30" t="s">
+        <v>1430</v>
+      </c>
+      <c r="R346" s="30" t="s">
+        <v>1430</v>
+      </c>
+      <c r="S346" s="17"/>
     </row>
     <row r="347" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
@@ -18483,7 +19631,9 @@
         <v>55.8</v>
       </c>
       <c r="O347" s="3"/>
-      <c r="P347" s="3"/>
+      <c r="P347">
+        <v>37</v>
+      </c>
       <c r="Q347" s="3"/>
       <c r="R347" s="3"/>
       <c r="S347" s="3"/>
@@ -18522,6 +19672,9 @@
       <c r="N348">
         <v>36.9</v>
       </c>
+      <c r="P348">
+        <v>37</v>
+      </c>
     </row>
     <row r="349" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
@@ -18559,7 +19712,9 @@
         <v>32.9</v>
       </c>
       <c r="O349" s="3"/>
-      <c r="P349" s="3"/>
+      <c r="P349">
+        <v>37</v>
+      </c>
       <c r="Q349" s="3"/>
       <c r="R349" s="3"/>
       <c r="S349" s="3"/>
@@ -18598,7 +19753,10 @@
       <c r="N350">
         <v>17.5</v>
       </c>
-      <c r="S350" s="33" t="s">
+      <c r="P350">
+        <v>37</v>
+      </c>
+      <c r="S350" s="11" t="s">
         <v>1390</v>
       </c>
     </row>
@@ -18638,7 +19796,9 @@
         <v>62.8</v>
       </c>
       <c r="O351" s="3"/>
-      <c r="P351" s="3"/>
+      <c r="P351">
+        <v>37</v>
+      </c>
       <c r="Q351" s="3"/>
       <c r="R351" s="3"/>
       <c r="S351" s="3"/>
@@ -18677,6 +19837,9 @@
       <c r="N352" s="18">
         <v>46.9</v>
       </c>
+      <c r="P352">
+        <v>37</v>
+      </c>
     </row>
     <row r="353" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
@@ -18713,7 +19876,9 @@
         <v>51.1</v>
       </c>
       <c r="O353" s="3"/>
-      <c r="P353" s="3"/>
+      <c r="P353">
+        <v>37</v>
+      </c>
       <c r="Q353" s="3"/>
       <c r="R353" s="3"/>
       <c r="S353" s="3"/>
@@ -18752,6 +19917,9 @@
       <c r="N354" s="18">
         <v>39.700000000000003</v>
       </c>
+      <c r="P354">
+        <v>37</v>
+      </c>
     </row>
     <row r="355" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
@@ -18781,13 +19949,17 @@
         <v>318</v>
       </c>
       <c r="K355" s="7"/>
-      <c r="L355" s="21"/>
+      <c r="L355" s="21" t="s">
+        <v>1389</v>
+      </c>
       <c r="M355" s="3"/>
       <c r="N355" s="27" t="s">
         <v>1389</v>
       </c>
       <c r="O355" s="3"/>
-      <c r="P355" s="3"/>
+      <c r="P355">
+        <v>37</v>
+      </c>
       <c r="Q355" s="3"/>
       <c r="R355" s="3"/>
       <c r="S355" s="11" t="s">
@@ -18828,13 +20000,16 @@
       <c r="N356" s="18">
         <v>58.8</v>
       </c>
-      <c r="Q356" s="31" t="s">
-        <v>1431</v>
-      </c>
-      <c r="R356" s="31" t="s">
-        <v>1431</v>
-      </c>
-      <c r="S356" s="34"/>
+      <c r="P356">
+        <v>37</v>
+      </c>
+      <c r="Q356" s="30" t="s">
+        <v>1430</v>
+      </c>
+      <c r="R356" s="30" t="s">
+        <v>1430</v>
+      </c>
+      <c r="S356" s="12"/>
     </row>
     <row r="357" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
@@ -18864,13 +20039,17 @@
         <v>318</v>
       </c>
       <c r="K357" s="7"/>
-      <c r="L357" s="3"/>
+      <c r="L357" s="3">
+        <v>6.73</v>
+      </c>
       <c r="M357" s="3"/>
       <c r="N357" s="3">
         <v>31.5</v>
       </c>
       <c r="O357" s="3"/>
-      <c r="P357" s="3"/>
+      <c r="P357">
+        <v>57</v>
+      </c>
       <c r="Q357" s="3"/>
       <c r="R357" s="3"/>
       <c r="S357" s="3"/>
@@ -18903,9 +20082,14 @@
         <v>318</v>
       </c>
       <c r="K358" s="6"/>
-      <c r="L358"/>
+      <c r="L358">
+        <v>6.8</v>
+      </c>
       <c r="N358">
         <v>37.4</v>
+      </c>
+      <c r="P358">
+        <v>57</v>
       </c>
     </row>
     <row r="359" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18936,13 +20120,17 @@
         <v>318</v>
       </c>
       <c r="K359" s="7"/>
-      <c r="L359" s="3"/>
+      <c r="L359" s="3">
+        <v>6.06</v>
+      </c>
       <c r="M359" s="3"/>
       <c r="N359" s="3">
         <v>40.5</v>
       </c>
       <c r="O359" s="3"/>
-      <c r="P359" s="3"/>
+      <c r="P359">
+        <v>57</v>
+      </c>
       <c r="Q359" s="3"/>
       <c r="R359" s="3"/>
       <c r="S359" s="3"/>
@@ -18975,9 +20163,14 @@
         <v>318</v>
       </c>
       <c r="K360" s="6"/>
-      <c r="L360"/>
+      <c r="L360">
+        <v>6.69</v>
+      </c>
       <c r="N360" s="8">
         <v>62</v>
+      </c>
+      <c r="P360">
+        <v>57</v>
       </c>
     </row>
     <row r="361" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19008,18 +20201,22 @@
         <v>318</v>
       </c>
       <c r="K361" s="7"/>
-      <c r="L361" s="3"/>
+      <c r="L361" s="3">
+        <v>5.91</v>
+      </c>
       <c r="M361" s="3"/>
       <c r="N361" s="3">
         <v>60.4</v>
       </c>
       <c r="O361" s="3"/>
-      <c r="P361" s="3"/>
+      <c r="P361">
+        <v>57</v>
+      </c>
       <c r="Q361" s="3"/>
       <c r="R361" s="3"/>
       <c r="S361" s="3"/>
     </row>
-    <row r="362" spans="1:19" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>988</v>
       </c>
@@ -19059,13 +20256,14 @@
       <c r="O362">
         <v>14.6</v>
       </c>
-      <c r="P362"/>
-      <c r="Q362" s="31" t="s">
+      <c r="P362">
+        <v>37</v>
+      </c>
+      <c r="Q362" s="30" t="s">
         <v>1410</v>
       </c>
-      <c r="R362"/>
       <c r="S362" s="30" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="363" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19104,7 +20302,9 @@
         <v>18.8</v>
       </c>
       <c r="O363" s="3"/>
-      <c r="P363" s="3"/>
+      <c r="P363">
+        <v>37</v>
+      </c>
       <c r="Q363" s="3"/>
       <c r="R363" s="3"/>
       <c r="S363" s="3"/>
@@ -19143,6 +20343,9 @@
       <c r="N364">
         <v>9.6</v>
       </c>
+      <c r="P364">
+        <v>37</v>
+      </c>
     </row>
     <row r="365" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
@@ -19180,7 +20383,9 @@
         <v>11.2</v>
       </c>
       <c r="O365" s="3"/>
-      <c r="P365" s="3"/>
+      <c r="P365">
+        <v>37</v>
+      </c>
       <c r="Q365" s="3"/>
       <c r="R365" s="3"/>
       <c r="S365" s="3"/>
@@ -19219,6 +20424,9 @@
       <c r="N366">
         <v>19.7</v>
       </c>
+      <c r="P366">
+        <v>37</v>
+      </c>
     </row>
     <row r="367" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
@@ -19248,13 +20456,17 @@
         <v>7</v>
       </c>
       <c r="K367" s="7"/>
-      <c r="L367" s="21"/>
+      <c r="L367" s="21">
+        <v>4.49</v>
+      </c>
       <c r="M367" s="3"/>
       <c r="N367" s="21">
         <v>22.3</v>
       </c>
       <c r="O367" s="3"/>
-      <c r="P367" s="3"/>
+      <c r="P367">
+        <v>37</v>
+      </c>
       <c r="Q367" s="3"/>
       <c r="R367" s="3"/>
       <c r="S367" s="3"/>
@@ -19287,8 +20499,14 @@
         <v>7</v>
       </c>
       <c r="K368" s="6"/>
+      <c r="L368" s="18">
+        <v>4.1900000000000004</v>
+      </c>
       <c r="N368" s="18">
         <v>16.600000000000001</v>
+      </c>
+      <c r="P368">
+        <v>37</v>
       </c>
     </row>
     <row r="369" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19319,13 +20537,17 @@
         <v>7</v>
       </c>
       <c r="K369" s="7"/>
-      <c r="L369" s="21"/>
+      <c r="L369" s="21">
+        <v>6.45</v>
+      </c>
       <c r="M369" s="3"/>
       <c r="N369" s="21">
         <v>12.4</v>
       </c>
       <c r="O369" s="3"/>
-      <c r="P369" s="3"/>
+      <c r="P369">
+        <v>37</v>
+      </c>
       <c r="Q369" s="11" t="s">
         <v>1410</v>
       </c>
@@ -19360,8 +20582,14 @@
         <v>7</v>
       </c>
       <c r="K370" s="6"/>
+      <c r="L370" s="18">
+        <v>5.0199999999999996</v>
+      </c>
       <c r="N370" s="18">
         <v>19.5</v>
+      </c>
+      <c r="P370">
+        <v>37</v>
       </c>
     </row>
     <row r="371" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19392,13 +20620,17 @@
         <v>7</v>
       </c>
       <c r="K371" s="7"/>
-      <c r="L371" s="21"/>
+      <c r="L371" s="21">
+        <v>5.72</v>
+      </c>
       <c r="M371" s="3"/>
       <c r="N371" s="21">
         <v>18.399999999999999</v>
       </c>
       <c r="O371" s="3"/>
-      <c r="P371" s="3"/>
+      <c r="P371">
+        <v>37</v>
+      </c>
       <c r="Q371" s="3"/>
       <c r="R371" s="3"/>
       <c r="S371" s="3"/>
@@ -19443,7 +20675,10 @@
       <c r="O372">
         <v>5.7</v>
       </c>
-      <c r="S372" s="32"/>
+      <c r="P372">
+        <v>57</v>
+      </c>
+      <c r="S372" s="17"/>
     </row>
     <row r="373" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
@@ -19481,13 +20716,15 @@
         <v>6.1</v>
       </c>
       <c r="O373" s="3"/>
-      <c r="P373" s="3"/>
+      <c r="P373">
+        <v>57</v>
+      </c>
       <c r="Q373" s="11" t="s">
         <v>1410</v>
       </c>
       <c r="R373" s="11"/>
       <c r="S373" s="11" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="374" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19518,9 +20755,14 @@
         <v>7</v>
       </c>
       <c r="K374" s="6"/>
-      <c r="L374"/>
+      <c r="L374">
+        <v>2.74</v>
+      </c>
       <c r="N374">
         <v>10.9</v>
+      </c>
+      <c r="P374">
+        <v>57</v>
       </c>
     </row>
     <row r="375" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19551,13 +20793,17 @@
         <v>7</v>
       </c>
       <c r="K375" s="7"/>
-      <c r="L375" s="3"/>
+      <c r="L375" s="3" t="s">
+        <v>1389</v>
+      </c>
       <c r="M375" s="3"/>
       <c r="N375" s="11" t="s">
         <v>1389</v>
       </c>
       <c r="O375" s="3"/>
-      <c r="P375" s="3"/>
+      <c r="P375">
+        <v>57</v>
+      </c>
       <c r="Q375" s="3"/>
       <c r="R375" s="3"/>
       <c r="S375" s="11" t="s">
@@ -19592,9 +20838,14 @@
         <v>7</v>
       </c>
       <c r="K376" s="6"/>
-      <c r="L376"/>
+      <c r="L376">
+        <v>3.42</v>
+      </c>
       <c r="N376">
         <v>10.5</v>
+      </c>
+      <c r="P376">
+        <v>57</v>
       </c>
       <c r="Q376" s="17" t="s">
         <v>1410</v>
@@ -19640,7 +20891,9 @@
         <v>13</v>
       </c>
       <c r="O377" s="3"/>
-      <c r="P377" s="3"/>
+      <c r="P377">
+        <v>37</v>
+      </c>
       <c r="Q377" s="3"/>
       <c r="R377" s="3"/>
       <c r="S377" s="3"/>
@@ -19679,6 +20932,9 @@
       <c r="N378">
         <v>14.2</v>
       </c>
+      <c r="P378">
+        <v>37</v>
+      </c>
     </row>
     <row r="379" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
@@ -19714,17 +20970,19 @@
       <c r="M379" s="3">
         <v>3.23</v>
       </c>
-      <c r="N379" s="35">
+      <c r="N379" s="15">
         <v>18.2</v>
       </c>
       <c r="O379" s="3">
         <v>18.600000000000001</v>
       </c>
-      <c r="P379" s="3"/>
+      <c r="P379">
+        <v>37</v>
+      </c>
       <c r="Q379" s="3"/>
       <c r="R379" s="3"/>
-      <c r="S379" s="37" t="s">
-        <v>1429</v>
+      <c r="S379" s="3" t="s">
+        <v>1428</v>
       </c>
     </row>
     <row r="380" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19761,6 +21019,9 @@
       <c r="N380">
         <v>18.2</v>
       </c>
+      <c r="P380">
+        <v>37</v>
+      </c>
     </row>
     <row r="381" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
@@ -19798,7 +21059,9 @@
         <v>17.2</v>
       </c>
       <c r="O381" s="3"/>
-      <c r="P381" s="3"/>
+      <c r="P381">
+        <v>37</v>
+      </c>
       <c r="Q381" s="3"/>
       <c r="R381" s="3"/>
       <c r="S381" s="3"/>
@@ -19831,8 +21094,14 @@
         <v>7</v>
       </c>
       <c r="K382" s="6"/>
+      <c r="L382" s="18">
+        <v>5.25</v>
+      </c>
       <c r="N382" s="18">
         <v>29.6</v>
+      </c>
+      <c r="P382">
+        <v>37</v>
       </c>
     </row>
     <row r="383" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19863,13 +21132,17 @@
         <v>7</v>
       </c>
       <c r="K383" s="7"/>
-      <c r="L383" s="21"/>
+      <c r="L383" s="21">
+        <v>4.83</v>
+      </c>
       <c r="M383" s="3"/>
       <c r="N383" s="21">
         <v>14.8</v>
       </c>
       <c r="O383" s="3"/>
-      <c r="P383" s="3"/>
+      <c r="P383">
+        <v>37</v>
+      </c>
       <c r="Q383" s="3"/>
       <c r="R383" s="3"/>
       <c r="S383" s="3"/>
@@ -19902,8 +21175,14 @@
         <v>7</v>
       </c>
       <c r="K384" s="6"/>
+      <c r="L384" s="18">
+        <v>3.85</v>
+      </c>
       <c r="N384" s="18">
         <v>16.3</v>
+      </c>
+      <c r="P384">
+        <v>37</v>
       </c>
     </row>
     <row r="385" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19934,13 +21213,17 @@
         <v>7</v>
       </c>
       <c r="K385" s="7"/>
-      <c r="L385" s="21"/>
+      <c r="L385" s="21">
+        <v>3.82</v>
+      </c>
       <c r="M385" s="3"/>
       <c r="N385" s="25">
         <v>26.9</v>
       </c>
       <c r="O385" s="3"/>
-      <c r="P385" s="3"/>
+      <c r="P385">
+        <v>37</v>
+      </c>
       <c r="Q385" s="3"/>
       <c r="R385" s="3"/>
       <c r="S385" s="3"/>
@@ -19973,8 +21256,14 @@
         <v>7</v>
       </c>
       <c r="K386" s="6"/>
+      <c r="L386" s="33" t="s">
+        <v>1389</v>
+      </c>
       <c r="N386" s="27" t="s">
         <v>1389</v>
+      </c>
+      <c r="P386">
+        <v>37</v>
       </c>
       <c r="S386" s="17" t="s">
         <v>1394</v>
@@ -20008,13 +21297,17 @@
         <v>7</v>
       </c>
       <c r="K387" s="7"/>
-      <c r="L387" s="3"/>
+      <c r="L387" s="3" t="s">
+        <v>1389</v>
+      </c>
       <c r="M387" s="3"/>
       <c r="N387" s="11" t="s">
         <v>1389</v>
       </c>
       <c r="O387" s="3"/>
-      <c r="P387" s="3"/>
+      <c r="P387">
+        <v>57</v>
+      </c>
       <c r="Q387" s="3"/>
       <c r="R387" s="3"/>
       <c r="S387" s="11" t="s">
@@ -20041,7 +21334,7 @@
         <v>897</v>
       </c>
       <c r="G388" s="29" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="H388" s="6" t="s">
         <v>1033</v>
@@ -20063,8 +21356,11 @@
       <c r="O388">
         <v>12.8</v>
       </c>
+      <c r="P388">
+        <v>57</v>
+      </c>
       <c r="S388" s="30" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="389" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20103,7 +21399,9 @@
         <v>7.6</v>
       </c>
       <c r="O389" s="3"/>
-      <c r="P389" s="3"/>
+      <c r="P389">
+        <v>57</v>
+      </c>
       <c r="Q389" s="3"/>
       <c r="R389" s="3"/>
       <c r="S389" s="3"/>
@@ -20136,9 +21434,14 @@
         <v>7</v>
       </c>
       <c r="K390" s="6"/>
-      <c r="L390"/>
+      <c r="L390">
+        <v>3.49</v>
+      </c>
       <c r="N390">
         <v>16.899999999999999</v>
+      </c>
+      <c r="P390">
+        <v>57</v>
       </c>
     </row>
     <row r="391" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20169,22 +21472,26 @@
         <v>7</v>
       </c>
       <c r="K391" s="7"/>
-      <c r="L391" s="3"/>
+      <c r="L391" s="3" t="s">
+        <v>1389</v>
+      </c>
       <c r="M391" s="3"/>
-      <c r="N391" s="3">
-        <v>22.2</v>
+      <c r="N391" s="3" t="s">
+        <v>1389</v>
       </c>
       <c r="O391" s="3"/>
-      <c r="P391" s="3"/>
+      <c r="P391">
+        <v>57</v>
+      </c>
       <c r="Q391" s="11" t="s">
         <v>1410</v>
       </c>
       <c r="R391" s="11"/>
-      <c r="S391" s="11" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="392" spans="1:19" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S391" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="392" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>1038</v>
       </c>
@@ -20212,22 +21519,22 @@
         <v>7</v>
       </c>
       <c r="K392" s="6"/>
-      <c r="L392" s="35">
+      <c r="L392" s="15">
         <v>2.4700000000000002</v>
       </c>
-      <c r="M392"/>
       <c r="N392" s="18">
         <v>7.7</v>
       </c>
-      <c r="O392"/>
-      <c r="P392"/>
-      <c r="Q392" s="31" t="s">
+      <c r="P392">
+        <v>37</v>
+      </c>
+      <c r="Q392" s="30" t="s">
         <v>1410</v>
       </c>
-      <c r="R392" s="31" t="s">
+      <c r="R392" s="30" t="s">
         <v>1410</v>
       </c>
-      <c r="S392" s="34" t="s">
+      <c r="S392" s="12" t="s">
         <v>1392</v>
       </c>
     </row>
@@ -20267,12 +21574,14 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="O393" s="3"/>
-      <c r="P393" s="3"/>
+      <c r="P393">
+        <v>37</v>
+      </c>
       <c r="Q393" s="3"/>
       <c r="R393" s="3"/>
       <c r="S393" s="3"/>
     </row>
-    <row r="394" spans="1:19" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>1041</v>
       </c>
@@ -20303,19 +21612,19 @@
       <c r="L394" s="18">
         <v>4.3899999999999997</v>
       </c>
-      <c r="M394"/>
       <c r="N394">
         <v>10.7</v>
       </c>
-      <c r="O394"/>
-      <c r="P394"/>
-      <c r="Q394" s="31" t="s">
+      <c r="P394">
+        <v>37</v>
+      </c>
+      <c r="Q394" s="30" t="s">
         <v>1410</v>
       </c>
-      <c r="R394" s="31" t="s">
-        <v>1431</v>
-      </c>
-      <c r="S394" s="33" t="s">
+      <c r="R394" s="30" t="s">
+        <v>1430</v>
+      </c>
+      <c r="S394" s="11" t="s">
         <v>1390</v>
       </c>
     </row>
@@ -20355,7 +21664,9 @@
         <v>10.199999999999999</v>
       </c>
       <c r="O395" s="3"/>
-      <c r="P395" s="3"/>
+      <c r="P395">
+        <v>37</v>
+      </c>
       <c r="Q395" s="3"/>
       <c r="R395" s="3"/>
       <c r="S395" s="3"/>
@@ -20395,6 +21706,9 @@
         <v>19</v>
       </c>
       <c r="O396" s="11"/>
+      <c r="P396">
+        <v>37</v>
+      </c>
     </row>
     <row r="397" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
@@ -20424,13 +21738,17 @@
         <v>7</v>
       </c>
       <c r="K397" s="7"/>
-      <c r="L397" s="21"/>
+      <c r="L397" s="21" t="s">
+        <v>1389</v>
+      </c>
       <c r="M397" s="3"/>
       <c r="N397" s="27" t="s">
         <v>1389</v>
       </c>
       <c r="O397" s="3"/>
-      <c r="P397" s="3"/>
+      <c r="P397">
+        <v>37</v>
+      </c>
       <c r="Q397" s="3"/>
       <c r="R397" s="3"/>
       <c r="S397" s="11" t="s">
@@ -20465,8 +21783,14 @@
         <v>7</v>
       </c>
       <c r="K398" s="6"/>
+      <c r="L398" s="18">
+        <v>4.96</v>
+      </c>
       <c r="N398" s="18">
         <v>17</v>
+      </c>
+      <c r="P398">
+        <v>37</v>
       </c>
     </row>
     <row r="399" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20501,18 +21825,20 @@
         <v>4.58</v>
       </c>
       <c r="M399" s="3"/>
-      <c r="N399" s="38">
+      <c r="N399" s="21">
         <v>7.8</v>
       </c>
       <c r="O399" s="3"/>
-      <c r="P399" s="3"/>
+      <c r="P399">
+        <v>37</v>
+      </c>
       <c r="Q399" s="3" t="s">
         <v>1410</v>
       </c>
       <c r="R399" s="3" t="s">
         <v>1410</v>
       </c>
-      <c r="S399" s="34" t="s">
+      <c r="S399" s="12" t="s">
         <v>1392</v>
       </c>
     </row>
@@ -20544,8 +21870,14 @@
         <v>7</v>
       </c>
       <c r="K400" s="6"/>
+      <c r="L400" s="18">
+        <v>5.71</v>
+      </c>
       <c r="N400" s="18">
         <v>35.799999999999997</v>
+      </c>
+      <c r="P400">
+        <v>37</v>
       </c>
     </row>
     <row r="401" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20576,13 +21908,17 @@
         <v>7</v>
       </c>
       <c r="K401" s="7"/>
-      <c r="L401" s="21"/>
+      <c r="L401" s="21">
+        <v>4.53</v>
+      </c>
       <c r="M401" s="3"/>
       <c r="N401" s="21">
         <v>23.4</v>
       </c>
       <c r="O401" s="3"/>
-      <c r="P401" s="3"/>
+      <c r="P401">
+        <v>37</v>
+      </c>
       <c r="Q401" s="3"/>
       <c r="R401" s="3"/>
       <c r="S401" s="3"/>
@@ -20615,9 +21951,14 @@
         <v>7</v>
       </c>
       <c r="K402" s="6"/>
-      <c r="L402"/>
+      <c r="L402">
+        <v>5.48</v>
+      </c>
       <c r="N402" s="11" t="s">
         <v>1389</v>
+      </c>
+      <c r="P402">
+        <v>57</v>
       </c>
       <c r="Q402" s="17" t="s">
         <v>1410</v>
@@ -20655,13 +21996,17 @@
         <v>7</v>
       </c>
       <c r="K403" s="7"/>
-      <c r="L403" s="3"/>
+      <c r="L403" s="3">
+        <v>3.96</v>
+      </c>
       <c r="M403" s="3"/>
       <c r="N403" s="16">
         <v>13.4</v>
       </c>
       <c r="O403" s="3"/>
-      <c r="P403" s="3"/>
+      <c r="P403">
+        <v>57</v>
+      </c>
       <c r="Q403" s="3"/>
       <c r="R403" s="3"/>
       <c r="S403" s="3"/>
@@ -20703,14 +22048,17 @@
       <c r="N404">
         <v>5.2</v>
       </c>
+      <c r="P404">
+        <v>57</v>
+      </c>
       <c r="Q404" s="17" t="s">
         <v>1410</v>
       </c>
-      <c r="R404" s="31" t="s">
+      <c r="R404" s="30" t="s">
         <v>1410</v>
       </c>
       <c r="S404" s="30" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="405" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20741,13 +22089,17 @@
         <v>7</v>
       </c>
       <c r="K405" s="7"/>
-      <c r="L405" s="3"/>
+      <c r="L405" s="3">
+        <v>3.65</v>
+      </c>
       <c r="M405" s="3"/>
       <c r="N405" s="3">
         <v>16.5</v>
       </c>
       <c r="O405" s="3"/>
-      <c r="P405" s="3"/>
+      <c r="P405">
+        <v>57</v>
+      </c>
       <c r="Q405" s="3"/>
       <c r="R405" s="3"/>
       <c r="S405" s="3"/>
@@ -20780,9 +22132,12 @@
         <v>7</v>
       </c>
       <c r="K406" s="6"/>
-      <c r="L406"/>
+      <c r="L406" s="31"/>
       <c r="N406">
         <v>7.3</v>
+      </c>
+      <c r="P406">
+        <v>57</v>
       </c>
       <c r="Q406" s="17" t="s">
         <v>1410</v>
@@ -20828,7 +22183,9 @@
         <v>19.399999999999999</v>
       </c>
       <c r="O407" s="3"/>
-      <c r="P407" s="3"/>
+      <c r="P407">
+        <v>37</v>
+      </c>
       <c r="Q407" s="3"/>
       <c r="R407" s="3"/>
       <c r="S407" s="3"/>
@@ -20861,10 +22218,16 @@
         <v>7</v>
       </c>
       <c r="K408" s="6"/>
+      <c r="L408" s="35" t="s">
+        <v>1389</v>
+      </c>
       <c r="N408" s="12" t="s">
         <v>1389</v>
       </c>
       <c r="O408" s="12"/>
+      <c r="P408">
+        <v>37</v>
+      </c>
       <c r="S408" s="12" t="s">
         <v>1388</v>
       </c>
@@ -20905,7 +22268,9 @@
         <v>18</v>
       </c>
       <c r="O409" s="3"/>
-      <c r="P409" s="3"/>
+      <c r="P409">
+        <v>37</v>
+      </c>
       <c r="Q409" s="3"/>
       <c r="R409" s="3"/>
       <c r="S409" s="3"/>
@@ -20945,8 +22310,11 @@
         <v>11.7</v>
       </c>
       <c r="O410" s="3"/>
-    </row>
-    <row r="411" spans="1:19" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P410">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="411" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
         <v>1069</v>
       </c>
@@ -20982,14 +22350,16 @@
         <v>10.4</v>
       </c>
       <c r="O411" s="11"/>
-      <c r="P411" s="3"/>
+      <c r="P411">
+        <v>37</v>
+      </c>
       <c r="Q411" s="3" t="s">
         <v>1410</v>
       </c>
       <c r="R411" s="3" t="s">
-        <v>1431</v>
-      </c>
-      <c r="S411" s="33" t="s">
+        <v>1430</v>
+      </c>
+      <c r="S411" s="11" t="s">
         <v>1390</v>
       </c>
     </row>
@@ -21021,8 +22391,14 @@
         <v>7</v>
       </c>
       <c r="K412" s="6"/>
+      <c r="L412" s="18">
+        <v>4.75</v>
+      </c>
       <c r="N412" s="18">
         <v>34.9</v>
+      </c>
+      <c r="P412">
+        <v>37</v>
       </c>
     </row>
     <row r="413" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21053,13 +22429,17 @@
         <v>7</v>
       </c>
       <c r="K413" s="7"/>
-      <c r="L413" s="21"/>
+      <c r="L413" s="21">
+        <v>4.3499999999999996</v>
+      </c>
       <c r="M413" s="3"/>
       <c r="N413" s="21">
         <v>11.9</v>
       </c>
       <c r="O413" s="3"/>
-      <c r="P413" s="3"/>
+      <c r="P413">
+        <v>37</v>
+      </c>
       <c r="Q413" s="11" t="s">
         <v>1410</v>
       </c>
@@ -21096,8 +22476,14 @@
         <v>7</v>
       </c>
       <c r="K414" s="6"/>
+      <c r="L414" s="18">
+        <v>5.33</v>
+      </c>
       <c r="N414" s="21">
         <v>12.7</v>
+      </c>
+      <c r="P414">
+        <v>37</v>
       </c>
       <c r="Q414" s="17" t="s">
         <v>1410</v>
@@ -21135,13 +22521,17 @@
         <v>7</v>
       </c>
       <c r="K415" s="7"/>
-      <c r="L415" s="21"/>
+      <c r="L415" s="21">
+        <v>4.34</v>
+      </c>
       <c r="M415" s="3"/>
       <c r="N415" s="25">
         <v>32.1</v>
       </c>
       <c r="O415" s="3"/>
-      <c r="P415" s="3"/>
+      <c r="P415">
+        <v>37</v>
+      </c>
       <c r="Q415" s="3"/>
       <c r="R415" s="3"/>
       <c r="S415" s="3"/>
@@ -21174,8 +22564,14 @@
         <v>7</v>
       </c>
       <c r="K416" s="6"/>
+      <c r="L416" s="33" t="s">
+        <v>1389</v>
+      </c>
       <c r="N416" s="28" t="s">
         <v>1389</v>
+      </c>
+      <c r="P416">
+        <v>37</v>
       </c>
       <c r="S416" s="17" t="s">
         <v>1394</v>
@@ -21209,13 +22605,17 @@
         <v>7</v>
       </c>
       <c r="K417" s="7"/>
-      <c r="L417" s="3"/>
+      <c r="L417" s="3">
+        <v>3.29</v>
+      </c>
       <c r="M417" s="3"/>
       <c r="N417" s="3">
         <v>26</v>
       </c>
       <c r="O417" s="3"/>
-      <c r="P417" s="3"/>
+      <c r="P417">
+        <v>57</v>
+      </c>
       <c r="Q417" s="3"/>
       <c r="R417" s="3"/>
       <c r="S417" s="3"/>
@@ -21248,9 +22648,20 @@
         <v>7</v>
       </c>
       <c r="K418" s="6"/>
-      <c r="L418"/>
+      <c r="L418">
+        <v>3.38</v>
+      </c>
+      <c r="M418">
+        <v>1.35</v>
+      </c>
       <c r="N418" s="17">
         <v>12.8</v>
+      </c>
+      <c r="O418">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P418">
+        <v>57</v>
       </c>
       <c r="S418" s="17"/>
     </row>
@@ -21282,13 +22693,21 @@
         <v>7</v>
       </c>
       <c r="K419" s="7"/>
-      <c r="L419" s="3"/>
-      <c r="M419" s="3"/>
+      <c r="L419" s="3">
+        <v>4.45</v>
+      </c>
+      <c r="M419" s="3">
+        <v>1.9</v>
+      </c>
       <c r="N419" s="3">
         <v>17.5</v>
       </c>
-      <c r="O419" s="3"/>
-      <c r="P419" s="3"/>
+      <c r="O419" s="3">
+        <v>7</v>
+      </c>
+      <c r="P419">
+        <v>57</v>
+      </c>
       <c r="Q419" s="3"/>
       <c r="R419" s="3"/>
       <c r="S419" s="3"/>
@@ -21316,14 +22735,19 @@
       <c r="H420" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I420" s="6"/>
+      <c r="I420" s="34"/>
       <c r="J420" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K420" s="6"/>
-      <c r="L420"/>
+      <c r="L420">
+        <v>3.82</v>
+      </c>
       <c r="N420">
         <v>12</v>
+      </c>
+      <c r="P420">
+        <v>57</v>
       </c>
     </row>
     <row r="421" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21354,13 +22778,17 @@
         <v>7</v>
       </c>
       <c r="K421" s="7"/>
-      <c r="L421" s="3"/>
+      <c r="L421" s="3">
+        <v>4.8600000000000003</v>
+      </c>
       <c r="M421" s="3"/>
       <c r="N421" s="3">
         <v>17.600000000000001</v>
       </c>
       <c r="O421" s="3"/>
-      <c r="P421" s="3"/>
+      <c r="P421">
+        <v>57</v>
+      </c>
       <c r="Q421" s="3"/>
       <c r="R421" s="3"/>
       <c r="S421" s="3"/>
@@ -21399,8 +22827,11 @@
       <c r="N422">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="423" spans="1:19" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P422">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="423" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
         <v>1088</v>
       </c>
@@ -21440,13 +22871,15 @@
       <c r="O423" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="P423" s="3"/>
+      <c r="P423">
+        <v>37</v>
+      </c>
       <c r="Q423" s="3" t="s">
         <v>1410</v>
       </c>
       <c r="R423" s="3"/>
       <c r="S423" s="30" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="424" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21483,8 +22916,11 @@
       <c r="N424">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="425" spans="1:19" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P424">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="425" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
         <v>1090</v>
       </c>
@@ -21524,14 +22960,16 @@
       <c r="O425" s="11">
         <v>3.4</v>
       </c>
-      <c r="P425" s="3"/>
+      <c r="P425">
+        <v>37</v>
+      </c>
       <c r="Q425" s="3" t="s">
         <v>1410</v>
       </c>
       <c r="R425" s="3" t="s">
         <v>1410</v>
       </c>
-      <c r="S425" s="34" t="s">
+      <c r="S425" s="12" t="s">
         <v>1392</v>
       </c>
     </row>
@@ -21569,6 +23007,9 @@
       <c r="N426">
         <v>14.5</v>
       </c>
+      <c r="P426">
+        <v>37</v>
+      </c>
     </row>
     <row r="427" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
@@ -21598,13 +23039,17 @@
         <v>7</v>
       </c>
       <c r="K427" s="7"/>
-      <c r="L427" s="21"/>
+      <c r="L427" s="21">
+        <v>4.8600000000000003</v>
+      </c>
       <c r="M427" s="3"/>
       <c r="N427" s="21">
         <v>13.5</v>
       </c>
       <c r="O427" s="3"/>
-      <c r="P427" s="3"/>
+      <c r="P427">
+        <v>37</v>
+      </c>
       <c r="Q427" s="3"/>
       <c r="R427" s="3"/>
       <c r="S427" s="3"/>
@@ -21637,8 +23082,14 @@
         <v>7</v>
       </c>
       <c r="K428" s="6"/>
+      <c r="L428" s="18">
+        <v>3.46</v>
+      </c>
       <c r="N428" s="18">
         <v>20</v>
+      </c>
+      <c r="P428">
+        <v>37</v>
       </c>
     </row>
     <row r="429" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21669,13 +23120,17 @@
         <v>7</v>
       </c>
       <c r="K429" s="7"/>
-      <c r="L429" s="21"/>
+      <c r="L429" s="21">
+        <v>3.51</v>
+      </c>
       <c r="M429" s="3"/>
       <c r="N429" s="21">
         <v>16.3</v>
       </c>
       <c r="O429" s="3"/>
-      <c r="P429" s="3"/>
+      <c r="P429">
+        <v>37</v>
+      </c>
       <c r="Q429" s="3"/>
       <c r="R429" s="3"/>
       <c r="S429" s="3"/>
@@ -21708,8 +23163,14 @@
         <v>7</v>
       </c>
       <c r="K430" s="6"/>
+      <c r="L430" s="18">
+        <v>3.88</v>
+      </c>
       <c r="N430" s="18">
         <v>15.4</v>
+      </c>
+      <c r="P430">
+        <v>37</v>
       </c>
     </row>
     <row r="431" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21740,13 +23201,17 @@
         <v>7</v>
       </c>
       <c r="K431" s="7"/>
-      <c r="L431" s="21"/>
+      <c r="L431" s="21">
+        <v>4.08</v>
+      </c>
       <c r="M431" s="3"/>
       <c r="N431" s="21">
         <v>16.600000000000001</v>
       </c>
       <c r="O431" s="3"/>
-      <c r="P431" s="3"/>
+      <c r="P431">
+        <v>37</v>
+      </c>
       <c r="Q431" s="3"/>
       <c r="R431" s="3"/>
       <c r="S431" s="3"/>
@@ -21779,9 +23244,14 @@
         <v>7</v>
       </c>
       <c r="K432" s="6"/>
-      <c r="L432"/>
+      <c r="L432" s="32" t="s">
+        <v>1389</v>
+      </c>
       <c r="N432" s="17" t="s">
         <v>1389</v>
+      </c>
+      <c r="P432">
+        <v>57</v>
       </c>
       <c r="S432" s="17" t="s">
         <v>1394</v>
@@ -21815,13 +23285,17 @@
         <v>7</v>
       </c>
       <c r="K433" s="7"/>
-      <c r="L433" s="3"/>
+      <c r="L433" s="3">
+        <v>3.67</v>
+      </c>
       <c r="M433" s="3"/>
       <c r="N433" s="3">
         <v>12.5</v>
       </c>
       <c r="O433" s="3"/>
-      <c r="P433" s="3"/>
+      <c r="P433">
+        <v>57</v>
+      </c>
       <c r="Q433" s="3"/>
       <c r="R433" s="3"/>
       <c r="S433" s="3"/>
@@ -21854,9 +23328,14 @@
         <v>7</v>
       </c>
       <c r="K434" s="6"/>
-      <c r="L434"/>
+      <c r="L434">
+        <v>4.12</v>
+      </c>
       <c r="N434">
         <v>16.2</v>
+      </c>
+      <c r="P434">
+        <v>57</v>
       </c>
     </row>
     <row r="435" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21887,13 +23366,17 @@
         <v>7</v>
       </c>
       <c r="K435" s="7"/>
-      <c r="L435" s="3"/>
+      <c r="L435" s="3">
+        <v>4.0199999999999996</v>
+      </c>
       <c r="M435" s="3"/>
       <c r="N435" s="3">
         <v>28.1</v>
       </c>
       <c r="O435" s="3"/>
-      <c r="P435" s="3"/>
+      <c r="P435">
+        <v>57</v>
+      </c>
       <c r="Q435" s="11"/>
       <c r="R435" s="11"/>
       <c r="S435" s="3"/>
@@ -21926,9 +23409,14 @@
         <v>7</v>
       </c>
       <c r="K436" s="6"/>
-      <c r="L436"/>
+      <c r="L436">
+        <v>4.75</v>
+      </c>
       <c r="N436">
         <v>7.9</v>
+      </c>
+      <c r="P436">
+        <v>57</v>
       </c>
       <c r="Q436" s="17" t="s">
         <v>1410</v>
@@ -21974,7 +23462,9 @@
         <v>10.9</v>
       </c>
       <c r="O437" s="3"/>
-      <c r="P437" s="3"/>
+      <c r="P437">
+        <v>37</v>
+      </c>
       <c r="Q437" s="3"/>
       <c r="R437" s="3"/>
       <c r="S437" s="3"/>
@@ -22013,6 +23503,9 @@
       <c r="N438">
         <v>15.6</v>
       </c>
+      <c r="P438">
+        <v>37</v>
+      </c>
     </row>
     <row r="439" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
@@ -22050,13 +23543,15 @@
         <v>11.2</v>
       </c>
       <c r="O439" s="3"/>
-      <c r="P439" s="3"/>
+      <c r="P439">
+        <v>37</v>
+      </c>
       <c r="Q439" s="3"/>
       <c r="R439" s="3" t="s">
         <v>1410</v>
       </c>
       <c r="S439" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="440" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22093,6 +23588,9 @@
       <c r="N440">
         <v>11.8</v>
       </c>
+      <c r="P440">
+        <v>37</v>
+      </c>
     </row>
     <row r="441" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
@@ -22130,7 +23628,9 @@
         <v>15.2</v>
       </c>
       <c r="O441" s="3"/>
-      <c r="P441" s="3"/>
+      <c r="P441">
+        <v>37</v>
+      </c>
       <c r="Q441" s="3"/>
       <c r="R441" s="3"/>
       <c r="S441" s="3"/>
@@ -22163,8 +23663,14 @@
         <v>7</v>
       </c>
       <c r="K442" s="6"/>
+      <c r="L442" s="18">
+        <v>3.93</v>
+      </c>
       <c r="N442" s="18">
         <v>13.5</v>
+      </c>
+      <c r="P442">
+        <v>37</v>
       </c>
     </row>
     <row r="443" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22195,13 +23701,21 @@
         <v>7</v>
       </c>
       <c r="K443" s="7"/>
-      <c r="L443" s="21"/>
-      <c r="M443" s="3"/>
+      <c r="L443" s="21">
+        <v>3.09</v>
+      </c>
+      <c r="M443" s="3">
+        <v>3.35</v>
+      </c>
       <c r="N443" s="21">
         <v>12.1</v>
       </c>
-      <c r="O443" s="3"/>
-      <c r="P443" s="3"/>
+      <c r="O443" s="3">
+        <v>14.4</v>
+      </c>
+      <c r="P443">
+        <v>37</v>
+      </c>
       <c r="Q443" s="3"/>
       <c r="R443" s="3"/>
       <c r="S443" s="3"/>
@@ -22234,8 +23748,17 @@
         <v>7</v>
       </c>
       <c r="K444" s="6"/>
-      <c r="N444" s="18">
-        <v>10.3</v>
+      <c r="L444" s="33" t="s">
+        <v>1389</v>
+      </c>
+      <c r="N444" s="33" t="s">
+        <v>1389</v>
+      </c>
+      <c r="O444" s="32" t="s">
+        <v>1389</v>
+      </c>
+      <c r="P444">
+        <v>37</v>
       </c>
       <c r="Q444" s="17" t="s">
         <v>1410</v>
@@ -22273,13 +23796,17 @@
         <v>7</v>
       </c>
       <c r="K445" s="7"/>
-      <c r="L445" s="21"/>
-      <c r="M445" s="3"/>
+      <c r="L445" s="21">
+        <v>3.57</v>
+      </c>
+      <c r="M445" s="15"/>
       <c r="N445" s="21">
-        <v>23.7</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="O445" s="3"/>
-      <c r="P445" s="3"/>
+      <c r="P445">
+        <v>37</v>
+      </c>
       <c r="Q445" s="3"/>
       <c r="R445" s="3"/>
       <c r="S445" s="3"/>
@@ -22312,8 +23839,14 @@
         <v>7</v>
       </c>
       <c r="K446" s="6"/>
+      <c r="L446" s="18">
+        <v>5.3</v>
+      </c>
       <c r="N446" s="18">
         <v>24</v>
+      </c>
+      <c r="P446">
+        <v>37</v>
       </c>
     </row>
     <row r="447" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22352,7 +23885,9 @@
         <v>21</v>
       </c>
       <c r="O447" s="3"/>
-      <c r="P447" s="3"/>
+      <c r="P447">
+        <v>57</v>
+      </c>
       <c r="Q447" s="3"/>
       <c r="R447" s="3"/>
       <c r="S447" s="3"/>
@@ -22397,7 +23932,10 @@
       <c r="O448">
         <v>19.3</v>
       </c>
-      <c r="S448" s="32"/>
+      <c r="P448">
+        <v>57</v>
+      </c>
+      <c r="S448" s="17"/>
     </row>
     <row r="449" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
@@ -22427,13 +23965,17 @@
         <v>7</v>
       </c>
       <c r="K449" s="7"/>
-      <c r="L449" s="3"/>
+      <c r="L449" s="3">
+        <v>8.14</v>
+      </c>
       <c r="M449" s="3"/>
       <c r="N449" s="3">
         <v>17.899999999999999</v>
       </c>
       <c r="O449" s="3"/>
-      <c r="P449" s="3"/>
+      <c r="P449">
+        <v>57</v>
+      </c>
       <c r="Q449" s="3"/>
       <c r="R449" s="3"/>
       <c r="S449" s="3"/>
@@ -22466,9 +24008,14 @@
         <v>7</v>
       </c>
       <c r="K450" s="6"/>
-      <c r="L450"/>
+      <c r="L450">
+        <v>3.64</v>
+      </c>
       <c r="N450">
         <v>10.8</v>
+      </c>
+      <c r="P450">
+        <v>57</v>
       </c>
     </row>
     <row r="451" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22507,7 +24054,9 @@
         <v>10.4</v>
       </c>
       <c r="O451" s="3"/>
-      <c r="P451" s="3"/>
+      <c r="P451">
+        <v>57</v>
+      </c>
       <c r="Q451" s="11" t="s">
         <v>1410</v>
       </c>
@@ -22550,6 +24099,9 @@
       <c r="N452">
         <v>27.2</v>
       </c>
+      <c r="P452">
+        <v>37</v>
+      </c>
     </row>
     <row r="453" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
@@ -22587,7 +24139,9 @@
         <v>27.8</v>
       </c>
       <c r="O453" s="3"/>
-      <c r="P453" s="3"/>
+      <c r="P453">
+        <v>37</v>
+      </c>
       <c r="Q453" s="3"/>
       <c r="R453" s="3"/>
       <c r="S453" s="3"/>
@@ -22626,6 +24180,9 @@
       <c r="N454">
         <v>31.1</v>
       </c>
+      <c r="P454">
+        <v>37</v>
+      </c>
     </row>
     <row r="455" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
@@ -22663,7 +24220,9 @@
         <v>39.1</v>
       </c>
       <c r="O455" s="3"/>
-      <c r="P455" s="3"/>
+      <c r="P455">
+        <v>37</v>
+      </c>
       <c r="Q455" s="3"/>
       <c r="R455" s="3"/>
       <c r="S455" s="3"/>
@@ -22702,6 +24261,9 @@
       <c r="N456">
         <v>23.3</v>
       </c>
+      <c r="P456">
+        <v>37</v>
+      </c>
     </row>
     <row r="457" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
@@ -22739,7 +24301,9 @@
         <v>38.6</v>
       </c>
       <c r="O457" s="3"/>
-      <c r="P457" s="3"/>
+      <c r="P457">
+        <v>37</v>
+      </c>
       <c r="Q457" s="3"/>
       <c r="R457" s="3"/>
       <c r="S457" s="3"/>
@@ -22778,6 +24342,9 @@
       <c r="N458" s="18">
         <v>46.3</v>
       </c>
+      <c r="P458">
+        <v>37</v>
+      </c>
     </row>
     <row r="459" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="s">
@@ -22815,7 +24382,9 @@
         <v>44.3</v>
       </c>
       <c r="O459" s="3"/>
-      <c r="P459" s="3"/>
+      <c r="P459">
+        <v>37</v>
+      </c>
       <c r="Q459" s="3"/>
       <c r="R459" s="3"/>
       <c r="S459" s="3"/>
@@ -22854,6 +24423,9 @@
       <c r="N460" s="18">
         <v>25.1</v>
       </c>
+      <c r="P460">
+        <v>37</v>
+      </c>
     </row>
     <row r="461" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="3" t="s">
@@ -22891,7 +24463,9 @@
         <v>27</v>
       </c>
       <c r="O461" s="3"/>
-      <c r="P461" s="3"/>
+      <c r="P461">
+        <v>37</v>
+      </c>
       <c r="Q461" s="3"/>
       <c r="R461" s="3"/>
       <c r="S461" s="3"/>
@@ -22924,9 +24498,14 @@
         <v>318</v>
       </c>
       <c r="K462" s="6"/>
-      <c r="L462"/>
+      <c r="L462">
+        <v>7.39</v>
+      </c>
       <c r="N462" s="8">
         <v>24</v>
+      </c>
+      <c r="P462">
+        <v>57</v>
       </c>
       <c r="Q462" s="19" t="s">
         <v>1410</v>
@@ -22964,13 +24543,17 @@
         <v>318</v>
       </c>
       <c r="K463" s="7"/>
-      <c r="L463" s="3"/>
+      <c r="L463" s="3">
+        <v>7.76</v>
+      </c>
       <c r="M463" s="3"/>
       <c r="N463" s="9">
         <v>43</v>
       </c>
       <c r="O463" s="3"/>
-      <c r="P463" s="3"/>
+      <c r="P463">
+        <v>57</v>
+      </c>
       <c r="Q463" s="3"/>
       <c r="R463" s="3"/>
       <c r="S463" s="3"/>
@@ -23003,9 +24586,14 @@
         <v>318</v>
       </c>
       <c r="K464" s="6"/>
-      <c r="L464"/>
+      <c r="L464">
+        <v>7.99</v>
+      </c>
       <c r="N464">
         <v>48.6</v>
+      </c>
+      <c r="P464">
+        <v>57</v>
       </c>
     </row>
     <row r="465" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23036,13 +24624,17 @@
         <v>318</v>
       </c>
       <c r="K465" s="7"/>
-      <c r="L465" s="3"/>
+      <c r="L465" s="3">
+        <v>6.2</v>
+      </c>
       <c r="M465" s="3"/>
       <c r="N465" s="3">
         <v>21.9</v>
       </c>
       <c r="O465" s="3"/>
-      <c r="P465" s="3"/>
+      <c r="P465">
+        <v>57</v>
+      </c>
       <c r="Q465" s="3"/>
       <c r="R465" s="3"/>
       <c r="S465" s="3"/>
@@ -23075,9 +24667,14 @@
         <v>318</v>
       </c>
       <c r="K466" s="6"/>
-      <c r="L466"/>
+      <c r="L466">
+        <v>9.66</v>
+      </c>
       <c r="N466">
         <v>33.9</v>
+      </c>
+      <c r="P466">
+        <v>57</v>
       </c>
     </row>
     <row r="467" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23116,7 +24713,9 @@
         <v>28.9</v>
       </c>
       <c r="O467" s="3"/>
-      <c r="P467" s="3"/>
+      <c r="P467">
+        <v>37</v>
+      </c>
       <c r="Q467" s="3"/>
       <c r="R467" s="3"/>
       <c r="S467" s="3"/>
@@ -23155,6 +24754,9 @@
       <c r="N468" s="8">
         <v>32</v>
       </c>
+      <c r="P468">
+        <v>37</v>
+      </c>
     </row>
     <row r="469" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="3" t="s">
@@ -23192,7 +24794,9 @@
         <v>25.1</v>
       </c>
       <c r="O469" s="3"/>
-      <c r="P469" s="3"/>
+      <c r="P469">
+        <v>37</v>
+      </c>
       <c r="Q469" s="3"/>
       <c r="R469" s="3"/>
       <c r="S469" s="3"/>
@@ -23231,6 +24835,9 @@
       <c r="N470">
         <v>19.8</v>
       </c>
+      <c r="P470">
+        <v>37</v>
+      </c>
     </row>
     <row r="471" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
@@ -23268,7 +24875,9 @@
         <v>26.7</v>
       </c>
       <c r="O471" s="3"/>
-      <c r="P471" s="3"/>
+      <c r="P471">
+        <v>37</v>
+      </c>
       <c r="Q471" s="3"/>
       <c r="R471" s="3"/>
       <c r="S471" s="3"/>
@@ -23307,6 +24916,9 @@
       <c r="N472" s="18">
         <v>31.1</v>
       </c>
+      <c r="P472">
+        <v>37</v>
+      </c>
     </row>
     <row r="473" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="3" t="s">
@@ -23344,7 +24956,9 @@
         <v>26.3</v>
       </c>
       <c r="O473" s="3"/>
-      <c r="P473" s="3"/>
+      <c r="P473">
+        <v>37</v>
+      </c>
       <c r="Q473" s="3"/>
       <c r="R473" s="3"/>
       <c r="S473" s="3"/>
@@ -23383,6 +24997,9 @@
       <c r="N474" s="18">
         <v>28.3</v>
       </c>
+      <c r="P474">
+        <v>37</v>
+      </c>
     </row>
     <row r="475" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="3" t="s">
@@ -23420,7 +25037,9 @@
         <v>27.7</v>
       </c>
       <c r="O475" s="3"/>
-      <c r="P475" s="3"/>
+      <c r="P475">
+        <v>37</v>
+      </c>
       <c r="Q475" s="3"/>
       <c r="R475" s="3"/>
       <c r="S475" s="3"/>
@@ -23459,6 +25078,9 @@
       <c r="N476" s="18">
         <v>21.2</v>
       </c>
+      <c r="P476">
+        <v>37</v>
+      </c>
     </row>
     <row r="477" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="s">
@@ -23488,13 +25110,17 @@
         <v>318</v>
       </c>
       <c r="K477" s="7"/>
-      <c r="L477" s="3"/>
+      <c r="L477" s="3">
+        <v>8.41</v>
+      </c>
       <c r="M477" s="3"/>
       <c r="N477" s="3">
         <v>24.6</v>
       </c>
       <c r="O477" s="3"/>
-      <c r="P477" s="3"/>
+      <c r="P477">
+        <v>57</v>
+      </c>
       <c r="Q477" s="3"/>
       <c r="R477" s="3"/>
       <c r="S477" s="3"/>
@@ -23527,9 +25153,14 @@
         <v>318</v>
       </c>
       <c r="K478" s="6"/>
-      <c r="L478"/>
+      <c r="L478">
+        <v>4.8</v>
+      </c>
       <c r="N478">
         <v>27.9</v>
+      </c>
+      <c r="P478">
+        <v>57</v>
       </c>
     </row>
     <row r="479" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23560,13 +25191,17 @@
         <v>318</v>
       </c>
       <c r="K479" s="7"/>
-      <c r="L479" s="3"/>
+      <c r="L479" s="3">
+        <v>6.13</v>
+      </c>
       <c r="M479" s="3"/>
       <c r="N479" s="3">
         <v>33.4</v>
       </c>
       <c r="O479" s="3"/>
-      <c r="P479" s="3"/>
+      <c r="P479">
+        <v>57</v>
+      </c>
       <c r="Q479" s="3"/>
       <c r="R479" s="3"/>
       <c r="S479" s="3"/>
@@ -23599,9 +25234,14 @@
         <v>318</v>
       </c>
       <c r="K480" s="6"/>
-      <c r="L480"/>
+      <c r="L480">
+        <v>8.39</v>
+      </c>
       <c r="N480">
         <v>28.4</v>
+      </c>
+      <c r="P480">
+        <v>57</v>
       </c>
     </row>
     <row r="481" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23632,13 +25272,17 @@
         <v>318</v>
       </c>
       <c r="K481" s="7"/>
-      <c r="L481" s="3"/>
+      <c r="L481" s="3">
+        <v>6.07</v>
+      </c>
       <c r="M481" s="3"/>
       <c r="N481" s="3">
         <v>27.1</v>
       </c>
       <c r="O481" s="3"/>
-      <c r="P481" s="3"/>
+      <c r="P481">
+        <v>57</v>
+      </c>
       <c r="Q481" s="3"/>
       <c r="R481" s="3"/>
       <c r="S481" s="3"/>
@@ -23677,6 +25321,9 @@
       <c r="N482">
         <v>34.299999999999997</v>
       </c>
+      <c r="P482">
+        <v>37</v>
+      </c>
     </row>
     <row r="483" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="3" t="s">
@@ -23714,7 +25361,9 @@
         <v>37.200000000000003</v>
       </c>
       <c r="O483" s="3"/>
-      <c r="P483" s="3"/>
+      <c r="P483">
+        <v>37</v>
+      </c>
       <c r="Q483" s="3"/>
       <c r="R483" s="3"/>
       <c r="S483" s="3"/>
@@ -23753,6 +25402,9 @@
       <c r="N484">
         <v>25.4</v>
       </c>
+      <c r="P484">
+        <v>37</v>
+      </c>
     </row>
     <row r="485" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="3" t="s">
@@ -23790,7 +25442,9 @@
         <v>34.5</v>
       </c>
       <c r="O485" s="3"/>
-      <c r="P485" s="3"/>
+      <c r="P485">
+        <v>37</v>
+      </c>
       <c r="Q485" s="3"/>
       <c r="R485" s="3"/>
       <c r="S485" s="3"/>
@@ -23829,6 +25483,9 @@
       <c r="N486">
         <v>23.1</v>
       </c>
+      <c r="P486">
+        <v>37</v>
+      </c>
     </row>
     <row r="487" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="3" t="s">
@@ -23866,7 +25523,9 @@
         <v>28.7</v>
       </c>
       <c r="O487" s="3"/>
-      <c r="P487" s="3"/>
+      <c r="P487">
+        <v>37</v>
+      </c>
       <c r="Q487" s="3"/>
       <c r="R487" s="3"/>
       <c r="S487" s="3"/>
@@ -23905,6 +25564,9 @@
       <c r="N488" s="18">
         <v>40.299999999999997</v>
       </c>
+      <c r="P488">
+        <v>37</v>
+      </c>
     </row>
     <row r="489" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="3" t="s">
@@ -23942,7 +25604,9 @@
         <v>45.4</v>
       </c>
       <c r="O489" s="3"/>
-      <c r="P489" s="3"/>
+      <c r="P489">
+        <v>37</v>
+      </c>
       <c r="Q489" s="3"/>
       <c r="R489" s="3"/>
       <c r="S489" s="3"/>
@@ -23981,6 +25645,9 @@
       <c r="N490" s="18">
         <v>53.9</v>
       </c>
+      <c r="P490">
+        <v>37</v>
+      </c>
     </row>
     <row r="491" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
@@ -24018,7 +25685,9 @@
         <v>24.2</v>
       </c>
       <c r="O491" s="3"/>
-      <c r="P491" s="3"/>
+      <c r="P491">
+        <v>37</v>
+      </c>
       <c r="Q491" s="3"/>
       <c r="R491" s="3"/>
       <c r="S491" s="3"/>
@@ -24051,9 +25720,14 @@
         <v>318</v>
       </c>
       <c r="K492" s="6"/>
-      <c r="L492"/>
+      <c r="L492">
+        <v>5.08</v>
+      </c>
       <c r="N492">
         <v>21.6</v>
+      </c>
+      <c r="P492">
+        <v>57</v>
       </c>
     </row>
     <row r="493" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24084,13 +25758,17 @@
         <v>318</v>
       </c>
       <c r="K493" s="7"/>
-      <c r="L493" s="3"/>
+      <c r="L493" s="3">
+        <v>7.06</v>
+      </c>
       <c r="M493" s="3"/>
       <c r="N493" s="9">
         <v>35</v>
       </c>
       <c r="O493" s="3"/>
-      <c r="P493" s="3"/>
+      <c r="P493">
+        <v>57</v>
+      </c>
       <c r="Q493" s="3"/>
       <c r="R493" s="3"/>
       <c r="S493" s="3"/>
@@ -24123,12 +25801,17 @@
         <v>318</v>
       </c>
       <c r="K494" s="6"/>
-      <c r="L494"/>
+      <c r="L494">
+        <v>5.28</v>
+      </c>
       <c r="N494">
         <v>24.9</v>
       </c>
+      <c r="P494">
+        <v>57</v>
+      </c>
       <c r="S494" s="19" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="495" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24159,13 +25842,17 @@
         <v>318</v>
       </c>
       <c r="K495" s="7"/>
-      <c r="L495" s="3"/>
+      <c r="L495" s="3" t="s">
+        <v>1389</v>
+      </c>
       <c r="M495" s="3"/>
       <c r="N495" s="3" t="s">
         <v>1389</v>
       </c>
       <c r="O495" s="3"/>
-      <c r="P495" s="3"/>
+      <c r="P495">
+        <v>57</v>
+      </c>
       <c r="Q495" s="3"/>
       <c r="R495" s="3"/>
       <c r="S495" s="3" t="s">
@@ -24200,9 +25887,14 @@
         <v>318</v>
       </c>
       <c r="K496" s="6"/>
-      <c r="L496"/>
+      <c r="L496">
+        <v>8.52</v>
+      </c>
       <c r="N496">
         <v>30.9</v>
+      </c>
+      <c r="P496">
+        <v>57</v>
       </c>
     </row>
     <row r="497" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24241,7 +25933,9 @@
         <v>30.1</v>
       </c>
       <c r="O497" s="3"/>
-      <c r="P497" s="3"/>
+      <c r="P497">
+        <v>37</v>
+      </c>
       <c r="Q497" s="3"/>
       <c r="R497" s="3"/>
       <c r="S497" s="3"/>
@@ -24280,6 +25974,9 @@
       <c r="N498">
         <v>37.799999999999997</v>
       </c>
+      <c r="P498">
+        <v>37</v>
+      </c>
     </row>
     <row r="499" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="3" t="s">
@@ -24317,7 +26014,9 @@
         <v>29</v>
       </c>
       <c r="O499" s="3"/>
-      <c r="P499" s="3"/>
+      <c r="P499">
+        <v>37</v>
+      </c>
       <c r="Q499" s="3"/>
       <c r="R499" s="3"/>
       <c r="S499" s="3"/>
@@ -24356,6 +26055,9 @@
       <c r="N500">
         <v>39.299999999999997</v>
       </c>
+      <c r="P500">
+        <v>37</v>
+      </c>
     </row>
     <row r="501" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="3" t="s">
@@ -24393,7 +26095,9 @@
         <v>31.1</v>
       </c>
       <c r="O501" s="3"/>
-      <c r="P501" s="3"/>
+      <c r="P501">
+        <v>37</v>
+      </c>
       <c r="Q501" s="3"/>
       <c r="R501" s="3"/>
       <c r="S501" s="3"/>
@@ -24426,8 +26130,14 @@
         <v>318</v>
       </c>
       <c r="K502" s="6"/>
+      <c r="L502" s="37" t="s">
+        <v>1389</v>
+      </c>
       <c r="N502" s="28" t="s">
         <v>1389</v>
+      </c>
+      <c r="P502">
+        <v>37</v>
       </c>
       <c r="S502" s="17" t="s">
         <v>1394</v>
@@ -24469,7 +26179,9 @@
         <v>30</v>
       </c>
       <c r="O503" s="11"/>
-      <c r="P503" s="3"/>
+      <c r="P503">
+        <v>37</v>
+      </c>
       <c r="Q503" s="11" t="s">
         <v>1410</v>
       </c>
@@ -24512,6 +26224,9 @@
       <c r="N504" s="18">
         <v>30.8</v>
       </c>
+      <c r="P504">
+        <v>37</v>
+      </c>
     </row>
     <row r="505" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="3" t="s">
@@ -24549,7 +26264,9 @@
         <v>21.6</v>
       </c>
       <c r="O505" s="3"/>
-      <c r="P505" s="3"/>
+      <c r="P505">
+        <v>37</v>
+      </c>
       <c r="Q505" s="3"/>
       <c r="R505" s="3"/>
       <c r="S505" s="3"/>
@@ -24588,6 +26305,9 @@
       <c r="N506" s="18">
         <v>26.8</v>
       </c>
+      <c r="P506">
+        <v>37</v>
+      </c>
     </row>
     <row r="507" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="3" t="s">
@@ -24617,13 +26337,17 @@
         <v>318</v>
       </c>
       <c r="K507" s="7"/>
-      <c r="L507" s="3"/>
+      <c r="L507" s="3">
+        <v>5.88</v>
+      </c>
       <c r="M507" s="3"/>
       <c r="N507" s="3">
         <v>33.799999999999997</v>
       </c>
       <c r="O507" s="3"/>
-      <c r="P507" s="3"/>
+      <c r="P507">
+        <v>57</v>
+      </c>
       <c r="Q507" s="3"/>
       <c r="R507" s="3"/>
       <c r="S507" s="3"/>
@@ -24656,9 +26380,14 @@
         <v>318</v>
       </c>
       <c r="K508" s="6"/>
-      <c r="L508"/>
+      <c r="L508">
+        <v>6.18</v>
+      </c>
       <c r="N508">
         <v>25.3</v>
+      </c>
+      <c r="P508">
+        <v>57</v>
       </c>
     </row>
     <row r="509" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24689,13 +26418,17 @@
         <v>318</v>
       </c>
       <c r="K509" s="7"/>
-      <c r="L509" s="3"/>
+      <c r="L509" s="3">
+        <v>8.26</v>
+      </c>
       <c r="M509" s="3"/>
       <c r="N509" s="3">
         <v>34.1</v>
       </c>
       <c r="O509" s="3"/>
-      <c r="P509" s="3"/>
+      <c r="P509">
+        <v>57</v>
+      </c>
       <c r="Q509" s="3"/>
       <c r="R509" s="3"/>
       <c r="S509" s="3"/>
@@ -24732,15 +26465,23 @@
         <v>318</v>
       </c>
       <c r="K510" s="6"/>
-      <c r="L510"/>
+      <c r="L510">
+        <v>4.71</v>
+      </c>
+      <c r="M510">
+        <v>6.36</v>
+      </c>
       <c r="N510">
         <v>18.899999999999999</v>
       </c>
       <c r="O510">
         <v>21.5</v>
       </c>
+      <c r="P510">
+        <v>57</v>
+      </c>
       <c r="Q510" s="19" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="R510" s="19"/>
       <c r="S510" s="19" t="s">
@@ -24783,7 +26524,9 @@
         <v>26.6</v>
       </c>
       <c r="O511" s="3"/>
-      <c r="P511" s="3"/>
+      <c r="P511">
+        <v>57</v>
+      </c>
       <c r="Q511" s="3"/>
       <c r="R511" s="3"/>
       <c r="S511" s="3"/>
@@ -24822,6 +26565,9 @@
       <c r="N512">
         <v>23.7</v>
       </c>
+      <c r="P512">
+        <v>37</v>
+      </c>
     </row>
     <row r="513" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="3" t="s">
@@ -24859,7 +26605,9 @@
         <v>31.2</v>
       </c>
       <c r="O513" s="3"/>
-      <c r="P513" s="3"/>
+      <c r="P513">
+        <v>37</v>
+      </c>
       <c r="Q513" s="3"/>
       <c r="R513" s="3"/>
       <c r="S513" s="3"/>
@@ -24898,6 +26646,9 @@
       <c r="N514">
         <v>37.4</v>
       </c>
+      <c r="P514">
+        <v>37</v>
+      </c>
     </row>
     <row r="515" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="3" t="s">
@@ -24935,7 +26686,9 @@
         <v>28.4</v>
       </c>
       <c r="O515" s="3"/>
-      <c r="P515" s="3"/>
+      <c r="P515">
+        <v>37</v>
+      </c>
       <c r="Q515" s="3"/>
       <c r="R515" s="3"/>
       <c r="S515" s="3"/>
@@ -24974,6 +26727,9 @@
       <c r="N516">
         <v>31.8</v>
       </c>
+      <c r="P516">
+        <v>37</v>
+      </c>
     </row>
     <row r="517" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="3" t="s">
@@ -25011,7 +26767,9 @@
         <v>36.200000000000003</v>
       </c>
       <c r="O517" s="3"/>
-      <c r="P517" s="3"/>
+      <c r="P517">
+        <v>37</v>
+      </c>
       <c r="Q517" s="3"/>
       <c r="R517" s="3"/>
       <c r="S517" s="3"/>
@@ -25050,6 +26808,9 @@
       <c r="N518" s="21">
         <v>28</v>
       </c>
+      <c r="P518">
+        <v>37</v>
+      </c>
     </row>
     <row r="519" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="3" t="s">
@@ -25095,7 +26856,9 @@
       <c r="O519" s="3">
         <v>34.200000000000003</v>
       </c>
-      <c r="P519" s="3"/>
+      <c r="P519">
+        <v>37</v>
+      </c>
       <c r="Q519" s="3"/>
       <c r="R519" s="3"/>
       <c r="S519" s="3"/>
@@ -25135,6 +26898,9 @@
         <v>25.3</v>
       </c>
       <c r="O520" s="17"/>
+      <c r="P520">
+        <v>37</v>
+      </c>
       <c r="Q520" s="17" t="s">
         <v>1410</v>
       </c>
@@ -25179,7 +26945,9 @@
         <v>38.6</v>
       </c>
       <c r="O521" s="3"/>
-      <c r="P521" s="3"/>
+      <c r="P521">
+        <v>37</v>
+      </c>
       <c r="Q521" s="3"/>
       <c r="R521" s="3"/>
       <c r="S521" s="3"/>
@@ -25212,9 +26980,14 @@
         <v>318</v>
       </c>
       <c r="K522" s="6"/>
-      <c r="L522"/>
+      <c r="L522">
+        <v>6.73</v>
+      </c>
       <c r="N522">
         <v>24.8</v>
+      </c>
+      <c r="P522">
+        <v>57</v>
       </c>
     </row>
     <row r="523" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -25245,13 +27018,17 @@
         <v>318</v>
       </c>
       <c r="K523" s="7"/>
-      <c r="L523" s="3"/>
+      <c r="L523" s="3">
+        <v>8.4</v>
+      </c>
       <c r="M523" s="3"/>
       <c r="N523" s="3">
         <v>26.9</v>
       </c>
       <c r="O523" s="3"/>
-      <c r="P523" s="3"/>
+      <c r="P523">
+        <v>57</v>
+      </c>
       <c r="Q523" s="3"/>
       <c r="R523" s="3"/>
       <c r="S523" s="3"/>
@@ -25284,9 +27061,14 @@
         <v>318</v>
       </c>
       <c r="K524" s="6"/>
-      <c r="L524"/>
+      <c r="L524">
+        <v>7.51</v>
+      </c>
       <c r="N524">
         <v>26.4</v>
+      </c>
+      <c r="P524">
+        <v>57</v>
       </c>
     </row>
     <row r="525" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -25317,13 +27099,17 @@
         <v>318</v>
       </c>
       <c r="K525" s="7"/>
-      <c r="L525" s="3"/>
+      <c r="L525" s="3">
+        <v>10.65</v>
+      </c>
       <c r="M525" s="3"/>
       <c r="N525" s="3">
         <v>38.1</v>
       </c>
       <c r="O525" s="3"/>
-      <c r="P525" s="3"/>
+      <c r="P525">
+        <v>57</v>
+      </c>
       <c r="Q525" s="3"/>
       <c r="R525" s="3"/>
       <c r="S525" s="3"/>
@@ -25358,9 +27144,14 @@
       <c r="K526" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="L526"/>
+      <c r="L526">
+        <v>8.42</v>
+      </c>
       <c r="N526">
         <v>41.6</v>
+      </c>
+      <c r="P526">
+        <v>57</v>
       </c>
       <c r="S526" s="15"/>
     </row>
@@ -25400,7 +27191,9 @@
         <v>34.799999999999997</v>
       </c>
       <c r="O527" s="3"/>
-      <c r="P527" s="3"/>
+      <c r="P527">
+        <v>37</v>
+      </c>
       <c r="Q527" s="3"/>
       <c r="R527" s="3"/>
       <c r="S527" s="3"/>
@@ -25439,6 +27232,9 @@
       <c r="N528">
         <v>22.6</v>
       </c>
+      <c r="P528">
+        <v>37</v>
+      </c>
     </row>
     <row r="529" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="3" t="s">
@@ -25476,7 +27272,9 @@
         <v>27.9</v>
       </c>
       <c r="O529" s="3"/>
-      <c r="P529" s="3"/>
+      <c r="P529">
+        <v>37</v>
+      </c>
       <c r="Q529" s="3"/>
       <c r="R529" s="3"/>
       <c r="S529" s="3"/>
@@ -25515,6 +27313,9 @@
       <c r="N530">
         <v>26.7</v>
       </c>
+      <c r="P530">
+        <v>37</v>
+      </c>
     </row>
     <row r="531" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="3" t="s">
@@ -25552,7 +27353,9 @@
         <v>28.4</v>
       </c>
       <c r="O531" s="3"/>
-      <c r="P531" s="3"/>
+      <c r="P531">
+        <v>37</v>
+      </c>
       <c r="Q531" s="3"/>
       <c r="R531" s="3"/>
       <c r="S531" s="3"/>
@@ -25591,6 +27394,9 @@
       <c r="N532" s="18">
         <v>28.3</v>
       </c>
+      <c r="P532">
+        <v>37</v>
+      </c>
     </row>
     <row r="533" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="3" t="s">
@@ -25628,7 +27434,9 @@
         <v>32.799999999999997</v>
       </c>
       <c r="O533" s="3"/>
-      <c r="P533" s="3"/>
+      <c r="P533">
+        <v>37</v>
+      </c>
       <c r="Q533" s="3"/>
       <c r="R533" s="3"/>
       <c r="S533" s="3"/>
@@ -25667,6 +27475,9 @@
       <c r="N534" s="18">
         <v>25.5</v>
       </c>
+      <c r="P534">
+        <v>37</v>
+      </c>
     </row>
     <row r="535" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="3" t="s">
@@ -25704,7 +27515,9 @@
         <v>37.700000000000003</v>
       </c>
       <c r="O535" s="3"/>
-      <c r="P535" s="3"/>
+      <c r="P535">
+        <v>37</v>
+      </c>
       <c r="Q535" s="3"/>
       <c r="R535" s="3"/>
       <c r="S535" s="3"/>
@@ -25743,6 +27556,9 @@
       <c r="N536" s="18">
         <v>27.7</v>
       </c>
+      <c r="P536">
+        <v>37</v>
+      </c>
     </row>
     <row r="537" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="3" t="s">
@@ -25772,13 +27588,17 @@
         <v>318</v>
       </c>
       <c r="K537" s="7"/>
-      <c r="L537" s="3"/>
+      <c r="L537" s="3">
+        <v>6.06</v>
+      </c>
       <c r="M537" s="3"/>
       <c r="N537" s="3">
         <v>26.7</v>
       </c>
       <c r="O537" s="3"/>
-      <c r="P537" s="3"/>
+      <c r="P537">
+        <v>57</v>
+      </c>
       <c r="Q537" s="3"/>
       <c r="R537" s="3"/>
       <c r="S537" s="3"/>
@@ -25811,9 +27631,14 @@
         <v>318</v>
       </c>
       <c r="K538" s="6"/>
-      <c r="L538"/>
+      <c r="L538">
+        <v>6.97</v>
+      </c>
       <c r="N538">
         <v>32.1</v>
+      </c>
+      <c r="P538">
+        <v>57</v>
       </c>
     </row>
     <row r="539" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -25844,13 +27669,17 @@
         <v>318</v>
       </c>
       <c r="K539" s="7"/>
-      <c r="L539" s="3"/>
+      <c r="L539" s="3">
+        <v>6.92</v>
+      </c>
       <c r="M539" s="3"/>
       <c r="N539" s="3">
         <v>29.2</v>
       </c>
       <c r="O539" s="3"/>
-      <c r="P539" s="3"/>
+      <c r="P539">
+        <v>57</v>
+      </c>
       <c r="Q539" s="3"/>
       <c r="R539" s="3"/>
       <c r="S539" s="3"/>
@@ -25883,9 +27712,14 @@
         <v>318</v>
       </c>
       <c r="K540" s="6"/>
-      <c r="L540"/>
+      <c r="L540">
+        <v>6.06</v>
+      </c>
       <c r="N540">
         <v>32.200000000000003</v>
+      </c>
+      <c r="P540">
+        <v>57</v>
       </c>
     </row>
     <row r="541" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -25916,13 +27750,17 @@
         <v>318</v>
       </c>
       <c r="K541" s="7"/>
-      <c r="L541" s="3"/>
+      <c r="L541" s="3">
+        <v>5.74</v>
+      </c>
       <c r="M541" s="3"/>
       <c r="N541" s="3">
         <v>25.9</v>
       </c>
       <c r="O541" s="3"/>
-      <c r="P541" s="3"/>
+      <c r="P541">
+        <v>57</v>
+      </c>
       <c r="Q541" s="3"/>
       <c r="R541" s="3"/>
       <c r="S541" s="3"/>
@@ -25961,6 +27799,9 @@
       <c r="N542" s="12" t="s">
         <v>1389</v>
       </c>
+      <c r="P542">
+        <v>37</v>
+      </c>
       <c r="S542" s="12" t="s">
         <v>1394</v>
       </c>
@@ -26001,7 +27842,9 @@
         <v>1389</v>
       </c>
       <c r="O543" s="3"/>
-      <c r="P543" s="3"/>
+      <c r="P543">
+        <v>37</v>
+      </c>
       <c r="Q543" s="3"/>
       <c r="R543" s="3"/>
       <c r="S543" s="3"/>
@@ -26040,6 +27883,9 @@
       <c r="N544" s="12" t="s">
         <v>1389</v>
       </c>
+      <c r="P544">
+        <v>37</v>
+      </c>
       <c r="S544" s="12" t="s">
         <v>1394</v>
       </c>
@@ -26080,7 +27926,9 @@
         <v>18.2</v>
       </c>
       <c r="O545" s="3"/>
-      <c r="P545" s="3"/>
+      <c r="P545">
+        <v>37</v>
+      </c>
       <c r="Q545" s="3"/>
       <c r="R545" s="3"/>
       <c r="S545" s="3"/>
@@ -26119,6 +27967,9 @@
       <c r="N546">
         <v>19.5</v>
       </c>
+      <c r="P546">
+        <v>37</v>
+      </c>
     </row>
     <row r="547" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="3" t="s">
@@ -26156,7 +28007,9 @@
         <v>27.8</v>
       </c>
       <c r="O547" s="3"/>
-      <c r="P547" s="3"/>
+      <c r="P547">
+        <v>37</v>
+      </c>
       <c r="Q547" s="3"/>
       <c r="R547" s="3"/>
       <c r="S547" s="3"/>
@@ -26195,6 +28048,9 @@
       <c r="N548" s="18">
         <v>23.2</v>
       </c>
+      <c r="P548">
+        <v>37</v>
+      </c>
     </row>
     <row r="549" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="3" t="s">
@@ -26232,7 +28088,9 @@
         <v>25.3</v>
       </c>
       <c r="O549" s="3"/>
-      <c r="P549" s="3"/>
+      <c r="P549">
+        <v>37</v>
+      </c>
       <c r="Q549" s="3"/>
       <c r="R549" s="3"/>
       <c r="S549" s="3"/>
@@ -26271,6 +28129,9 @@
       <c r="N550" s="18">
         <v>21.4</v>
       </c>
+      <c r="P550">
+        <v>37</v>
+      </c>
     </row>
     <row r="551" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="3" t="s">
@@ -26308,7 +28169,9 @@
         <v>26.8</v>
       </c>
       <c r="O551" s="3"/>
-      <c r="P551" s="3"/>
+      <c r="P551">
+        <v>37</v>
+      </c>
       <c r="Q551" s="3"/>
       <c r="R551" s="3"/>
       <c r="S551" s="3"/>
@@ -26341,9 +28204,14 @@
         <v>318</v>
       </c>
       <c r="K552" s="6"/>
-      <c r="L552"/>
+      <c r="L552" s="36" t="s">
+        <v>1389</v>
+      </c>
       <c r="N552" s="17" t="s">
         <v>1389</v>
+      </c>
+      <c r="P552">
+        <v>57</v>
       </c>
       <c r="S552" s="17" t="s">
         <v>1394</v>
@@ -26377,13 +28245,17 @@
         <v>318</v>
       </c>
       <c r="K553" s="7"/>
-      <c r="L553" s="3"/>
+      <c r="L553" s="3">
+        <v>7.11</v>
+      </c>
       <c r="M553" s="3"/>
       <c r="N553" s="3">
         <v>24.4</v>
       </c>
       <c r="O553" s="3"/>
-      <c r="P553" s="3"/>
+      <c r="P553">
+        <v>57</v>
+      </c>
       <c r="Q553" s="3"/>
       <c r="R553" s="3"/>
       <c r="S553" s="3"/>
@@ -26416,9 +28288,14 @@
         <v>318</v>
       </c>
       <c r="K554" s="6"/>
-      <c r="L554"/>
+      <c r="L554" s="36" t="s">
+        <v>1389</v>
+      </c>
       <c r="N554" s="17" t="s">
         <v>1389</v>
+      </c>
+      <c r="P554">
+        <v>57</v>
       </c>
       <c r="S554" s="17" t="s">
         <v>1394</v>
@@ -26452,13 +28329,17 @@
         <v>318</v>
       </c>
       <c r="K555" s="7"/>
-      <c r="L555" s="3"/>
+      <c r="L555" s="3">
+        <v>5.36</v>
+      </c>
       <c r="M555" s="3"/>
       <c r="N555" s="3">
         <v>17.7</v>
       </c>
       <c r="O555" s="3"/>
-      <c r="P555" s="3"/>
+      <c r="P555">
+        <v>57</v>
+      </c>
       <c r="Q555" s="3"/>
       <c r="R555" s="3"/>
       <c r="S555" s="3"/>
@@ -26491,9 +28372,14 @@
         <v>318</v>
       </c>
       <c r="K556" s="6"/>
-      <c r="L556"/>
+      <c r="L556">
+        <v>7.52</v>
+      </c>
       <c r="N556">
         <v>22.1</v>
+      </c>
+      <c r="P556">
+        <v>57</v>
       </c>
     </row>
     <row r="557" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -26532,7 +28418,9 @@
         <v>20.399999999999999</v>
       </c>
       <c r="O557" s="3"/>
-      <c r="P557" s="3"/>
+      <c r="P557">
+        <v>37</v>
+      </c>
       <c r="Q557" s="3"/>
       <c r="R557" s="3"/>
       <c r="S557" s="3"/>
@@ -26565,8 +28453,14 @@
         <v>318</v>
       </c>
       <c r="K558" s="6"/>
+      <c r="L558" s="37" t="s">
+        <v>1389</v>
+      </c>
       <c r="N558" s="12" t="s">
         <v>1389</v>
+      </c>
+      <c r="P558">
+        <v>37</v>
       </c>
       <c r="S558" s="12" t="s">
         <v>1394</v>
@@ -26600,13 +28494,17 @@
         <v>318</v>
       </c>
       <c r="K559" s="7"/>
-      <c r="L559" s="21"/>
+      <c r="L559" s="21" t="s">
+        <v>1389</v>
+      </c>
       <c r="M559" s="3"/>
       <c r="N559" s="11" t="s">
         <v>1389</v>
       </c>
       <c r="O559" s="3"/>
-      <c r="P559" s="3"/>
+      <c r="P559">
+        <v>37</v>
+      </c>
       <c r="Q559" s="3"/>
       <c r="R559" s="3"/>
       <c r="S559" s="11" t="s">
@@ -26641,8 +28539,14 @@
         <v>318</v>
       </c>
       <c r="K560" s="6"/>
+      <c r="L560" s="37" t="s">
+        <v>1389</v>
+      </c>
       <c r="N560" s="12" t="s">
         <v>1389</v>
+      </c>
+      <c r="P560">
+        <v>37</v>
       </c>
       <c r="S560" s="12" t="s">
         <v>1394</v>
@@ -26684,7 +28588,9 @@
         <v>21.2</v>
       </c>
       <c r="O561" s="3"/>
-      <c r="P561" s="3"/>
+      <c r="P561">
+        <v>37</v>
+      </c>
       <c r="Q561" s="3"/>
       <c r="R561" s="3"/>
       <c r="S561" s="3"/>
@@ -26723,6 +28629,9 @@
       <c r="N562" s="18">
         <v>32.4</v>
       </c>
+      <c r="P562">
+        <v>37</v>
+      </c>
     </row>
     <row r="563" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="3" t="s">
@@ -26760,7 +28669,9 @@
         <v>27.9</v>
       </c>
       <c r="O563" s="3"/>
-      <c r="P563" s="3"/>
+      <c r="P563">
+        <v>37</v>
+      </c>
       <c r="Q563" s="3"/>
       <c r="R563" s="3"/>
       <c r="S563" s="3"/>
@@ -26799,6 +28710,9 @@
       <c r="N564" s="18">
         <v>32.299999999999997</v>
       </c>
+      <c r="P564">
+        <v>37</v>
+      </c>
     </row>
     <row r="565" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="3" t="s">
@@ -26836,7 +28750,9 @@
         <v>28.6</v>
       </c>
       <c r="O565" s="3"/>
-      <c r="P565" s="3"/>
+      <c r="P565">
+        <v>37</v>
+      </c>
       <c r="Q565" s="3"/>
       <c r="R565" s="3"/>
       <c r="S565" s="3"/>
@@ -26875,6 +28791,9 @@
       <c r="N566" s="18">
         <v>18.399999999999999</v>
       </c>
+      <c r="P566">
+        <v>37</v>
+      </c>
     </row>
     <row r="567" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="3" t="s">
@@ -26904,13 +28823,17 @@
         <v>318</v>
       </c>
       <c r="K567" s="7"/>
-      <c r="L567" s="15"/>
+      <c r="L567" s="15">
+        <v>7.28</v>
+      </c>
       <c r="M567" s="3"/>
       <c r="N567" s="3">
         <v>25.3</v>
       </c>
       <c r="O567" s="3"/>
-      <c r="P567" s="3"/>
+      <c r="P567">
+        <v>57</v>
+      </c>
       <c r="Q567" s="3"/>
       <c r="R567" s="3"/>
       <c r="S567" s="3"/>
@@ -26943,9 +28866,14 @@
         <v>318</v>
       </c>
       <c r="K568" s="6"/>
-      <c r="L568" s="3"/>
+      <c r="L568" s="3">
+        <v>8.9700000000000006</v>
+      </c>
       <c r="N568">
         <v>25.5</v>
+      </c>
+      <c r="P568">
+        <v>57</v>
       </c>
     </row>
     <row r="569" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -26976,13 +28904,17 @@
         <v>318</v>
       </c>
       <c r="K569" s="7"/>
-      <c r="L569" s="15"/>
+      <c r="L569" s="15">
+        <v>11.1</v>
+      </c>
       <c r="M569" s="3"/>
       <c r="N569" s="3">
         <v>28.7</v>
       </c>
       <c r="O569" s="3"/>
-      <c r="P569" s="3"/>
+      <c r="P569">
+        <v>57</v>
+      </c>
       <c r="Q569" s="3"/>
       <c r="R569" s="3"/>
       <c r="S569" s="3"/>
@@ -27015,9 +28947,14 @@
         <v>318</v>
       </c>
       <c r="K570" s="6"/>
-      <c r="L570" s="3"/>
+      <c r="L570" s="3">
+        <v>9.3699999999999992</v>
+      </c>
       <c r="N570">
         <v>29.4</v>
+      </c>
+      <c r="P570">
+        <v>57</v>
       </c>
     </row>
     <row r="571" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27048,15 +28985,17 @@
         <v>318</v>
       </c>
       <c r="K571" s="7"/>
-      <c r="L571" s="22">
-        <v>8.52</v>
+      <c r="L571" s="22" t="s">
+        <v>1389</v>
       </c>
       <c r="M571" s="3"/>
       <c r="N571" s="11" t="s">
         <v>1389</v>
       </c>
       <c r="O571" s="3"/>
-      <c r="P571" s="3"/>
+      <c r="P571">
+        <v>57</v>
+      </c>
       <c r="Q571" s="3"/>
       <c r="R571" s="3"/>
       <c r="S571" s="11" t="s">
@@ -27097,6 +29036,9 @@
       <c r="N572">
         <v>25.8</v>
       </c>
+      <c r="P572">
+        <v>37</v>
+      </c>
     </row>
     <row r="573" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="3" t="s">
@@ -27126,13 +29068,15 @@
         <v>318</v>
       </c>
       <c r="K573" s="7"/>
-      <c r="L573" s="22"/>
+      <c r="L573" s="38"/>
       <c r="M573" s="3"/>
       <c r="N573" s="3">
         <v>26.8</v>
       </c>
       <c r="O573" s="3"/>
-      <c r="P573" s="3"/>
+      <c r="P573">
+        <v>37</v>
+      </c>
       <c r="Q573" s="3"/>
       <c r="R573" s="3"/>
       <c r="S573" s="3"/>
@@ -27165,9 +29109,14 @@
         <v>318</v>
       </c>
       <c r="K574" s="6"/>
-      <c r="L574" s="21"/>
+      <c r="L574" s="12" t="s">
+        <v>1389</v>
+      </c>
       <c r="N574" s="12" t="s">
         <v>1389</v>
+      </c>
+      <c r="P574">
+        <v>37</v>
       </c>
       <c r="S574" s="12" t="s">
         <v>1394</v>
@@ -27201,13 +29150,17 @@
         <v>318</v>
       </c>
       <c r="K575" s="7"/>
-      <c r="L575" s="22"/>
+      <c r="L575" s="12" t="s">
+        <v>1389</v>
+      </c>
       <c r="M575" s="3"/>
       <c r="N575" s="11" t="s">
         <v>1389</v>
       </c>
       <c r="O575" s="3"/>
-      <c r="P575" s="3"/>
+      <c r="P575">
+        <v>37</v>
+      </c>
       <c r="Q575" s="3"/>
       <c r="R575" s="3"/>
       <c r="S575" s="11" t="s">
@@ -27248,6 +29201,9 @@
       <c r="N576" s="12" t="s">
         <v>1389</v>
       </c>
+      <c r="P576">
+        <v>37</v>
+      </c>
       <c r="S576" s="12" t="s">
         <v>1394</v>
       </c>
@@ -27288,7 +29244,9 @@
         <v>25.4</v>
       </c>
       <c r="O577" s="3"/>
-      <c r="P577" s="3"/>
+      <c r="P577">
+        <v>37</v>
+      </c>
       <c r="Q577" s="3"/>
       <c r="R577" s="3"/>
       <c r="S577" s="3"/>
@@ -27321,8 +29279,14 @@
         <v>318</v>
       </c>
       <c r="K578" s="6"/>
+      <c r="L578" s="37" t="s">
+        <v>1389</v>
+      </c>
       <c r="N578" s="28" t="s">
         <v>1389</v>
+      </c>
+      <c r="P578">
+        <v>37</v>
       </c>
       <c r="S578" s="17" t="s">
         <v>1394</v>
@@ -27364,7 +29328,9 @@
         <v>28.4</v>
       </c>
       <c r="O579" s="3"/>
-      <c r="P579" s="3"/>
+      <c r="P579">
+        <v>37</v>
+      </c>
       <c r="Q579" s="3"/>
       <c r="R579" s="3"/>
       <c r="S579" s="3"/>
@@ -27403,6 +29369,9 @@
       <c r="N580" s="21">
         <v>23.8</v>
       </c>
+      <c r="P580">
+        <v>37</v>
+      </c>
     </row>
     <row r="581" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="3" t="s">
@@ -27440,7 +29409,9 @@
         <v>26.1</v>
       </c>
       <c r="O581" s="3"/>
-      <c r="P581" s="3"/>
+      <c r="P581">
+        <v>37</v>
+      </c>
       <c r="Q581" s="3"/>
       <c r="R581" s="3"/>
       <c r="S581" s="3"/>
@@ -27473,9 +29444,14 @@
         <v>318</v>
       </c>
       <c r="K582" s="6"/>
-      <c r="L582"/>
+      <c r="L582">
+        <v>9.58</v>
+      </c>
       <c r="N582" s="16">
         <v>28.1</v>
+      </c>
+      <c r="P582">
+        <v>57</v>
       </c>
     </row>
     <row r="583" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27506,13 +29482,17 @@
         <v>318</v>
       </c>
       <c r="K583" s="7"/>
-      <c r="L583" s="3"/>
+      <c r="L583" s="3" t="s">
+        <v>1389</v>
+      </c>
       <c r="M583" s="3"/>
       <c r="N583" s="17" t="s">
         <v>1389</v>
       </c>
       <c r="O583" s="3"/>
-      <c r="P583" s="3"/>
+      <c r="P583">
+        <v>57</v>
+      </c>
       <c r="Q583" s="3"/>
       <c r="R583" s="3"/>
       <c r="S583" s="11" t="s">
@@ -27547,9 +29527,14 @@
         <v>318</v>
       </c>
       <c r="K584" s="6"/>
-      <c r="L584"/>
+      <c r="L584">
+        <v>8.6300000000000008</v>
+      </c>
       <c r="N584">
         <v>23.4</v>
+      </c>
+      <c r="P584">
+        <v>57</v>
       </c>
     </row>
     <row r="585" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27580,13 +29565,17 @@
         <v>318</v>
       </c>
       <c r="K585" s="7"/>
-      <c r="L585" s="3"/>
+      <c r="L585" s="3">
+        <v>11.9</v>
+      </c>
       <c r="M585" s="3"/>
       <c r="N585" s="3">
         <v>33.1</v>
       </c>
       <c r="O585" s="3"/>
-      <c r="P585" s="3"/>
+      <c r="P585">
+        <v>57</v>
+      </c>
       <c r="Q585" s="3"/>
       <c r="R585" s="3"/>
       <c r="S585" s="3"/>
@@ -27619,9 +29608,14 @@
         <v>318</v>
       </c>
       <c r="K586" s="6"/>
-      <c r="L586"/>
+      <c r="L586">
+        <v>10.98</v>
+      </c>
       <c r="N586">
         <v>31.7</v>
+      </c>
+      <c r="P586">
+        <v>57</v>
       </c>
     </row>
     <row r="587" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27660,7 +29654,9 @@
         <v>33.6</v>
       </c>
       <c r="O587" s="3"/>
-      <c r="P587" s="3"/>
+      <c r="P587">
+        <v>37</v>
+      </c>
       <c r="Q587" s="3"/>
       <c r="R587" s="3"/>
       <c r="S587" s="3"/>
@@ -27693,8 +29689,14 @@
         <v>318</v>
       </c>
       <c r="K588" s="6"/>
+      <c r="L588" s="12" t="s">
+        <v>1389</v>
+      </c>
       <c r="N588" s="12" t="s">
         <v>1389</v>
+      </c>
+      <c r="P588">
+        <v>37</v>
       </c>
       <c r="S588" s="12" t="s">
         <v>1394</v>
@@ -27728,13 +29730,17 @@
         <v>318</v>
       </c>
       <c r="K589" s="7"/>
-      <c r="L589" s="21"/>
+      <c r="L589" s="12" t="s">
+        <v>1389</v>
+      </c>
       <c r="M589" s="3"/>
       <c r="N589" s="11" t="s">
         <v>1389</v>
       </c>
       <c r="O589" s="3"/>
-      <c r="P589" s="3"/>
+      <c r="P589">
+        <v>37</v>
+      </c>
       <c r="Q589" s="3"/>
       <c r="R589" s="3"/>
       <c r="S589" s="11" t="s">
@@ -27769,8 +29775,14 @@
         <v>318</v>
       </c>
       <c r="K590" s="6"/>
+      <c r="L590" s="12" t="s">
+        <v>1389</v>
+      </c>
       <c r="N590" s="12" t="s">
         <v>1389</v>
+      </c>
+      <c r="P590">
+        <v>37</v>
       </c>
       <c r="S590" s="12" t="s">
         <v>1394</v>
@@ -27812,7 +29824,9 @@
         <v>22.8</v>
       </c>
       <c r="O591" s="3"/>
-      <c r="P591" s="3"/>
+      <c r="P591">
+        <v>37</v>
+      </c>
       <c r="Q591" s="3"/>
       <c r="R591" s="3"/>
       <c r="S591" s="3"/>
@@ -27851,6 +29865,9 @@
       <c r="N592" s="18">
         <v>26.4</v>
       </c>
+      <c r="P592">
+        <v>37</v>
+      </c>
     </row>
     <row r="593" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="3" t="s">
@@ -27888,7 +29905,9 @@
         <v>32.1</v>
       </c>
       <c r="O593" s="3"/>
-      <c r="P593" s="3"/>
+      <c r="P593">
+        <v>37</v>
+      </c>
       <c r="Q593" s="3"/>
       <c r="R593" s="3"/>
       <c r="S593" s="3"/>
@@ -27921,8 +29940,14 @@
         <v>318</v>
       </c>
       <c r="K594" s="6"/>
+      <c r="L594" s="37" t="s">
+        <v>1389</v>
+      </c>
       <c r="N594" s="28" t="s">
         <v>1389</v>
+      </c>
+      <c r="P594">
+        <v>37</v>
       </c>
       <c r="S594" s="17" t="s">
         <v>1394</v>
@@ -27964,7 +29989,9 @@
         <v>24.7</v>
       </c>
       <c r="O595" s="3"/>
-      <c r="P595" s="3"/>
+      <c r="P595">
+        <v>37</v>
+      </c>
       <c r="Q595" s="11" t="s">
         <v>1410</v>
       </c>
@@ -28001,8 +30028,14 @@
         <v>318</v>
       </c>
       <c r="K596" s="6"/>
+      <c r="L596" s="37" t="s">
+        <v>1389</v>
+      </c>
       <c r="N596" s="28" t="s">
         <v>1389</v>
+      </c>
+      <c r="P596">
+        <v>37</v>
       </c>
       <c r="S596" s="17" t="s">
         <v>1394</v>
@@ -28036,13 +30069,17 @@
         <v>318</v>
       </c>
       <c r="K597" s="7"/>
-      <c r="L597" s="3"/>
+      <c r="L597" s="3" t="s">
+        <v>1389</v>
+      </c>
       <c r="M597" s="3"/>
       <c r="N597" s="11" t="s">
         <v>1389</v>
       </c>
       <c r="O597" s="3"/>
-      <c r="P597" s="3"/>
+      <c r="P597">
+        <v>57</v>
+      </c>
       <c r="Q597" s="3"/>
       <c r="R597" s="3"/>
       <c r="S597" s="11" t="s">
@@ -28077,9 +30114,14 @@
         <v>318</v>
       </c>
       <c r="K598" s="6"/>
-      <c r="L598"/>
+      <c r="L598">
+        <v>7.74</v>
+      </c>
       <c r="N598">
         <v>28.9</v>
+      </c>
+      <c r="P598">
+        <v>57</v>
       </c>
     </row>
     <row r="599" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -28110,13 +30152,17 @@
         <v>318</v>
       </c>
       <c r="K599" s="7"/>
-      <c r="L599" s="3"/>
+      <c r="L599" s="3">
+        <v>9.5</v>
+      </c>
       <c r="M599" s="3"/>
       <c r="N599" s="3">
         <v>30.9</v>
       </c>
       <c r="O599" s="3"/>
-      <c r="P599" s="3"/>
+      <c r="P599">
+        <v>57</v>
+      </c>
       <c r="Q599" s="3"/>
       <c r="R599" s="3"/>
       <c r="S599" s="3"/>
@@ -28149,9 +30195,14 @@
         <v>318</v>
       </c>
       <c r="K600" s="6"/>
-      <c r="L600"/>
+      <c r="L600">
+        <v>40</v>
+      </c>
       <c r="N600">
         <v>17.399999999999999</v>
+      </c>
+      <c r="P600">
+        <v>57</v>
       </c>
     </row>
     <row r="601" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -28182,13 +30233,17 @@
         <v>318</v>
       </c>
       <c r="K601" s="7"/>
-      <c r="L601" s="3"/>
+      <c r="L601" s="3">
+        <v>9.73</v>
+      </c>
       <c r="M601" s="3"/>
       <c r="N601" s="3">
         <v>31.4</v>
       </c>
       <c r="O601" s="3"/>
-      <c r="P601" s="3"/>
+      <c r="P601">
+        <v>57</v>
+      </c>
       <c r="Q601" s="3"/>
       <c r="R601" s="3"/>
       <c r="S601" s="3"/>
@@ -28221,8 +30276,14 @@
         <v>318</v>
       </c>
       <c r="K602" s="6"/>
+      <c r="L602" s="37" t="s">
+        <v>1389</v>
+      </c>
       <c r="N602" s="12" t="s">
         <v>1389</v>
+      </c>
+      <c r="P602">
+        <v>37</v>
       </c>
       <c r="S602" s="12" t="s">
         <v>1394</v>
@@ -28264,7 +30325,9 @@
         <v>19.5</v>
       </c>
       <c r="O603" s="3"/>
-      <c r="P603" s="3"/>
+      <c r="P603">
+        <v>37</v>
+      </c>
       <c r="Q603" s="3"/>
       <c r="R603" s="3"/>
       <c r="S603" s="3"/>
@@ -28303,6 +30366,9 @@
       <c r="N604">
         <v>35.200000000000003</v>
       </c>
+      <c r="P604">
+        <v>37</v>
+      </c>
     </row>
     <row r="605" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="3" t="s">
@@ -28340,7 +30406,9 @@
         <v>21.2</v>
       </c>
       <c r="O605" s="3"/>
-      <c r="P605" s="3"/>
+      <c r="P605">
+        <v>37</v>
+      </c>
       <c r="Q605" s="3"/>
       <c r="R605" s="3"/>
       <c r="S605" s="3"/>
@@ -28379,6 +30447,9 @@
       <c r="N606">
         <v>22.4</v>
       </c>
+      <c r="P606">
+        <v>37</v>
+      </c>
     </row>
     <row r="607" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="3" t="s">
@@ -28416,7 +30487,9 @@
         <v>24.9</v>
       </c>
       <c r="O607" s="3"/>
-      <c r="P607" s="3"/>
+      <c r="P607">
+        <v>37</v>
+      </c>
       <c r="Q607" s="3"/>
       <c r="R607" s="3"/>
       <c r="S607" s="3"/>
@@ -28455,6 +30528,9 @@
       <c r="N608" s="18">
         <v>29.4</v>
       </c>
+      <c r="P608">
+        <v>37</v>
+      </c>
     </row>
     <row r="609" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="3" t="s">
@@ -28492,7 +30568,9 @@
         <v>31.4</v>
       </c>
       <c r="O609" s="3"/>
-      <c r="P609" s="3"/>
+      <c r="P609">
+        <v>37</v>
+      </c>
       <c r="Q609" s="3"/>
       <c r="R609" s="3"/>
       <c r="S609" s="3"/>
@@ -28531,6 +30609,9 @@
       <c r="N610" s="18">
         <v>21.9</v>
       </c>
+      <c r="P610">
+        <v>37</v>
+      </c>
     </row>
     <row r="611" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="3" t="s">
@@ -28560,13 +30641,17 @@
         <v>318</v>
       </c>
       <c r="K611" s="7"/>
-      <c r="L611" s="21"/>
+      <c r="L611" s="21" t="s">
+        <v>1389</v>
+      </c>
       <c r="M611" s="3"/>
       <c r="N611" s="27" t="s">
         <v>1389</v>
       </c>
       <c r="O611" s="3"/>
-      <c r="P611" s="3"/>
+      <c r="P611">
+        <v>37</v>
+      </c>
       <c r="Q611" s="3"/>
       <c r="R611" s="3"/>
       <c r="S611" s="11" t="s">
@@ -28601,9 +30686,14 @@
         <v>318</v>
       </c>
       <c r="K612" s="6"/>
-      <c r="L612"/>
+      <c r="L612">
+        <v>9.5399999999999991</v>
+      </c>
       <c r="N612">
         <v>24.9</v>
+      </c>
+      <c r="P612">
+        <v>57</v>
       </c>
     </row>
     <row r="613" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -28634,13 +30724,17 @@
         <v>318</v>
       </c>
       <c r="K613" s="7"/>
-      <c r="L613" s="3"/>
+      <c r="L613" s="3">
+        <v>8.4700000000000006</v>
+      </c>
       <c r="M613" s="3"/>
       <c r="N613" s="3">
         <v>31.6</v>
       </c>
       <c r="O613" s="3"/>
-      <c r="P613" s="3"/>
+      <c r="P613">
+        <v>57</v>
+      </c>
       <c r="Q613" s="3"/>
       <c r="R613" s="3"/>
       <c r="S613" s="3"/>
@@ -28673,9 +30767,14 @@
         <v>318</v>
       </c>
       <c r="K614" s="6"/>
-      <c r="L614"/>
+      <c r="L614">
+        <v>10.46</v>
+      </c>
       <c r="N614">
         <v>28.5</v>
+      </c>
+      <c r="P614">
+        <v>57</v>
       </c>
     </row>
     <row r="615" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -28706,13 +30805,17 @@
         <v>318</v>
       </c>
       <c r="K615" s="7"/>
-      <c r="L615" s="3"/>
+      <c r="L615" s="3">
+        <v>8.59</v>
+      </c>
       <c r="M615" s="3"/>
       <c r="N615" s="3">
         <v>29.6</v>
       </c>
       <c r="O615" s="3"/>
-      <c r="P615" s="3"/>
+      <c r="P615">
+        <v>57</v>
+      </c>
       <c r="Q615" s="3"/>
       <c r="R615" s="3"/>
       <c r="S615" s="3"/>
@@ -28745,9 +30848,14 @@
         <v>318</v>
       </c>
       <c r="K616" s="6"/>
-      <c r="L616"/>
+      <c r="L616" s="36" t="s">
+        <v>1389</v>
+      </c>
       <c r="N616" s="17" t="s">
         <v>1389</v>
+      </c>
+      <c r="P616">
+        <v>57</v>
       </c>
       <c r="S616" s="17" t="s">
         <v>1394</v>
@@ -28789,7 +30897,9 @@
         <v>25.1</v>
       </c>
       <c r="O617" s="3"/>
-      <c r="P617" s="3"/>
+      <c r="P617">
+        <v>37</v>
+      </c>
       <c r="Q617" s="3"/>
       <c r="R617" s="3"/>
       <c r="S617" s="3"/>
@@ -28828,6 +30938,9 @@
       <c r="N618">
         <v>17.5</v>
       </c>
+      <c r="P618">
+        <v>37</v>
+      </c>
     </row>
     <row r="619" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="3" t="s">
@@ -28865,7 +30978,9 @@
         <v>27.1</v>
       </c>
       <c r="O619" s="3"/>
-      <c r="P619" s="3"/>
+      <c r="P619">
+        <v>37</v>
+      </c>
       <c r="Q619" s="3"/>
       <c r="R619" s="3"/>
       <c r="S619" s="3"/>
@@ -28898,8 +31013,14 @@
         <v>318</v>
       </c>
       <c r="K620" s="6"/>
+      <c r="L620" s="37" t="s">
+        <v>1389</v>
+      </c>
       <c r="N620" s="12" t="s">
         <v>1389</v>
+      </c>
+      <c r="P620">
+        <v>37</v>
       </c>
       <c r="S620" s="12" t="s">
         <v>1394</v>
@@ -28937,11 +31058,13 @@
         <v>6.06</v>
       </c>
       <c r="M621" s="3"/>
-      <c r="N621" s="37">
+      <c r="N621" s="3">
         <v>22</v>
       </c>
       <c r="O621" s="3"/>
-      <c r="P621" s="3"/>
+      <c r="P621">
+        <v>37</v>
+      </c>
       <c r="Q621" s="3"/>
       <c r="R621" s="3"/>
       <c r="S621" s="3"/>
@@ -28980,6 +31103,9 @@
       <c r="N622" s="18">
         <v>28.2</v>
       </c>
+      <c r="P622">
+        <v>37</v>
+      </c>
     </row>
     <row r="623" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="3" t="s">
@@ -29017,7 +31143,9 @@
         <v>19.899999999999999</v>
       </c>
       <c r="O623" s="3"/>
-      <c r="P623" s="3"/>
+      <c r="P623">
+        <v>37</v>
+      </c>
       <c r="Q623" s="3"/>
       <c r="R623" s="3"/>
       <c r="S623" s="3"/>
@@ -29056,6 +31184,9 @@
       <c r="N624" s="18">
         <v>22.8</v>
       </c>
+      <c r="P624">
+        <v>37</v>
+      </c>
     </row>
     <row r="625" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="3" t="s">
@@ -29093,7 +31224,9 @@
         <v>26.6</v>
       </c>
       <c r="O625" s="3"/>
-      <c r="P625" s="3"/>
+      <c r="P625">
+        <v>37</v>
+      </c>
       <c r="Q625" s="3"/>
       <c r="R625" s="3"/>
       <c r="S625" s="3"/>
@@ -29132,6 +31265,9 @@
       <c r="N626" s="18">
         <v>21.9</v>
       </c>
+      <c r="P626">
+        <v>37</v>
+      </c>
     </row>
     <row r="627" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="3" t="s">
@@ -29161,13 +31297,17 @@
         <v>318</v>
       </c>
       <c r="K627" s="7"/>
-      <c r="L627" s="3"/>
+      <c r="L627" s="3">
+        <v>7.93</v>
+      </c>
       <c r="M627" s="3"/>
       <c r="N627" s="3">
         <v>24.9</v>
       </c>
       <c r="O627" s="3"/>
-      <c r="P627" s="3"/>
+      <c r="P627">
+        <v>57</v>
+      </c>
       <c r="Q627" s="3"/>
       <c r="R627" s="3"/>
       <c r="S627" s="3"/>
@@ -29200,9 +31340,14 @@
         <v>318</v>
       </c>
       <c r="K628" s="6"/>
-      <c r="L628"/>
+      <c r="L628">
+        <v>8.52</v>
+      </c>
       <c r="N628">
         <v>23.6</v>
+      </c>
+      <c r="P628">
+        <v>57</v>
       </c>
     </row>
     <row r="629" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -29233,13 +31378,17 @@
         <v>318</v>
       </c>
       <c r="K629" s="7"/>
-      <c r="L629" s="3"/>
+      <c r="L629" s="3">
+        <v>10.11</v>
+      </c>
       <c r="M629" s="3"/>
       <c r="N629" s="3">
         <v>32.5</v>
       </c>
       <c r="O629" s="3"/>
-      <c r="P629" s="3"/>
+      <c r="P629">
+        <v>57</v>
+      </c>
       <c r="Q629" s="3"/>
       <c r="R629" s="3"/>
       <c r="S629" s="3"/>
@@ -29272,9 +31421,14 @@
         <v>318</v>
       </c>
       <c r="K630" s="6"/>
-      <c r="L630"/>
+      <c r="L630">
+        <v>9.15</v>
+      </c>
       <c r="N630">
         <v>25.5</v>
+      </c>
+      <c r="P630">
+        <v>57</v>
       </c>
     </row>
     <row r="631" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -29305,13 +31459,17 @@
         <v>318</v>
       </c>
       <c r="K631" s="7"/>
-      <c r="L631" s="3"/>
+      <c r="L631" s="3">
+        <v>8.16</v>
+      </c>
       <c r="M631" s="3"/>
       <c r="N631" s="3">
         <v>32.299999999999997</v>
       </c>
       <c r="O631" s="3"/>
-      <c r="P631" s="3"/>
+      <c r="P631">
+        <v>57</v>
+      </c>
       <c r="Q631" s="3"/>
       <c r="R631" s="3"/>
       <c r="S631" s="3"/>
@@ -30829,7 +32987,7 @@
       <c r="K820" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <tableParts count="1">

--- a/data/treeMeasurements/TreeMeasurements.xlsx
+++ b/data/treeMeasurements/TreeMeasurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/treeMeasurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066E5356-7E7F-0542-B741-88B4822AB4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDFA9BF-685B-1F45-9F7F-F690862BCE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-2480" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4688" uniqueCount="1435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4687" uniqueCount="1436">
   <si>
     <t>tree_ID</t>
   </si>
@@ -4328,6 +4328,9 @@
   </si>
   <si>
     <t xml:space="preserve">3 trunks, only the "main trunk" can be confirmed as the reference one. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">doy72: alive in the end. So measured on doy72. main shoot dead so new shoot measured. Diameter from last year is not good </t>
   </si>
 </sst>
 </file>
@@ -5252,9 +5255,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S820"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O600" sqref="O600"/>
+    <sheetView tabSelected="1" topLeftCell="A366" zoomScale="189" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q376" sqref="Q376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20793,21 +20796,23 @@
         <v>7</v>
       </c>
       <c r="K375" s="7"/>
-      <c r="L375" s="3" t="s">
-        <v>1389</v>
+      <c r="L375" s="3">
+        <v>2.02</v>
       </c>
       <c r="M375" s="3"/>
-      <c r="N375" s="11" t="s">
-        <v>1389</v>
+      <c r="N375" s="11">
+        <v>11.8</v>
       </c>
       <c r="O375" s="3"/>
       <c r="P375">
-        <v>57</v>
-      </c>
-      <c r="Q375" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="Q375" s="3" t="s">
+        <v>1410</v>
+      </c>
       <c r="R375" s="3"/>
-      <c r="S375" s="11" t="s">
-        <v>1394</v>
+      <c r="S375" s="3" t="s">
+        <v>1435</v>
       </c>
     </row>
     <row r="376" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/data/treeMeasurements/TreeMeasurements.xlsx
+++ b/data/treeMeasurements/TreeMeasurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/treeMeasurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425B2B48-936C-3D42-9EE3-D6A837764C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43DD8D3-843E-8747-85C8-ABAF7022B3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4698" uniqueCount="1444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4707" uniqueCount="1449">
   <si>
     <t>tree_ID</t>
   </si>
@@ -4364,10 +4364,25 @@
     <t>diameterFall25</t>
   </si>
   <si>
-    <t>measured shoot is dead; another one resprouted but not measured because it's only 2025 growth</t>
-  </si>
-  <si>
     <t>double-checked the measurement but still lower than previous year</t>
+  </si>
+  <si>
+    <t>some leaves left on tree but measurement taken anyway</t>
+  </si>
+  <si>
+    <t>measurement taken according to height of 25.3</t>
+  </si>
+  <si>
+    <t>measured shoot from previous gs is dead; another one resprouted and is measured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">previous year measurement isnt valid because the shoot died; resprouted lateral shoot measured and the increment for 2025 is 7.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">previous year measurement isnt valid because the shoot died; resprouted lateral shoot measured and the increment for 2025 is 6.9 </t>
+  </si>
+  <si>
+    <t>3rd trunk has sprouted in 2025</t>
   </si>
 </sst>
 </file>
@@ -4377,11 +4392,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4536,47 +4558,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -5229,7 +5252,7 @@
     </filterColumn>
     <filterColumn colId="4">
       <filters>
-        <filter val="acer_negundo"/>
+        <filter val="quercus_macrocarpa"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5252,15 +5275,15 @@
     <tableColumn id="14" xr3:uid="{A2C5A27C-724F-414A-A673-B58E5CAC0B24}" name="doyWinter25" dataDxfId="11"/>
     <tableColumn id="15" xr3:uid="{9FD3FA00-4743-BE48-BAD3-6A66EA1EF201}" name="height_2024_valid" dataDxfId="10"/>
     <tableColumn id="19" xr3:uid="{5B3E7EB4-1584-F24F-BE4D-B7F49EF1BA27}" name="diameterWinter24_valid" dataDxfId="9"/>
-    <tableColumn id="29" xr3:uid="{BE1F6827-DB81-1540-BB85-62191D9801CE}" name="noteWinter25" dataDxfId="0"/>
-    <tableColumn id="28" xr3:uid="{285438DC-4C02-7A44-8EC2-1E9E40922B2A}" name="diameterFall25" dataDxfId="1"/>
-    <tableColumn id="27" xr3:uid="{BE77A315-1DAF-6748-8B61-C4FBD4A2C88C}" name="diameterFall25_trunk2" dataDxfId="2"/>
-    <tableColumn id="26" xr3:uid="{CDF85952-C54F-0147-A0FE-47B1EC5B9981}" name="heightFall25" dataDxfId="3"/>
+    <tableColumn id="29" xr3:uid="{BE1F6827-DB81-1540-BB85-62191D9801CE}" name="noteWinter25" dataDxfId="8"/>
+    <tableColumn id="28" xr3:uid="{285438DC-4C02-7A44-8EC2-1E9E40922B2A}" name="diameterFall25" dataDxfId="7"/>
+    <tableColumn id="27" xr3:uid="{BE77A315-1DAF-6748-8B61-C4FBD4A2C88C}" name="diameterFall25_trunk2" dataDxfId="6"/>
+    <tableColumn id="26" xr3:uid="{CDF85952-C54F-0147-A0FE-47B1EC5B9981}" name="heightFall25" dataDxfId="5"/>
     <tableColumn id="25" xr3:uid="{0FB552AF-0B4A-9346-8353-39F5C633DCE8}" name="heightFall25_trunk2" dataDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{FE3EDC27-7807-6040-A360-62D2CD48DB98}" name="doyFall25" dataDxfId="5"/>
-    <tableColumn id="23" xr3:uid="{029ABDB7-5D27-1349-9D27-738755136CE8}" name="heightWinter2025_valid" dataDxfId="6"/>
-    <tableColumn id="22" xr3:uid="{31FCE36A-EF64-F540-AD09-EB519ABFC2D2}" name="diameterWinter25_valid" dataDxfId="7"/>
-    <tableColumn id="21" xr3:uid="{13CFACC3-90E8-0B48-8AF2-B2FF645C32E1}" name="noteFall25" dataDxfId="8"/>
+    <tableColumn id="24" xr3:uid="{FE3EDC27-7807-6040-A360-62D2CD48DB98}" name="doyFall25" dataDxfId="3"/>
+    <tableColumn id="23" xr3:uid="{029ABDB7-5D27-1349-9D27-738755136CE8}" name="heightWinter2025_valid" dataDxfId="2"/>
+    <tableColumn id="22" xr3:uid="{31FCE36A-EF64-F540-AD09-EB519ABFC2D2}" name="diameterWinter25_valid" dataDxfId="1"/>
+    <tableColumn id="21" xr3:uid="{13CFACC3-90E8-0B48-8AF2-B2FF645C32E1}" name="noteFall25" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5466,9 +5489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA820"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X13" sqref="X13"/>
+    <sheetView tabSelected="1" topLeftCell="A477" zoomScale="167" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V509" sqref="V509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5477,7 +5500,7 @@
     <col min="2" max="2" width="5.83203125" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
     <col min="6" max="6" width="19" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" hidden="1" customWidth="1"/>
@@ -5491,11 +5514,11 @@
     <col min="16" max="16" width="14.33203125" customWidth="1"/>
     <col min="17" max="17" width="17.6640625" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="24.1640625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" customWidth="1"/>
-    <col min="20" max="20" width="15.1640625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="20" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="11.1640625" customWidth="1"/>
+    <col min="20" max="20" width="0.5" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="22.83203125" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.33203125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="18.1640625" customWidth="1"/>
     <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="27" width="25.83203125" customWidth="1"/>
   </cols>
@@ -5626,6 +5649,9 @@
       <c r="V2">
         <v>52.3</v>
       </c>
+      <c r="X2">
+        <v>300</v>
+      </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -5677,7 +5703,9 @@
         <v>53.1</v>
       </c>
       <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
+      <c r="X3">
+        <v>300</v>
+      </c>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
@@ -5724,6 +5752,9 @@
       </c>
       <c r="V4">
         <v>69.3</v>
+      </c>
+      <c r="X4">
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5776,7 +5807,9 @@
         <v>49.2</v>
       </c>
       <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
+      <c r="X5">
+        <v>300</v>
+      </c>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
@@ -5823,6 +5856,9 @@
       </c>
       <c r="V6">
         <v>87.9</v>
+      </c>
+      <c r="X6">
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5875,7 +5911,9 @@
         <v>71.900000000000006</v>
       </c>
       <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
+      <c r="X7">
+        <v>300</v>
+      </c>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
@@ -5922,6 +5960,9 @@
       </c>
       <c r="V8">
         <v>52.1</v>
+      </c>
+      <c r="X8">
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5974,7 +6015,9 @@
         <v>91.7</v>
       </c>
       <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
+      <c r="X9">
+        <v>300</v>
+      </c>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
@@ -6021,6 +6064,9 @@
       </c>
       <c r="V10">
         <v>67.900000000000006</v>
+      </c>
+      <c r="X10">
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6073,12 +6119,14 @@
         <v>49.5</v>
       </c>
       <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
+      <c r="X11">
+        <v>300</v>
+      </c>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>102</v>
       </c>
@@ -6125,7 +6173,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>105</v>
       </c>
@@ -6175,12 +6223,14 @@
         <v>49.4</v>
       </c>
       <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
+      <c r="X13">
+        <v>300</v>
+      </c>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>108</v>
       </c>
@@ -6223,8 +6273,11 @@
       <c r="V14">
         <v>54.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>111</v>
       </c>
@@ -6274,12 +6327,14 @@
         <v>55.3</v>
       </c>
       <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
+      <c r="X15">
+        <v>300</v>
+      </c>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>114</v>
       </c>
@@ -6321,6 +6376,9 @@
       </c>
       <c r="V16">
         <v>58.6</v>
+      </c>
+      <c r="X16">
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6373,7 +6431,9 @@
         <v>51.1</v>
       </c>
       <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
+      <c r="X17">
+        <v>300</v>
+      </c>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
@@ -6420,6 +6480,9 @@
       </c>
       <c r="V18">
         <v>45.3</v>
+      </c>
+      <c r="X18">
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6472,7 +6535,9 @@
         <v>60.5</v>
       </c>
       <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
+      <c r="X19">
+        <v>300</v>
+      </c>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
@@ -6519,6 +6584,9 @@
       </c>
       <c r="V20">
         <v>62.2</v>
+      </c>
+      <c r="X20">
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6571,7 +6639,9 @@
         <v>65.099999999999994</v>
       </c>
       <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
+      <c r="X21">
+        <v>300</v>
+      </c>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
@@ -6618,6 +6688,9 @@
       </c>
       <c r="V22">
         <v>44.6</v>
+      </c>
+      <c r="X22">
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6670,7 +6743,9 @@
         <v>80.400000000000006</v>
       </c>
       <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
+      <c r="X23">
+        <v>300</v>
+      </c>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
@@ -6717,6 +6792,9 @@
       </c>
       <c r="V24">
         <v>76.400000000000006</v>
+      </c>
+      <c r="X24">
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6769,7 +6847,9 @@
         <v>59</v>
       </c>
       <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
+      <c r="X25">
+        <v>300</v>
+      </c>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
@@ -6817,8 +6897,11 @@
       <c r="V26">
         <v>50.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>146</v>
       </c>
@@ -6868,12 +6951,14 @@
         <v>46.6</v>
       </c>
       <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
+      <c r="X27">
+        <v>300</v>
+      </c>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
     </row>
-    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>149</v>
       </c>
@@ -6916,8 +7001,11 @@
       <c r="V28">
         <v>79.400000000000006</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X28">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>152</v>
       </c>
@@ -6969,12 +7057,14 @@
         <v>72.599999999999994</v>
       </c>
       <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
+      <c r="X29">
+        <v>300</v>
+      </c>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
     </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>155</v>
       </c>
@@ -7017,8 +7107,11 @@
       <c r="V30">
         <v>57.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X30">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>158</v>
       </c>
@@ -7068,7 +7161,9 @@
         <v>62.6</v>
       </c>
       <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
+      <c r="X31">
+        <v>300</v>
+      </c>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
@@ -7115,6 +7210,9 @@
       </c>
       <c r="V32">
         <v>51.8</v>
+      </c>
+      <c r="X32">
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7167,7 +7265,9 @@
         <v>55.3</v>
       </c>
       <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
+      <c r="X33">
+        <v>300</v>
+      </c>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
@@ -7214,6 +7314,9 @@
       </c>
       <c r="V34">
         <v>50.6</v>
+      </c>
+      <c r="X34">
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7266,7 +7369,9 @@
         <v>58.8</v>
       </c>
       <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
+      <c r="X35">
+        <v>300</v>
+      </c>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
@@ -7313,6 +7418,9 @@
       </c>
       <c r="V36">
         <v>62.3</v>
+      </c>
+      <c r="X36">
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7365,7 +7473,9 @@
         <v>53.4</v>
       </c>
       <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
+      <c r="X37">
+        <v>300</v>
+      </c>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
@@ -7412,6 +7522,9 @@
       </c>
       <c r="V38">
         <v>55.9</v>
+      </c>
+      <c r="X38">
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7464,7 +7577,9 @@
         <v>61.8</v>
       </c>
       <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
+      <c r="X39">
+        <v>300</v>
+      </c>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
@@ -7511,6 +7626,9 @@
       </c>
       <c r="V40">
         <v>54</v>
+      </c>
+      <c r="X40">
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7563,12 +7681,14 @@
         <v>44.9</v>
       </c>
       <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
+      <c r="X41">
+        <v>300</v>
+      </c>
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
     </row>
-    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>184</v>
       </c>
@@ -7611,8 +7731,11 @@
       <c r="V42">
         <v>60.3</v>
       </c>
-    </row>
-    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X42">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>187</v>
       </c>
@@ -7662,12 +7785,14 @@
         <v>32.700000000000003</v>
       </c>
       <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
+      <c r="X43">
+        <v>300</v>
+      </c>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
     </row>
-    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>190</v>
       </c>
@@ -7710,8 +7835,11 @@
       <c r="V44">
         <v>75.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X44">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>193</v>
       </c>
@@ -7761,12 +7889,14 @@
         <v>42.4</v>
       </c>
       <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
+      <c r="X45">
+        <v>300</v>
+      </c>
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
     </row>
-    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>195</v>
       </c>
@@ -7808,6 +7938,9 @@
       </c>
       <c r="V46">
         <v>51</v>
+      </c>
+      <c r="X46">
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7860,7 +7993,9 @@
         <v>41.1</v>
       </c>
       <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
+      <c r="X47">
+        <v>300</v>
+      </c>
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
@@ -7907,6 +8042,9 @@
       </c>
       <c r="V48">
         <v>51.3</v>
+      </c>
+      <c r="X48">
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7959,7 +8097,9 @@
         <v>52.5</v>
       </c>
       <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
+      <c r="X49">
+        <v>300</v>
+      </c>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
@@ -8006,6 +8146,9 @@
       </c>
       <c r="V50">
         <v>36.4</v>
+      </c>
+      <c r="X50">
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8058,7 +8201,9 @@
         <v>62.6</v>
       </c>
       <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
+      <c r="X51">
+        <v>300</v>
+      </c>
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
       <c r="AA51" s="3"/>
@@ -8105,6 +8250,9 @@
       </c>
       <c r="V52">
         <v>48.5</v>
+      </c>
+      <c r="X52">
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8157,7 +8305,9 @@
         <v>59.2</v>
       </c>
       <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
+      <c r="X53">
+        <v>300</v>
+      </c>
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
       <c r="AA53" s="3"/>
@@ -8204,6 +8354,9 @@
       </c>
       <c r="V54">
         <v>62.8</v>
+      </c>
+      <c r="X54">
+        <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8256,7 +8409,9 @@
         <v>74</v>
       </c>
       <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
+      <c r="X55">
+        <v>300</v>
+      </c>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
@@ -8304,8 +8459,11 @@
       <c r="V56">
         <v>53.4</v>
       </c>
-    </row>
-    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X56">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>227</v>
       </c>
@@ -8355,12 +8513,14 @@
         <v>63.9</v>
       </c>
       <c r="W57" s="3"/>
-      <c r="X57" s="3"/>
+      <c r="X57">
+        <v>300</v>
+      </c>
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
       <c r="AA57" s="3"/>
     </row>
-    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>229</v>
       </c>
@@ -8403,8 +8563,11 @@
       <c r="V58">
         <v>57.3</v>
       </c>
-    </row>
-    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X58">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>231</v>
       </c>
@@ -8454,12 +8617,14 @@
         <v>57.4</v>
       </c>
       <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
+      <c r="X59">
+        <v>300</v>
+      </c>
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
       <c r="AA59" s="3"/>
     </row>
-    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>234</v>
       </c>
@@ -8502,11 +8667,14 @@
       <c r="V60">
         <v>54.5</v>
       </c>
+      <c r="X60">
+        <v>300</v>
+      </c>
       <c r="AA60" s="3" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>235</v>
       </c>
@@ -8556,7 +8724,9 @@
         <v>47</v>
       </c>
       <c r="W61" s="3"/>
-      <c r="X61" s="3"/>
+      <c r="X61">
+        <v>300</v>
+      </c>
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
       <c r="AA61" s="15"/>
@@ -8603,6 +8773,9 @@
       </c>
       <c r="V62">
         <v>66.2</v>
+      </c>
+      <c r="X62">
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8655,7 +8828,9 @@
         <v>74.3</v>
       </c>
       <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
+      <c r="X63">
+        <v>300</v>
+      </c>
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
       <c r="AA63" s="3"/>
@@ -8702,6 +8877,9 @@
       </c>
       <c r="V64">
         <v>50.7</v>
+      </c>
+      <c r="X64">
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8754,7 +8932,9 @@
         <v>79.8</v>
       </c>
       <c r="W65" s="3"/>
-      <c r="X65" s="3"/>
+      <c r="X65">
+        <v>300</v>
+      </c>
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
       <c r="AA65" s="3"/>
@@ -8801,6 +8981,9 @@
       </c>
       <c r="V66">
         <v>46.1</v>
+      </c>
+      <c r="X66">
+        <v>300</v>
       </c>
     </row>
     <row r="67" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8853,7 +9036,9 @@
         <v>62.4</v>
       </c>
       <c r="W67" s="3"/>
-      <c r="X67" s="3"/>
+      <c r="X67">
+        <v>300</v>
+      </c>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
@@ -8900,6 +9085,9 @@
       </c>
       <c r="V68">
         <v>68.900000000000006</v>
+      </c>
+      <c r="X68">
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8952,7 +9140,9 @@
         <v>44.9</v>
       </c>
       <c r="W69" s="3"/>
-      <c r="X69" s="3"/>
+      <c r="X69">
+        <v>300</v>
+      </c>
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
       <c r="AA69" s="3"/>
@@ -8999,6 +9189,9 @@
       </c>
       <c r="V70">
         <v>61.9</v>
+      </c>
+      <c r="X70">
+        <v>300</v>
       </c>
     </row>
     <row r="71" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9051,12 +9244,14 @@
         <v>68.3</v>
       </c>
       <c r="W71" s="3"/>
-      <c r="X71" s="3"/>
+      <c r="X71">
+        <v>300</v>
+      </c>
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
       <c r="AA71" s="3"/>
     </row>
-    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>262</v>
       </c>
@@ -9099,8 +9294,11 @@
       <c r="V72">
         <v>64.2</v>
       </c>
-    </row>
-    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X72">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>264</v>
       </c>
@@ -9150,12 +9348,14 @@
         <v>51.3</v>
       </c>
       <c r="W73" s="3"/>
-      <c r="X73" s="3"/>
+      <c r="X73">
+        <v>300</v>
+      </c>
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
       <c r="AA73" s="3"/>
     </row>
-    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>267</v>
       </c>
@@ -9198,8 +9398,11 @@
       <c r="V74">
         <v>54.9</v>
       </c>
-    </row>
-    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X74">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>270</v>
       </c>
@@ -9249,12 +9452,14 @@
         <v>59.8</v>
       </c>
       <c r="W75" s="3"/>
-      <c r="X75" s="3"/>
+      <c r="X75">
+        <v>300</v>
+      </c>
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
       <c r="AA75" s="3"/>
     </row>
-    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>273</v>
       </c>
@@ -9299,6 +9504,9 @@
       </c>
       <c r="V76">
         <v>70.3</v>
+      </c>
+      <c r="X76">
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9351,7 +9559,9 @@
         <v>55.2</v>
       </c>
       <c r="W77" s="3"/>
-      <c r="X77" s="3"/>
+      <c r="X77">
+        <v>300</v>
+      </c>
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
       <c r="AA77" s="3"/>
@@ -9398,6 +9608,9 @@
       </c>
       <c r="V78">
         <v>52.8</v>
+      </c>
+      <c r="X78">
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9450,7 +9663,9 @@
         <v>42.6</v>
       </c>
       <c r="W79" s="3"/>
-      <c r="X79" s="3"/>
+      <c r="X79">
+        <v>300</v>
+      </c>
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
       <c r="AA79" s="3"/>
@@ -9497,6 +9712,9 @@
       </c>
       <c r="V80">
         <v>41.3</v>
+      </c>
+      <c r="X80">
+        <v>300</v>
       </c>
     </row>
     <row r="81" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9549,7 +9767,9 @@
         <v>42.5</v>
       </c>
       <c r="W81" s="3"/>
-      <c r="X81" s="3"/>
+      <c r="X81">
+        <v>300</v>
+      </c>
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
       <c r="AA81" s="3"/>
@@ -9596,6 +9816,9 @@
       </c>
       <c r="V82">
         <v>41.5</v>
+      </c>
+      <c r="X82">
+        <v>300</v>
       </c>
     </row>
     <row r="83" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9648,7 +9871,9 @@
         <v>64.599999999999994</v>
       </c>
       <c r="W83" s="3"/>
-      <c r="X83" s="3"/>
+      <c r="X83">
+        <v>300</v>
+      </c>
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
       <c r="AA83" s="3"/>
@@ -9695,6 +9920,9 @@
       </c>
       <c r="V84">
         <v>69.7</v>
+      </c>
+      <c r="X84">
+        <v>300</v>
       </c>
     </row>
     <row r="85" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9747,7 +9975,9 @@
         <v>56.5</v>
       </c>
       <c r="W85" s="3"/>
-      <c r="X85" s="3"/>
+      <c r="X85">
+        <v>300</v>
+      </c>
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
       <c r="AA85" s="3"/>
@@ -9795,8 +10025,11 @@
       <c r="V86">
         <v>76.2</v>
       </c>
-    </row>
-    <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X86">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>303</v>
       </c>
@@ -9846,12 +10079,14 @@
         <v>50</v>
       </c>
       <c r="W87" s="3"/>
-      <c r="X87" s="3"/>
+      <c r="X87">
+        <v>300</v>
+      </c>
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
       <c r="AA87" s="3"/>
     </row>
-    <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>305</v>
       </c>
@@ -9894,8 +10129,11 @@
       <c r="V88">
         <v>78.8</v>
       </c>
-    </row>
-    <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X88">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>308</v>
       </c>
@@ -9945,12 +10183,14 @@
         <v>65.3</v>
       </c>
       <c r="W89" s="3"/>
-      <c r="X89" s="3"/>
+      <c r="X89">
+        <v>300</v>
+      </c>
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
       <c r="AA89" s="3"/>
     </row>
-    <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>310</v>
       </c>
@@ -9993,8 +10233,11 @@
       <c r="V90">
         <v>54</v>
       </c>
-    </row>
-    <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X90">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>313</v>
       </c>
@@ -10044,7 +10287,9 @@
         <v>82.6</v>
       </c>
       <c r="W91" s="3"/>
-      <c r="X91" s="3"/>
+      <c r="X91">
+        <v>300</v>
+      </c>
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
       <c r="AA91" s="3"/>
@@ -26728,6 +26973,12 @@
       <c r="T452" s="15">
         <v>8.66</v>
       </c>
+      <c r="V452">
+        <v>31.6</v>
+      </c>
+      <c r="X452">
+        <v>300</v>
+      </c>
     </row>
     <row r="453" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
@@ -26774,9 +27025,13 @@
         <v>10.45</v>
       </c>
       <c r="U453" s="3"/>
-      <c r="V453" s="3"/>
+      <c r="V453" s="3">
+        <v>28.9</v>
+      </c>
       <c r="W453" s="3"/>
-      <c r="X453" s="3"/>
+      <c r="X453">
+        <v>300</v>
+      </c>
       <c r="Y453" s="3"/>
       <c r="Z453" s="3"/>
       <c r="AA453" s="3"/>
@@ -26820,6 +27075,12 @@
       </c>
       <c r="T454">
         <v>6.97</v>
+      </c>
+      <c r="V454">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="X454">
+        <v>300</v>
       </c>
     </row>
     <row r="455" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -26868,9 +27129,13 @@
         <v>10.46</v>
       </c>
       <c r="U455" s="3"/>
-      <c r="V455" s="3"/>
+      <c r="V455" s="3">
+        <v>43.3</v>
+      </c>
       <c r="W455" s="3"/>
-      <c r="X455" s="3"/>
+      <c r="X455">
+        <v>300</v>
+      </c>
       <c r="Y455" s="3"/>
       <c r="Z455" s="3"/>
       <c r="AA455" s="3"/>
@@ -26914,6 +27179,12 @@
       </c>
       <c r="T456">
         <v>7.86</v>
+      </c>
+      <c r="V456">
+        <v>25.4</v>
+      </c>
+      <c r="X456">
+        <v>300</v>
       </c>
     </row>
     <row r="457" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -26962,9 +27233,13 @@
         <v>10.16</v>
       </c>
       <c r="U457" s="3"/>
-      <c r="V457" s="3"/>
+      <c r="V457" s="3">
+        <v>44.1</v>
+      </c>
       <c r="W457" s="3"/>
-      <c r="X457" s="3"/>
+      <c r="X457">
+        <v>300</v>
+      </c>
       <c r="Y457" s="3"/>
       <c r="Z457" s="3"/>
       <c r="AA457" s="3"/>
@@ -27008,6 +27283,12 @@
       </c>
       <c r="T458">
         <v>10.79</v>
+      </c>
+      <c r="V458">
+        <v>52.9</v>
+      </c>
+      <c r="X458">
+        <v>300</v>
       </c>
     </row>
     <row r="459" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -27056,9 +27337,13 @@
         <v>10.16</v>
       </c>
       <c r="U459" s="3"/>
-      <c r="V459" s="3"/>
+      <c r="V459" s="3">
+        <v>47.9</v>
+      </c>
       <c r="W459" s="3"/>
-      <c r="X459" s="3"/>
+      <c r="X459">
+        <v>300</v>
+      </c>
       <c r="Y459" s="3"/>
       <c r="Z459" s="3"/>
       <c r="AA459" s="3"/>
@@ -27102,6 +27387,12 @@
       </c>
       <c r="T460">
         <v>5.67</v>
+      </c>
+      <c r="V460">
+        <v>27.5</v>
+      </c>
+      <c r="X460">
+        <v>300</v>
       </c>
     </row>
     <row r="461" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -27150,14 +27441,18 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="U461" s="3"/>
-      <c r="V461" s="3"/>
+      <c r="V461" s="3">
+        <v>35.4</v>
+      </c>
       <c r="W461" s="3"/>
-      <c r="X461" s="3"/>
+      <c r="X461">
+        <v>300</v>
+      </c>
       <c r="Y461" s="3"/>
       <c r="Z461" s="3"/>
       <c r="AA461" s="3"/>
     </row>
-    <row r="462" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>1146</v>
       </c>
@@ -27205,14 +27500,20 @@
         <v>7.82</v>
       </c>
       <c r="U462" s="19"/>
-      <c r="V462" s="19"/>
+      <c r="V462" s="19">
+        <v>27.4</v>
+      </c>
       <c r="W462" s="19"/>
-      <c r="X462" s="19"/>
+      <c r="X462">
+        <v>300</v>
+      </c>
       <c r="Y462" s="19"/>
       <c r="Z462" s="19"/>
-      <c r="AA462" s="19"/>
-    </row>
-    <row r="463" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA462" s="41" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="463" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="3" t="s">
         <v>1147</v>
       </c>
@@ -27258,14 +27559,18 @@
         <v>9.06</v>
       </c>
       <c r="U463" s="3"/>
-      <c r="V463" s="3"/>
+      <c r="V463" s="3">
+        <v>53.9</v>
+      </c>
       <c r="W463" s="3"/>
-      <c r="X463" s="3"/>
+      <c r="X463">
+        <v>300</v>
+      </c>
       <c r="Y463" s="3"/>
       <c r="Z463" s="3"/>
       <c r="AA463" s="3"/>
     </row>
-    <row r="464" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>1148</v>
       </c>
@@ -27305,8 +27610,17 @@
       <c r="T464">
         <v>8.77</v>
       </c>
-    </row>
-    <row r="465" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V464">
+        <v>40</v>
+      </c>
+      <c r="X464">
+        <v>300</v>
+      </c>
+      <c r="AA464" s="41" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="465" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="3" t="s">
         <v>1149</v>
       </c>
@@ -27352,14 +27666,18 @@
         <v>6.39</v>
       </c>
       <c r="U465" s="3"/>
-      <c r="V465" s="3"/>
+      <c r="V465" s="3">
+        <v>23.9</v>
+      </c>
       <c r="W465" s="3"/>
-      <c r="X465" s="3"/>
+      <c r="X465">
+        <v>300</v>
+      </c>
       <c r="Y465" s="3"/>
       <c r="Z465" s="3"/>
       <c r="AA465" s="3"/>
     </row>
-    <row r="466" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>1150</v>
       </c>
@@ -27398,6 +27716,12 @@
       </c>
       <c r="T466">
         <v>10.48</v>
+      </c>
+      <c r="V466">
+        <v>43.4</v>
+      </c>
+      <c r="X466">
+        <v>300</v>
       </c>
     </row>
     <row r="467" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -27446,9 +27770,13 @@
         <v>7.55</v>
       </c>
       <c r="U467" s="3"/>
-      <c r="V467" s="3"/>
+      <c r="V467" s="3">
+        <v>32.5</v>
+      </c>
       <c r="W467" s="3"/>
-      <c r="X467" s="3"/>
+      <c r="X467">
+        <v>300</v>
+      </c>
       <c r="Y467" s="3"/>
       <c r="Z467" s="3"/>
       <c r="AA467" s="3"/>
@@ -27492,6 +27820,12 @@
       </c>
       <c r="T468">
         <v>7.35</v>
+      </c>
+      <c r="V468">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="X468">
+        <v>300</v>
       </c>
     </row>
     <row r="469" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -27540,9 +27874,13 @@
         <v>5.72</v>
       </c>
       <c r="U469" s="3"/>
-      <c r="V469" s="3"/>
+      <c r="V469" s="3">
+        <v>29.1</v>
+      </c>
       <c r="W469" s="3"/>
-      <c r="X469" s="3"/>
+      <c r="X469">
+        <v>300</v>
+      </c>
       <c r="Y469" s="3"/>
       <c r="Z469" s="3"/>
       <c r="AA469" s="3"/>
@@ -27586,6 +27924,12 @@
       </c>
       <c r="T470">
         <v>6.35</v>
+      </c>
+      <c r="V470">
+        <v>21.4</v>
+      </c>
+      <c r="X470">
+        <v>300</v>
       </c>
     </row>
     <row r="471" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -27634,9 +27978,13 @@
         <v>7.88</v>
       </c>
       <c r="U471" s="3"/>
-      <c r="V471" s="3"/>
+      <c r="V471" s="3">
+        <v>29.1</v>
+      </c>
       <c r="W471" s="3"/>
-      <c r="X471" s="3"/>
+      <c r="X471">
+        <v>300</v>
+      </c>
       <c r="Y471" s="3"/>
       <c r="Z471" s="3"/>
       <c r="AA471" s="3"/>
@@ -27680,6 +28028,12 @@
       </c>
       <c r="T472">
         <v>7.79</v>
+      </c>
+      <c r="V472">
+        <v>33.9</v>
+      </c>
+      <c r="X472">
+        <v>300</v>
       </c>
     </row>
     <row r="473" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -27728,9 +28082,13 @@
         <v>8.1300000000000008</v>
       </c>
       <c r="U473" s="3"/>
-      <c r="V473" s="3"/>
+      <c r="V473" s="3">
+        <v>32.700000000000003</v>
+      </c>
       <c r="W473" s="3"/>
-      <c r="X473" s="3"/>
+      <c r="X473">
+        <v>300</v>
+      </c>
       <c r="Y473" s="3"/>
       <c r="Z473" s="3"/>
       <c r="AA473" s="3"/>
@@ -27774,6 +28132,12 @@
       </c>
       <c r="T474">
         <v>8.02</v>
+      </c>
+      <c r="V474">
+        <v>34.1</v>
+      </c>
+      <c r="X474">
+        <v>300</v>
       </c>
     </row>
     <row r="475" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -27822,9 +28186,13 @@
         <v>8.61</v>
       </c>
       <c r="U475" s="3"/>
-      <c r="V475" s="3"/>
+      <c r="V475" s="3">
+        <v>38.799999999999997</v>
+      </c>
       <c r="W475" s="3"/>
-      <c r="X475" s="3"/>
+      <c r="X475">
+        <v>300</v>
+      </c>
       <c r="Y475" s="3"/>
       <c r="Z475" s="3"/>
       <c r="AA475" s="3"/>
@@ -27869,8 +28237,14 @@
       <c r="T476">
         <v>6.44</v>
       </c>
-    </row>
-    <row r="477" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V476">
+        <v>24.2</v>
+      </c>
+      <c r="X476">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="477" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="s">
         <v>1165</v>
       </c>
@@ -27916,14 +28290,18 @@
         <v>8.5299999999999994</v>
       </c>
       <c r="U477" s="3"/>
-      <c r="V477" s="3"/>
+      <c r="V477" s="3">
+        <v>27.3</v>
+      </c>
       <c r="W477" s="3"/>
-      <c r="X477" s="3"/>
+      <c r="X477">
+        <v>300</v>
+      </c>
       <c r="Y477" s="3"/>
       <c r="Z477" s="3"/>
       <c r="AA477" s="3"/>
     </row>
-    <row r="478" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>1166</v>
       </c>
@@ -27963,8 +28341,14 @@
       <c r="T478">
         <v>5.63</v>
       </c>
-    </row>
-    <row r="479" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V478">
+        <v>31</v>
+      </c>
+      <c r="X478">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="479" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
         <v>1168</v>
       </c>
@@ -28010,14 +28394,18 @@
         <v>6.61</v>
       </c>
       <c r="U479" s="3"/>
-      <c r="V479" s="3"/>
+      <c r="V479" s="3">
+        <v>35.5</v>
+      </c>
       <c r="W479" s="3"/>
-      <c r="X479" s="3"/>
+      <c r="X479">
+        <v>300</v>
+      </c>
       <c r="Y479" s="3"/>
       <c r="Z479" s="3"/>
       <c r="AA479" s="3"/>
     </row>
-    <row r="480" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>1170</v>
       </c>
@@ -28057,8 +28445,14 @@
       <c r="T480">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="481" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V480">
+        <v>35.1</v>
+      </c>
+      <c r="X480">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="481" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="3" t="s">
         <v>1171</v>
       </c>
@@ -28104,9 +28498,13 @@
         <v>8.07</v>
       </c>
       <c r="U481" s="3"/>
-      <c r="V481" s="3"/>
+      <c r="V481" s="3">
+        <v>27.8</v>
+      </c>
       <c r="W481" s="3"/>
-      <c r="X481" s="3"/>
+      <c r="X481">
+        <v>300</v>
+      </c>
       <c r="Y481" s="3"/>
       <c r="Z481" s="3"/>
       <c r="AA481" s="3"/>
@@ -28150,6 +28548,12 @@
       </c>
       <c r="T482">
         <v>9.5299999999999994</v>
+      </c>
+      <c r="V482">
+        <v>40.6</v>
+      </c>
+      <c r="X482">
+        <v>300</v>
       </c>
     </row>
     <row r="483" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -28198,9 +28602,13 @@
         <v>7.83</v>
       </c>
       <c r="U483" s="3"/>
-      <c r="V483" s="3"/>
+      <c r="V483" s="3">
+        <v>41.7</v>
+      </c>
       <c r="W483" s="3"/>
-      <c r="X483" s="3"/>
+      <c r="X483">
+        <v>300</v>
+      </c>
       <c r="Y483" s="3"/>
       <c r="Z483" s="3"/>
       <c r="AA483" s="3"/>
@@ -28244,6 +28652,12 @@
       </c>
       <c r="T484">
         <v>8.5299999999999994</v>
+      </c>
+      <c r="V484">
+        <v>32.5</v>
+      </c>
+      <c r="X484">
+        <v>300</v>
       </c>
     </row>
     <row r="485" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -28292,9 +28706,13 @@
         <v>8.83</v>
       </c>
       <c r="U485" s="3"/>
-      <c r="V485" s="3"/>
+      <c r="V485" s="3">
+        <v>38.9</v>
+      </c>
       <c r="W485" s="3"/>
-      <c r="X485" s="3"/>
+      <c r="X485">
+        <v>300</v>
+      </c>
       <c r="Y485" s="3"/>
       <c r="Z485" s="3"/>
       <c r="AA485" s="3"/>
@@ -28338,6 +28756,12 @@
       </c>
       <c r="T486">
         <v>7.09</v>
+      </c>
+      <c r="V486">
+        <v>24.9</v>
+      </c>
+      <c r="X486">
+        <v>300</v>
       </c>
     </row>
     <row r="487" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -28386,9 +28810,13 @@
         <v>7.02</v>
       </c>
       <c r="U487" s="3"/>
-      <c r="V487" s="3"/>
+      <c r="V487" s="3">
+        <v>33.5</v>
+      </c>
       <c r="W487" s="3"/>
-      <c r="X487" s="3"/>
+      <c r="X487">
+        <v>300</v>
+      </c>
       <c r="Y487" s="3"/>
       <c r="Z487" s="3"/>
       <c r="AA487" s="3"/>
@@ -28432,6 +28860,12 @@
       </c>
       <c r="T488">
         <v>6.14</v>
+      </c>
+      <c r="V488">
+        <v>47.1</v>
+      </c>
+      <c r="X488">
+        <v>300</v>
       </c>
     </row>
     <row r="489" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -28480,9 +28914,13 @@
         <v>6.25</v>
       </c>
       <c r="U489" s="3"/>
-      <c r="V489" s="3"/>
+      <c r="V489" s="3">
+        <v>48.3</v>
+      </c>
       <c r="W489" s="3"/>
-      <c r="X489" s="3"/>
+      <c r="X489">
+        <v>300</v>
+      </c>
       <c r="Y489" s="3"/>
       <c r="Z489" s="3"/>
       <c r="AA489" s="3"/>
@@ -28526,6 +28964,12 @@
       </c>
       <c r="T490">
         <v>9.06</v>
+      </c>
+      <c r="V490">
+        <v>55.8</v>
+      </c>
+      <c r="X490">
+        <v>300</v>
       </c>
     </row>
     <row r="491" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -28574,14 +29018,18 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="U491" s="3"/>
-      <c r="V491" s="3"/>
+      <c r="V491" s="3">
+        <v>37.9</v>
+      </c>
       <c r="W491" s="3"/>
-      <c r="X491" s="3"/>
+      <c r="X491">
+        <v>300</v>
+      </c>
       <c r="Y491" s="3"/>
       <c r="Z491" s="3"/>
       <c r="AA491" s="3"/>
     </row>
-    <row r="492" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>1185</v>
       </c>
@@ -28621,8 +29069,14 @@
       <c r="T492">
         <v>5.72</v>
       </c>
-    </row>
-    <row r="493" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V492">
+        <v>22.9</v>
+      </c>
+      <c r="X492">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="493" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="3" t="s">
         <v>1186</v>
       </c>
@@ -28668,14 +29122,18 @@
         <v>8.1</v>
       </c>
       <c r="U493" s="3"/>
-      <c r="V493" s="3"/>
+      <c r="V493" s="3">
+        <v>39.4</v>
+      </c>
       <c r="W493" s="3"/>
-      <c r="X493" s="3"/>
+      <c r="X493">
+        <v>300</v>
+      </c>
       <c r="Y493" s="3"/>
       <c r="Z493" s="3"/>
       <c r="AA493" s="3"/>
     </row>
-    <row r="494" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>1187</v>
       </c>
@@ -28718,8 +29176,14 @@
       <c r="T494">
         <v>5.67</v>
       </c>
-    </row>
-    <row r="495" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V494">
+        <v>27.9</v>
+      </c>
+      <c r="X494">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="495" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="3" t="s">
         <v>1188</v>
       </c>
@@ -28765,14 +29229,18 @@
       </c>
       <c r="T495" s="3"/>
       <c r="U495" s="3"/>
-      <c r="V495" s="3"/>
+      <c r="V495" s="3" t="s">
+        <v>1386</v>
+      </c>
       <c r="W495" s="3"/>
-      <c r="X495" s="3"/>
+      <c r="X495">
+        <v>300</v>
+      </c>
       <c r="Y495" s="3"/>
       <c r="Z495" s="3"/>
       <c r="AA495" s="3"/>
     </row>
-    <row r="496" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>1189</v>
       </c>
@@ -28811,6 +29279,12 @@
       </c>
       <c r="T496">
         <v>8.56</v>
+      </c>
+      <c r="V496">
+        <v>33.9</v>
+      </c>
+      <c r="X496">
+        <v>300</v>
       </c>
     </row>
     <row r="497" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -28859,9 +29333,13 @@
         <v>7.3</v>
       </c>
       <c r="U497" s="3"/>
-      <c r="V497" s="3"/>
+      <c r="V497" s="3">
+        <v>34.299999999999997</v>
+      </c>
       <c r="W497" s="3"/>
-      <c r="X497" s="3"/>
+      <c r="X497">
+        <v>300</v>
+      </c>
       <c r="Y497" s="3"/>
       <c r="Z497" s="3"/>
       <c r="AA497" s="3"/>
@@ -28905,6 +29383,12 @@
       </c>
       <c r="T498">
         <v>7.24</v>
+      </c>
+      <c r="V498">
+        <v>42.4</v>
+      </c>
+      <c r="X498">
+        <v>300</v>
       </c>
     </row>
     <row r="499" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -28953,9 +29437,13 @@
         <v>7.2</v>
       </c>
       <c r="U499" s="3"/>
-      <c r="V499" s="3"/>
+      <c r="V499" s="3">
+        <v>32.4</v>
+      </c>
       <c r="W499" s="3"/>
-      <c r="X499" s="3"/>
+      <c r="X499">
+        <v>300</v>
+      </c>
       <c r="Y499" s="3"/>
       <c r="Z499" s="3"/>
       <c r="AA499" s="3"/>
@@ -28999,6 +29487,12 @@
       </c>
       <c r="T500">
         <v>8.32</v>
+      </c>
+      <c r="V500">
+        <v>39.5</v>
+      </c>
+      <c r="X500">
+        <v>300</v>
       </c>
     </row>
     <row r="501" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -29047,9 +29541,13 @@
         <v>11.31</v>
       </c>
       <c r="U501" s="3"/>
-      <c r="V501" s="3"/>
+      <c r="V501" s="3">
+        <v>41.6</v>
+      </c>
       <c r="W501" s="3"/>
-      <c r="X501" s="3"/>
+      <c r="X501">
+        <v>300</v>
+      </c>
       <c r="Y501" s="3"/>
       <c r="Z501" s="3"/>
       <c r="AA501" s="3"/>
@@ -29094,6 +29592,15 @@
       <c r="S502" s="17" t="s">
         <v>1391</v>
       </c>
+      <c r="T502" s="41" t="s">
+        <v>1386</v>
+      </c>
+      <c r="V502" s="41" t="s">
+        <v>1386</v>
+      </c>
+      <c r="X502">
+        <v>300</v>
+      </c>
     </row>
     <row r="503" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="3" t="s">
@@ -29141,17 +29648,25 @@
       <c r="S503" s="3" t="s">
         <v>1406</v>
       </c>
-      <c r="T503" s="3" t="s">
-        <v>1424</v>
+      <c r="T503" s="3">
+        <v>3.3</v>
       </c>
       <c r="U503" s="11"/>
-      <c r="V503" s="11"/>
+      <c r="V503" s="3">
+        <v>21.1</v>
+      </c>
       <c r="W503" s="11"/>
-      <c r="X503" s="11"/>
-      <c r="Y503" s="11"/>
-      <c r="Z503" s="11"/>
+      <c r="X503">
+        <v>300</v>
+      </c>
+      <c r="Y503" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="Z503" s="3" t="s">
+        <v>1407</v>
+      </c>
       <c r="AA503" s="3" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="504" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -29193,6 +29708,12 @@
       </c>
       <c r="T504">
         <v>6.66</v>
+      </c>
+      <c r="V504">
+        <v>34.9</v>
+      </c>
+      <c r="X504">
+        <v>300</v>
       </c>
     </row>
     <row r="505" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -29241,9 +29762,13 @@
         <v>7.85</v>
       </c>
       <c r="U505" s="3"/>
-      <c r="V505" s="3"/>
+      <c r="V505" s="3">
+        <v>25</v>
+      </c>
       <c r="W505" s="3"/>
-      <c r="X505" s="3"/>
+      <c r="X505">
+        <v>300</v>
+      </c>
       <c r="Y505" s="3"/>
       <c r="Z505" s="3"/>
       <c r="AA505" s="3"/>
@@ -29288,8 +29813,14 @@
       <c r="T506">
         <v>7.08</v>
       </c>
-    </row>
-    <row r="507" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V506">
+        <v>29.4</v>
+      </c>
+      <c r="X506">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="507" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="3" t="s">
         <v>1207</v>
       </c>
@@ -29335,14 +29866,18 @@
         <v>6.39</v>
       </c>
       <c r="U507" s="3"/>
-      <c r="V507" s="3"/>
+      <c r="V507" s="3">
+        <v>37</v>
+      </c>
       <c r="W507" s="3"/>
-      <c r="X507" s="3"/>
+      <c r="X507">
+        <v>300</v>
+      </c>
       <c r="Y507" s="3"/>
       <c r="Z507" s="3"/>
       <c r="AA507" s="3"/>
     </row>
-    <row r="508" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>1209</v>
       </c>
@@ -29382,8 +29917,14 @@
       <c r="T508">
         <v>7.03</v>
       </c>
-    </row>
-    <row r="509" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V508">
+        <v>32.1</v>
+      </c>
+      <c r="X508">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="509" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="3" t="s">
         <v>1210</v>
       </c>
@@ -29429,14 +29970,18 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="U509" s="3"/>
-      <c r="V509" s="3"/>
+      <c r="V509" s="3">
+        <v>41.6</v>
+      </c>
       <c r="W509" s="3"/>
-      <c r="X509" s="3"/>
+      <c r="X509">
+        <v>300</v>
+      </c>
       <c r="Y509" s="3"/>
       <c r="Z509" s="3"/>
       <c r="AA509" s="3"/>
     </row>
-    <row r="510" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>1212</v>
       </c>
@@ -29496,14 +30041,22 @@
       <c r="U510" s="19">
         <v>7.7</v>
       </c>
-      <c r="V510" s="19"/>
-      <c r="W510" s="19"/>
-      <c r="X510" s="19"/>
+      <c r="V510" s="19">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="W510" s="19">
+        <v>24.4</v>
+      </c>
+      <c r="X510">
+        <v>300</v>
+      </c>
       <c r="Y510" s="19"/>
       <c r="Z510" s="19"/>
-      <c r="AA510" s="19"/>
-    </row>
-    <row r="511" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA510" s="41" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="511" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="3" t="s">
         <v>1214</v>
       </c>
@@ -29549,9 +30102,13 @@
         <v>5.58</v>
       </c>
       <c r="U511" s="3"/>
-      <c r="V511" s="3"/>
+      <c r="V511" s="3">
+        <v>27.6</v>
+      </c>
       <c r="W511" s="3"/>
-      <c r="X511" s="3"/>
+      <c r="X511">
+        <v>300</v>
+      </c>
       <c r="Y511" s="3"/>
       <c r="Z511" s="3"/>
       <c r="AA511" s="3"/>
@@ -29595,6 +30152,12 @@
       </c>
       <c r="T512">
         <v>12.35</v>
+      </c>
+      <c r="V512">
+        <v>44.6</v>
+      </c>
+      <c r="X512">
+        <v>300</v>
       </c>
     </row>
     <row r="513" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -29643,9 +30206,13 @@
         <v>8.59</v>
       </c>
       <c r="U513" s="3"/>
-      <c r="V513" s="3"/>
+      <c r="V513" s="3">
+        <v>38.5</v>
+      </c>
       <c r="W513" s="3"/>
-      <c r="X513" s="3"/>
+      <c r="X513">
+        <v>300</v>
+      </c>
       <c r="Y513" s="3"/>
       <c r="Z513" s="3"/>
       <c r="AA513" s="3"/>
@@ -29689,6 +30256,12 @@
       </c>
       <c r="T514">
         <v>8.14</v>
+      </c>
+      <c r="V514">
+        <v>42.3</v>
+      </c>
+      <c r="X514">
+        <v>300</v>
       </c>
     </row>
     <row r="515" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -29737,9 +30310,13 @@
         <v>9.85</v>
       </c>
       <c r="U515" s="3"/>
-      <c r="V515" s="3"/>
+      <c r="V515" s="3">
+        <v>37.4</v>
+      </c>
       <c r="W515" s="3"/>
-      <c r="X515" s="3"/>
+      <c r="X515">
+        <v>300</v>
+      </c>
       <c r="Y515" s="3"/>
       <c r="Z515" s="3"/>
       <c r="AA515" s="3"/>
@@ -29783,6 +30360,12 @@
       </c>
       <c r="T516">
         <v>10.74</v>
+      </c>
+      <c r="V516">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="X516">
+        <v>300</v>
       </c>
     </row>
     <row r="517" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -29831,9 +30414,13 @@
         <v>7.74</v>
       </c>
       <c r="U517" s="3"/>
-      <c r="V517" s="3"/>
+      <c r="V517" s="3">
+        <v>38.9</v>
+      </c>
       <c r="W517" s="3"/>
-      <c r="X517" s="3"/>
+      <c r="X517">
+        <v>300</v>
+      </c>
       <c r="Y517" s="3"/>
       <c r="Z517" s="3"/>
       <c r="AA517" s="3"/>
@@ -29877,6 +30464,15 @@
       </c>
       <c r="T518">
         <v>8.0500000000000007</v>
+      </c>
+      <c r="V518">
+        <v>29.8</v>
+      </c>
+      <c r="X518">
+        <v>300</v>
+      </c>
+      <c r="AA518" s="41" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="519" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -29935,9 +30531,15 @@
       <c r="U519" s="3">
         <v>8.91</v>
       </c>
-      <c r="V519" s="3"/>
-      <c r="W519" s="3"/>
-      <c r="X519" s="3"/>
+      <c r="V519" s="3">
+        <v>31.3</v>
+      </c>
+      <c r="W519" s="3">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="X519">
+        <v>300</v>
+      </c>
       <c r="Y519" s="3"/>
       <c r="Z519" s="3"/>
       <c r="AA519" s="3"/>
@@ -29984,19 +30586,25 @@
         <v>1407</v>
       </c>
       <c r="R520" s="17"/>
-      <c r="S520" s="17" t="s">
+      <c r="S520" s="41" t="s">
         <v>1405</v>
       </c>
       <c r="T520" s="3">
         <v>6.02</v>
       </c>
       <c r="U520" s="17"/>
-      <c r="V520" s="17"/>
+      <c r="V520" s="17">
+        <v>30.5</v>
+      </c>
       <c r="W520" s="17"/>
-      <c r="X520" s="17"/>
+      <c r="X520">
+        <v>300</v>
+      </c>
       <c r="Y520" s="17"/>
       <c r="Z520" s="17"/>
-      <c r="AA520" s="17"/>
+      <c r="AA520" s="41" t="s">
+        <v>1444</v>
+      </c>
     </row>
     <row r="521" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="3" t="s">
@@ -30044,14 +30652,18 @@
         <v>9.33</v>
       </c>
       <c r="U521" s="3"/>
-      <c r="V521" s="3"/>
+      <c r="V521" s="3">
+        <v>44.4</v>
+      </c>
       <c r="W521" s="3"/>
-      <c r="X521" s="3"/>
+      <c r="X521">
+        <v>300</v>
+      </c>
       <c r="Y521" s="3"/>
       <c r="Z521" s="3"/>
       <c r="AA521" s="3"/>
     </row>
-    <row r="522" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>1231</v>
       </c>
@@ -30091,8 +30703,14 @@
       <c r="T522">
         <v>7.11</v>
       </c>
-    </row>
-    <row r="523" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V522">
+        <v>24.9</v>
+      </c>
+      <c r="X522">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="523" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="3" t="s">
         <v>1232</v>
       </c>
@@ -30138,14 +30756,18 @@
         <v>9.9700000000000006</v>
       </c>
       <c r="U523" s="3"/>
-      <c r="V523" s="3"/>
+      <c r="V523" s="3">
+        <v>31.2</v>
+      </c>
       <c r="W523" s="3"/>
-      <c r="X523" s="3"/>
+      <c r="X523">
+        <v>300</v>
+      </c>
       <c r="Y523" s="3"/>
       <c r="Z523" s="3"/>
       <c r="AA523" s="3"/>
     </row>
-    <row r="524" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>1234</v>
       </c>
@@ -30185,8 +30807,14 @@
       <c r="T524">
         <v>8.15</v>
       </c>
-    </row>
-    <row r="525" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V524">
+        <v>28.8</v>
+      </c>
+      <c r="X524">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="525" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="3" t="s">
         <v>1236</v>
       </c>
@@ -30232,14 +30860,18 @@
         <v>11.4</v>
       </c>
       <c r="U525" s="3"/>
-      <c r="V525" s="3"/>
+      <c r="V525" s="3">
+        <v>46.7</v>
+      </c>
       <c r="W525" s="3"/>
-      <c r="X525" s="3"/>
+      <c r="X525">
+        <v>300</v>
+      </c>
       <c r="Y525" s="3"/>
       <c r="Z525" s="3"/>
       <c r="AA525" s="3"/>
     </row>
-    <row r="526" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>1238</v>
       </c>
@@ -30281,6 +30913,12 @@
       <c r="S526" s="15"/>
       <c r="T526">
         <v>10.28</v>
+      </c>
+      <c r="V526">
+        <v>45.4</v>
+      </c>
+      <c r="X526">
+        <v>300</v>
       </c>
     </row>
     <row r="527" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -30329,9 +30967,13 @@
         <v>8.25</v>
       </c>
       <c r="U527" s="3"/>
-      <c r="V527" s="3"/>
+      <c r="V527" s="3">
+        <v>38.9</v>
+      </c>
       <c r="W527" s="3"/>
-      <c r="X527" s="3"/>
+      <c r="X527">
+        <v>300</v>
+      </c>
       <c r="Y527" s="3"/>
       <c r="Z527" s="3"/>
       <c r="AA527" s="3"/>
@@ -30375,6 +31017,12 @@
       </c>
       <c r="T528">
         <v>6.82</v>
+      </c>
+      <c r="V528">
+        <v>27.1</v>
+      </c>
+      <c r="X528">
+        <v>300</v>
       </c>
     </row>
     <row r="529" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -30423,9 +31071,13 @@
         <v>6.56</v>
       </c>
       <c r="U529" s="3"/>
-      <c r="V529" s="3"/>
+      <c r="V529" s="3">
+        <v>29.5</v>
+      </c>
       <c r="W529" s="3"/>
-      <c r="X529" s="3"/>
+      <c r="X529">
+        <v>300</v>
+      </c>
       <c r="Y529" s="3"/>
       <c r="Z529" s="3"/>
       <c r="AA529" s="3"/>
@@ -30469,6 +31121,12 @@
       </c>
       <c r="T530">
         <v>7.77</v>
+      </c>
+      <c r="V530">
+        <v>28</v>
+      </c>
+      <c r="X530">
+        <v>300</v>
       </c>
     </row>
     <row r="531" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -30517,9 +31175,13 @@
         <v>8.6199999999999992</v>
       </c>
       <c r="U531" s="3"/>
-      <c r="V531" s="3"/>
+      <c r="V531" s="3">
+        <v>34.9</v>
+      </c>
       <c r="W531" s="3"/>
-      <c r="X531" s="3"/>
+      <c r="X531">
+        <v>300</v>
+      </c>
       <c r="Y531" s="3"/>
       <c r="Z531" s="3"/>
       <c r="AA531" s="3"/>
@@ -30563,6 +31225,12 @@
       </c>
       <c r="T532">
         <v>7.73</v>
+      </c>
+      <c r="V532">
+        <v>29.9</v>
+      </c>
+      <c r="X532">
+        <v>300</v>
       </c>
     </row>
     <row r="533" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -30611,9 +31279,13 @@
         <v>8.49</v>
       </c>
       <c r="U533" s="3"/>
-      <c r="V533" s="3"/>
+      <c r="V533" s="3">
+        <v>36.9</v>
+      </c>
       <c r="W533" s="3"/>
-      <c r="X533" s="3"/>
+      <c r="X533">
+        <v>300</v>
+      </c>
       <c r="Y533" s="3"/>
       <c r="Z533" s="3"/>
       <c r="AA533" s="3"/>
@@ -30657,6 +31329,12 @@
       </c>
       <c r="T534">
         <v>10.4</v>
+      </c>
+      <c r="V534">
+        <v>32.4</v>
+      </c>
+      <c r="X534">
+        <v>300</v>
       </c>
     </row>
     <row r="535" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -30705,9 +31383,13 @@
         <v>8.09</v>
       </c>
       <c r="U535" s="15"/>
-      <c r="V535" s="3"/>
+      <c r="V535" s="3">
+        <v>45.7</v>
+      </c>
       <c r="W535" s="3"/>
-      <c r="X535" s="3"/>
+      <c r="X535">
+        <v>300</v>
+      </c>
       <c r="Y535" s="3"/>
       <c r="Z535" s="3"/>
       <c r="AA535" s="3"/>
@@ -30752,8 +31434,14 @@
       <c r="T536">
         <v>5.35</v>
       </c>
-    </row>
-    <row r="537" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V536">
+        <v>27.9</v>
+      </c>
+      <c r="X536">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="537" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="3" t="s">
         <v>1254</v>
       </c>
@@ -30799,14 +31487,18 @@
         <v>6.07</v>
       </c>
       <c r="U537" s="3"/>
-      <c r="V537" s="3"/>
+      <c r="V537" s="3">
+        <v>27.1</v>
+      </c>
       <c r="W537" s="3"/>
-      <c r="X537" s="3"/>
+      <c r="X537">
+        <v>300</v>
+      </c>
       <c r="Y537" s="3"/>
       <c r="Z537" s="3"/>
       <c r="AA537" s="3"/>
     </row>
-    <row r="538" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
         <v>1255</v>
       </c>
@@ -30846,8 +31538,14 @@
       <c r="T538">
         <v>7.51</v>
       </c>
-    </row>
-    <row r="539" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V538">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="X538">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="539" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="3" t="s">
         <v>1257</v>
       </c>
@@ -30893,14 +31591,18 @@
         <v>7.8</v>
       </c>
       <c r="U539" s="3"/>
-      <c r="V539" s="3"/>
+      <c r="V539" s="3">
+        <v>33.1</v>
+      </c>
       <c r="W539" s="3"/>
-      <c r="X539" s="3"/>
+      <c r="X539">
+        <v>300</v>
+      </c>
       <c r="Y539" s="3"/>
       <c r="Z539" s="3"/>
       <c r="AA539" s="3"/>
     </row>
-    <row r="540" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
         <v>1258</v>
       </c>
@@ -30940,8 +31642,14 @@
       <c r="T540">
         <v>6.38</v>
       </c>
-    </row>
-    <row r="541" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V540">
+        <v>34.1</v>
+      </c>
+      <c r="X540">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="541" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="3" t="s">
         <v>1259</v>
       </c>
@@ -30987,9 +31695,13 @@
         <v>6.42</v>
       </c>
       <c r="U541" s="3"/>
-      <c r="V541" s="3"/>
+      <c r="V541" s="3">
+        <v>28.9</v>
+      </c>
       <c r="W541" s="3"/>
-      <c r="X541" s="3"/>
+      <c r="X541">
+        <v>300</v>
+      </c>
       <c r="Y541" s="3"/>
       <c r="Z541" s="3"/>
       <c r="AA541" s="3"/>
@@ -36576,7 +37288,7 @@
       <c r="K820" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <tableParts count="1">

--- a/data/treeMeasurements/TreeMeasurements.xlsx
+++ b/data/treeMeasurements/TreeMeasurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/treeMeasurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43DD8D3-843E-8747-85C8-ABAF7022B3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90B2FE8-163E-4E49-BFF4-5F240C22A5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4707" uniqueCount="1449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4732" uniqueCount="1453">
   <si>
     <t>tree_ID</t>
   </si>
@@ -4383,6 +4383,18 @@
   </si>
   <si>
     <t>3rd trunk has sprouted in 2025</t>
+  </si>
+  <si>
+    <t>shoot measured in winter 25 died, should only consider trunk 2 for biomass</t>
+  </si>
+  <si>
+    <t>current year shoot died after summer drought; height still measured and half of the tree is dead</t>
+  </si>
+  <si>
+    <t>current year shoot died after summer drought; height still measured and whole tree is dead</t>
+  </si>
+  <si>
+    <t>middle of the crown is dead; the rest is not doing great</t>
   </si>
 </sst>
 </file>
@@ -4392,11 +4404,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4558,47 +4577,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -5244,18 +5264,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3F288811-81FB-F847-9587-99D03002EDFF}" name="Table4" displayName="Table4" ref="A1:AA631" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
-  <autoFilter ref="A1:AA631" xr:uid="{3F288811-81FB-F847-9587-99D03002EDFF}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="quercus_macrocarpa"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AA631" xr:uid="{3F288811-81FB-F847-9587-99D03002EDFF}"/>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{4E695CD1-C0DE-B64A-95C8-1055CDD8BF0D}" name="tree_ID" dataDxfId="26"/>
     <tableColumn id="2" xr3:uid="{F93C272E-AF95-684B-A424-2ABBF2DBEECA}" name="bloc" dataDxfId="25"/>
@@ -5489,9 +5498,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA820"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A477" zoomScale="167" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V509" sqref="V509"/>
+    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y210" sqref="Y210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5499,28 +5508,30 @@
     <col min="1" max="1" width="31.1640625" customWidth="1"/>
     <col min="2" max="2" width="5.83203125" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" customWidth="1"/>
     <col min="6" max="6" width="19" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="0.1640625" customWidth="1"/>
-    <col min="12" max="12" width="18.83203125" style="18" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="25.5" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.1640625" customWidth="1"/>
-    <col min="15" max="15" width="23" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" customWidth="1"/>
-    <col min="17" max="17" width="17.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="18" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" customWidth="1"/>
+    <col min="15" max="15" width="27.5" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="14" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="21" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="24.1640625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="11.1640625" customWidth="1"/>
-    <col min="20" max="20" width="0.5" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="22.83203125" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.1640625" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="25.83203125" customWidth="1"/>
+    <col min="19" max="19" width="15.33203125" customWidth="1"/>
+    <col min="20" max="20" width="20" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="22.6640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5" customWidth="1"/>
+    <col min="23" max="23" width="19.5" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="23.1640625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="26.1640625" customWidth="1"/>
+    <col min="26" max="26" width="17.83203125" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5606,7 +5617,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>73</v>
       </c>
@@ -5653,7 +5664,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>77</v>
       </c>
@@ -5710,7 +5721,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>80</v>
       </c>
@@ -5757,7 +5768,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>83</v>
       </c>
@@ -5814,7 +5825,7 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
@@ -5861,7 +5872,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>88</v>
       </c>
@@ -5918,7 +5929,7 @@
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>91</v>
       </c>
@@ -5965,7 +5976,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>93</v>
       </c>
@@ -6022,7 +6033,7 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>96</v>
       </c>
@@ -6069,7 +6080,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>99</v>
       </c>
@@ -6126,7 +6137,7 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>102</v>
       </c>
@@ -6173,7 +6184,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>105</v>
       </c>
@@ -6230,7 +6241,7 @@
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>108</v>
       </c>
@@ -6277,7 +6288,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>111</v>
       </c>
@@ -6334,7 +6345,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>114</v>
       </c>
@@ -6381,7 +6392,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>117</v>
       </c>
@@ -6438,7 +6449,7 @@
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
     </row>
-    <row r="18" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>119</v>
       </c>
@@ -6485,7 +6496,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>122</v>
       </c>
@@ -6542,7 +6553,7 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
     </row>
-    <row r="20" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>125</v>
       </c>
@@ -6589,7 +6600,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>128</v>
       </c>
@@ -6646,7 +6657,7 @@
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
     </row>
-    <row r="22" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>131</v>
       </c>
@@ -6693,7 +6704,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>134</v>
       </c>
@@ -6750,7 +6761,7 @@
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
     </row>
-    <row r="24" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>137</v>
       </c>
@@ -6797,7 +6808,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>140</v>
       </c>
@@ -6854,7 +6865,7 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
     </row>
-    <row r="26" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>143</v>
       </c>
@@ -6901,7 +6912,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>146</v>
       </c>
@@ -6958,7 +6969,7 @@
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
     </row>
-    <row r="28" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>149</v>
       </c>
@@ -7005,7 +7016,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>152</v>
       </c>
@@ -7064,7 +7075,7 @@
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
     </row>
-    <row r="30" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>155</v>
       </c>
@@ -7111,7 +7122,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>158</v>
       </c>
@@ -7168,7 +7179,7 @@
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
     </row>
-    <row r="32" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>161</v>
       </c>
@@ -7215,7 +7226,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>164</v>
       </c>
@@ -7272,7 +7283,7 @@
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
     </row>
-    <row r="34" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>166</v>
       </c>
@@ -7319,7 +7330,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>168</v>
       </c>
@@ -7376,7 +7387,7 @@
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
     </row>
-    <row r="36" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>171</v>
       </c>
@@ -7423,7 +7434,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>174</v>
       </c>
@@ -7480,7 +7491,7 @@
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
     </row>
-    <row r="38" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>177</v>
       </c>
@@ -7527,7 +7538,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>178</v>
       </c>
@@ -7584,7 +7595,7 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
     </row>
-    <row r="40" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>180</v>
       </c>
@@ -7631,7 +7642,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>182</v>
       </c>
@@ -7688,7 +7699,7 @@
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
     </row>
-    <row r="42" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>184</v>
       </c>
@@ -7735,7 +7746,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>187</v>
       </c>
@@ -7792,7 +7803,7 @@
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
     </row>
-    <row r="44" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>190</v>
       </c>
@@ -7839,7 +7850,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>193</v>
       </c>
@@ -7896,7 +7907,7 @@
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
     </row>
-    <row r="46" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>195</v>
       </c>
@@ -7943,7 +7954,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>198</v>
       </c>
@@ -8000,7 +8011,7 @@
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
     </row>
-    <row r="48" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>201</v>
       </c>
@@ -8047,7 +8058,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>204</v>
       </c>
@@ -8104,7 +8115,7 @@
       <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
     </row>
-    <row r="50" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>207</v>
       </c>
@@ -8151,7 +8162,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>210</v>
       </c>
@@ -8208,7 +8219,7 @@
       <c r="Z51" s="3"/>
       <c r="AA51" s="3"/>
     </row>
-    <row r="52" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>213</v>
       </c>
@@ -8255,7 +8266,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>216</v>
       </c>
@@ -8312,7 +8323,7 @@
       <c r="Z53" s="3"/>
       <c r="AA53" s="3"/>
     </row>
-    <row r="54" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>219</v>
       </c>
@@ -8359,7 +8370,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>221</v>
       </c>
@@ -8416,7 +8427,7 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
     </row>
-    <row r="56" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>224</v>
       </c>
@@ -8463,7 +8474,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>227</v>
       </c>
@@ -8520,7 +8531,7 @@
       <c r="Z57" s="3"/>
       <c r="AA57" s="3"/>
     </row>
-    <row r="58" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>229</v>
       </c>
@@ -8567,7 +8578,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>231</v>
       </c>
@@ -8624,7 +8635,7 @@
       <c r="Z59" s="3"/>
       <c r="AA59" s="3"/>
     </row>
-    <row r="60" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>234</v>
       </c>
@@ -8674,7 +8685,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>235</v>
       </c>
@@ -8731,7 +8742,7 @@
       <c r="Z61" s="3"/>
       <c r="AA61" s="15"/>
     </row>
-    <row r="62" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>236</v>
       </c>
@@ -8778,7 +8789,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>239</v>
       </c>
@@ -8835,7 +8846,7 @@
       <c r="Z63" s="3"/>
       <c r="AA63" s="3"/>
     </row>
-    <row r="64" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>242</v>
       </c>
@@ -8882,7 +8893,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>245</v>
       </c>
@@ -8939,7 +8950,7 @@
       <c r="Z65" s="3"/>
       <c r="AA65" s="3"/>
     </row>
-    <row r="66" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>248</v>
       </c>
@@ -8986,7 +8997,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>251</v>
       </c>
@@ -9043,7 +9054,7 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
     </row>
-    <row r="68" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>252</v>
       </c>
@@ -9090,7 +9101,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>255</v>
       </c>
@@ -9147,7 +9158,7 @@
       <c r="Z69" s="3"/>
       <c r="AA69" s="3"/>
     </row>
-    <row r="70" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>256</v>
       </c>
@@ -9194,7 +9205,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>259</v>
       </c>
@@ -9251,7 +9262,7 @@
       <c r="Z71" s="3"/>
       <c r="AA71" s="3"/>
     </row>
-    <row r="72" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>262</v>
       </c>
@@ -9298,7 +9309,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>264</v>
       </c>
@@ -9355,7 +9366,7 @@
       <c r="Z73" s="3"/>
       <c r="AA73" s="3"/>
     </row>
-    <row r="74" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>267</v>
       </c>
@@ -9402,7 +9413,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>270</v>
       </c>
@@ -9459,7 +9470,7 @@
       <c r="Z75" s="3"/>
       <c r="AA75" s="3"/>
     </row>
-    <row r="76" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>273</v>
       </c>
@@ -9509,7 +9520,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>276</v>
       </c>
@@ -9566,7 +9577,7 @@
       <c r="Z77" s="3"/>
       <c r="AA77" s="3"/>
     </row>
-    <row r="78" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>279</v>
       </c>
@@ -9613,7 +9624,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>282</v>
       </c>
@@ -9670,7 +9681,7 @@
       <c r="Z79" s="3"/>
       <c r="AA79" s="3"/>
     </row>
-    <row r="80" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>285</v>
       </c>
@@ -9717,7 +9728,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>288</v>
       </c>
@@ -9774,7 +9785,7 @@
       <c r="Z81" s="3"/>
       <c r="AA81" s="3"/>
     </row>
-    <row r="82" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>291</v>
       </c>
@@ -9821,7 +9832,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>294</v>
       </c>
@@ -9878,7 +9889,7 @@
       <c r="Z83" s="3"/>
       <c r="AA83" s="3"/>
     </row>
-    <row r="84" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>296</v>
       </c>
@@ -9925,7 +9936,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>298</v>
       </c>
@@ -9982,7 +9993,7 @@
       <c r="Z85" s="3"/>
       <c r="AA85" s="3"/>
     </row>
-    <row r="86" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>300</v>
       </c>
@@ -10029,7 +10040,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>303</v>
       </c>
@@ -10086,7 +10097,7 @@
       <c r="Z87" s="3"/>
       <c r="AA87" s="3"/>
     </row>
-    <row r="88" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>305</v>
       </c>
@@ -10133,7 +10144,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>308</v>
       </c>
@@ -10190,7 +10201,7 @@
       <c r="Z89" s="3"/>
       <c r="AA89" s="3"/>
     </row>
-    <row r="90" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>310</v>
       </c>
@@ -10237,7 +10248,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>313</v>
       </c>
@@ -10294,7 +10305,7 @@
       <c r="Z91" s="3"/>
       <c r="AA91" s="3"/>
     </row>
-    <row r="92" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>401</v>
       </c>
@@ -10332,7 +10343,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>405</v>
       </c>
@@ -10383,7 +10394,7 @@
       <c r="Z93" s="3"/>
       <c r="AA93" s="3"/>
     </row>
-    <row r="94" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>407</v>
       </c>
@@ -10421,7 +10432,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>409</v>
       </c>
@@ -10480,7 +10491,7 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
     </row>
-    <row r="96" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>413</v>
       </c>
@@ -10518,7 +10529,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>416</v>
       </c>
@@ -10569,7 +10580,7 @@
       <c r="Z97" s="3"/>
       <c r="AA97" s="3"/>
     </row>
-    <row r="98" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>419</v>
       </c>
@@ -10607,7 +10618,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>422</v>
       </c>
@@ -10658,7 +10669,7 @@
       <c r="Z99" s="3"/>
       <c r="AA99" s="3"/>
     </row>
-    <row r="100" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>425</v>
       </c>
@@ -10696,7 +10707,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="101" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>428</v>
       </c>
@@ -10747,7 +10758,7 @@
       <c r="Z101" s="3"/>
       <c r="AA101" s="3"/>
     </row>
-    <row r="102" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>431</v>
       </c>
@@ -10795,7 +10806,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>436</v>
       </c>
@@ -10846,7 +10857,7 @@
       <c r="Z103" s="3"/>
       <c r="AA103" s="3"/>
     </row>
-    <row r="104" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>439</v>
       </c>
@@ -10884,7 +10895,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="105" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>442</v>
       </c>
@@ -10943,7 +10954,7 @@
       <c r="Z105" s="3"/>
       <c r="AA105" s="3"/>
     </row>
-    <row r="106" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>446</v>
       </c>
@@ -10991,7 +11002,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="107" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>448</v>
       </c>
@@ -11042,7 +11053,7 @@
       <c r="Z107" s="3"/>
       <c r="AA107" s="3"/>
     </row>
-    <row r="108" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>450</v>
       </c>
@@ -11080,7 +11091,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>453</v>
       </c>
@@ -11131,7 +11142,7 @@
       <c r="Z109" s="3"/>
       <c r="AA109" s="3"/>
     </row>
-    <row r="110" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>456</v>
       </c>
@@ -11179,7 +11190,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>459</v>
       </c>
@@ -11230,7 +11241,7 @@
       <c r="Z111" s="3"/>
       <c r="AA111" s="3"/>
     </row>
-    <row r="112" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>461</v>
       </c>
@@ -11268,7 +11279,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>463</v>
       </c>
@@ -11319,7 +11330,7 @@
       <c r="Z113" s="3"/>
       <c r="AA113" s="3"/>
     </row>
-    <row r="114" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>466</v>
       </c>
@@ -11357,7 +11368,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>469</v>
       </c>
@@ -11408,7 +11419,7 @@
       <c r="Z115" s="3"/>
       <c r="AA115" s="3"/>
     </row>
-    <row r="116" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>471</v>
       </c>
@@ -11446,7 +11457,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>473</v>
       </c>
@@ -11497,7 +11508,7 @@
       <c r="Z117" s="3"/>
       <c r="AA117" s="3"/>
     </row>
-    <row r="118" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>476</v>
       </c>
@@ -11535,7 +11546,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="119" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>478</v>
       </c>
@@ -11592,7 +11603,7 @@
       <c r="Z119" s="3"/>
       <c r="AA119" s="3"/>
     </row>
-    <row r="120" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>481</v>
       </c>
@@ -11630,7 +11641,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="121" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>483</v>
       </c>
@@ -11681,7 +11692,7 @@
       <c r="Z121" s="3"/>
       <c r="AA121" s="3"/>
     </row>
-    <row r="122" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>486</v>
       </c>
@@ -11719,7 +11730,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>488</v>
       </c>
@@ -11770,7 +11781,7 @@
       <c r="Z123" s="3"/>
       <c r="AA123" s="3"/>
     </row>
-    <row r="124" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>491</v>
       </c>
@@ -11808,7 +11819,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>493</v>
       </c>
@@ -11859,7 +11870,7 @@
       <c r="Z125" s="3"/>
       <c r="AA125" s="3"/>
     </row>
-    <row r="126" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>495</v>
       </c>
@@ -11904,7 +11915,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="127" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>498</v>
       </c>
@@ -11955,7 +11966,7 @@
       <c r="Z127" s="3"/>
       <c r="AA127" s="3"/>
     </row>
-    <row r="128" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>501</v>
       </c>
@@ -11993,7 +12004,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="129" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>504</v>
       </c>
@@ -12044,7 +12055,7 @@
       <c r="Z129" s="3"/>
       <c r="AA129" s="3"/>
     </row>
-    <row r="130" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>507</v>
       </c>
@@ -12082,7 +12093,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="131" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>510</v>
       </c>
@@ -12133,7 +12144,7 @@
       <c r="Z131" s="3"/>
       <c r="AA131" s="3"/>
     </row>
-    <row r="132" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>513</v>
       </c>
@@ -12181,7 +12192,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="133" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>516</v>
       </c>
@@ -12240,7 +12251,7 @@
       <c r="Z133" s="3"/>
       <c r="AA133" s="3"/>
     </row>
-    <row r="134" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>520</v>
       </c>
@@ -12278,7 +12289,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="135" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>522</v>
       </c>
@@ -12329,7 +12340,7 @@
       <c r="Z135" s="3"/>
       <c r="AA135" s="3"/>
     </row>
-    <row r="136" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>524</v>
       </c>
@@ -12380,7 +12391,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="137" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>527</v>
       </c>
@@ -12431,7 +12442,7 @@
       <c r="Z137" s="3"/>
       <c r="AA137" s="3"/>
     </row>
-    <row r="138" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>530</v>
       </c>
@@ -12479,7 +12490,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="139" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>533</v>
       </c>
@@ -12530,7 +12541,7 @@
       <c r="Z139" s="3"/>
       <c r="AA139" s="3"/>
     </row>
-    <row r="140" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>536</v>
       </c>
@@ -12578,7 +12589,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="141" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>541</v>
       </c>
@@ -12629,7 +12640,7 @@
       <c r="Z141" s="3"/>
       <c r="AA141" s="3"/>
     </row>
-    <row r="142" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>544</v>
       </c>
@@ -12667,7 +12678,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>547</v>
       </c>
@@ -12718,7 +12729,7 @@
       <c r="Z143" s="3"/>
       <c r="AA143" s="3"/>
     </row>
-    <row r="144" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>550</v>
       </c>
@@ -12756,7 +12767,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="145" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>553</v>
       </c>
@@ -12815,7 +12826,7 @@
       <c r="Z145" s="3"/>
       <c r="AA145" s="3"/>
     </row>
-    <row r="146" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>558</v>
       </c>
@@ -12853,7 +12864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="147" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>561</v>
       </c>
@@ -12904,7 +12915,7 @@
       <c r="Z147" s="3"/>
       <c r="AA147" s="3"/>
     </row>
-    <row r="148" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>564</v>
       </c>
@@ -12942,7 +12953,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="149" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>566</v>
       </c>
@@ -12993,7 +13004,7 @@
       <c r="Z149" s="3"/>
       <c r="AA149" s="3"/>
     </row>
-    <row r="150" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>569</v>
       </c>
@@ -13044,7 +13055,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="151" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>574</v>
       </c>
@@ -13095,7 +13106,7 @@
       <c r="Z151" s="3"/>
       <c r="AA151" s="3"/>
     </row>
-    <row r="152" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>577</v>
       </c>
@@ -13133,7 +13144,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="153" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>580</v>
       </c>
@@ -13184,7 +13195,7 @@
       <c r="Z153" s="3"/>
       <c r="AA153" s="3"/>
     </row>
-    <row r="154" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>583</v>
       </c>
@@ -13222,7 +13233,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="155" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>586</v>
       </c>
@@ -13281,7 +13292,7 @@
       <c r="Z155" s="3"/>
       <c r="AA155" s="3"/>
     </row>
-    <row r="156" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>590</v>
       </c>
@@ -13319,7 +13330,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>593</v>
       </c>
@@ -13370,7 +13381,7 @@
       <c r="Z157" s="3"/>
       <c r="AA157" s="3"/>
     </row>
-    <row r="158" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>596</v>
       </c>
@@ -13408,7 +13419,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="159" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>599</v>
       </c>
@@ -13459,7 +13470,7 @@
       <c r="Z159" s="3"/>
       <c r="AA159" s="3"/>
     </row>
-    <row r="160" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>602</v>
       </c>
@@ -13497,7 +13508,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="161" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>605</v>
       </c>
@@ -13548,7 +13559,7 @@
       <c r="Z161" s="3"/>
       <c r="AA161" s="3"/>
     </row>
-    <row r="162" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>607</v>
       </c>
@@ -13586,7 +13597,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="163" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>610</v>
       </c>
@@ -13645,7 +13656,7 @@
       <c r="Z163" s="3"/>
       <c r="AA163" s="3"/>
     </row>
-    <row r="164" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>614</v>
       </c>
@@ -13693,7 +13704,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="165" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>617</v>
       </c>
@@ -13744,7 +13755,7 @@
       <c r="Z165" s="3"/>
       <c r="AA165" s="3"/>
     </row>
-    <row r="166" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>620</v>
       </c>
@@ -13782,7 +13793,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="167" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>622</v>
       </c>
@@ -13841,7 +13852,7 @@
       <c r="Z167" s="3"/>
       <c r="AA167" s="3"/>
     </row>
-    <row r="168" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>624</v>
       </c>
@@ -13879,7 +13890,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="169" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>627</v>
       </c>
@@ -13938,7 +13949,7 @@
       <c r="Z169" s="3"/>
       <c r="AA169" s="3"/>
     </row>
-    <row r="170" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>632</v>
       </c>
@@ -13976,7 +13987,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="171" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>635</v>
       </c>
@@ -14027,7 +14038,7 @@
       <c r="Z171" s="3"/>
       <c r="AA171" s="3"/>
     </row>
-    <row r="172" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>637</v>
       </c>
@@ -14075,7 +14086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="173" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>640</v>
       </c>
@@ -14126,7 +14137,7 @@
       <c r="Z173" s="3"/>
       <c r="AA173" s="3"/>
     </row>
-    <row r="174" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>643</v>
       </c>
@@ -14174,7 +14185,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="175" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>647</v>
       </c>
@@ -14225,7 +14236,7 @@
       <c r="Z175" s="3"/>
       <c r="AA175" s="3"/>
     </row>
-    <row r="176" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>650</v>
       </c>
@@ -14263,7 +14274,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="177" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>653</v>
       </c>
@@ -14314,7 +14325,7 @@
       <c r="Z177" s="3"/>
       <c r="AA177" s="3"/>
     </row>
-    <row r="178" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>656</v>
       </c>
@@ -14352,7 +14363,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="179" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>659</v>
       </c>
@@ -14403,7 +14414,7 @@
       <c r="Z179" s="3"/>
       <c r="AA179" s="3"/>
     </row>
-    <row r="180" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>662</v>
       </c>
@@ -14441,7 +14452,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="181" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>664</v>
       </c>
@@ -14492,7 +14503,7 @@
       <c r="Z181" s="3"/>
       <c r="AA181" s="3"/>
     </row>
-    <row r="182" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>666</v>
       </c>
@@ -14529,8 +14540,11 @@
       <c r="P182">
         <v>37</v>
       </c>
-    </row>
-    <row r="183" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V182">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="183" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>669</v>
       </c>
@@ -14574,14 +14588,16 @@
       <c r="S183" s="3"/>
       <c r="T183" s="3"/>
       <c r="U183" s="3"/>
-      <c r="V183" s="3"/>
+      <c r="V183" s="3">
+        <v>67</v>
+      </c>
       <c r="W183" s="3"/>
       <c r="X183" s="3"/>
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
       <c r="AA183" s="3"/>
     </row>
-    <row r="184" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>671</v>
       </c>
@@ -14618,8 +14634,11 @@
       <c r="P184">
         <v>37</v>
       </c>
-    </row>
-    <row r="185" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V184">
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>674</v>
       </c>
@@ -14663,14 +14682,16 @@
       <c r="S185" s="3"/>
       <c r="T185" s="3"/>
       <c r="U185" s="3"/>
-      <c r="V185" s="3"/>
+      <c r="V185" s="3">
+        <v>21.9</v>
+      </c>
       <c r="W185" s="3"/>
       <c r="X185" s="3"/>
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
       <c r="AA185" s="3"/>
     </row>
-    <row r="186" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>677</v>
       </c>
@@ -14707,8 +14728,11 @@
       <c r="P186">
         <v>37</v>
       </c>
-    </row>
-    <row r="187" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V186">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>678</v>
       </c>
@@ -14759,7 +14783,7 @@
       <c r="Z187" s="3"/>
       <c r="AA187" s="3"/>
     </row>
-    <row r="188" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>680</v>
       </c>
@@ -14797,7 +14821,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="189" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>682</v>
       </c>
@@ -14848,7 +14872,7 @@
       <c r="Z189" s="3"/>
       <c r="AA189" s="3"/>
     </row>
-    <row r="190" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>684</v>
       </c>
@@ -14886,7 +14910,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="191" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>685</v>
       </c>
@@ -14937,7 +14961,7 @@
       <c r="Z191" s="3"/>
       <c r="AA191" s="3"/>
     </row>
-    <row r="192" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>688</v>
       </c>
@@ -14974,8 +14998,11 @@
       <c r="P192">
         <v>57</v>
       </c>
-    </row>
-    <row r="193" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V192">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>690</v>
       </c>
@@ -15019,14 +15046,16 @@
       <c r="S193" s="3"/>
       <c r="T193" s="3"/>
       <c r="U193" s="3"/>
-      <c r="V193" s="3"/>
+      <c r="V193" s="3">
+        <v>42.1</v>
+      </c>
       <c r="W193" s="3"/>
       <c r="X193" s="3"/>
       <c r="Y193" s="3"/>
       <c r="Z193" s="3"/>
       <c r="AA193" s="3"/>
     </row>
-    <row r="194" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>693</v>
       </c>
@@ -15063,8 +15092,11 @@
       <c r="P194">
         <v>57</v>
       </c>
-    </row>
-    <row r="195" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V194">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>696</v>
       </c>
@@ -15108,14 +15140,16 @@
       <c r="S195" s="3"/>
       <c r="T195" s="3"/>
       <c r="U195" s="3"/>
-      <c r="V195" s="3"/>
+      <c r="V195" s="3">
+        <v>17.100000000000001</v>
+      </c>
       <c r="W195" s="3"/>
       <c r="X195" s="3"/>
       <c r="Y195" s="3"/>
       <c r="Z195" s="3"/>
       <c r="AA195" s="3"/>
     </row>
-    <row r="196" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>697</v>
       </c>
@@ -15152,8 +15186,11 @@
       <c r="P196">
         <v>57</v>
       </c>
-    </row>
-    <row r="197" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V196">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>699</v>
       </c>
@@ -15197,14 +15234,16 @@
       <c r="S197" s="3"/>
       <c r="T197" s="3"/>
       <c r="U197" s="3"/>
-      <c r="V197" s="3"/>
+      <c r="V197" s="3">
+        <v>38.299999999999997</v>
+      </c>
       <c r="W197" s="3"/>
       <c r="X197" s="3"/>
       <c r="Y197" s="3"/>
       <c r="Z197" s="3"/>
-      <c r="AA197" s="3"/>
-    </row>
-    <row r="198" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA197" s="42"/>
+    </row>
+    <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>700</v>
       </c>
@@ -15241,8 +15280,14 @@
       <c r="P198">
         <v>37</v>
       </c>
-    </row>
-    <row r="199" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V198">
+        <v>38.6</v>
+      </c>
+      <c r="AA198" s="42" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>702</v>
       </c>
@@ -15286,14 +15331,16 @@
       <c r="S199" s="3"/>
       <c r="T199" s="3"/>
       <c r="U199" s="3"/>
-      <c r="V199" s="3"/>
+      <c r="V199" s="3">
+        <v>60.9</v>
+      </c>
       <c r="W199" s="3"/>
       <c r="X199" s="3"/>
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
       <c r="AA199" s="3"/>
     </row>
-    <row r="200" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>705</v>
       </c>
@@ -15330,8 +15377,11 @@
       <c r="P200">
         <v>37</v>
       </c>
-    </row>
-    <row r="201" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V200">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>708</v>
       </c>
@@ -15375,14 +15425,16 @@
       <c r="S201" s="3"/>
       <c r="T201" s="3"/>
       <c r="U201" s="3"/>
-      <c r="V201" s="3"/>
+      <c r="V201" s="3">
+        <v>29.6</v>
+      </c>
       <c r="W201" s="3"/>
       <c r="X201" s="3"/>
       <c r="Y201" s="3"/>
       <c r="Z201" s="3"/>
       <c r="AA201" s="3"/>
     </row>
-    <row r="202" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>710</v>
       </c>
@@ -15420,7 +15472,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="203" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>711</v>
       </c>
@@ -15471,7 +15523,7 @@
       <c r="Z203" s="3"/>
       <c r="AA203" s="3"/>
     </row>
-    <row r="204" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>713</v>
       </c>
@@ -15509,7 +15561,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="205" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>716</v>
       </c>
@@ -15560,7 +15612,7 @@
       <c r="Z205" s="3"/>
       <c r="AA205" s="3"/>
     </row>
-    <row r="206" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>719</v>
       </c>
@@ -15598,7 +15650,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="207" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>721</v>
       </c>
@@ -15642,14 +15694,16 @@
       <c r="S207" s="3"/>
       <c r="T207" s="3"/>
       <c r="U207" s="3"/>
-      <c r="V207" s="3"/>
+      <c r="V207" s="3">
+        <v>18.8</v>
+      </c>
       <c r="W207" s="3"/>
       <c r="X207" s="3"/>
       <c r="Y207" s="3"/>
       <c r="Z207" s="3"/>
       <c r="AA207" s="3"/>
     </row>
-    <row r="208" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>724</v>
       </c>
@@ -15686,8 +15740,14 @@
       <c r="P208">
         <v>57</v>
       </c>
-    </row>
-    <row r="209" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V208">
+        <v>40.9</v>
+      </c>
+      <c r="AA208" s="42" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>726</v>
       </c>
@@ -15731,14 +15791,16 @@
       <c r="S209" s="3"/>
       <c r="T209" s="3"/>
       <c r="U209" s="3"/>
-      <c r="V209" s="3"/>
+      <c r="V209" s="3">
+        <v>29.3</v>
+      </c>
       <c r="W209" s="3"/>
       <c r="X209" s="3"/>
       <c r="Y209" s="3"/>
       <c r="Z209" s="3"/>
       <c r="AA209" s="3"/>
     </row>
-    <row r="210" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>727</v>
       </c>
@@ -15775,8 +15837,11 @@
       <c r="P210">
         <v>57</v>
       </c>
-    </row>
-    <row r="211" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V210">
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>729</v>
       </c>
@@ -15820,14 +15885,16 @@
       <c r="S211" s="3"/>
       <c r="T211" s="3"/>
       <c r="U211" s="3"/>
-      <c r="V211" s="3"/>
+      <c r="V211" s="3">
+        <v>40.9</v>
+      </c>
       <c r="W211" s="3"/>
       <c r="X211" s="3"/>
       <c r="Y211" s="3"/>
       <c r="Z211" s="3"/>
       <c r="AA211" s="3"/>
     </row>
-    <row r="212" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>730</v>
       </c>
@@ -15864,8 +15931,11 @@
       <c r="P212">
         <v>37</v>
       </c>
-    </row>
-    <row r="213" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V212">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>732</v>
       </c>
@@ -15909,14 +15979,16 @@
       <c r="S213" s="3"/>
       <c r="T213" s="3"/>
       <c r="U213" s="3"/>
-      <c r="V213" s="3"/>
+      <c r="V213" s="3">
+        <v>31.8</v>
+      </c>
       <c r="W213" s="3"/>
       <c r="X213" s="3"/>
       <c r="Y213" s="3"/>
       <c r="Z213" s="3"/>
       <c r="AA213" s="3"/>
     </row>
-    <row r="214" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>734</v>
       </c>
@@ -15953,8 +16025,11 @@
       <c r="P214">
         <v>37</v>
       </c>
-    </row>
-    <row r="215" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V214">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="215" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>737</v>
       </c>
@@ -15998,14 +16073,16 @@
       <c r="S215" s="3"/>
       <c r="T215" s="3"/>
       <c r="U215" s="3"/>
-      <c r="V215" s="3"/>
+      <c r="V215" s="3">
+        <v>34.9</v>
+      </c>
       <c r="W215" s="3"/>
       <c r="X215" s="3"/>
       <c r="Y215" s="3"/>
       <c r="Z215" s="3"/>
       <c r="AA215" s="3"/>
     </row>
-    <row r="216" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>739</v>
       </c>
@@ -16042,8 +16119,11 @@
       <c r="P216">
         <v>37</v>
       </c>
-    </row>
-    <row r="217" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V216">
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>742</v>
       </c>
@@ -16094,7 +16174,7 @@
       <c r="Z217" s="3"/>
       <c r="AA217" s="3"/>
     </row>
-    <row r="218" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>744</v>
       </c>
@@ -16132,7 +16212,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="219" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>746</v>
       </c>
@@ -16183,7 +16263,7 @@
       <c r="Z219" s="3"/>
       <c r="AA219" s="3"/>
     </row>
-    <row r="220" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>748</v>
       </c>
@@ -16221,7 +16301,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="221" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>750</v>
       </c>
@@ -16272,7 +16352,7 @@
       <c r="Z221" s="3"/>
       <c r="AA221" s="3"/>
     </row>
-    <row r="222" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>752</v>
       </c>
@@ -16309,8 +16389,11 @@
       <c r="P222">
         <v>57</v>
       </c>
-    </row>
-    <row r="223" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V222">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="223" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>753</v>
       </c>
@@ -16354,14 +16437,16 @@
       <c r="S223" s="3"/>
       <c r="T223" s="3"/>
       <c r="U223" s="3"/>
-      <c r="V223" s="3"/>
+      <c r="V223" s="3">
+        <v>48.5</v>
+      </c>
       <c r="W223" s="3"/>
       <c r="X223" s="3"/>
       <c r="Y223" s="3"/>
       <c r="Z223" s="3"/>
       <c r="AA223" s="3"/>
     </row>
-    <row r="224" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>754</v>
       </c>
@@ -16398,8 +16483,11 @@
       <c r="P224">
         <v>57</v>
       </c>
-    </row>
-    <row r="225" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V224">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>756</v>
       </c>
@@ -16443,14 +16531,16 @@
       <c r="S225" s="3"/>
       <c r="T225" s="3"/>
       <c r="U225" s="3"/>
-      <c r="V225" s="3"/>
+      <c r="V225" s="3">
+        <v>56.6</v>
+      </c>
       <c r="W225" s="3"/>
       <c r="X225" s="3"/>
       <c r="Y225" s="3"/>
       <c r="Z225" s="3"/>
       <c r="AA225" s="3"/>
     </row>
-    <row r="226" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>757</v>
       </c>
@@ -16487,8 +16577,11 @@
       <c r="P226">
         <v>57</v>
       </c>
-    </row>
-    <row r="227" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V226">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>760</v>
       </c>
@@ -16532,14 +16625,16 @@
       <c r="S227" s="3"/>
       <c r="T227" s="3"/>
       <c r="U227" s="3"/>
-      <c r="V227" s="3"/>
+      <c r="V227" s="3">
+        <v>58.7</v>
+      </c>
       <c r="W227" s="3"/>
       <c r="X227" s="3"/>
       <c r="Y227" s="3"/>
       <c r="Z227" s="3"/>
       <c r="AA227" s="3"/>
     </row>
-    <row r="228" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>762</v>
       </c>
@@ -16576,8 +16671,14 @@
       <c r="P228">
         <v>37</v>
       </c>
-    </row>
-    <row r="229" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V228">
+        <v>52.6</v>
+      </c>
+      <c r="AA228" s="42" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="229" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>763</v>
       </c>
@@ -16621,14 +16722,16 @@
       <c r="S229" s="3"/>
       <c r="T229" s="3"/>
       <c r="U229" s="3"/>
-      <c r="V229" s="3"/>
+      <c r="V229" s="3">
+        <v>36.9</v>
+      </c>
       <c r="W229" s="3"/>
       <c r="X229" s="3"/>
       <c r="Y229" s="3"/>
       <c r="Z229" s="3"/>
       <c r="AA229" s="3"/>
     </row>
-    <row r="230" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>766</v>
       </c>
@@ -16665,8 +16768,12 @@
       <c r="P230">
         <v>37</v>
       </c>
-    </row>
-    <row r="231" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V230">
+        <v>26.5</v>
+      </c>
+      <c r="AA230" s="42"/>
+    </row>
+    <row r="231" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>767</v>
       </c>
@@ -16710,14 +16817,18 @@
       <c r="S231" s="3"/>
       <c r="T231" s="3"/>
       <c r="U231" s="3"/>
-      <c r="V231" s="3"/>
+      <c r="V231" s="3">
+        <v>49.8</v>
+      </c>
       <c r="W231" s="3"/>
       <c r="X231" s="3"/>
       <c r="Y231" s="3"/>
       <c r="Z231" s="3"/>
-      <c r="AA231" s="3"/>
-    </row>
-    <row r="232" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA231" s="42" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="232" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>769</v>
       </c>
@@ -16755,7 +16866,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="233" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>771</v>
       </c>
@@ -16806,7 +16917,7 @@
       <c r="Z233" s="3"/>
       <c r="AA233" s="3"/>
     </row>
-    <row r="234" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>774</v>
       </c>
@@ -16844,7 +16955,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="235" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>775</v>
       </c>
@@ -16895,7 +17006,7 @@
       <c r="Z235" s="3"/>
       <c r="AA235" s="3"/>
     </row>
-    <row r="236" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>776</v>
       </c>
@@ -16933,7 +17044,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="237" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>778</v>
       </c>
@@ -16977,14 +17088,16 @@
       <c r="S237" s="3"/>
       <c r="T237" s="3"/>
       <c r="U237" s="3"/>
-      <c r="V237" s="3"/>
+      <c r="V237" s="3">
+        <v>30.9</v>
+      </c>
       <c r="W237" s="3"/>
       <c r="X237" s="3"/>
       <c r="Y237" s="3"/>
       <c r="Z237" s="3"/>
       <c r="AA237" s="3"/>
     </row>
-    <row r="238" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>779</v>
       </c>
@@ -17021,8 +17134,11 @@
       <c r="P238">
         <v>57</v>
       </c>
-    </row>
-    <row r="239" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V238">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>781</v>
       </c>
@@ -17066,14 +17182,16 @@
       <c r="S239" s="3"/>
       <c r="T239" s="3"/>
       <c r="U239" s="3"/>
-      <c r="V239" s="3"/>
+      <c r="V239" s="3">
+        <v>52</v>
+      </c>
       <c r="W239" s="3"/>
       <c r="X239" s="3"/>
       <c r="Y239" s="3"/>
       <c r="Z239" s="3"/>
       <c r="AA239" s="3"/>
     </row>
-    <row r="240" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>783</v>
       </c>
@@ -17110,8 +17228,11 @@
       <c r="P240">
         <v>57</v>
       </c>
-    </row>
-    <row r="241" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V240">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>785</v>
       </c>
@@ -17155,14 +17276,16 @@
       <c r="S241" s="3"/>
       <c r="T241" s="3"/>
       <c r="U241" s="3"/>
-      <c r="V241" s="3"/>
+      <c r="V241" s="3">
+        <v>40</v>
+      </c>
       <c r="W241" s="3"/>
       <c r="X241" s="3"/>
       <c r="Y241" s="3"/>
       <c r="Z241" s="3"/>
       <c r="AA241" s="3"/>
     </row>
-    <row r="242" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>786</v>
       </c>
@@ -17199,8 +17322,11 @@
       <c r="P242">
         <v>37</v>
       </c>
-    </row>
-    <row r="243" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V242">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>788</v>
       </c>
@@ -17244,14 +17370,16 @@
       <c r="S243" s="3"/>
       <c r="T243" s="3"/>
       <c r="U243" s="3"/>
-      <c r="V243" s="3"/>
+      <c r="V243" s="3">
+        <v>62</v>
+      </c>
       <c r="W243" s="3"/>
       <c r="X243" s="3"/>
       <c r="Y243" s="3"/>
       <c r="Z243" s="3"/>
       <c r="AA243" s="3"/>
     </row>
-    <row r="244" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>789</v>
       </c>
@@ -17288,8 +17416,11 @@
       <c r="P244">
         <v>37</v>
       </c>
-    </row>
-    <row r="245" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V244">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>791</v>
       </c>
@@ -17330,19 +17461,21 @@
       </c>
       <c r="Q245" s="3"/>
       <c r="R245" s="3"/>
-      <c r="S245" s="11" t="s">
+      <c r="S245" s="3" t="s">
         <v>1390</v>
       </c>
       <c r="T245" s="3"/>
       <c r="U245" s="3"/>
-      <c r="V245" s="3"/>
+      <c r="V245" s="3">
+        <v>41.5</v>
+      </c>
       <c r="W245" s="3"/>
       <c r="X245" s="3"/>
       <c r="Y245" s="3"/>
       <c r="Z245" s="3"/>
       <c r="AA245" s="3"/>
     </row>
-    <row r="246" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>793</v>
       </c>
@@ -17379,8 +17512,11 @@
       <c r="P246">
         <v>37</v>
       </c>
-    </row>
-    <row r="247" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V246">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>794</v>
       </c>
@@ -17431,7 +17567,7 @@
       <c r="Z247" s="3"/>
       <c r="AA247" s="3"/>
     </row>
-    <row r="248" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>796</v>
       </c>
@@ -17469,7 +17605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="249" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>798</v>
       </c>
@@ -17520,7 +17656,7 @@
       <c r="Z249" s="3"/>
       <c r="AA249" s="3"/>
     </row>
-    <row r="250" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>800</v>
       </c>
@@ -17558,7 +17694,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="251" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>803</v>
       </c>
@@ -17609,7 +17745,7 @@
       <c r="Z251" s="3"/>
       <c r="AA251" s="3"/>
     </row>
-    <row r="252" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>805</v>
       </c>
@@ -17646,8 +17782,11 @@
       <c r="P252">
         <v>57</v>
       </c>
-    </row>
-    <row r="253" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V252">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="253" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>807</v>
       </c>
@@ -17691,14 +17830,16 @@
       <c r="S253" s="3"/>
       <c r="T253" s="3"/>
       <c r="U253" s="3"/>
-      <c r="V253" s="3"/>
+      <c r="V253" s="3">
+        <v>80.3</v>
+      </c>
       <c r="W253" s="3"/>
       <c r="X253" s="3"/>
       <c r="Y253" s="3"/>
       <c r="Z253" s="3"/>
       <c r="AA253" s="3"/>
     </row>
-    <row r="254" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>809</v>
       </c>
@@ -17735,8 +17876,11 @@
       <c r="P254">
         <v>57</v>
       </c>
-    </row>
-    <row r="255" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V254">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>810</v>
       </c>
@@ -17780,14 +17924,16 @@
       <c r="S255" s="3"/>
       <c r="T255" s="3"/>
       <c r="U255" s="3"/>
-      <c r="V255" s="3"/>
+      <c r="V255" s="3">
+        <v>33.6</v>
+      </c>
       <c r="W255" s="3"/>
       <c r="X255" s="3"/>
       <c r="Y255" s="3"/>
       <c r="Z255" s="3"/>
       <c r="AA255" s="3"/>
     </row>
-    <row r="256" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>812</v>
       </c>
@@ -17824,8 +17970,11 @@
       <c r="P256">
         <v>57</v>
       </c>
-    </row>
-    <row r="257" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V256">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="257" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>814</v>
       </c>
@@ -17869,14 +18018,16 @@
       <c r="S257" s="3"/>
       <c r="T257" s="3"/>
       <c r="U257" s="3"/>
-      <c r="V257" s="3"/>
+      <c r="V257" s="3">
+        <v>44.4</v>
+      </c>
       <c r="W257" s="3"/>
       <c r="X257" s="3"/>
       <c r="Y257" s="3"/>
       <c r="Z257" s="3"/>
       <c r="AA257" s="3"/>
     </row>
-    <row r="258" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>816</v>
       </c>
@@ -17913,8 +18064,11 @@
       <c r="P258">
         <v>37</v>
       </c>
-    </row>
-    <row r="259" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V258">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>817</v>
       </c>
@@ -17958,14 +18112,16 @@
       <c r="S259" s="3"/>
       <c r="T259" s="3"/>
       <c r="U259" s="3"/>
-      <c r="V259" s="3"/>
+      <c r="V259" s="3">
+        <v>34.700000000000003</v>
+      </c>
       <c r="W259" s="3"/>
       <c r="X259" s="3"/>
       <c r="Y259" s="3"/>
       <c r="Z259" s="3"/>
       <c r="AA259" s="3"/>
     </row>
-    <row r="260" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>819</v>
       </c>
@@ -18002,8 +18158,11 @@
       <c r="P260">
         <v>37</v>
       </c>
-    </row>
-    <row r="261" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V260">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="261" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>821</v>
       </c>
@@ -18047,14 +18206,16 @@
       <c r="S261" s="3"/>
       <c r="T261" s="3"/>
       <c r="U261" s="3"/>
-      <c r="V261" s="3"/>
+      <c r="V261" s="3">
+        <v>40.700000000000003</v>
+      </c>
       <c r="W261" s="3"/>
       <c r="X261" s="3"/>
       <c r="Y261" s="3"/>
       <c r="Z261" s="3"/>
       <c r="AA261" s="3"/>
     </row>
-    <row r="262" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>822</v>
       </c>
@@ -18092,7 +18253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="263" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>825</v>
       </c>
@@ -18143,7 +18304,7 @@
       <c r="Z263" s="3"/>
       <c r="AA263" s="3"/>
     </row>
-    <row r="264" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>827</v>
       </c>
@@ -18181,7 +18342,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="265" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>828</v>
       </c>
@@ -18232,7 +18393,7 @@
       <c r="Z265" s="3"/>
       <c r="AA265" s="3"/>
     </row>
-    <row r="266" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>829</v>
       </c>
@@ -18270,7 +18431,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="267" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>830</v>
       </c>
@@ -18314,14 +18475,16 @@
       <c r="S267" s="3"/>
       <c r="T267" s="3"/>
       <c r="U267" s="3"/>
-      <c r="V267" s="3"/>
+      <c r="V267" s="3">
+        <v>38.1</v>
+      </c>
       <c r="W267" s="3"/>
       <c r="X267" s="3"/>
       <c r="Y267" s="3"/>
       <c r="Z267" s="3"/>
       <c r="AA267" s="3"/>
     </row>
-    <row r="268" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>832</v>
       </c>
@@ -18358,8 +18521,11 @@
       <c r="P268">
         <v>57</v>
       </c>
-    </row>
-    <row r="269" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V268">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>833</v>
       </c>
@@ -18403,14 +18569,16 @@
       <c r="S269" s="3"/>
       <c r="T269" s="3"/>
       <c r="U269" s="3"/>
-      <c r="V269" s="3"/>
+      <c r="V269" s="3">
+        <v>33.4</v>
+      </c>
       <c r="W269" s="3"/>
       <c r="X269" s="3"/>
       <c r="Y269" s="3"/>
       <c r="Z269" s="3"/>
       <c r="AA269" s="3"/>
     </row>
-    <row r="270" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>834</v>
       </c>
@@ -18447,8 +18615,11 @@
       <c r="P270">
         <v>57</v>
       </c>
-    </row>
-    <row r="271" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V270">
+        <v>72.3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>836</v>
       </c>
@@ -18492,14 +18663,16 @@
       <c r="S271" s="3"/>
       <c r="T271" s="3"/>
       <c r="U271" s="3"/>
-      <c r="V271" s="3"/>
+      <c r="V271" s="3">
+        <v>31.9</v>
+      </c>
       <c r="W271" s="3"/>
       <c r="X271" s="3"/>
       <c r="Y271" s="3"/>
       <c r="Z271" s="3"/>
       <c r="AA271" s="3"/>
     </row>
-    <row r="272" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>838</v>
       </c>
@@ -18540,7 +18713,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="273" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>843</v>
       </c>
@@ -18591,7 +18764,7 @@
       <c r="Z273" s="3"/>
       <c r="AA273" s="3"/>
     </row>
-    <row r="274" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>845</v>
       </c>
@@ -18629,7 +18802,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="275" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>847</v>
       </c>
@@ -18682,7 +18855,7 @@
       <c r="Z275" s="3"/>
       <c r="AA275" s="3"/>
     </row>
-    <row r="276" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>848</v>
       </c>
@@ -18723,7 +18896,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="277" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>850</v>
       </c>
@@ -18774,7 +18947,7 @@
       <c r="Z277" s="3"/>
       <c r="AA277" s="3"/>
     </row>
-    <row r="278" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>853</v>
       </c>
@@ -18812,7 +18985,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="279" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>854</v>
       </c>
@@ -18869,7 +19042,7 @@
       <c r="Z279" s="3"/>
       <c r="AA279" s="3"/>
     </row>
-    <row r="280" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>855</v>
       </c>
@@ -18907,7 +19080,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="281" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>856</v>
       </c>
@@ -18958,7 +19131,7 @@
       <c r="Z281" s="3"/>
       <c r="AA281" s="3"/>
     </row>
-    <row r="282" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>857</v>
       </c>
@@ -19013,7 +19186,7 @@
       <c r="Z282" s="30"/>
       <c r="AA282" s="30"/>
     </row>
-    <row r="283" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>858</v>
       </c>
@@ -19066,7 +19239,7 @@
       <c r="Z283" s="3"/>
       <c r="AA283" s="3"/>
     </row>
-    <row r="284" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>860</v>
       </c>
@@ -19104,7 +19277,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="285" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>862</v>
       </c>
@@ -19155,7 +19328,7 @@
       <c r="Z285" s="3"/>
       <c r="AA285" s="3"/>
     </row>
-    <row r="286" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>864</v>
       </c>
@@ -19193,7 +19366,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="287" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>867</v>
       </c>
@@ -19244,7 +19417,7 @@
       <c r="Z287" s="3"/>
       <c r="AA287" s="3"/>
     </row>
-    <row r="288" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>868</v>
       </c>
@@ -19282,7 +19455,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="289" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>870</v>
       </c>
@@ -19333,7 +19506,7 @@
       <c r="Z289" s="3"/>
       <c r="AA289" s="3"/>
     </row>
-    <row r="290" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>871</v>
       </c>
@@ -19371,7 +19544,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="291" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>873</v>
       </c>
@@ -19428,7 +19601,7 @@
       <c r="Z291" s="3"/>
       <c r="AA291" s="3"/>
     </row>
-    <row r="292" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>874</v>
       </c>
@@ -19469,7 +19642,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="293" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>875</v>
       </c>
@@ -19520,7 +19693,7 @@
       <c r="Z293" s="3"/>
       <c r="AA293" s="3"/>
     </row>
-    <row r="294" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>878</v>
       </c>
@@ -19561,7 +19734,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="295" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>880</v>
       </c>
@@ -19612,7 +19785,7 @@
       <c r="Z295" s="3"/>
       <c r="AA295" s="3"/>
     </row>
-    <row r="296" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>882</v>
       </c>
@@ -19650,7 +19823,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="297" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>883</v>
       </c>
@@ -19701,7 +19874,7 @@
       <c r="Z297" s="3"/>
       <c r="AA297" s="3"/>
     </row>
-    <row r="298" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>884</v>
       </c>
@@ -19739,7 +19912,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="299" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>885</v>
       </c>
@@ -19790,7 +19963,7 @@
       <c r="Z299" s="3"/>
       <c r="AA299" s="3"/>
     </row>
-    <row r="300" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>886</v>
       </c>
@@ -19828,7 +20001,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="301" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>888</v>
       </c>
@@ -19883,7 +20056,7 @@
       <c r="Z301" s="3"/>
       <c r="AA301" s="3"/>
     </row>
-    <row r="302" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>890</v>
       </c>
@@ -19921,7 +20094,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="303" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>892</v>
       </c>
@@ -19972,7 +20145,7 @@
       <c r="Z303" s="3"/>
       <c r="AA303" s="3"/>
     </row>
-    <row r="304" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>893</v>
       </c>
@@ -20010,7 +20183,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="305" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>896</v>
       </c>
@@ -20061,7 +20234,7 @@
       <c r="Z305" s="3"/>
       <c r="AA305" s="3"/>
     </row>
-    <row r="306" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>898</v>
       </c>
@@ -20099,7 +20272,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="307" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
         <v>899</v>
       </c>
@@ -20150,7 +20323,7 @@
       <c r="Z307" s="3"/>
       <c r="AA307" s="3"/>
     </row>
-    <row r="308" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>901</v>
       </c>
@@ -20188,7 +20361,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="309" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>902</v>
       </c>
@@ -20239,7 +20412,7 @@
       <c r="Z309" s="3"/>
       <c r="AA309" s="3"/>
     </row>
-    <row r="310" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>903</v>
       </c>
@@ -20277,7 +20450,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="311" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>904</v>
       </c>
@@ -20328,7 +20501,7 @@
       <c r="Z311" s="3"/>
       <c r="AA311" s="3"/>
     </row>
-    <row r="312" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>905</v>
       </c>
@@ -20366,7 +20539,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="313" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>906</v>
       </c>
@@ -20417,7 +20590,7 @@
       <c r="Z313" s="3"/>
       <c r="AA313" s="3"/>
     </row>
-    <row r="314" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>908</v>
       </c>
@@ -20455,7 +20628,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="315" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>909</v>
       </c>
@@ -20506,7 +20679,7 @@
       <c r="Z315" s="3"/>
       <c r="AA315" s="3"/>
     </row>
-    <row r="316" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>912</v>
       </c>
@@ -20544,7 +20717,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="317" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>914</v>
       </c>
@@ -20595,7 +20768,7 @@
       <c r="Z317" s="3"/>
       <c r="AA317" s="3"/>
     </row>
-    <row r="318" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>915</v>
       </c>
@@ -20633,7 +20806,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="319" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
         <v>917</v>
       </c>
@@ -20684,7 +20857,7 @@
       <c r="Z319" s="3"/>
       <c r="AA319" s="3"/>
     </row>
-    <row r="320" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>919</v>
       </c>
@@ -20737,7 +20910,7 @@
       <c r="Z320" s="30"/>
       <c r="AA320" s="30"/>
     </row>
-    <row r="321" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
         <v>921</v>
       </c>
@@ -20788,7 +20961,7 @@
       <c r="Z321" s="3"/>
       <c r="AA321" s="3"/>
     </row>
-    <row r="322" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>922</v>
       </c>
@@ -20826,7 +20999,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="323" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>923</v>
       </c>
@@ -20877,7 +21050,7 @@
       <c r="Z323" s="3"/>
       <c r="AA323" s="3"/>
     </row>
-    <row r="324" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>924</v>
       </c>
@@ -20915,7 +21088,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="325" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>925</v>
       </c>
@@ -20966,7 +21139,7 @@
       <c r="Z325" s="3"/>
       <c r="AA325" s="3"/>
     </row>
-    <row r="326" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>926</v>
       </c>
@@ -21004,7 +21177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="327" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>927</v>
       </c>
@@ -21055,7 +21228,7 @@
       <c r="Z327" s="3"/>
       <c r="AA327" s="3"/>
     </row>
-    <row r="328" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>928</v>
       </c>
@@ -21096,7 +21269,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="329" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
         <v>930</v>
       </c>
@@ -21147,7 +21320,7 @@
       <c r="Z329" s="3"/>
       <c r="AA329" s="3"/>
     </row>
-    <row r="330" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>931</v>
       </c>
@@ -21185,7 +21358,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="331" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
         <v>932</v>
       </c>
@@ -21236,7 +21409,7 @@
       <c r="Z331" s="3"/>
       <c r="AA331" s="3"/>
     </row>
-    <row r="332" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>934</v>
       </c>
@@ -21289,7 +21462,7 @@
       <c r="Z332" s="30"/>
       <c r="AA332" s="30"/>
     </row>
-    <row r="333" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>935</v>
       </c>
@@ -21344,7 +21517,7 @@
       <c r="Z333" s="30"/>
       <c r="AA333" s="30"/>
     </row>
-    <row r="334" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>937</v>
       </c>
@@ -21397,7 +21570,7 @@
       <c r="Z334" s="30"/>
       <c r="AA334" s="30"/>
     </row>
-    <row r="335" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>939</v>
       </c>
@@ -21448,7 +21621,7 @@
       <c r="Z335" s="3"/>
       <c r="AA335" s="3"/>
     </row>
-    <row r="336" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>940</v>
       </c>
@@ -21486,7 +21659,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="337" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>941</v>
       </c>
@@ -21543,7 +21716,7 @@
       <c r="Z337" s="30"/>
       <c r="AA337" s="30"/>
     </row>
-    <row r="338" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>943</v>
       </c>
@@ -21581,7 +21754,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="339" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>945</v>
       </c>
@@ -21636,7 +21809,7 @@
       <c r="Z339" s="30"/>
       <c r="AA339" s="30"/>
     </row>
-    <row r="340" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>946</v>
       </c>
@@ -21674,7 +21847,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="341" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>947</v>
       </c>
@@ -21725,7 +21898,7 @@
       <c r="Z341" s="3"/>
       <c r="AA341" s="3"/>
     </row>
-    <row r="342" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>948</v>
       </c>
@@ -21763,7 +21936,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="343" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>950</v>
       </c>
@@ -21814,7 +21987,7 @@
       <c r="Z343" s="3"/>
       <c r="AA343" s="3"/>
     </row>
-    <row r="344" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>952</v>
       </c>
@@ -21852,7 +22025,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="345" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>954</v>
       </c>
@@ -21903,7 +22076,7 @@
       <c r="Z345" s="3"/>
       <c r="AA345" s="3"/>
     </row>
-    <row r="346" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>956</v>
       </c>
@@ -21956,7 +22129,7 @@
       <c r="Z346" s="30"/>
       <c r="AA346" s="30"/>
     </row>
-    <row r="347" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>959</v>
       </c>
@@ -22007,7 +22180,7 @@
       <c r="Z347" s="3"/>
       <c r="AA347" s="3"/>
     </row>
-    <row r="348" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>962</v>
       </c>
@@ -22045,7 +22218,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="349" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>964</v>
       </c>
@@ -22096,7 +22269,7 @@
       <c r="Z349" s="3"/>
       <c r="AA349" s="3"/>
     </row>
-    <row r="350" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>965</v>
       </c>
@@ -22137,7 +22310,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="351" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>967</v>
       </c>
@@ -22188,7 +22361,7 @@
       <c r="Z351" s="3"/>
       <c r="AA351" s="3"/>
     </row>
-    <row r="352" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>969</v>
       </c>
@@ -22226,7 +22399,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="353" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
         <v>971</v>
       </c>
@@ -22276,7 +22449,7 @@
       <c r="Z353" s="3"/>
       <c r="AA353" s="3"/>
     </row>
-    <row r="354" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>972</v>
       </c>
@@ -22314,7 +22487,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="355" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
         <v>974</v>
       </c>
@@ -22367,7 +22540,7 @@
       <c r="Z355" s="3"/>
       <c r="AA355" s="3"/>
     </row>
-    <row r="356" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>976</v>
       </c>
@@ -22420,7 +22593,7 @@
       <c r="Z356" s="30"/>
       <c r="AA356" s="30"/>
     </row>
-    <row r="357" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
         <v>977</v>
       </c>
@@ -22471,7 +22644,7 @@
       <c r="Z357" s="3"/>
       <c r="AA357" s="3"/>
     </row>
-    <row r="358" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>979</v>
       </c>
@@ -22509,7 +22682,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="359" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
         <v>980</v>
       </c>
@@ -22560,7 +22733,7 @@
       <c r="Z359" s="3"/>
       <c r="AA359" s="3"/>
     </row>
-    <row r="360" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>982</v>
       </c>
@@ -22598,7 +22771,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="361" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
         <v>983</v>
       </c>
@@ -22649,7 +22822,7 @@
       <c r="Z361" s="3"/>
       <c r="AA361" s="3"/>
     </row>
-    <row r="362" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>985</v>
       </c>
@@ -22695,11 +22868,26 @@
       <c r="Q362" s="30" t="s">
         <v>1407</v>
       </c>
-      <c r="S362" s="30" t="s">
+      <c r="S362" s="42" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="363" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T362">
+        <v>5.48</v>
+      </c>
+      <c r="U362">
+        <v>4.7</v>
+      </c>
+      <c r="V362">
+        <v>6.5</v>
+      </c>
+      <c r="W362">
+        <v>21.4</v>
+      </c>
+      <c r="X362">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="363" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
         <v>988</v>
       </c>
@@ -22741,16 +22929,22 @@
       <c r="Q363" s="3"/>
       <c r="R363" s="3"/>
       <c r="S363" s="3"/>
-      <c r="T363" s="3"/>
+      <c r="T363" s="3">
+        <v>4.2300000000000004</v>
+      </c>
       <c r="U363" s="3"/>
-      <c r="V363" s="3"/>
+      <c r="V363" s="3">
+        <v>23.2</v>
+      </c>
       <c r="W363" s="3"/>
-      <c r="X363" s="3"/>
+      <c r="X363">
+        <v>311</v>
+      </c>
       <c r="Y363" s="3"/>
       <c r="Z363" s="3"/>
       <c r="AA363" s="3"/>
     </row>
-    <row r="364" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>989</v>
       </c>
@@ -22787,8 +22981,17 @@
       <c r="P364">
         <v>37</v>
       </c>
-    </row>
-    <row r="365" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T364">
+        <v>4.71</v>
+      </c>
+      <c r="V364">
+        <v>11.3</v>
+      </c>
+      <c r="X364">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="365" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
         <v>992</v>
       </c>
@@ -22830,16 +23033,22 @@
       <c r="Q365" s="3"/>
       <c r="R365" s="3"/>
       <c r="S365" s="3"/>
-      <c r="T365" s="3"/>
+      <c r="T365" s="3">
+        <v>4.57</v>
+      </c>
       <c r="U365" s="3"/>
-      <c r="V365" s="3"/>
+      <c r="V365" s="3">
+        <v>15.6</v>
+      </c>
       <c r="W365" s="3"/>
-      <c r="X365" s="3"/>
+      <c r="X365">
+        <v>311</v>
+      </c>
       <c r="Y365" s="3"/>
       <c r="Z365" s="3"/>
       <c r="AA365" s="3"/>
     </row>
-    <row r="366" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>994</v>
       </c>
@@ -22876,8 +23085,17 @@
       <c r="P366">
         <v>37</v>
       </c>
-    </row>
-    <row r="367" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T366">
+        <v>3.83</v>
+      </c>
+      <c r="V366">
+        <v>22.6</v>
+      </c>
+      <c r="X366">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="367" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
         <v>996</v>
       </c>
@@ -22919,16 +23137,22 @@
       <c r="Q367" s="3"/>
       <c r="R367" s="3"/>
       <c r="S367" s="3"/>
-      <c r="T367" s="3"/>
+      <c r="T367" s="3">
+        <v>6.51</v>
+      </c>
       <c r="U367" s="3"/>
-      <c r="V367" s="3"/>
+      <c r="V367" s="3">
+        <v>33.700000000000003</v>
+      </c>
       <c r="W367" s="3"/>
-      <c r="X367" s="3"/>
+      <c r="X367">
+        <v>311</v>
+      </c>
       <c r="Y367" s="3"/>
       <c r="Z367" s="3"/>
       <c r="AA367" s="3"/>
     </row>
-    <row r="368" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>997</v>
       </c>
@@ -22965,8 +23189,17 @@
       <c r="P368">
         <v>37</v>
       </c>
-    </row>
-    <row r="369" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T368">
+        <v>5.13</v>
+      </c>
+      <c r="V368">
+        <v>18.8</v>
+      </c>
+      <c r="X368">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="369" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
         <v>999</v>
       </c>
@@ -23010,16 +23243,22 @@
       </c>
       <c r="R369" s="11"/>
       <c r="S369" s="3"/>
-      <c r="T369" s="11"/>
+      <c r="T369" s="11">
+        <v>6.6</v>
+      </c>
       <c r="U369" s="11"/>
-      <c r="V369" s="11"/>
+      <c r="V369" s="11">
+        <v>14.4</v>
+      </c>
       <c r="W369" s="11"/>
-      <c r="X369" s="11"/>
+      <c r="X369">
+        <v>311</v>
+      </c>
       <c r="Y369" s="11"/>
       <c r="Z369" s="11"/>
       <c r="AA369" s="11"/>
     </row>
-    <row r="370" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>1001</v>
       </c>
@@ -23056,8 +23295,17 @@
       <c r="P370">
         <v>37</v>
       </c>
-    </row>
-    <row r="371" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T370">
+        <v>5.54</v>
+      </c>
+      <c r="V370">
+        <v>25.6</v>
+      </c>
+      <c r="X370">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="371" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
         <v>1002</v>
       </c>
@@ -23099,16 +23347,22 @@
       <c r="Q371" s="3"/>
       <c r="R371" s="3"/>
       <c r="S371" s="3"/>
-      <c r="T371" s="3"/>
+      <c r="T371" s="3">
+        <v>6.72</v>
+      </c>
       <c r="U371" s="3"/>
-      <c r="V371" s="3"/>
+      <c r="V371" s="3">
+        <v>20.9</v>
+      </c>
       <c r="W371" s="3"/>
-      <c r="X371" s="3"/>
+      <c r="X371">
+        <v>311</v>
+      </c>
       <c r="Y371" s="3"/>
       <c r="Z371" s="3"/>
       <c r="AA371" s="3"/>
     </row>
-    <row r="372" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>1003</v>
       </c>
@@ -23152,8 +23406,23 @@
         <v>57</v>
       </c>
       <c r="S372" s="17"/>
-    </row>
-    <row r="373" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T372">
+        <v>2.64</v>
+      </c>
+      <c r="U372">
+        <v>3.26</v>
+      </c>
+      <c r="V372">
+        <v>12.2</v>
+      </c>
+      <c r="W372">
+        <v>9.6</v>
+      </c>
+      <c r="X372">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="373" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
         <v>1005</v>
       </c>
@@ -23196,19 +23465,25 @@
         <v>1407</v>
       </c>
       <c r="R373" s="11"/>
-      <c r="S373" s="11" t="s">
+      <c r="S373" s="3" t="s">
         <v>1416</v>
       </c>
-      <c r="T373" s="11"/>
+      <c r="T373" s="11">
+        <v>2.81</v>
+      </c>
       <c r="U373" s="11"/>
-      <c r="V373" s="11"/>
+      <c r="V373" s="11">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="W373" s="11"/>
-      <c r="X373" s="11"/>
+      <c r="X373">
+        <v>311</v>
+      </c>
       <c r="Y373" s="11"/>
       <c r="Z373" s="11"/>
       <c r="AA373" s="11"/>
     </row>
-    <row r="374" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>1007</v>
       </c>
@@ -23245,8 +23520,17 @@
       <c r="P374">
         <v>57</v>
       </c>
-    </row>
-    <row r="375" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T374">
+        <v>2.99</v>
+      </c>
+      <c r="V374">
+        <v>15</v>
+      </c>
+      <c r="X374">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="375" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
         <v>1008</v>
       </c>
@@ -23292,16 +23576,22 @@
       <c r="S375" s="3" t="s">
         <v>1432</v>
       </c>
-      <c r="T375" s="3"/>
+      <c r="T375" s="3">
+        <v>2.38</v>
+      </c>
       <c r="U375" s="3"/>
-      <c r="V375" s="3"/>
+      <c r="V375" s="3">
+        <v>11.8</v>
+      </c>
       <c r="W375" s="3"/>
-      <c r="X375" s="3"/>
+      <c r="X375">
+        <v>311</v>
+      </c>
       <c r="Y375" s="3"/>
       <c r="Z375" s="3"/>
       <c r="AA375" s="3"/>
     </row>
-    <row r="376" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>1009</v>
       </c>
@@ -23345,16 +23635,22 @@
       <c r="S376" s="17" t="s">
         <v>1414</v>
       </c>
-      <c r="T376" s="17"/>
+      <c r="T376" s="17">
+        <v>4.1500000000000004</v>
+      </c>
       <c r="U376" s="17"/>
-      <c r="V376" s="17"/>
+      <c r="V376" s="17">
+        <v>19.100000000000001</v>
+      </c>
       <c r="W376" s="17"/>
-      <c r="X376" s="17"/>
+      <c r="X376">
+        <v>311</v>
+      </c>
       <c r="Y376" s="17"/>
       <c r="Z376" s="17"/>
       <c r="AA376" s="17"/>
     </row>
-    <row r="377" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
         <v>1010</v>
       </c>
@@ -23396,16 +23692,22 @@
       <c r="Q377" s="3"/>
       <c r="R377" s="3"/>
       <c r="S377" s="3"/>
-      <c r="T377" s="3"/>
+      <c r="T377" s="3">
+        <v>4.28</v>
+      </c>
       <c r="U377" s="3"/>
-      <c r="V377" s="3"/>
+      <c r="V377" s="3">
+        <v>14.4</v>
+      </c>
       <c r="W377" s="3"/>
-      <c r="X377" s="3"/>
+      <c r="X377">
+        <v>311</v>
+      </c>
       <c r="Y377" s="3"/>
       <c r="Z377" s="3"/>
       <c r="AA377" s="3"/>
     </row>
-    <row r="378" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>1012</v>
       </c>
@@ -23442,8 +23744,17 @@
       <c r="P378">
         <v>37</v>
       </c>
-    </row>
-    <row r="379" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T378">
+        <v>4.29</v>
+      </c>
+      <c r="V378">
+        <v>18</v>
+      </c>
+      <c r="X378">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="379" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
         <v>1013</v>
       </c>
@@ -23491,16 +23802,26 @@
       <c r="S379" s="3" t="s">
         <v>1425</v>
       </c>
-      <c r="T379" s="3"/>
-      <c r="U379" s="3"/>
-      <c r="V379" s="3"/>
-      <c r="W379" s="3"/>
-      <c r="X379" s="3"/>
+      <c r="T379" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="U379" s="3">
+        <v>4.45</v>
+      </c>
+      <c r="V379" s="3">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="W379" s="3">
+        <v>23.3</v>
+      </c>
+      <c r="X379">
+        <v>311</v>
+      </c>
       <c r="Y379" s="3"/>
       <c r="Z379" s="3"/>
       <c r="AA379" s="3"/>
     </row>
-    <row r="380" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>1015</v>
       </c>
@@ -23537,8 +23858,17 @@
       <c r="P380">
         <v>37</v>
       </c>
-    </row>
-    <row r="381" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T380">
+        <v>3.65</v>
+      </c>
+      <c r="V380">
+        <v>24.7</v>
+      </c>
+      <c r="X380">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="381" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
         <v>1018</v>
       </c>
@@ -23580,16 +23910,22 @@
       <c r="Q381" s="3"/>
       <c r="R381" s="3"/>
       <c r="S381" s="3"/>
-      <c r="T381" s="3"/>
+      <c r="T381" s="3">
+        <v>5.25</v>
+      </c>
       <c r="U381" s="3"/>
-      <c r="V381" s="3"/>
+      <c r="V381" s="3">
+        <v>21.8</v>
+      </c>
       <c r="W381" s="3"/>
-      <c r="X381" s="3"/>
+      <c r="X381">
+        <v>311</v>
+      </c>
       <c r="Y381" s="3"/>
       <c r="Z381" s="3"/>
       <c r="AA381" s="3"/>
     </row>
-    <row r="382" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>1020</v>
       </c>
@@ -23626,8 +23962,17 @@
       <c r="P382">
         <v>37</v>
       </c>
-    </row>
-    <row r="383" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T382">
+        <v>5.68</v>
+      </c>
+      <c r="V382">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="X382">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="383" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
         <v>1023</v>
       </c>
@@ -23669,16 +24014,22 @@
       <c r="Q383" s="3"/>
       <c r="R383" s="3"/>
       <c r="S383" s="3"/>
-      <c r="T383" s="3"/>
+      <c r="T383" s="3">
+        <v>5.3</v>
+      </c>
       <c r="U383" s="3"/>
-      <c r="V383" s="3"/>
+      <c r="V383" s="3">
+        <v>17.8</v>
+      </c>
       <c r="W383" s="3"/>
-      <c r="X383" s="3"/>
+      <c r="X383">
+        <v>311</v>
+      </c>
       <c r="Y383" s="3"/>
       <c r="Z383" s="3"/>
       <c r="AA383" s="3"/>
     </row>
-    <row r="384" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>1025</v>
       </c>
@@ -23715,8 +24066,17 @@
       <c r="P384">
         <v>37</v>
       </c>
-    </row>
-    <row r="385" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T384">
+        <v>4.67</v>
+      </c>
+      <c r="V384">
+        <v>23</v>
+      </c>
+      <c r="X384">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="385" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
         <v>1026</v>
       </c>
@@ -23758,16 +24118,22 @@
       <c r="Q385" s="3"/>
       <c r="R385" s="3"/>
       <c r="S385" s="3"/>
-      <c r="T385" s="3"/>
+      <c r="T385" s="3">
+        <v>6.26</v>
+      </c>
       <c r="U385" s="3"/>
-      <c r="V385" s="3"/>
+      <c r="V385" s="3">
+        <v>51.4</v>
+      </c>
       <c r="W385" s="3"/>
-      <c r="X385" s="3"/>
+      <c r="X385">
+        <v>311</v>
+      </c>
       <c r="Y385" s="3"/>
       <c r="Z385" s="3"/>
       <c r="AA385" s="3"/>
     </row>
-    <row r="386" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>1027</v>
       </c>
@@ -23807,8 +24173,14 @@
       <c r="S386" s="17" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="387" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T386" s="42" t="s">
+        <v>1386</v>
+      </c>
+      <c r="X386">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="387" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
         <v>1028</v>
       </c>
@@ -23852,16 +24224,22 @@
       <c r="S387" s="11" t="s">
         <v>1391</v>
       </c>
-      <c r="T387" s="3"/>
+      <c r="T387" s="3" t="s">
+        <v>1386</v>
+      </c>
       <c r="U387" s="3"/>
-      <c r="V387" s="3"/>
+      <c r="V387" s="3" t="s">
+        <v>1386</v>
+      </c>
       <c r="W387" s="3"/>
-      <c r="X387" s="3"/>
+      <c r="X387">
+        <v>311</v>
+      </c>
       <c r="Y387" s="3"/>
       <c r="Z387" s="3"/>
       <c r="AA387" s="3"/>
     </row>
-    <row r="388" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>1029</v>
       </c>
@@ -23909,8 +24287,23 @@
       <c r="S388" s="30" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="389" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T388">
+        <v>2.75</v>
+      </c>
+      <c r="U388">
+        <v>3.38</v>
+      </c>
+      <c r="V388">
+        <v>19.5</v>
+      </c>
+      <c r="W388">
+        <v>25.7</v>
+      </c>
+      <c r="X388">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="389" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
         <v>1031</v>
       </c>
@@ -23952,16 +24345,22 @@
       <c r="Q389" s="3"/>
       <c r="R389" s="3"/>
       <c r="S389" s="3"/>
-      <c r="T389" s="3"/>
+      <c r="T389" s="3">
+        <v>5.24</v>
+      </c>
       <c r="U389" s="3"/>
-      <c r="V389" s="3"/>
+      <c r="V389" s="3">
+        <v>10.3</v>
+      </c>
       <c r="W389" s="3"/>
-      <c r="X389" s="3"/>
+      <c r="X389">
+        <v>311</v>
+      </c>
       <c r="Y389" s="3"/>
       <c r="Z389" s="3"/>
       <c r="AA389" s="3"/>
     </row>
-    <row r="390" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>1032</v>
       </c>
@@ -23998,8 +24397,17 @@
       <c r="P390">
         <v>57</v>
       </c>
-    </row>
-    <row r="391" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T390">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="V390">
+        <v>21</v>
+      </c>
+      <c r="X390">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="391" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
         <v>1034</v>
       </c>
@@ -24045,16 +24453,22 @@
       <c r="S391" s="3" t="s">
         <v>1430</v>
       </c>
-      <c r="T391" s="11"/>
+      <c r="T391" s="3" t="s">
+        <v>1386</v>
+      </c>
       <c r="U391" s="11"/>
-      <c r="V391" s="11"/>
+      <c r="V391" s="3" t="s">
+        <v>1386</v>
+      </c>
       <c r="W391" s="11"/>
-      <c r="X391" s="11"/>
+      <c r="X391">
+        <v>311</v>
+      </c>
       <c r="Y391" s="11"/>
       <c r="Z391" s="11"/>
       <c r="AA391" s="11"/>
     </row>
-    <row r="392" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>1035</v>
       </c>
@@ -24097,19 +24511,25 @@
       <c r="R392" s="30" t="s">
         <v>1407</v>
       </c>
-      <c r="S392" s="12" t="s">
+      <c r="S392" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="T392" s="30"/>
+      <c r="T392" s="30">
+        <v>3.72</v>
+      </c>
       <c r="U392" s="30"/>
-      <c r="V392" s="30"/>
+      <c r="V392" s="30">
+        <v>20.7</v>
+      </c>
       <c r="W392" s="30"/>
-      <c r="X392" s="30"/>
+      <c r="X392">
+        <v>311</v>
+      </c>
       <c r="Y392" s="30"/>
       <c r="Z392" s="30"/>
       <c r="AA392" s="30"/>
     </row>
-    <row r="393" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
         <v>1036</v>
       </c>
@@ -24151,16 +24571,22 @@
       <c r="Q393" s="3"/>
       <c r="R393" s="3"/>
       <c r="S393" s="3"/>
-      <c r="T393" s="3"/>
+      <c r="T393" s="3">
+        <v>3.92</v>
+      </c>
       <c r="U393" s="3"/>
-      <c r="V393" s="3"/>
+      <c r="V393" s="3">
+        <v>10.9</v>
+      </c>
       <c r="W393" s="3"/>
-      <c r="X393" s="3"/>
+      <c r="X393">
+        <v>311</v>
+      </c>
       <c r="Y393" s="3"/>
       <c r="Z393" s="3"/>
       <c r="AA393" s="3"/>
     </row>
-    <row r="394" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>1038</v>
       </c>
@@ -24206,16 +24632,22 @@
       <c r="S394" s="11" t="s">
         <v>1387</v>
       </c>
-      <c r="T394" s="30"/>
+      <c r="T394" s="30">
+        <v>4.42</v>
+      </c>
       <c r="U394" s="30"/>
-      <c r="V394" s="30"/>
+      <c r="V394" s="30">
+        <v>13.8</v>
+      </c>
       <c r="W394" s="30"/>
-      <c r="X394" s="30"/>
+      <c r="X394">
+        <v>311</v>
+      </c>
       <c r="Y394" s="30"/>
       <c r="Z394" s="30"/>
       <c r="AA394" s="30"/>
     </row>
-    <row r="395" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
         <v>1039</v>
       </c>
@@ -24257,16 +24689,22 @@
       <c r="Q395" s="3"/>
       <c r="R395" s="3"/>
       <c r="S395" s="3"/>
-      <c r="T395" s="3"/>
+      <c r="T395" s="3">
+        <v>4.57</v>
+      </c>
       <c r="U395" s="3"/>
-      <c r="V395" s="3"/>
+      <c r="V395" s="3">
+        <v>14.3</v>
+      </c>
       <c r="W395" s="3"/>
-      <c r="X395" s="3"/>
+      <c r="X395">
+        <v>311</v>
+      </c>
       <c r="Y395" s="3"/>
       <c r="Z395" s="3"/>
       <c r="AA395" s="3"/>
     </row>
-    <row r="396" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>1041</v>
       </c>
@@ -24304,8 +24742,17 @@
       <c r="P396">
         <v>37</v>
       </c>
-    </row>
-    <row r="397" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T396">
+        <v>5.59</v>
+      </c>
+      <c r="V396">
+        <v>23.5</v>
+      </c>
+      <c r="X396">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="397" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
         <v>1042</v>
       </c>
@@ -24349,16 +24796,20 @@
       <c r="S397" s="11" t="s">
         <v>1391</v>
       </c>
-      <c r="T397" s="3"/>
+      <c r="T397" s="3" t="s">
+        <v>1386</v>
+      </c>
       <c r="U397" s="3"/>
       <c r="V397" s="3"/>
       <c r="W397" s="3"/>
-      <c r="X397" s="3"/>
+      <c r="X397">
+        <v>311</v>
+      </c>
       <c r="Y397" s="3"/>
       <c r="Z397" s="3"/>
       <c r="AA397" s="3"/>
     </row>
-    <row r="398" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>1045</v>
       </c>
@@ -24395,8 +24846,17 @@
       <c r="P398">
         <v>37</v>
       </c>
-    </row>
-    <row r="399" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T398">
+        <v>5.19</v>
+      </c>
+      <c r="V398">
+        <v>19.5</v>
+      </c>
+      <c r="X398">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="399" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
         <v>1047</v>
       </c>
@@ -24441,19 +24901,25 @@
       <c r="R399" s="3" t="s">
         <v>1407</v>
       </c>
-      <c r="S399" s="12" t="s">
+      <c r="S399" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="T399" s="3"/>
+      <c r="T399" s="3">
+        <v>4.82</v>
+      </c>
       <c r="U399" s="3"/>
-      <c r="V399" s="3"/>
+      <c r="V399" s="3">
+        <v>8.6</v>
+      </c>
       <c r="W399" s="3"/>
-      <c r="X399" s="3"/>
+      <c r="X399">
+        <v>311</v>
+      </c>
       <c r="Y399" s="3"/>
       <c r="Z399" s="3"/>
       <c r="AA399" s="3"/>
     </row>
-    <row r="400" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>1050</v>
       </c>
@@ -24490,8 +24956,17 @@
       <c r="P400">
         <v>37</v>
       </c>
-    </row>
-    <row r="401" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T400">
+        <v>6</v>
+      </c>
+      <c r="V400">
+        <v>43.8</v>
+      </c>
+      <c r="X400">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="401" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
         <v>1052</v>
       </c>
@@ -24533,16 +25008,22 @@
       <c r="Q401" s="3"/>
       <c r="R401" s="3"/>
       <c r="S401" s="3"/>
-      <c r="T401" s="3"/>
+      <c r="T401" s="3">
+        <v>4.88</v>
+      </c>
       <c r="U401" s="3"/>
-      <c r="V401" s="3"/>
+      <c r="V401" s="3">
+        <v>24.5</v>
+      </c>
       <c r="W401" s="3"/>
-      <c r="X401" s="3"/>
+      <c r="X401">
+        <v>311</v>
+      </c>
       <c r="Y401" s="3"/>
       <c r="Z401" s="3"/>
       <c r="AA401" s="3"/>
     </row>
-    <row r="402" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>1053</v>
       </c>
@@ -24586,16 +25067,24 @@
       <c r="S402" s="17" t="s">
         <v>1412</v>
       </c>
-      <c r="T402" s="17"/>
+      <c r="T402" s="17">
+        <v>5.94</v>
+      </c>
       <c r="U402" s="17"/>
-      <c r="V402" s="17"/>
+      <c r="V402" s="17">
+        <v>3.5</v>
+      </c>
       <c r="W402" s="17"/>
-      <c r="X402" s="17"/>
-      <c r="Y402" s="17"/>
+      <c r="X402">
+        <v>311</v>
+      </c>
+      <c r="Y402" s="42" t="s">
+        <v>1407</v>
+      </c>
       <c r="Z402" s="17"/>
       <c r="AA402" s="17"/>
     </row>
-    <row r="403" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
         <v>1055</v>
       </c>
@@ -24637,16 +25126,22 @@
       <c r="Q403" s="3"/>
       <c r="R403" s="3"/>
       <c r="S403" s="3"/>
-      <c r="T403" s="3"/>
+      <c r="T403" s="3">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="U403" s="3"/>
-      <c r="V403" s="3"/>
+      <c r="V403" s="3">
+        <v>14.3</v>
+      </c>
       <c r="W403" s="3"/>
-      <c r="X403" s="3"/>
+      <c r="X403">
+        <v>311</v>
+      </c>
       <c r="Y403" s="3"/>
       <c r="Z403" s="3"/>
       <c r="AA403" s="3"/>
     </row>
-    <row r="404" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>1056</v>
       </c>
@@ -24692,19 +25187,29 @@
       <c r="R404" s="30" t="s">
         <v>1407</v>
       </c>
-      <c r="S404" s="30" t="s">
+      <c r="S404" s="42" t="s">
         <v>1426</v>
       </c>
-      <c r="T404" s="30"/>
-      <c r="U404" s="30"/>
-      <c r="V404" s="30"/>
-      <c r="W404" s="30"/>
-      <c r="X404" s="30"/>
+      <c r="T404" s="30">
+        <v>3.83</v>
+      </c>
+      <c r="U404" s="30">
+        <v>3.73</v>
+      </c>
+      <c r="V404" s="30">
+        <v>17.5</v>
+      </c>
+      <c r="W404" s="30">
+        <v>24.1</v>
+      </c>
+      <c r="X404">
+        <v>311</v>
+      </c>
       <c r="Y404" s="30"/>
       <c r="Z404" s="30"/>
       <c r="AA404" s="30"/>
     </row>
-    <row r="405" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
         <v>1057</v>
       </c>
@@ -24746,16 +25251,22 @@
       <c r="Q405" s="3"/>
       <c r="R405" s="3"/>
       <c r="S405" s="3"/>
-      <c r="T405" s="3"/>
+      <c r="T405" s="3">
+        <v>4.37</v>
+      </c>
       <c r="U405" s="3"/>
-      <c r="V405" s="3"/>
+      <c r="V405" s="3">
+        <v>19.600000000000001</v>
+      </c>
       <c r="W405" s="3"/>
-      <c r="X405" s="3"/>
+      <c r="X405">
+        <v>311</v>
+      </c>
       <c r="Y405" s="3"/>
       <c r="Z405" s="3"/>
       <c r="AA405" s="3"/>
     </row>
-    <row r="406" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>1059</v>
       </c>
@@ -24797,16 +25308,22 @@
       <c r="S406" s="17" t="s">
         <v>1413</v>
       </c>
-      <c r="T406" s="17"/>
+      <c r="T406" s="17">
+        <v>5.6</v>
+      </c>
       <c r="U406" s="17"/>
-      <c r="V406" s="17"/>
+      <c r="V406" s="17">
+        <v>10.199999999999999</v>
+      </c>
       <c r="W406" s="17"/>
-      <c r="X406" s="17"/>
+      <c r="X406">
+        <v>311</v>
+      </c>
       <c r="Y406" s="17"/>
       <c r="Z406" s="17"/>
       <c r="AA406" s="17"/>
     </row>
-    <row r="407" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
         <v>1060</v>
       </c>
@@ -24848,16 +25365,22 @@
       <c r="Q407" s="3"/>
       <c r="R407" s="3"/>
       <c r="S407" s="3"/>
-      <c r="T407" s="3"/>
+      <c r="T407" s="3">
+        <v>6.75</v>
+      </c>
       <c r="U407" s="3"/>
-      <c r="V407" s="3"/>
+      <c r="V407" s="3">
+        <v>23.3</v>
+      </c>
       <c r="W407" s="3"/>
-      <c r="X407" s="3"/>
+      <c r="X407">
+        <v>311</v>
+      </c>
       <c r="Y407" s="3"/>
       <c r="Z407" s="3"/>
       <c r="AA407" s="3"/>
     </row>
-    <row r="408" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>1061</v>
       </c>
@@ -24898,8 +25421,14 @@
       <c r="S408" s="12" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="409" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T408" s="42" t="s">
+        <v>1386</v>
+      </c>
+      <c r="X408">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="409" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
         <v>1062</v>
       </c>
@@ -24941,16 +25470,22 @@
       <c r="Q409" s="3"/>
       <c r="R409" s="3"/>
       <c r="S409" s="3"/>
-      <c r="T409" s="3"/>
+      <c r="T409" s="3">
+        <v>4.93</v>
+      </c>
       <c r="U409" s="3"/>
-      <c r="V409" s="3"/>
+      <c r="V409" s="3">
+        <v>27.7</v>
+      </c>
       <c r="W409" s="3"/>
-      <c r="X409" s="3"/>
+      <c r="X409">
+        <v>311</v>
+      </c>
       <c r="Y409" s="3"/>
       <c r="Z409" s="3"/>
       <c r="AA409" s="3"/>
     </row>
-    <row r="410" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>1064</v>
       </c>
@@ -24988,8 +25523,17 @@
       <c r="P410">
         <v>37</v>
       </c>
-    </row>
-    <row r="411" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T410">
+        <v>4.78</v>
+      </c>
+      <c r="V410">
+        <v>12.9</v>
+      </c>
+      <c r="X410">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="411" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
         <v>1066</v>
       </c>
@@ -25034,19 +25578,25 @@
       <c r="R411" s="3" t="s">
         <v>1427</v>
       </c>
-      <c r="S411" s="11" t="s">
+      <c r="S411" s="3" t="s">
         <v>1387</v>
       </c>
-      <c r="T411" s="3"/>
+      <c r="T411" s="3">
+        <v>7.65</v>
+      </c>
       <c r="U411" s="3"/>
-      <c r="V411" s="3"/>
+      <c r="V411" s="3">
+        <v>13.5</v>
+      </c>
       <c r="W411" s="3"/>
-      <c r="X411" s="3"/>
+      <c r="X411">
+        <v>311</v>
+      </c>
       <c r="Y411" s="3"/>
       <c r="Z411" s="3"/>
       <c r="AA411" s="3"/>
     </row>
-    <row r="412" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>1069</v>
       </c>
@@ -25083,8 +25633,17 @@
       <c r="P412">
         <v>37</v>
       </c>
-    </row>
-    <row r="413" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T412">
+        <v>4.95</v>
+      </c>
+      <c r="V412">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="X412">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="413" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
         <v>1071</v>
       </c>
@@ -25130,16 +25689,22 @@
       <c r="S413" s="11" t="s">
         <v>1409</v>
       </c>
-      <c r="T413" s="11"/>
+      <c r="T413" s="11">
+        <v>5.36</v>
+      </c>
       <c r="U413" s="11"/>
-      <c r="V413" s="11"/>
+      <c r="V413" s="11">
+        <v>19.7</v>
+      </c>
       <c r="W413" s="11"/>
-      <c r="X413" s="11"/>
+      <c r="X413">
+        <v>311</v>
+      </c>
       <c r="Y413" s="11"/>
       <c r="Z413" s="11"/>
       <c r="AA413" s="11"/>
     </row>
-    <row r="414" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>1073</v>
       </c>
@@ -25180,19 +25745,27 @@
         <v>1407</v>
       </c>
       <c r="R414" s="17"/>
-      <c r="S414" s="17" t="s">
+      <c r="S414" s="42" t="s">
         <v>1410</v>
       </c>
-      <c r="T414" s="17"/>
+      <c r="T414" s="17">
+        <v>5.97</v>
+      </c>
       <c r="U414" s="17"/>
-      <c r="V414" s="17"/>
+      <c r="V414" s="17">
+        <v>18.600000000000001</v>
+      </c>
       <c r="W414" s="17"/>
-      <c r="X414" s="17"/>
-      <c r="Y414" s="17"/>
+      <c r="X414">
+        <v>311</v>
+      </c>
+      <c r="Y414" s="42" t="s">
+        <v>1407</v>
+      </c>
       <c r="Z414" s="17"/>
       <c r="AA414" s="17"/>
     </row>
-    <row r="415" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
         <v>1074</v>
       </c>
@@ -25234,16 +25807,22 @@
       <c r="Q415" s="3"/>
       <c r="R415" s="3"/>
       <c r="S415" s="3"/>
-      <c r="T415" s="3"/>
+      <c r="T415" s="3">
+        <v>4.45</v>
+      </c>
       <c r="U415" s="3"/>
-      <c r="V415" s="3"/>
+      <c r="V415" s="3">
+        <v>39.6</v>
+      </c>
       <c r="W415" s="3"/>
-      <c r="X415" s="3"/>
+      <c r="X415">
+        <v>311</v>
+      </c>
       <c r="Y415" s="3"/>
       <c r="Z415" s="3"/>
       <c r="AA415" s="3"/>
     </row>
-    <row r="416" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>1075</v>
       </c>
@@ -25283,8 +25862,14 @@
       <c r="S416" s="17" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="417" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T416" s="42" t="s">
+        <v>1386</v>
+      </c>
+      <c r="X416">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="417" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
         <v>1077</v>
       </c>
@@ -25326,16 +25911,22 @@
       <c r="Q417" s="3"/>
       <c r="R417" s="3"/>
       <c r="S417" s="3"/>
-      <c r="T417" s="3"/>
+      <c r="T417" s="3">
+        <v>4.07</v>
+      </c>
       <c r="U417" s="3"/>
-      <c r="V417" s="3"/>
+      <c r="V417" s="3">
+        <v>30.1</v>
+      </c>
       <c r="W417" s="3"/>
-      <c r="X417" s="3"/>
+      <c r="X417">
+        <v>311</v>
+      </c>
       <c r="Y417" s="3"/>
       <c r="Z417" s="3"/>
       <c r="AA417" s="3"/>
     </row>
-    <row r="418" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>1078</v>
       </c>
@@ -25379,8 +25970,23 @@
         <v>57</v>
       </c>
       <c r="S418" s="17"/>
-    </row>
-    <row r="419" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T418">
+        <v>3.55</v>
+      </c>
+      <c r="U418">
+        <v>2.85</v>
+      </c>
+      <c r="V418">
+        <v>12.2</v>
+      </c>
+      <c r="W418">
+        <v>8.4</v>
+      </c>
+      <c r="X418">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="419" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
         <v>1079</v>
       </c>
@@ -25426,16 +26032,24 @@
       <c r="Q419" s="3"/>
       <c r="R419" s="3"/>
       <c r="S419" s="3"/>
-      <c r="T419" s="3"/>
-      <c r="U419" s="3"/>
-      <c r="V419" s="3"/>
+      <c r="T419" s="3">
+        <v>4.78</v>
+      </c>
+      <c r="U419" s="3">
+        <v>2.38</v>
+      </c>
+      <c r="V419" s="3">
+        <v>18.3</v>
+      </c>
       <c r="W419" s="3"/>
-      <c r="X419" s="3"/>
+      <c r="X419">
+        <v>311</v>
+      </c>
       <c r="Y419" s="3"/>
       <c r="Z419" s="3"/>
       <c r="AA419" s="3"/>
     </row>
-    <row r="420" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>1081</v>
       </c>
@@ -25472,8 +26086,17 @@
       <c r="P420">
         <v>57</v>
       </c>
-    </row>
-    <row r="421" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T420">
+        <v>4.5</v>
+      </c>
+      <c r="V420">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="X420">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="421" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
         <v>1082</v>
       </c>
@@ -25515,16 +26138,22 @@
       <c r="Q421" s="3"/>
       <c r="R421" s="3"/>
       <c r="S421" s="3"/>
-      <c r="T421" s="3"/>
+      <c r="T421" s="3">
+        <v>5.43</v>
+      </c>
       <c r="U421" s="3"/>
-      <c r="V421" s="3"/>
+      <c r="V421" s="3">
+        <v>17.7</v>
+      </c>
       <c r="W421" s="3"/>
-      <c r="X421" s="3"/>
+      <c r="X421">
+        <v>311</v>
+      </c>
       <c r="Y421" s="3"/>
       <c r="Z421" s="3"/>
       <c r="AA421" s="3"/>
     </row>
-    <row r="422" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>1084</v>
       </c>
@@ -25561,8 +26190,17 @@
       <c r="P422">
         <v>37</v>
       </c>
-    </row>
-    <row r="423" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T422">
+        <v>3.62</v>
+      </c>
+      <c r="V422">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="X422">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="423" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
         <v>1085</v>
       </c>
@@ -25612,16 +26250,30 @@
       <c r="S423" s="30" t="s">
         <v>1428</v>
       </c>
-      <c r="T423" s="3"/>
-      <c r="U423" s="3"/>
-      <c r="V423" s="3"/>
-      <c r="W423" s="3"/>
-      <c r="X423" s="3"/>
-      <c r="Y423" s="3"/>
+      <c r="T423" s="3">
+        <v>4.42</v>
+      </c>
+      <c r="U423" s="3">
+        <v>3.18</v>
+      </c>
+      <c r="V423" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="W423" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="X423">
+        <v>311</v>
+      </c>
+      <c r="Y423" s="3" t="s">
+        <v>1407</v>
+      </c>
       <c r="Z423" s="3"/>
-      <c r="AA423" s="3"/>
-    </row>
-    <row r="424" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA423" s="3" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="424" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>1086</v>
       </c>
@@ -25658,8 +26310,17 @@
       <c r="P424">
         <v>37</v>
       </c>
-    </row>
-    <row r="425" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T424">
+        <v>4.45</v>
+      </c>
+      <c r="V424">
+        <v>15.5</v>
+      </c>
+      <c r="X424">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="425" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
         <v>1087</v>
       </c>
@@ -25708,19 +26369,29 @@
       <c r="R425" s="3" t="s">
         <v>1407</v>
       </c>
-      <c r="S425" s="12" t="s">
+      <c r="S425" s="42" t="s">
         <v>1389</v>
       </c>
-      <c r="T425" s="3"/>
-      <c r="U425" s="3"/>
-      <c r="V425" s="3"/>
-      <c r="W425" s="3"/>
-      <c r="X425" s="3"/>
+      <c r="T425" s="3">
+        <v>4.47</v>
+      </c>
+      <c r="U425" s="3">
+        <v>2.36</v>
+      </c>
+      <c r="V425" s="3">
+        <v>18.8</v>
+      </c>
+      <c r="W425" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="X425">
+        <v>311</v>
+      </c>
       <c r="Y425" s="3"/>
       <c r="Z425" s="3"/>
       <c r="AA425" s="3"/>
     </row>
-    <row r="426" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>1089</v>
       </c>
@@ -25757,8 +26428,17 @@
       <c r="P426">
         <v>37</v>
       </c>
-    </row>
-    <row r="427" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T426" s="42" t="s">
+        <v>1386</v>
+      </c>
+      <c r="V426" s="42" t="s">
+        <v>1386</v>
+      </c>
+      <c r="X426">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="427" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
         <v>1091</v>
       </c>
@@ -25800,16 +26480,22 @@
       <c r="Q427" s="3"/>
       <c r="R427" s="3"/>
       <c r="S427" s="3"/>
-      <c r="T427" s="3"/>
+      <c r="T427" s="3">
+        <v>5.08</v>
+      </c>
       <c r="U427" s="3"/>
-      <c r="V427" s="3"/>
+      <c r="V427" s="3">
+        <v>13.1</v>
+      </c>
       <c r="W427" s="3"/>
-      <c r="X427" s="3"/>
+      <c r="X427">
+        <v>311</v>
+      </c>
       <c r="Y427" s="3"/>
       <c r="Z427" s="3"/>
       <c r="AA427" s="3"/>
     </row>
-    <row r="428" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>1093</v>
       </c>
@@ -25846,8 +26532,17 @@
       <c r="P428">
         <v>37</v>
       </c>
-    </row>
-    <row r="429" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T428">
+        <v>3.8</v>
+      </c>
+      <c r="V428">
+        <v>22.4</v>
+      </c>
+      <c r="X428">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="429" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
         <v>1094</v>
       </c>
@@ -25889,16 +26584,22 @@
       <c r="Q429" s="3"/>
       <c r="R429" s="3"/>
       <c r="S429" s="3"/>
-      <c r="T429" s="3"/>
+      <c r="T429" s="3">
+        <v>3.97</v>
+      </c>
       <c r="U429" s="3"/>
-      <c r="V429" s="3"/>
+      <c r="V429" s="3">
+        <v>17.600000000000001</v>
+      </c>
       <c r="W429" s="3"/>
-      <c r="X429" s="3"/>
+      <c r="X429">
+        <v>311</v>
+      </c>
       <c r="Y429" s="3"/>
       <c r="Z429" s="3"/>
       <c r="AA429" s="3"/>
     </row>
-    <row r="430" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>1096</v>
       </c>
@@ -25935,8 +26636,17 @@
       <c r="P430">
         <v>37</v>
       </c>
-    </row>
-    <row r="431" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T430">
+        <v>4.55</v>
+      </c>
+      <c r="V430">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="X430">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="431" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="s">
         <v>1098</v>
       </c>
@@ -25978,16 +26688,22 @@
       <c r="Q431" s="3"/>
       <c r="R431" s="3"/>
       <c r="S431" s="3"/>
-      <c r="T431" s="3"/>
+      <c r="T431" s="3">
+        <v>4.99</v>
+      </c>
       <c r="U431" s="3"/>
-      <c r="V431" s="3"/>
+      <c r="V431" s="3">
+        <v>17.100000000000001</v>
+      </c>
       <c r="W431" s="3"/>
-      <c r="X431" s="3"/>
+      <c r="X431">
+        <v>311</v>
+      </c>
       <c r="Y431" s="3"/>
       <c r="Z431" s="3"/>
       <c r="AA431" s="3"/>
     </row>
-    <row r="432" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>1100</v>
       </c>
@@ -26027,8 +26743,17 @@
       <c r="S432" s="17" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="433" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T432" s="42" t="s">
+        <v>1386</v>
+      </c>
+      <c r="V432" s="42" t="s">
+        <v>1386</v>
+      </c>
+      <c r="X432">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="433" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="3" t="s">
         <v>1102</v>
       </c>
@@ -26070,16 +26795,22 @@
       <c r="Q433" s="3"/>
       <c r="R433" s="3"/>
       <c r="S433" s="3"/>
-      <c r="T433" s="3"/>
+      <c r="T433" s="3">
+        <v>4.59</v>
+      </c>
       <c r="U433" s="3"/>
-      <c r="V433" s="3"/>
+      <c r="V433" s="3">
+        <v>15.1</v>
+      </c>
       <c r="W433" s="3"/>
-      <c r="X433" s="3"/>
+      <c r="X433">
+        <v>311</v>
+      </c>
       <c r="Y433" s="3"/>
       <c r="Z433" s="3"/>
       <c r="AA433" s="3"/>
     </row>
-    <row r="434" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>1103</v>
       </c>
@@ -26116,8 +26847,17 @@
       <c r="P434">
         <v>57</v>
       </c>
-    </row>
-    <row r="435" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T434">
+        <v>4.66</v>
+      </c>
+      <c r="V434">
+        <v>19.2</v>
+      </c>
+      <c r="X434">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="435" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
         <v>1104</v>
       </c>
@@ -26159,16 +26899,22 @@
       <c r="Q435" s="11"/>
       <c r="R435" s="11"/>
       <c r="S435" s="3"/>
-      <c r="T435" s="11"/>
+      <c r="T435" s="11">
+        <v>4.82</v>
+      </c>
       <c r="U435" s="11"/>
-      <c r="V435" s="11"/>
+      <c r="V435" s="11">
+        <v>35.4</v>
+      </c>
       <c r="W435" s="11"/>
-      <c r="X435" s="11"/>
+      <c r="X435">
+        <v>311</v>
+      </c>
       <c r="Y435" s="11"/>
       <c r="Z435" s="11"/>
       <c r="AA435" s="11"/>
     </row>
-    <row r="436" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>1105</v>
       </c>
@@ -26209,19 +26955,25 @@
         <v>1407</v>
       </c>
       <c r="R436" s="17"/>
-      <c r="S436" s="17" t="s">
+      <c r="S436" s="42" t="s">
         <v>1414</v>
       </c>
-      <c r="T436" s="17"/>
+      <c r="T436" s="17">
+        <v>6.48</v>
+      </c>
       <c r="U436" s="17"/>
-      <c r="V436" s="17"/>
+      <c r="V436" s="17">
+        <v>15.3</v>
+      </c>
       <c r="W436" s="17"/>
-      <c r="X436" s="17"/>
+      <c r="X436">
+        <v>311</v>
+      </c>
       <c r="Y436" s="17"/>
       <c r="Z436" s="17"/>
       <c r="AA436" s="17"/>
     </row>
-    <row r="437" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
         <v>1107</v>
       </c>
@@ -26263,16 +27015,22 @@
       <c r="Q437" s="3"/>
       <c r="R437" s="3"/>
       <c r="S437" s="3"/>
-      <c r="T437" s="3"/>
+      <c r="T437" s="3">
+        <v>3.53</v>
+      </c>
       <c r="U437" s="3"/>
-      <c r="V437" s="3"/>
+      <c r="V437" s="3">
+        <v>14.5</v>
+      </c>
       <c r="W437" s="3"/>
-      <c r="X437" s="3"/>
+      <c r="X437">
+        <v>311</v>
+      </c>
       <c r="Y437" s="3"/>
       <c r="Z437" s="3"/>
       <c r="AA437" s="3"/>
     </row>
-    <row r="438" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>1109</v>
       </c>
@@ -26309,8 +27067,17 @@
       <c r="P438">
         <v>37</v>
       </c>
-    </row>
-    <row r="439" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T438">
+        <v>3.72</v>
+      </c>
+      <c r="V438">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="X438">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="439" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
         <v>1110</v>
       </c>
@@ -26356,16 +27123,22 @@
       <c r="S439" s="3" t="s">
         <v>1423</v>
       </c>
-      <c r="T439" s="3"/>
+      <c r="T439" s="3">
+        <v>2.97</v>
+      </c>
       <c r="U439" s="3"/>
-      <c r="V439" s="3"/>
+      <c r="V439" s="3">
+        <v>16.8</v>
+      </c>
       <c r="W439" s="3"/>
-      <c r="X439" s="3"/>
+      <c r="X439">
+        <v>311</v>
+      </c>
       <c r="Y439" s="3"/>
       <c r="Z439" s="3"/>
       <c r="AA439" s="3"/>
     </row>
-    <row r="440" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>1111</v>
       </c>
@@ -26402,8 +27175,17 @@
       <c r="P440">
         <v>37</v>
       </c>
-    </row>
-    <row r="441" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T440">
+        <v>6.81</v>
+      </c>
+      <c r="V440">
+        <v>12.9</v>
+      </c>
+      <c r="X440">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="441" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
         <v>1113</v>
       </c>
@@ -26445,16 +27227,22 @@
       <c r="Q441" s="3"/>
       <c r="R441" s="3"/>
       <c r="S441" s="3"/>
-      <c r="T441" s="3"/>
+      <c r="T441" s="3">
+        <v>4.7</v>
+      </c>
       <c r="U441" s="3"/>
-      <c r="V441" s="3"/>
+      <c r="V441" s="3">
+        <v>20.7</v>
+      </c>
       <c r="W441" s="3"/>
-      <c r="X441" s="3"/>
+      <c r="X441">
+        <v>311</v>
+      </c>
       <c r="Y441" s="3"/>
       <c r="Z441" s="3"/>
       <c r="AA441" s="3"/>
     </row>
-    <row r="442" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>1114</v>
       </c>
@@ -26491,8 +27279,17 @@
       <c r="P442">
         <v>37</v>
       </c>
-    </row>
-    <row r="443" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T442" s="42" t="s">
+        <v>1386</v>
+      </c>
+      <c r="V442" s="42" t="s">
+        <v>1386</v>
+      </c>
+      <c r="X442">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="443" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
         <v>1117</v>
       </c>
@@ -26538,16 +27335,26 @@
       <c r="Q443" s="3"/>
       <c r="R443" s="3"/>
       <c r="S443" s="3"/>
-      <c r="T443" s="3"/>
-      <c r="U443" s="3"/>
-      <c r="V443" s="3"/>
-      <c r="W443" s="3"/>
-      <c r="X443" s="3"/>
+      <c r="T443" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="U443" s="3">
+        <v>4.17</v>
+      </c>
+      <c r="V443" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="W443" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="X443">
+        <v>311</v>
+      </c>
       <c r="Y443" s="3"/>
       <c r="Z443" s="3"/>
       <c r="AA443" s="3"/>
     </row>
-    <row r="444" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>1118</v>
       </c>
@@ -26594,16 +27401,22 @@
       <c r="S444" s="17" t="s">
         <v>1408</v>
       </c>
-      <c r="T444" s="17"/>
+      <c r="T444" s="42" t="s">
+        <v>1386</v>
+      </c>
       <c r="U444" s="17"/>
-      <c r="V444" s="17"/>
+      <c r="V444" s="42" t="s">
+        <v>1386</v>
+      </c>
       <c r="W444" s="17"/>
-      <c r="X444" s="17"/>
+      <c r="X444">
+        <v>311</v>
+      </c>
       <c r="Y444" s="17"/>
       <c r="Z444" s="17"/>
       <c r="AA444" s="17"/>
     </row>
-    <row r="445" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
         <v>1119</v>
       </c>
@@ -26645,16 +27458,22 @@
       <c r="Q445" s="3"/>
       <c r="R445" s="3"/>
       <c r="S445" s="3"/>
-      <c r="T445" s="3"/>
+      <c r="T445" s="3">
+        <v>3.74</v>
+      </c>
       <c r="U445" s="3"/>
-      <c r="V445" s="3"/>
+      <c r="V445" s="3">
+        <v>11.1</v>
+      </c>
       <c r="W445" s="3"/>
-      <c r="X445" s="3"/>
+      <c r="X445">
+        <v>311</v>
+      </c>
       <c r="Y445" s="3"/>
       <c r="Z445" s="3"/>
       <c r="AA445" s="3"/>
     </row>
-    <row r="446" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>1120</v>
       </c>
@@ -26691,8 +27510,17 @@
       <c r="P446">
         <v>37</v>
       </c>
-    </row>
-    <row r="447" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T446">
+        <v>5.41</v>
+      </c>
+      <c r="V446">
+        <v>26.8</v>
+      </c>
+      <c r="X446">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="447" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
         <v>1121</v>
       </c>
@@ -26734,16 +27562,22 @@
       <c r="Q447" s="3"/>
       <c r="R447" s="3"/>
       <c r="S447" s="3"/>
-      <c r="T447" s="3"/>
+      <c r="T447" s="3">
+        <v>6.7</v>
+      </c>
       <c r="U447" s="3"/>
-      <c r="V447" s="3"/>
+      <c r="V447" s="3">
+        <v>22.4</v>
+      </c>
       <c r="W447" s="3"/>
-      <c r="X447" s="3"/>
+      <c r="X447">
+        <v>311</v>
+      </c>
       <c r="Y447" s="3"/>
       <c r="Z447" s="3"/>
       <c r="AA447" s="3"/>
     </row>
-    <row r="448" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>1122</v>
       </c>
@@ -26787,8 +27621,23 @@
         <v>57</v>
       </c>
       <c r="S448" s="17"/>
-    </row>
-    <row r="449" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T448">
+        <v>4.83</v>
+      </c>
+      <c r="U448">
+        <v>4.07</v>
+      </c>
+      <c r="V448">
+        <v>28.9</v>
+      </c>
+      <c r="W448">
+        <v>20.8</v>
+      </c>
+      <c r="X448">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="449" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
         <v>1123</v>
       </c>
@@ -26830,16 +27679,22 @@
       <c r="Q449" s="3"/>
       <c r="R449" s="3"/>
       <c r="S449" s="3"/>
-      <c r="T449" s="3"/>
+      <c r="T449" s="3">
+        <v>9.1199999999999992</v>
+      </c>
       <c r="U449" s="3"/>
-      <c r="V449" s="3"/>
+      <c r="V449" s="3">
+        <v>22.7</v>
+      </c>
       <c r="W449" s="3"/>
-      <c r="X449" s="3"/>
+      <c r="X449">
+        <v>311</v>
+      </c>
       <c r="Y449" s="3"/>
       <c r="Z449" s="3"/>
       <c r="AA449" s="3"/>
     </row>
-    <row r="450" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>1126</v>
       </c>
@@ -26876,8 +27731,17 @@
       <c r="P450">
         <v>57</v>
       </c>
-    </row>
-    <row r="451" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T450">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="V450">
+        <v>12.6</v>
+      </c>
+      <c r="X450">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="451" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
         <v>1128</v>
       </c>
@@ -26923,16 +27787,22 @@
       <c r="S451" s="11" t="s">
         <v>1414</v>
       </c>
-      <c r="T451" s="11"/>
+      <c r="T451" s="11">
+        <v>4.2699999999999996</v>
+      </c>
       <c r="U451" s="11"/>
-      <c r="V451" s="11"/>
+      <c r="V451" s="11">
+        <v>11.8</v>
+      </c>
       <c r="W451" s="11"/>
-      <c r="X451" s="11"/>
+      <c r="X451">
+        <v>311</v>
+      </c>
       <c r="Y451" s="11"/>
       <c r="Z451" s="11"/>
       <c r="AA451" s="11"/>
     </row>
-    <row r="452" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>1129</v>
       </c>
@@ -26980,7 +27850,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="453" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
         <v>1132</v>
       </c>
@@ -27036,7 +27906,7 @@
       <c r="Z453" s="3"/>
       <c r="AA453" s="3"/>
     </row>
-    <row r="454" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>1134</v>
       </c>
@@ -27083,7 +27953,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="455" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
         <v>1136</v>
       </c>
@@ -27140,7 +28010,7 @@
       <c r="Z455" s="3"/>
       <c r="AA455" s="3"/>
     </row>
-    <row r="456" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>1137</v>
       </c>
@@ -27187,7 +28057,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="457" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
         <v>1139</v>
       </c>
@@ -27244,7 +28114,7 @@
       <c r="Z457" s="3"/>
       <c r="AA457" s="3"/>
     </row>
-    <row r="458" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>1140</v>
       </c>
@@ -27291,7 +28161,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="459" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="s">
         <v>1141</v>
       </c>
@@ -27348,7 +28218,7 @@
       <c r="Z459" s="3"/>
       <c r="AA459" s="3"/>
     </row>
-    <row r="460" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>1143</v>
       </c>
@@ -27395,7 +28265,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="461" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="3" t="s">
         <v>1145</v>
       </c>
@@ -27724,7 +28594,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="467" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="3" t="s">
         <v>1151</v>
       </c>
@@ -27781,7 +28651,7 @@
       <c r="Z467" s="3"/>
       <c r="AA467" s="3"/>
     </row>
-    <row r="468" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>1152</v>
       </c>
@@ -27828,7 +28698,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="469" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="3" t="s">
         <v>1153</v>
       </c>
@@ -27885,7 +28755,7 @@
       <c r="Z469" s="3"/>
       <c r="AA469" s="3"/>
     </row>
-    <row r="470" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>1154</v>
       </c>
@@ -27932,7 +28802,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="471" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
         <v>1156</v>
       </c>
@@ -27989,7 +28859,7 @@
       <c r="Z471" s="3"/>
       <c r="AA471" s="3"/>
     </row>
-    <row r="472" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>1157</v>
       </c>
@@ -28036,7 +28906,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="473" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="3" t="s">
         <v>1158</v>
       </c>
@@ -28093,7 +28963,7 @@
       <c r="Z473" s="3"/>
       <c r="AA473" s="3"/>
     </row>
-    <row r="474" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>1160</v>
       </c>
@@ -28140,7 +29010,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="475" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="3" t="s">
         <v>1161</v>
       </c>
@@ -28197,7 +29067,7 @@
       <c r="Z475" s="3"/>
       <c r="AA475" s="3"/>
     </row>
-    <row r="476" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>1163</v>
       </c>
@@ -28509,7 +29379,7 @@
       <c r="Z481" s="3"/>
       <c r="AA481" s="3"/>
     </row>
-    <row r="482" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>1172</v>
       </c>
@@ -28556,7 +29426,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="483" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="3" t="s">
         <v>1174</v>
       </c>
@@ -28613,7 +29483,7 @@
       <c r="Z483" s="3"/>
       <c r="AA483" s="3"/>
     </row>
-    <row r="484" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>1175</v>
       </c>
@@ -28660,7 +29530,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="485" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="3" t="s">
         <v>1176</v>
       </c>
@@ -28717,7 +29587,7 @@
       <c r="Z485" s="3"/>
       <c r="AA485" s="3"/>
     </row>
-    <row r="486" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>1178</v>
       </c>
@@ -28764,7 +29634,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="487" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="3" t="s">
         <v>1179</v>
       </c>
@@ -28821,7 +29691,7 @@
       <c r="Z487" s="3"/>
       <c r="AA487" s="3"/>
     </row>
-    <row r="488" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>1181</v>
       </c>
@@ -28868,7 +29738,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="489" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="3" t="s">
         <v>1182</v>
       </c>
@@ -28925,7 +29795,7 @@
       <c r="Z489" s="3"/>
       <c r="AA489" s="3"/>
     </row>
-    <row r="490" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>1183</v>
       </c>
@@ -28972,7 +29842,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="491" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
         <v>1184</v>
       </c>
@@ -29227,7 +30097,9 @@
       <c r="S495" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="T495" s="3"/>
+      <c r="T495" s="3" t="s">
+        <v>1386</v>
+      </c>
       <c r="U495" s="3"/>
       <c r="V495" s="3" t="s">
         <v>1386</v>
@@ -29287,7 +30159,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="497" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="3" t="s">
         <v>1192</v>
       </c>
@@ -29344,7 +30216,7 @@
       <c r="Z497" s="3"/>
       <c r="AA497" s="3"/>
     </row>
-    <row r="498" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>1194</v>
       </c>
@@ -29391,7 +30263,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="499" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="3" t="s">
         <v>1195</v>
       </c>
@@ -29448,7 +30320,7 @@
       <c r="Z499" s="3"/>
       <c r="AA499" s="3"/>
     </row>
-    <row r="500" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>1196</v>
       </c>
@@ -29495,7 +30367,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="501" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="3" t="s">
         <v>1197</v>
       </c>
@@ -29552,7 +30424,7 @@
       <c r="Z501" s="3"/>
       <c r="AA501" s="3"/>
     </row>
-    <row r="502" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>1198</v>
       </c>
@@ -29602,7 +30474,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="503" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="3" t="s">
         <v>1200</v>
       </c>
@@ -29669,7 +30541,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="504" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>1203</v>
       </c>
@@ -29716,7 +30588,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="505" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="3" t="s">
         <v>1204</v>
       </c>
@@ -29773,7 +30645,7 @@
       <c r="Z505" s="3"/>
       <c r="AA505" s="3"/>
     </row>
-    <row r="506" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>1206</v>
       </c>
@@ -30113,7 +30985,7 @@
       <c r="Z511" s="3"/>
       <c r="AA511" s="3"/>
     </row>
-    <row r="512" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>1216</v>
       </c>
@@ -30160,7 +31032,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="513" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="3" t="s">
         <v>1218</v>
       </c>
@@ -30217,7 +31089,7 @@
       <c r="Z513" s="3"/>
       <c r="AA513" s="3"/>
     </row>
-    <row r="514" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>1219</v>
       </c>
@@ -30264,7 +31136,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="515" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="3" t="s">
         <v>1220</v>
       </c>
@@ -30321,7 +31193,7 @@
       <c r="Z515" s="3"/>
       <c r="AA515" s="3"/>
     </row>
-    <row r="516" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>1221</v>
       </c>
@@ -30368,7 +31240,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="517" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="3" t="s">
         <v>1222</v>
       </c>
@@ -30425,7 +31297,7 @@
       <c r="Z517" s="3"/>
       <c r="AA517" s="3"/>
     </row>
-    <row r="518" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>1223</v>
       </c>
@@ -30475,7 +31347,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="519" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="3" t="s">
         <v>1225</v>
       </c>
@@ -30544,7 +31416,7 @@
       <c r="Z519" s="3"/>
       <c r="AA519" s="3"/>
     </row>
-    <row r="520" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>1227</v>
       </c>
@@ -30606,7 +31478,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="521" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="3" t="s">
         <v>1229</v>
       </c>
@@ -30921,7 +31793,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="527" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="3" t="s">
         <v>1240</v>
       </c>
@@ -30978,7 +31850,7 @@
       <c r="Z527" s="3"/>
       <c r="AA527" s="3"/>
     </row>
-    <row r="528" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>1241</v>
       </c>
@@ -31025,7 +31897,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="529" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="3" t="s">
         <v>1242</v>
       </c>
@@ -31082,7 +31954,7 @@
       <c r="Z529" s="3"/>
       <c r="AA529" s="3"/>
     </row>
-    <row r="530" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
         <v>1243</v>
       </c>
@@ -31129,7 +32001,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="531" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="3" t="s">
         <v>1245</v>
       </c>
@@ -31186,7 +32058,7 @@
       <c r="Z531" s="3"/>
       <c r="AA531" s="3"/>
     </row>
-    <row r="532" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>1246</v>
       </c>
@@ -31233,7 +32105,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="533" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="3" t="s">
         <v>1247</v>
       </c>
@@ -31290,7 +32162,7 @@
       <c r="Z533" s="3"/>
       <c r="AA533" s="3"/>
     </row>
-    <row r="534" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>1248</v>
       </c>
@@ -31337,7 +32209,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="535" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="3" t="s">
         <v>1249</v>
       </c>
@@ -31394,7 +32266,7 @@
       <c r="Z535" s="3"/>
       <c r="AA535" s="3"/>
     </row>
-    <row r="536" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>1252</v>
       </c>
@@ -31706,7 +32578,7 @@
       <c r="Z541" s="3"/>
       <c r="AA541" s="3"/>
     </row>
-    <row r="542" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>1261</v>
       </c>
@@ -31747,7 +32619,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="543" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="3" t="s">
         <v>1264</v>
       </c>
@@ -31798,7 +32670,7 @@
       <c r="Z543" s="3"/>
       <c r="AA543" s="3"/>
     </row>
-    <row r="544" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>1265</v>
       </c>
@@ -31839,7 +32711,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="545" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="3" t="s">
         <v>1266</v>
       </c>
@@ -31890,7 +32762,7 @@
       <c r="Z545" s="3"/>
       <c r="AA545" s="3"/>
     </row>
-    <row r="546" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>1267</v>
       </c>
@@ -31928,7 +32800,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="547" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="3" t="s">
         <v>1269</v>
       </c>
@@ -31979,7 +32851,7 @@
       <c r="Z547" s="3"/>
       <c r="AA547" s="3"/>
     </row>
-    <row r="548" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>1270</v>
       </c>
@@ -32017,7 +32889,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="549" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="3" t="s">
         <v>1271</v>
       </c>
@@ -32068,7 +32940,7 @@
       <c r="Z549" s="3"/>
       <c r="AA549" s="3"/>
     </row>
-    <row r="550" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>1272</v>
       </c>
@@ -32106,7 +32978,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="551" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="3" t="s">
         <v>1274</v>
       </c>
@@ -32157,7 +33029,7 @@
       <c r="Z551" s="3"/>
       <c r="AA551" s="3"/>
     </row>
-    <row r="552" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>1275</v>
       </c>
@@ -32198,7 +33070,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="553" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="3" t="s">
         <v>1277</v>
       </c>
@@ -32249,7 +33121,7 @@
       <c r="Z553" s="3"/>
       <c r="AA553" s="3"/>
     </row>
-    <row r="554" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>1278</v>
       </c>
@@ -32290,7 +33162,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="555" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="3" t="s">
         <v>1280</v>
       </c>
@@ -32341,7 +33213,7 @@
       <c r="Z555" s="3"/>
       <c r="AA555" s="3"/>
     </row>
-    <row r="556" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>1282</v>
       </c>
@@ -32379,7 +33251,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="557" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="3" t="s">
         <v>1283</v>
       </c>
@@ -32430,7 +33302,7 @@
       <c r="Z557" s="3"/>
       <c r="AA557" s="3"/>
     </row>
-    <row r="558" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>1284</v>
       </c>
@@ -32471,7 +33343,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="559" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="3" t="s">
         <v>1286</v>
       </c>
@@ -32524,7 +33396,7 @@
       <c r="Z559" s="3"/>
       <c r="AA559" s="3"/>
     </row>
-    <row r="560" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>1287</v>
       </c>
@@ -32565,7 +33437,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="561" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="3" t="s">
         <v>1288</v>
       </c>
@@ -32616,7 +33488,7 @@
       <c r="Z561" s="3"/>
       <c r="AA561" s="3"/>
     </row>
-    <row r="562" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>1290</v>
       </c>
@@ -32654,7 +33526,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="563" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="3" t="s">
         <v>1293</v>
       </c>
@@ -32705,7 +33577,7 @@
       <c r="Z563" s="3"/>
       <c r="AA563" s="3"/>
     </row>
-    <row r="564" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>1295</v>
       </c>
@@ -32743,7 +33615,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="565" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="3" t="s">
         <v>1297</v>
       </c>
@@ -32794,7 +33666,7 @@
       <c r="Z565" s="3"/>
       <c r="AA565" s="3"/>
     </row>
-    <row r="566" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>1298</v>
       </c>
@@ -32832,7 +33704,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="567" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="3" t="s">
         <v>1299</v>
       </c>
@@ -32883,7 +33755,7 @@
       <c r="Z567" s="3"/>
       <c r="AA567" s="3"/>
     </row>
-    <row r="568" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
         <v>1300</v>
       </c>
@@ -32921,7 +33793,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="569" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="3" t="s">
         <v>1302</v>
       </c>
@@ -32972,7 +33844,7 @@
       <c r="Z569" s="3"/>
       <c r="AA569" s="3"/>
     </row>
-    <row r="570" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
         <v>1303</v>
       </c>
@@ -33010,7 +33882,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="571" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="3" t="s">
         <v>1304</v>
       </c>
@@ -33063,7 +33935,7 @@
       <c r="Z571" s="3"/>
       <c r="AA571" s="3"/>
     </row>
-    <row r="572" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>1306</v>
       </c>
@@ -33101,7 +33973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="573" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="3" t="s">
         <v>1308</v>
       </c>
@@ -33150,7 +34022,7 @@
       <c r="Z573" s="3"/>
       <c r="AA573" s="3"/>
     </row>
-    <row r="574" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>1310</v>
       </c>
@@ -33191,7 +34063,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="575" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="3" t="s">
         <v>1311</v>
       </c>
@@ -33244,7 +34116,7 @@
       <c r="Z575" s="3"/>
       <c r="AA575" s="3"/>
     </row>
-    <row r="576" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>1312</v>
       </c>
@@ -33285,7 +34157,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="577" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="3" t="s">
         <v>1313</v>
       </c>
@@ -33336,7 +34208,7 @@
       <c r="Z577" s="3"/>
       <c r="AA577" s="3"/>
     </row>
-    <row r="578" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>1315</v>
       </c>
@@ -33377,7 +34249,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="579" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="3" t="s">
         <v>1316</v>
       </c>
@@ -33428,7 +34300,7 @@
       <c r="Z579" s="3"/>
       <c r="AA579" s="3"/>
     </row>
-    <row r="580" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>1317</v>
       </c>
@@ -33466,7 +34338,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="581" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="3" t="s">
         <v>1318</v>
       </c>
@@ -33517,7 +34389,7 @@
       <c r="Z581" s="3"/>
       <c r="AA581" s="3"/>
     </row>
-    <row r="582" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
         <v>1320</v>
       </c>
@@ -33555,7 +34427,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="583" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="3" t="s">
         <v>1322</v>
       </c>
@@ -33608,7 +34480,7 @@
       <c r="Z583" s="3"/>
       <c r="AA583" s="3"/>
     </row>
-    <row r="584" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>1323</v>
       </c>
@@ -33646,7 +34518,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="585" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="3" t="s">
         <v>1325</v>
       </c>
@@ -33697,7 +34569,7 @@
       <c r="Z585" s="3"/>
       <c r="AA585" s="3"/>
     </row>
-    <row r="586" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
         <v>1326</v>
       </c>
@@ -33735,7 +34607,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="587" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="3" t="s">
         <v>1327</v>
       </c>
@@ -33786,7 +34658,7 @@
       <c r="Z587" s="3"/>
       <c r="AA587" s="3"/>
     </row>
-    <row r="588" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
         <v>1328</v>
       </c>
@@ -33827,7 +34699,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="589" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="3" t="s">
         <v>1329</v>
       </c>
@@ -33880,7 +34752,7 @@
       <c r="Z589" s="3"/>
       <c r="AA589" s="3"/>
     </row>
-    <row r="590" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>1330</v>
       </c>
@@ -33921,7 +34793,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="591" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="3" t="s">
         <v>1331</v>
       </c>
@@ -33972,7 +34844,7 @@
       <c r="Z591" s="3"/>
       <c r="AA591" s="3"/>
     </row>
-    <row r="592" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>1332</v>
       </c>
@@ -34010,7 +34882,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="593" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="3" t="s">
         <v>1333</v>
       </c>
@@ -34061,7 +34933,7 @@
       <c r="Z593" s="3"/>
       <c r="AA593" s="3"/>
     </row>
-    <row r="594" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>1335</v>
       </c>
@@ -34102,7 +34974,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="595" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="3" t="s">
         <v>1336</v>
       </c>
@@ -34157,7 +35029,7 @@
       <c r="Z595" s="11"/>
       <c r="AA595" s="11"/>
     </row>
-    <row r="596" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>1337</v>
       </c>
@@ -34198,7 +35070,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="597" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="3" t="s">
         <v>1339</v>
       </c>
@@ -34251,7 +35123,7 @@
       <c r="Z597" s="3"/>
       <c r="AA597" s="3"/>
     </row>
-    <row r="598" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>1340</v>
       </c>
@@ -34289,7 +35161,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="599" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="3" t="s">
         <v>1342</v>
       </c>
@@ -34340,7 +35212,7 @@
       <c r="Z599" s="3"/>
       <c r="AA599" s="3"/>
     </row>
-    <row r="600" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>1344</v>
       </c>
@@ -34378,7 +35250,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="601" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="3" t="s">
         <v>1346</v>
       </c>
@@ -34429,7 +35301,7 @@
       <c r="Z601" s="3"/>
       <c r="AA601" s="3"/>
     </row>
-    <row r="602" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>1347</v>
       </c>
@@ -34470,7 +35342,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="603" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="3" t="s">
         <v>1348</v>
       </c>
@@ -34521,7 +35393,7 @@
       <c r="Z603" s="3"/>
       <c r="AA603" s="3"/>
     </row>
-    <row r="604" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>1349</v>
       </c>
@@ -34559,7 +35431,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="605" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="3" t="s">
         <v>1350</v>
       </c>
@@ -34610,7 +35482,7 @@
       <c r="Z605" s="3"/>
       <c r="AA605" s="3"/>
     </row>
-    <row r="606" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
         <v>1352</v>
       </c>
@@ -34648,7 +35520,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="607" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="3" t="s">
         <v>1353</v>
       </c>
@@ -34699,7 +35571,7 @@
       <c r="Z607" s="3"/>
       <c r="AA607" s="3"/>
     </row>
-    <row r="608" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
         <v>1354</v>
       </c>
@@ -34737,7 +35609,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="609" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="3" t="s">
         <v>1355</v>
       </c>
@@ -34788,7 +35660,7 @@
       <c r="Z609" s="3"/>
       <c r="AA609" s="3"/>
     </row>
-    <row r="610" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>1356</v>
       </c>
@@ -34826,7 +35698,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="611" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="3" t="s">
         <v>1357</v>
       </c>
@@ -34879,7 +35751,7 @@
       <c r="Z611" s="3"/>
       <c r="AA611" s="3"/>
     </row>
-    <row r="612" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
         <v>1359</v>
       </c>
@@ -34917,7 +35789,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="613" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="3" t="s">
         <v>1360</v>
       </c>
@@ -34968,7 +35840,7 @@
       <c r="Z613" s="3"/>
       <c r="AA613" s="3"/>
     </row>
-    <row r="614" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
         <v>1361</v>
       </c>
@@ -35006,7 +35878,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="615" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="3" t="s">
         <v>1363</v>
       </c>
@@ -35057,7 +35929,7 @@
       <c r="Z615" s="3"/>
       <c r="AA615" s="3"/>
     </row>
-    <row r="616" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>1365</v>
       </c>
@@ -35098,7 +35970,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="617" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="3" t="s">
         <v>1366</v>
       </c>
@@ -35149,7 +36021,7 @@
       <c r="Z617" s="3"/>
       <c r="AA617" s="3"/>
     </row>
-    <row r="618" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>1368</v>
       </c>
@@ -35187,7 +36059,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="619" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="3" t="s">
         <v>1369</v>
       </c>
@@ -35238,7 +36110,7 @@
       <c r="Z619" s="3"/>
       <c r="AA619" s="3"/>
     </row>
-    <row r="620" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
         <v>1370</v>
       </c>
@@ -35279,7 +36151,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="621" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="3" t="s">
         <v>1371</v>
       </c>
@@ -35330,7 +36202,7 @@
       <c r="Z621" s="3"/>
       <c r="AA621" s="3"/>
     </row>
-    <row r="622" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>1372</v>
       </c>
@@ -35368,7 +36240,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="623" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="3" t="s">
         <v>1373</v>
       </c>
@@ -35419,7 +36291,7 @@
       <c r="Z623" s="3"/>
       <c r="AA623" s="3"/>
     </row>
-    <row r="624" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>1374</v>
       </c>
@@ -35457,7 +36329,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="625" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="3" t="s">
         <v>1375</v>
       </c>
@@ -35508,7 +36380,7 @@
       <c r="Z625" s="3"/>
       <c r="AA625" s="3"/>
     </row>
-    <row r="626" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
         <v>1377</v>
       </c>
@@ -35546,7 +36418,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="627" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="3" t="s">
         <v>1378</v>
       </c>
@@ -35597,7 +36469,7 @@
       <c r="Z627" s="3"/>
       <c r="AA627" s="3"/>
     </row>
-    <row r="628" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
         <v>1379</v>
       </c>
@@ -35635,7 +36507,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="629" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="3" t="s">
         <v>1380</v>
       </c>
@@ -35686,7 +36558,7 @@
       <c r="Z629" s="3"/>
       <c r="AA629" s="3"/>
     </row>
-    <row r="630" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
         <v>1382</v>
       </c>
@@ -35724,7 +36596,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="631" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="14" t="s">
         <v>1383</v>
       </c>
@@ -37288,7 +38160,7 @@
       <c r="K820" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <tableParts count="1">

--- a/data/treeMeasurements/TreeMeasurements.xlsx
+++ b/data/treeMeasurements/TreeMeasurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/treeMeasurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90B2FE8-163E-4E49-BFF4-5F240C22A5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E205C32-30D5-A94E-A403-1528F1DFA5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4732" uniqueCount="1453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4733" uniqueCount="1454">
   <si>
     <t>tree_ID</t>
   </si>
@@ -4395,6 +4395,9 @@
   </si>
   <si>
     <t>middle of the crown is dead; the rest is not doing great</t>
+  </si>
+  <si>
+    <t>apical shoot dead, lateral shoot measured</t>
   </si>
 </sst>
 </file>
@@ -4404,11 +4407,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4577,47 +4587,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5500,7 +5511,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y210" sqref="Y210"/>
+      <selection pane="topRight" activeCell="V402" sqref="V402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5510,27 +5521,27 @@
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="8.1640625" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" customWidth="1"/>
-    <col min="6" max="6" width="19" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" style="18" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="18" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
     <col min="14" max="14" width="16.6640625" customWidth="1"/>
-    <col min="15" max="15" width="27.5" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="14" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="21" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="24.1640625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" customWidth="1"/>
-    <col min="20" max="20" width="20" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="22.6640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="27.5" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
+    <col min="17" max="17" width="21" customWidth="1"/>
+    <col min="18" max="18" width="24.1640625" customWidth="1"/>
+    <col min="19" max="19" width="29" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
+    <col min="21" max="21" width="8.83203125" customWidth="1"/>
     <col min="22" max="22" width="18.5" customWidth="1"/>
-    <col min="23" max="23" width="19.5" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="23.1640625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5" customWidth="1"/>
+    <col min="24" max="24" width="23.1640625" customWidth="1"/>
     <col min="25" max="25" width="26.1640625" customWidth="1"/>
-    <col min="26" max="26" width="17.83203125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="17.83203125" customWidth="1"/>
     <col min="27" max="27" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -24527,7 +24538,7 @@
       </c>
       <c r="Y392" s="30"/>
       <c r="Z392" s="30"/>
-      <c r="AA392" s="30"/>
+      <c r="AA392" s="15"/>
     </row>
     <row r="393" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
@@ -25082,7 +25093,9 @@
         <v>1407</v>
       </c>
       <c r="Z402" s="17"/>
-      <c r="AA402" s="17"/>
+      <c r="AA402" s="43" t="s">
+        <v>1453</v>
+      </c>
     </row>
     <row r="403" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
@@ -38160,7 +38173,7 @@
       <c r="K820" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <tableParts count="1">

--- a/data/treeMeasurements/TreeMeasurements.xlsx
+++ b/data/treeMeasurements/TreeMeasurements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/treeMeasurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E205C32-30D5-A94E-A403-1528F1DFA5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FBA737-67BB-4349-B289-A4507622F358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4733" uniqueCount="1454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4738" uniqueCount="1455">
   <si>
     <t>tree_ID</t>
   </si>
@@ -4398,6 +4398,9 @@
   </si>
   <si>
     <t>apical shoot dead, lateral shoot measured</t>
+  </si>
+  <si>
+    <t>trunk 2 is smaller than previous year because its dead</t>
   </si>
 </sst>
 </file>
@@ -4407,11 +4410,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4587,47 +4597,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5275,7 +5286,18 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3F288811-81FB-F847-9587-99D03002EDFF}" name="Table4" displayName="Table4" ref="A1:AA631" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
-  <autoFilter ref="A1:AA631" xr:uid="{3F288811-81FB-F847-9587-99D03002EDFF}"/>
+  <autoFilter ref="A1:AA631" xr:uid="{3F288811-81FB-F847-9587-99D03002EDFF}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="betula"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{4E695CD1-C0DE-B64A-95C8-1055CDD8BF0D}" name="tree_ID" dataDxfId="26"/>
     <tableColumn id="2" xr3:uid="{F93C272E-AF95-684B-A424-2ABBF2DBEECA}" name="bloc" dataDxfId="25"/>
@@ -5511,34 +5533,34 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V402" sqref="V402"/>
+      <selection pane="topRight" activeCell="U99" sqref="U99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.1640625" customWidth="1"/>
     <col min="2" max="2" width="5.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" style="18" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" customWidth="1"/>
-    <col min="15" max="15" width="27.5" customWidth="1"/>
-    <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="17" max="17" width="21" customWidth="1"/>
-    <col min="18" max="18" width="24.1640625" customWidth="1"/>
-    <col min="19" max="19" width="29" customWidth="1"/>
-    <col min="20" max="20" width="20" customWidth="1"/>
-    <col min="21" max="21" width="8.83203125" customWidth="1"/>
-    <col min="22" max="22" width="18.5" customWidth="1"/>
-    <col min="23" max="23" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="0.33203125" customWidth="1"/>
+    <col min="6" max="6" width="1.33203125" customWidth="1"/>
+    <col min="7" max="7" width="0.6640625" customWidth="1"/>
+    <col min="8" max="8" width="0.83203125" customWidth="1"/>
+    <col min="9" max="9" width="0.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" customWidth="1"/>
+    <col min="12" max="12" width="22.5" style="18" customWidth="1"/>
+    <col min="13" max="13" width="22.83203125" customWidth="1"/>
+    <col min="14" max="14" width="0.6640625" customWidth="1"/>
+    <col min="15" max="15" width="0.1640625" customWidth="1"/>
+    <col min="16" max="16" width="21.33203125" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="19.83203125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" customWidth="1"/>
+    <col min="21" max="21" width="25.5" customWidth="1"/>
+    <col min="22" max="22" width="10.83203125" customWidth="1"/>
+    <col min="23" max="23" width="19.83203125" customWidth="1"/>
     <col min="24" max="24" width="23.1640625" customWidth="1"/>
     <col min="25" max="25" width="26.1640625" customWidth="1"/>
     <col min="26" max="26" width="17.83203125" customWidth="1"/>
@@ -5628,7 +5650,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>73</v>
       </c>
@@ -5675,7 +5697,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>77</v>
       </c>
@@ -5732,7 +5754,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>80</v>
       </c>
@@ -5779,7 +5801,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>83</v>
       </c>
@@ -5836,7 +5858,7 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
@@ -5883,7 +5905,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>88</v>
       </c>
@@ -5940,7 +5962,7 @@
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>91</v>
       </c>
@@ -5987,7 +6009,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>93</v>
       </c>
@@ -6044,7 +6066,7 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>96</v>
       </c>
@@ -6091,7 +6113,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>99</v>
       </c>
@@ -6148,7 +6170,7 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>102</v>
       </c>
@@ -6195,7 +6217,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>105</v>
       </c>
@@ -6252,7 +6274,7 @@
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>108</v>
       </c>
@@ -6299,7 +6321,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>111</v>
       </c>
@@ -6356,7 +6378,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>114</v>
       </c>
@@ -6403,7 +6425,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>117</v>
       </c>
@@ -6460,7 +6482,7 @@
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
     </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>119</v>
       </c>
@@ -6507,7 +6529,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>122</v>
       </c>
@@ -6564,7 +6586,7 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
     </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>125</v>
       </c>
@@ -6611,7 +6633,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>128</v>
       </c>
@@ -6668,7 +6690,7 @@
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
     </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>131</v>
       </c>
@@ -6715,7 +6737,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>134</v>
       </c>
@@ -6772,7 +6794,7 @@
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
     </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>137</v>
       </c>
@@ -6819,7 +6841,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>140</v>
       </c>
@@ -6876,7 +6898,7 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
     </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>143</v>
       </c>
@@ -6923,7 +6945,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>146</v>
       </c>
@@ -6980,7 +7002,7 @@
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
     </row>
-    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>149</v>
       </c>
@@ -7027,7 +7049,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>152</v>
       </c>
@@ -7086,7 +7108,7 @@
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
     </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>155</v>
       </c>
@@ -7133,7 +7155,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>158</v>
       </c>
@@ -7190,7 +7212,7 @@
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
     </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>161</v>
       </c>
@@ -7237,7 +7259,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>164</v>
       </c>
@@ -7294,7 +7316,7 @@
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
     </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>166</v>
       </c>
@@ -7341,7 +7363,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>168</v>
       </c>
@@ -7398,7 +7420,7 @@
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
     </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>171</v>
       </c>
@@ -7445,7 +7467,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>174</v>
       </c>
@@ -7502,7 +7524,7 @@
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
     </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>177</v>
       </c>
@@ -7549,7 +7571,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>178</v>
       </c>
@@ -7606,7 +7628,7 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
     </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>180</v>
       </c>
@@ -7653,7 +7675,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>182</v>
       </c>
@@ -7710,7 +7732,7 @@
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
     </row>
-    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>184</v>
       </c>
@@ -7757,7 +7779,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>187</v>
       </c>
@@ -7814,7 +7836,7 @@
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
     </row>
-    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>190</v>
       </c>
@@ -7861,7 +7883,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>193</v>
       </c>
@@ -7918,7 +7940,7 @@
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
     </row>
-    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>195</v>
       </c>
@@ -7965,7 +7987,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>198</v>
       </c>
@@ -8022,7 +8044,7 @@
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
     </row>
-    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>201</v>
       </c>
@@ -8069,7 +8091,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>204</v>
       </c>
@@ -8126,7 +8148,7 @@
       <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
     </row>
-    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>207</v>
       </c>
@@ -8173,7 +8195,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>210</v>
       </c>
@@ -8230,7 +8252,7 @@
       <c r="Z51" s="3"/>
       <c r="AA51" s="3"/>
     </row>
-    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>213</v>
       </c>
@@ -8277,7 +8299,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>216</v>
       </c>
@@ -8334,7 +8356,7 @@
       <c r="Z53" s="3"/>
       <c r="AA53" s="3"/>
     </row>
-    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>219</v>
       </c>
@@ -8381,7 +8403,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>221</v>
       </c>
@@ -8438,7 +8460,7 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
     </row>
-    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>224</v>
       </c>
@@ -8485,7 +8507,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>227</v>
       </c>
@@ -8542,7 +8564,7 @@
       <c r="Z57" s="3"/>
       <c r="AA57" s="3"/>
     </row>
-    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>229</v>
       </c>
@@ -8589,7 +8611,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>231</v>
       </c>
@@ -8646,7 +8668,7 @@
       <c r="Z59" s="3"/>
       <c r="AA59" s="3"/>
     </row>
-    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>234</v>
       </c>
@@ -8696,7 +8718,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>235</v>
       </c>
@@ -8753,7 +8775,7 @@
       <c r="Z61" s="3"/>
       <c r="AA61" s="15"/>
     </row>
-    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>236</v>
       </c>
@@ -8800,7 +8822,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>239</v>
       </c>
@@ -8857,7 +8879,7 @@
       <c r="Z63" s="3"/>
       <c r="AA63" s="3"/>
     </row>
-    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>242</v>
       </c>
@@ -8904,7 +8926,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>245</v>
       </c>
@@ -8961,7 +8983,7 @@
       <c r="Z65" s="3"/>
       <c r="AA65" s="3"/>
     </row>
-    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>248</v>
       </c>
@@ -9008,7 +9030,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>251</v>
       </c>
@@ -9065,7 +9087,7 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
     </row>
-    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>252</v>
       </c>
@@ -9112,7 +9134,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>255</v>
       </c>
@@ -9169,7 +9191,7 @@
       <c r="Z69" s="3"/>
       <c r="AA69" s="3"/>
     </row>
-    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>256</v>
       </c>
@@ -9216,7 +9238,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>259</v>
       </c>
@@ -9273,7 +9295,7 @@
       <c r="Z71" s="3"/>
       <c r="AA71" s="3"/>
     </row>
-    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>262</v>
       </c>
@@ -9320,7 +9342,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>264</v>
       </c>
@@ -9377,7 +9399,7 @@
       <c r="Z73" s="3"/>
       <c r="AA73" s="3"/>
     </row>
-    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>267</v>
       </c>
@@ -9424,7 +9446,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>270</v>
       </c>
@@ -9481,7 +9503,7 @@
       <c r="Z75" s="3"/>
       <c r="AA75" s="3"/>
     </row>
-    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>273</v>
       </c>
@@ -9531,7 +9553,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>276</v>
       </c>
@@ -9588,7 +9610,7 @@
       <c r="Z77" s="3"/>
       <c r="AA77" s="3"/>
     </row>
-    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>279</v>
       </c>
@@ -9635,7 +9657,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>282</v>
       </c>
@@ -9692,7 +9714,7 @@
       <c r="Z79" s="3"/>
       <c r="AA79" s="3"/>
     </row>
-    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>285</v>
       </c>
@@ -9739,7 +9761,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>288</v>
       </c>
@@ -9796,7 +9818,7 @@
       <c r="Z81" s="3"/>
       <c r="AA81" s="3"/>
     </row>
-    <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>291</v>
       </c>
@@ -9843,7 +9865,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>294</v>
       </c>
@@ -9900,7 +9922,7 @@
       <c r="Z83" s="3"/>
       <c r="AA83" s="3"/>
     </row>
-    <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>296</v>
       </c>
@@ -9947,7 +9969,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>298</v>
       </c>
@@ -10004,7 +10026,7 @@
       <c r="Z85" s="3"/>
       <c r="AA85" s="3"/>
     </row>
-    <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>300</v>
       </c>
@@ -10051,7 +10073,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>303</v>
       </c>
@@ -10108,7 +10130,7 @@
       <c r="Z87" s="3"/>
       <c r="AA87" s="3"/>
     </row>
-    <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>305</v>
       </c>
@@ -10155,7 +10177,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>308</v>
       </c>
@@ -10212,7 +10234,7 @@
       <c r="Z89" s="3"/>
       <c r="AA89" s="3"/>
     </row>
-    <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>310</v>
       </c>
@@ -10259,7 +10281,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>313</v>
       </c>
@@ -10316,7 +10338,7 @@
       <c r="Z91" s="3"/>
       <c r="AA91" s="3"/>
     </row>
-    <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>401</v>
       </c>
@@ -10353,8 +10375,11 @@
       <c r="P92">
         <v>37</v>
       </c>
-    </row>
-    <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T92">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>405</v>
       </c>
@@ -10396,7 +10421,9 @@
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
       <c r="S93" s="3"/>
-      <c r="T93" s="3"/>
+      <c r="T93" s="3">
+        <v>9.0299999999999994</v>
+      </c>
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>
@@ -10405,7 +10432,7 @@
       <c r="Z93" s="3"/>
       <c r="AA93" s="3"/>
     </row>
-    <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>407</v>
       </c>
@@ -10442,8 +10469,11 @@
       <c r="P94">
         <v>37</v>
       </c>
-    </row>
-    <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T94">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>409</v>
       </c>
@@ -10493,8 +10523,12 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-      <c r="T95" s="3"/>
-      <c r="U95" s="3"/>
+      <c r="T95" s="3">
+        <v>7.54</v>
+      </c>
+      <c r="U95" s="3">
+        <v>11.15</v>
+      </c>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
@@ -10502,7 +10536,7 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
     </row>
-    <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>413</v>
       </c>
@@ -10539,6 +10573,9 @@
       <c r="P96">
         <v>37</v>
       </c>
+      <c r="T96">
+        <v>8.65</v>
+      </c>
     </row>
     <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
@@ -10582,7 +10619,9 @@
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
       <c r="S97" s="3"/>
-      <c r="T97" s="3"/>
+      <c r="T97" s="3">
+        <v>10.93</v>
+      </c>
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
@@ -10628,6 +10667,9 @@
       <c r="P98">
         <v>37</v>
       </c>
+      <c r="T98">
+        <v>9.7200000000000006</v>
+      </c>
     </row>
     <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
@@ -10671,7 +10713,9 @@
       <c r="Q99" s="3"/>
       <c r="R99" s="3"/>
       <c r="S99" s="3"/>
-      <c r="T99" s="3"/>
+      <c r="T99" s="3">
+        <v>13.89</v>
+      </c>
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
       <c r="W99" s="3"/>
@@ -10717,6 +10761,9 @@
       <c r="P100">
         <v>37</v>
       </c>
+      <c r="T100">
+        <v>10.23</v>
+      </c>
     </row>
     <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
@@ -10760,7 +10807,9 @@
       <c r="Q101" s="3"/>
       <c r="R101" s="3"/>
       <c r="S101" s="3"/>
-      <c r="T101" s="3"/>
+      <c r="T101" s="3">
+        <v>9.2899999999999991</v>
+      </c>
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
       <c r="W101" s="3"/>
@@ -10769,7 +10818,7 @@
       <c r="Z101" s="3"/>
       <c r="AA101" s="3"/>
     </row>
-    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>431</v>
       </c>
@@ -10817,7 +10866,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>436</v>
       </c>
@@ -10868,7 +10917,7 @@
       <c r="Z103" s="3"/>
       <c r="AA103" s="3"/>
     </row>
-    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>439</v>
       </c>
@@ -10906,7 +10955,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>442</v>
       </c>
@@ -10965,7 +11014,7 @@
       <c r="Z105" s="3"/>
       <c r="AA105" s="3"/>
     </row>
-    <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>446</v>
       </c>
@@ -11013,7 +11062,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>448</v>
       </c>
@@ -11055,7 +11104,9 @@
       <c r="Q107" s="3"/>
       <c r="R107" s="3"/>
       <c r="S107" s="3"/>
-      <c r="T107" s="3"/>
+      <c r="T107" s="3">
+        <v>12.17</v>
+      </c>
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
       <c r="W107" s="3"/>
@@ -11064,7 +11115,7 @@
       <c r="Z107" s="3"/>
       <c r="AA107" s="3"/>
     </row>
-    <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>450</v>
       </c>
@@ -11101,8 +11152,11 @@
       <c r="P108">
         <v>37</v>
       </c>
-    </row>
-    <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T108">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>453</v>
       </c>
@@ -11144,7 +11198,9 @@
       <c r="Q109" s="3"/>
       <c r="R109" s="3"/>
       <c r="S109" s="3"/>
-      <c r="T109" s="3"/>
+      <c r="T109" s="3">
+        <v>11.08</v>
+      </c>
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
       <c r="W109" s="3"/>
@@ -11153,7 +11209,7 @@
       <c r="Z109" s="3"/>
       <c r="AA109" s="3"/>
     </row>
-    <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>456</v>
       </c>
@@ -11200,8 +11256,14 @@
       <c r="P110">
         <v>37</v>
       </c>
-    </row>
-    <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T110">
+        <v>7.7</v>
+      </c>
+      <c r="U110">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>459</v>
       </c>
@@ -11243,7 +11305,9 @@
       <c r="Q111" s="3"/>
       <c r="R111" s="3"/>
       <c r="S111" s="3"/>
-      <c r="T111" s="3"/>
+      <c r="T111" s="3">
+        <v>9.09</v>
+      </c>
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
       <c r="W111" s="3"/>
@@ -11289,6 +11353,9 @@
       <c r="P112">
         <v>37</v>
       </c>
+      <c r="T112">
+        <v>10.77</v>
+      </c>
     </row>
     <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
@@ -11332,7 +11399,9 @@
       <c r="Q113" s="3"/>
       <c r="R113" s="3"/>
       <c r="S113" s="3"/>
-      <c r="T113" s="3"/>
+      <c r="T113" s="3">
+        <v>13.08</v>
+      </c>
       <c r="U113" s="3"/>
       <c r="V113" s="3"/>
       <c r="W113" s="3"/>
@@ -11378,6 +11447,9 @@
       <c r="P114">
         <v>37</v>
       </c>
+      <c r="T114">
+        <v>8.5299999999999994</v>
+      </c>
     </row>
     <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
@@ -11421,7 +11493,9 @@
       <c r="Q115" s="3"/>
       <c r="R115" s="3"/>
       <c r="S115" s="3"/>
-      <c r="T115" s="3"/>
+      <c r="T115" s="3">
+        <v>9.0299999999999994</v>
+      </c>
       <c r="U115" s="3"/>
       <c r="V115" s="3"/>
       <c r="W115" s="3"/>
@@ -11467,8 +11541,11 @@
       <c r="P116">
         <v>37</v>
       </c>
-    </row>
-    <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T116">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>473</v>
       </c>
@@ -11519,7 +11596,7 @@
       <c r="Z117" s="3"/>
       <c r="AA117" s="3"/>
     </row>
-    <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>476</v>
       </c>
@@ -11557,7 +11634,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>478</v>
       </c>
@@ -11614,7 +11691,7 @@
       <c r="Z119" s="3"/>
       <c r="AA119" s="3"/>
     </row>
-    <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>481</v>
       </c>
@@ -11652,7 +11729,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>483</v>
       </c>
@@ -11703,7 +11780,7 @@
       <c r="Z121" s="3"/>
       <c r="AA121" s="3"/>
     </row>
-    <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>486</v>
       </c>
@@ -11740,8 +11817,11 @@
       <c r="P122">
         <v>37</v>
       </c>
-    </row>
-    <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T122">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>488</v>
       </c>
@@ -11783,7 +11863,9 @@
       <c r="Q123" s="3"/>
       <c r="R123" s="3"/>
       <c r="S123" s="3"/>
-      <c r="T123" s="3"/>
+      <c r="T123" s="3">
+        <v>8.52</v>
+      </c>
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
       <c r="W123" s="3"/>
@@ -11792,7 +11874,7 @@
       <c r="Z123" s="3"/>
       <c r="AA123" s="3"/>
     </row>
-    <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>491</v>
       </c>
@@ -11829,8 +11911,11 @@
       <c r="P124">
         <v>37</v>
       </c>
-    </row>
-    <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T124">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>493</v>
       </c>
@@ -11872,7 +11957,9 @@
       <c r="Q125" s="3"/>
       <c r="R125" s="3"/>
       <c r="S125" s="3"/>
-      <c r="T125" s="3"/>
+      <c r="T125" s="3">
+        <v>10.49</v>
+      </c>
       <c r="U125" s="3"/>
       <c r="V125" s="3"/>
       <c r="W125" s="3"/>
@@ -11881,7 +11968,7 @@
       <c r="Z125" s="3"/>
       <c r="AA125" s="3"/>
     </row>
-    <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>495</v>
       </c>
@@ -11925,6 +12012,9 @@
       <c r="P126">
         <v>37</v>
       </c>
+      <c r="T126">
+        <v>7.37</v>
+      </c>
     </row>
     <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
@@ -11968,7 +12058,9 @@
       <c r="Q127" s="3"/>
       <c r="R127" s="3"/>
       <c r="S127" s="3"/>
-      <c r="T127" s="3"/>
+      <c r="T127" s="3">
+        <v>12.18</v>
+      </c>
       <c r="U127" s="3"/>
       <c r="V127" s="3"/>
       <c r="W127" s="3"/>
@@ -12014,6 +12106,9 @@
       <c r="P128">
         <v>37</v>
       </c>
+      <c r="T128">
+        <v>10.93</v>
+      </c>
     </row>
     <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
@@ -12057,7 +12152,9 @@
       <c r="Q129" s="3"/>
       <c r="R129" s="3"/>
       <c r="S129" s="3"/>
-      <c r="T129" s="3"/>
+      <c r="T129" s="3">
+        <v>9.91</v>
+      </c>
       <c r="U129" s="3"/>
       <c r="V129" s="3"/>
       <c r="W129" s="3"/>
@@ -12103,6 +12200,9 @@
       <c r="P130">
         <v>37</v>
       </c>
+      <c r="T130">
+        <v>13.66</v>
+      </c>
     </row>
     <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
@@ -12146,7 +12246,9 @@
       <c r="Q131" s="3"/>
       <c r="R131" s="3"/>
       <c r="S131" s="3"/>
-      <c r="T131" s="3"/>
+      <c r="T131" s="3">
+        <v>9.4700000000000006</v>
+      </c>
       <c r="U131" s="3"/>
       <c r="V131" s="3"/>
       <c r="W131" s="3"/>
@@ -12155,7 +12257,7 @@
       <c r="Z131" s="3"/>
       <c r="AA131" s="3"/>
     </row>
-    <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>513</v>
       </c>
@@ -12203,7 +12305,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>516</v>
       </c>
@@ -12262,7 +12364,7 @@
       <c r="Z133" s="3"/>
       <c r="AA133" s="3"/>
     </row>
-    <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>520</v>
       </c>
@@ -12300,7 +12402,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>522</v>
       </c>
@@ -12351,7 +12453,7 @@
       <c r="Z135" s="3"/>
       <c r="AA135" s="3"/>
     </row>
-    <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>524</v>
       </c>
@@ -12402,7 +12504,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>527</v>
       </c>
@@ -12444,7 +12546,9 @@
       <c r="Q137" s="3"/>
       <c r="R137" s="3"/>
       <c r="S137" s="3"/>
-      <c r="T137" s="3"/>
+      <c r="T137" s="3">
+        <v>9.81</v>
+      </c>
       <c r="U137" s="3"/>
       <c r="V137" s="3"/>
       <c r="W137" s="3"/>
@@ -12453,7 +12557,7 @@
       <c r="Z137" s="3"/>
       <c r="AA137" s="3"/>
     </row>
-    <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>530</v>
       </c>
@@ -12500,8 +12604,14 @@
       <c r="P138">
         <v>37</v>
       </c>
-    </row>
-    <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T138">
+        <v>5.63</v>
+      </c>
+      <c r="U138">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>533</v>
       </c>
@@ -12543,7 +12653,9 @@
       <c r="Q139" s="3"/>
       <c r="R139" s="3"/>
       <c r="S139" s="3"/>
-      <c r="T139" s="3"/>
+      <c r="T139" s="3">
+        <v>10.24</v>
+      </c>
       <c r="U139" s="3"/>
       <c r="V139" s="3"/>
       <c r="W139" s="3"/>
@@ -12552,7 +12664,7 @@
       <c r="Z139" s="3"/>
       <c r="AA139" s="3"/>
     </row>
-    <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>536</v>
       </c>
@@ -12599,8 +12711,14 @@
       <c r="P140">
         <v>37</v>
       </c>
-    </row>
-    <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T140">
+        <v>11.13</v>
+      </c>
+      <c r="U140">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>541</v>
       </c>
@@ -12642,7 +12760,9 @@
       <c r="Q141" s="3"/>
       <c r="R141" s="3"/>
       <c r="S141" s="3"/>
-      <c r="T141" s="3"/>
+      <c r="T141" s="3">
+        <v>12.72</v>
+      </c>
       <c r="U141" s="3"/>
       <c r="V141" s="3"/>
       <c r="W141" s="3"/>
@@ -12688,6 +12808,9 @@
       <c r="P142">
         <v>37</v>
       </c>
+      <c r="T142">
+        <v>9.42</v>
+      </c>
     </row>
     <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
@@ -12731,7 +12854,9 @@
       <c r="Q143" s="3"/>
       <c r="R143" s="3"/>
       <c r="S143" s="3"/>
-      <c r="T143" s="3"/>
+      <c r="T143" s="3">
+        <v>9.2100000000000009</v>
+      </c>
       <c r="U143" s="3"/>
       <c r="V143" s="3"/>
       <c r="W143" s="3"/>
@@ -12777,6 +12902,9 @@
       <c r="P144">
         <v>37</v>
       </c>
+      <c r="T144">
+        <v>12.78</v>
+      </c>
     </row>
     <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
@@ -12828,8 +12956,12 @@
       <c r="Q145" s="3"/>
       <c r="R145" s="3"/>
       <c r="S145" s="3"/>
-      <c r="T145" s="3"/>
-      <c r="U145" s="3"/>
+      <c r="T145" s="3">
+        <v>13.08</v>
+      </c>
+      <c r="U145" s="3">
+        <v>3.52</v>
+      </c>
       <c r="V145" s="3"/>
       <c r="W145" s="3"/>
       <c r="X145" s="3"/>
@@ -12874,8 +13006,11 @@
       <c r="P146">
         <v>37</v>
       </c>
-    </row>
-    <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T146">
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>561</v>
       </c>
@@ -12926,7 +13061,7 @@
       <c r="Z147" s="3"/>
       <c r="AA147" s="3"/>
     </row>
-    <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>564</v>
       </c>
@@ -12964,7 +13099,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>566</v>
       </c>
@@ -13015,7 +13150,7 @@
       <c r="Z149" s="3"/>
       <c r="AA149" s="3"/>
     </row>
-    <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>569</v>
       </c>
@@ -13066,7 +13201,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>574</v>
       </c>
@@ -13117,7 +13252,7 @@
       <c r="Z151" s="3"/>
       <c r="AA151" s="3"/>
     </row>
-    <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>577</v>
       </c>
@@ -13154,8 +13289,11 @@
       <c r="P152">
         <v>37</v>
       </c>
-    </row>
-    <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T152">
+        <v>12.49</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>580</v>
       </c>
@@ -13197,7 +13335,9 @@
       <c r="Q153" s="3"/>
       <c r="R153" s="3"/>
       <c r="S153" s="3"/>
-      <c r="T153" s="3"/>
+      <c r="T153" s="3">
+        <v>9.89</v>
+      </c>
       <c r="U153" s="3"/>
       <c r="V153" s="3"/>
       <c r="W153" s="3"/>
@@ -13206,7 +13346,7 @@
       <c r="Z153" s="3"/>
       <c r="AA153" s="3"/>
     </row>
-    <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>583</v>
       </c>
@@ -13243,8 +13383,11 @@
       <c r="P154">
         <v>37</v>
       </c>
-    </row>
-    <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T154">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>586</v>
       </c>
@@ -13294,16 +13437,22 @@
       <c r="Q155" s="3"/>
       <c r="R155" s="3"/>
       <c r="S155" s="3"/>
-      <c r="T155" s="3"/>
-      <c r="U155" s="3"/>
+      <c r="T155" s="3">
+        <v>8.11</v>
+      </c>
+      <c r="U155" s="3" t="s">
+        <v>1386</v>
+      </c>
       <c r="V155" s="3"/>
       <c r="W155" s="3"/>
       <c r="X155" s="3"/>
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
-      <c r="AA155" s="3"/>
-    </row>
-    <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA155" s="3" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>590</v>
       </c>
@@ -13340,6 +13489,9 @@
       <c r="P156">
         <v>37</v>
       </c>
+      <c r="T156">
+        <v>15.19</v>
+      </c>
     </row>
     <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
@@ -13383,7 +13535,9 @@
       <c r="Q157" s="3"/>
       <c r="R157" s="3"/>
       <c r="S157" s="3"/>
-      <c r="T157" s="3"/>
+      <c r="T157" s="3">
+        <v>13.04</v>
+      </c>
       <c r="U157" s="3"/>
       <c r="V157" s="3"/>
       <c r="W157" s="3"/>
@@ -13429,6 +13583,9 @@
       <c r="P158">
         <v>37</v>
       </c>
+      <c r="T158">
+        <v>11.3</v>
+      </c>
     </row>
     <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
@@ -13472,7 +13629,9 @@
       <c r="Q159" s="3"/>
       <c r="R159" s="3"/>
       <c r="S159" s="3"/>
-      <c r="T159" s="3"/>
+      <c r="T159" s="3">
+        <v>10.29</v>
+      </c>
       <c r="U159" s="3"/>
       <c r="V159" s="3"/>
       <c r="W159" s="3"/>
@@ -13518,6 +13677,9 @@
       <c r="P160">
         <v>37</v>
       </c>
+      <c r="T160">
+        <v>13.62</v>
+      </c>
     </row>
     <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
@@ -13561,7 +13723,9 @@
       <c r="Q161" s="3"/>
       <c r="R161" s="3"/>
       <c r="S161" s="3"/>
-      <c r="T161" s="3"/>
+      <c r="T161" s="3">
+        <v>8.89</v>
+      </c>
       <c r="U161" s="3"/>
       <c r="V161" s="3"/>
       <c r="W161" s="3"/>
@@ -13570,7 +13734,7 @@
       <c r="Z161" s="3"/>
       <c r="AA161" s="3"/>
     </row>
-    <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>607</v>
       </c>
@@ -13608,7 +13772,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>610</v>
       </c>
@@ -13667,7 +13831,7 @@
       <c r="Z163" s="3"/>
       <c r="AA163" s="3"/>
     </row>
-    <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>614</v>
       </c>
@@ -13715,7 +13879,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>617</v>
       </c>
@@ -13766,7 +13930,7 @@
       <c r="Z165" s="3"/>
       <c r="AA165" s="3"/>
     </row>
-    <row r="166" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>620</v>
       </c>
@@ -13804,7 +13968,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>622</v>
       </c>
@@ -13854,8 +14018,12 @@
       <c r="Q167" s="3"/>
       <c r="R167" s="3"/>
       <c r="S167" s="3"/>
-      <c r="T167" s="3"/>
-      <c r="U167" s="3"/>
+      <c r="T167" s="3">
+        <v>10.19</v>
+      </c>
+      <c r="U167" s="3">
+        <v>6.33</v>
+      </c>
       <c r="V167" s="3"/>
       <c r="W167" s="3"/>
       <c r="X167" s="3"/>
@@ -13863,7 +14031,7 @@
       <c r="Z167" s="3"/>
       <c r="AA167" s="3"/>
     </row>
-    <row r="168" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>624</v>
       </c>
@@ -13900,8 +14068,11 @@
       <c r="P168">
         <v>37</v>
       </c>
-    </row>
-    <row r="169" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T168">
+        <v>7.73</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>627</v>
       </c>
@@ -13951,8 +14122,12 @@
       <c r="Q169" s="3"/>
       <c r="R169" s="3"/>
       <c r="S169" s="3"/>
-      <c r="T169" s="3"/>
-      <c r="U169" s="3"/>
+      <c r="T169" s="3">
+        <v>11.57</v>
+      </c>
+      <c r="U169" s="3">
+        <v>7.86</v>
+      </c>
       <c r="V169" s="3"/>
       <c r="W169" s="3"/>
       <c r="X169" s="3"/>
@@ -13960,7 +14135,7 @@
       <c r="Z169" s="3"/>
       <c r="AA169" s="3"/>
     </row>
-    <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>632</v>
       </c>
@@ -13997,8 +14172,11 @@
       <c r="P170">
         <v>37</v>
       </c>
-    </row>
-    <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T170">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>635</v>
       </c>
@@ -14040,7 +14218,9 @@
       <c r="Q171" s="3"/>
       <c r="R171" s="3"/>
       <c r="S171" s="3"/>
-      <c r="T171" s="3"/>
+      <c r="T171" s="3">
+        <v>11.27</v>
+      </c>
       <c r="U171" s="3"/>
       <c r="V171" s="3"/>
       <c r="W171" s="3"/>
@@ -14096,6 +14276,12 @@
       <c r="P172">
         <v>37</v>
       </c>
+      <c r="T172">
+        <v>5.49</v>
+      </c>
+      <c r="U172">
+        <v>6.34</v>
+      </c>
     </row>
     <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
@@ -14139,7 +14325,9 @@
       <c r="Q173" s="3"/>
       <c r="R173" s="3"/>
       <c r="S173" s="3"/>
-      <c r="T173" s="3"/>
+      <c r="T173" s="3">
+        <v>9.32</v>
+      </c>
       <c r="U173" s="3"/>
       <c r="V173" s="3"/>
       <c r="W173" s="3"/>
@@ -14195,6 +14383,12 @@
       <c r="P174">
         <v>37</v>
       </c>
+      <c r="T174">
+        <v>6.6</v>
+      </c>
+      <c r="U174">
+        <v>5.0199999999999996</v>
+      </c>
     </row>
     <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
@@ -14238,7 +14432,9 @@
       <c r="Q175" s="3"/>
       <c r="R175" s="3"/>
       <c r="S175" s="3"/>
-      <c r="T175" s="3"/>
+      <c r="T175" s="3">
+        <v>13.14</v>
+      </c>
       <c r="U175" s="3"/>
       <c r="V175" s="3"/>
       <c r="W175" s="3"/>
@@ -14284,8 +14480,11 @@
       <c r="P176">
         <v>37</v>
       </c>
-    </row>
-    <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T176">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>653</v>
       </c>
@@ -14336,7 +14535,7 @@
       <c r="Z177" s="3"/>
       <c r="AA177" s="3"/>
     </row>
-    <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>656</v>
       </c>
@@ -14374,7 +14573,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>659</v>
       </c>
@@ -14425,7 +14624,7 @@
       <c r="Z179" s="3"/>
       <c r="AA179" s="3"/>
     </row>
-    <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>662</v>
       </c>
@@ -14463,7 +14662,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>664</v>
       </c>
@@ -14514,7 +14713,7 @@
       <c r="Z181" s="3"/>
       <c r="AA181" s="3"/>
     </row>
-    <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>666</v>
       </c>
@@ -14551,11 +14750,17 @@
       <c r="P182">
         <v>37</v>
       </c>
+      <c r="T182">
+        <v>16.98</v>
+      </c>
       <c r="V182">
         <v>69.599999999999994</v>
       </c>
-    </row>
-    <row r="183" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X182">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="183" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>669</v>
       </c>
@@ -14597,18 +14802,22 @@
       <c r="Q183" s="3"/>
       <c r="R183" s="3"/>
       <c r="S183" s="3"/>
-      <c r="T183" s="3"/>
+      <c r="T183" s="3">
+        <v>14.13</v>
+      </c>
       <c r="U183" s="3"/>
       <c r="V183" s="3">
         <v>67</v>
       </c>
       <c r="W183" s="3"/>
-      <c r="X183" s="3"/>
+      <c r="X183">
+        <v>313</v>
+      </c>
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
       <c r="AA183" s="3"/>
     </row>
-    <row r="184" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>671</v>
       </c>
@@ -14645,11 +14854,17 @@
       <c r="P184">
         <v>37</v>
       </c>
+      <c r="T184">
+        <v>11.54</v>
+      </c>
       <c r="V184">
         <v>43.1</v>
       </c>
-    </row>
-    <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X184">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="185" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>674</v>
       </c>
@@ -14691,18 +14906,22 @@
       <c r="Q185" s="3"/>
       <c r="R185" s="3"/>
       <c r="S185" s="3"/>
-      <c r="T185" s="3"/>
+      <c r="T185" s="3">
+        <v>6.82</v>
+      </c>
       <c r="U185" s="3"/>
       <c r="V185" s="3">
         <v>21.9</v>
       </c>
       <c r="W185" s="3"/>
-      <c r="X185" s="3"/>
+      <c r="X185">
+        <v>313</v>
+      </c>
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
       <c r="AA185" s="3"/>
     </row>
-    <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>677</v>
       </c>
@@ -14739,11 +14958,17 @@
       <c r="P186">
         <v>37</v>
       </c>
+      <c r="T186">
+        <v>14.5</v>
+      </c>
       <c r="V186">
         <v>58.9</v>
       </c>
-    </row>
-    <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X186">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="187" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>678</v>
       </c>
@@ -14784,17 +15009,23 @@
       </c>
       <c r="Q187" s="3"/>
       <c r="R187" s="3"/>
-      <c r="S187" s="3"/>
-      <c r="T187" s="3"/>
+      <c r="S187" s="15"/>
+      <c r="T187">
+        <v>9.7799999999999994</v>
+      </c>
       <c r="U187" s="3"/>
-      <c r="V187" s="3"/>
+      <c r="V187" s="3">
+        <v>48.6</v>
+      </c>
       <c r="W187" s="3"/>
-      <c r="X187" s="3"/>
+      <c r="X187" s="3">
+        <v>317</v>
+      </c>
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
       <c r="AA187" s="3"/>
     </row>
-    <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>680</v>
       </c>
@@ -14831,8 +15062,18 @@
       <c r="P188">
         <v>37</v>
       </c>
-    </row>
-    <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S188" s="15"/>
+      <c r="T188" s="15">
+        <v>9.14</v>
+      </c>
+      <c r="V188">
+        <v>35.1</v>
+      </c>
+      <c r="X188" s="3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="189" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>682</v>
       </c>
@@ -14874,16 +15115,22 @@
       <c r="Q189" s="3"/>
       <c r="R189" s="3"/>
       <c r="S189" s="3"/>
-      <c r="T189" s="3"/>
+      <c r="T189" s="3">
+        <v>12.47</v>
+      </c>
       <c r="U189" s="3"/>
-      <c r="V189" s="3"/>
+      <c r="V189" s="3">
+        <v>44</v>
+      </c>
       <c r="W189" s="3"/>
-      <c r="X189" s="3"/>
+      <c r="X189" s="3">
+        <v>317</v>
+      </c>
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
       <c r="AA189" s="3"/>
     </row>
-    <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>684</v>
       </c>
@@ -14920,8 +15167,17 @@
       <c r="P190">
         <v>37</v>
       </c>
-    </row>
-    <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T190">
+        <v>13.3</v>
+      </c>
+      <c r="V190">
+        <v>53.1</v>
+      </c>
+      <c r="X190" s="3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="191" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>685</v>
       </c>
@@ -14963,16 +15219,22 @@
       <c r="Q191" s="3"/>
       <c r="R191" s="3"/>
       <c r="S191" s="3"/>
-      <c r="T191" s="3"/>
+      <c r="T191" s="3">
+        <v>14.74</v>
+      </c>
       <c r="U191" s="3"/>
-      <c r="V191" s="3"/>
+      <c r="V191" s="3">
+        <v>49.4</v>
+      </c>
       <c r="W191" s="3"/>
-      <c r="X191" s="3"/>
+      <c r="X191" s="3">
+        <v>317</v>
+      </c>
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
       <c r="AA191" s="3"/>
     </row>
-    <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>688</v>
       </c>
@@ -15009,11 +15271,17 @@
       <c r="P192">
         <v>57</v>
       </c>
+      <c r="T192">
+        <v>13.16</v>
+      </c>
       <c r="V192">
         <v>48.6</v>
       </c>
-    </row>
-    <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X192">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>690</v>
       </c>
@@ -15055,18 +15323,22 @@
       <c r="Q193" s="3"/>
       <c r="R193" s="3"/>
       <c r="S193" s="3"/>
-      <c r="T193" s="3"/>
+      <c r="T193" s="3">
+        <v>12.92</v>
+      </c>
       <c r="U193" s="3"/>
       <c r="V193" s="3">
         <v>42.1</v>
       </c>
       <c r="W193" s="3"/>
-      <c r="X193" s="3"/>
+      <c r="X193">
+        <v>313</v>
+      </c>
       <c r="Y193" s="3"/>
       <c r="Z193" s="3"/>
       <c r="AA193" s="3"/>
     </row>
-    <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>693</v>
       </c>
@@ -15103,11 +15375,17 @@
       <c r="P194">
         <v>57</v>
       </c>
+      <c r="T194">
+        <v>13.46</v>
+      </c>
       <c r="V194">
         <v>45.2</v>
       </c>
-    </row>
-    <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X194">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>696</v>
       </c>
@@ -15149,18 +15427,22 @@
       <c r="Q195" s="3"/>
       <c r="R195" s="3"/>
       <c r="S195" s="3"/>
-      <c r="T195" s="3"/>
+      <c r="T195" s="3">
+        <v>7.36</v>
+      </c>
       <c r="U195" s="3"/>
       <c r="V195" s="3">
         <v>17.100000000000001</v>
       </c>
       <c r="W195" s="3"/>
-      <c r="X195" s="3"/>
+      <c r="X195">
+        <v>313</v>
+      </c>
       <c r="Y195" s="3"/>
       <c r="Z195" s="3"/>
       <c r="AA195" s="3"/>
     </row>
-    <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>697</v>
       </c>
@@ -15197,11 +15479,17 @@
       <c r="P196">
         <v>57</v>
       </c>
+      <c r="T196">
+        <v>14.52</v>
+      </c>
       <c r="V196">
         <v>58.3</v>
       </c>
-    </row>
-    <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X196">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="197" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>699</v>
       </c>
@@ -15243,18 +15531,22 @@
       <c r="Q197" s="3"/>
       <c r="R197" s="3"/>
       <c r="S197" s="3"/>
-      <c r="T197" s="3"/>
+      <c r="T197" s="3">
+        <v>10.029999999999999</v>
+      </c>
       <c r="U197" s="3"/>
       <c r="V197" s="3">
         <v>38.299999999999997</v>
       </c>
       <c r="W197" s="3"/>
-      <c r="X197" s="3"/>
+      <c r="X197">
+        <v>313</v>
+      </c>
       <c r="Y197" s="3"/>
       <c r="Z197" s="3"/>
       <c r="AA197" s="42"/>
     </row>
-    <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>700</v>
       </c>
@@ -15291,14 +15583,20 @@
       <c r="P198">
         <v>37</v>
       </c>
+      <c r="T198">
+        <v>10.98</v>
+      </c>
       <c r="V198">
         <v>38.6</v>
       </c>
+      <c r="X198">
+        <v>313</v>
+      </c>
       <c r="AA198" s="42" t="s">
         <v>1450</v>
       </c>
     </row>
-    <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>702</v>
       </c>
@@ -15340,18 +15638,22 @@
       <c r="Q199" s="3"/>
       <c r="R199" s="3"/>
       <c r="S199" s="3"/>
-      <c r="T199" s="3"/>
+      <c r="T199" s="3">
+        <v>17.059999999999999</v>
+      </c>
       <c r="U199" s="3"/>
       <c r="V199" s="3">
         <v>60.9</v>
       </c>
       <c r="W199" s="3"/>
-      <c r="X199" s="3"/>
+      <c r="X199">
+        <v>313</v>
+      </c>
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
       <c r="AA199" s="3"/>
     </row>
-    <row r="200" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>705</v>
       </c>
@@ -15388,11 +15690,17 @@
       <c r="P200">
         <v>37</v>
       </c>
+      <c r="T200">
+        <v>9.48</v>
+      </c>
       <c r="V200">
         <v>28.7</v>
       </c>
-    </row>
-    <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X200">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="201" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>708</v>
       </c>
@@ -15434,18 +15742,22 @@
       <c r="Q201" s="3"/>
       <c r="R201" s="3"/>
       <c r="S201" s="3"/>
-      <c r="T201" s="3"/>
+      <c r="T201" s="3">
+        <v>8.09</v>
+      </c>
       <c r="U201" s="3"/>
       <c r="V201" s="3">
         <v>29.6</v>
       </c>
       <c r="W201" s="3"/>
-      <c r="X201" s="3"/>
+      <c r="X201">
+        <v>313</v>
+      </c>
       <c r="Y201" s="3"/>
       <c r="Z201" s="3"/>
       <c r="AA201" s="3"/>
     </row>
-    <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>710</v>
       </c>
@@ -15482,8 +15794,17 @@
       <c r="P202">
         <v>37</v>
       </c>
-    </row>
-    <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T202">
+        <v>14.44</v>
+      </c>
+      <c r="V202">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="X202" s="3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="203" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>711</v>
       </c>
@@ -15525,16 +15846,22 @@
       <c r="Q203" s="3"/>
       <c r="R203" s="3"/>
       <c r="S203" s="3"/>
-      <c r="T203" s="3"/>
+      <c r="T203" s="3">
+        <v>11</v>
+      </c>
       <c r="U203" s="3"/>
-      <c r="V203" s="3"/>
+      <c r="V203" s="3">
+        <v>39.299999999999997</v>
+      </c>
       <c r="W203" s="3"/>
-      <c r="X203" s="3"/>
+      <c r="X203" s="3">
+        <v>317</v>
+      </c>
       <c r="Y203" s="3"/>
       <c r="Z203" s="3"/>
       <c r="AA203" s="3"/>
     </row>
-    <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>713</v>
       </c>
@@ -15571,8 +15898,17 @@
       <c r="P204">
         <v>37</v>
       </c>
-    </row>
-    <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T204">
+        <v>11.66</v>
+      </c>
+      <c r="V204">
+        <v>42.5</v>
+      </c>
+      <c r="X204" s="3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="205" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>716</v>
       </c>
@@ -15614,16 +15950,22 @@
       <c r="Q205" s="3"/>
       <c r="R205" s="3"/>
       <c r="S205" s="3"/>
-      <c r="T205" s="3"/>
+      <c r="T205" s="3">
+        <v>13.17</v>
+      </c>
       <c r="U205" s="3"/>
-      <c r="V205" s="3"/>
+      <c r="V205" s="3">
+        <v>52.8</v>
+      </c>
       <c r="W205" s="3"/>
-      <c r="X205" s="3"/>
+      <c r="X205" s="3">
+        <v>317</v>
+      </c>
       <c r="Y205" s="3"/>
       <c r="Z205" s="3"/>
       <c r="AA205" s="3"/>
     </row>
-    <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>719</v>
       </c>
@@ -15660,8 +16002,17 @@
       <c r="P206">
         <v>37</v>
       </c>
-    </row>
-    <row r="207" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T206">
+        <v>12.68</v>
+      </c>
+      <c r="V206">
+        <v>49.9</v>
+      </c>
+      <c r="X206" s="3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="207" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>721</v>
       </c>
@@ -15703,18 +16054,22 @@
       <c r="Q207" s="3"/>
       <c r="R207" s="3"/>
       <c r="S207" s="3"/>
-      <c r="T207" s="3"/>
+      <c r="T207" s="3">
+        <v>7.87</v>
+      </c>
       <c r="U207" s="3"/>
       <c r="V207" s="3">
         <v>18.8</v>
       </c>
       <c r="W207" s="3"/>
-      <c r="X207" s="3"/>
+      <c r="X207">
+        <v>313</v>
+      </c>
       <c r="Y207" s="3"/>
       <c r="Z207" s="3"/>
       <c r="AA207" s="3"/>
     </row>
-    <row r="208" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>724</v>
       </c>
@@ -15751,14 +16106,20 @@
       <c r="P208">
         <v>57</v>
       </c>
+      <c r="T208">
+        <v>12.27</v>
+      </c>
       <c r="V208">
         <v>40.9</v>
       </c>
+      <c r="X208">
+        <v>313</v>
+      </c>
       <c r="AA208" s="42" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="209" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>726</v>
       </c>
@@ -15800,18 +16161,22 @@
       <c r="Q209" s="3"/>
       <c r="R209" s="3"/>
       <c r="S209" s="3"/>
-      <c r="T209" s="3"/>
+      <c r="T209" s="3">
+        <v>9.94</v>
+      </c>
       <c r="U209" s="3"/>
       <c r="V209" s="3">
         <v>29.3</v>
       </c>
       <c r="W209" s="3"/>
-      <c r="X209" s="3"/>
+      <c r="X209">
+        <v>313</v>
+      </c>
       <c r="Y209" s="3"/>
       <c r="Z209" s="3"/>
       <c r="AA209" s="3"/>
     </row>
-    <row r="210" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>727</v>
       </c>
@@ -15848,11 +16213,17 @@
       <c r="P210">
         <v>57</v>
       </c>
+      <c r="T210">
+        <v>17.75</v>
+      </c>
       <c r="V210">
         <v>71.7</v>
       </c>
-    </row>
-    <row r="211" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X210">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>729</v>
       </c>
@@ -15894,18 +16265,22 @@
       <c r="Q211" s="3"/>
       <c r="R211" s="3"/>
       <c r="S211" s="3"/>
-      <c r="T211" s="3"/>
+      <c r="T211" s="3">
+        <v>11.63</v>
+      </c>
       <c r="U211" s="3"/>
       <c r="V211" s="3">
         <v>40.9</v>
       </c>
       <c r="W211" s="3"/>
-      <c r="X211" s="3"/>
+      <c r="X211">
+        <v>313</v>
+      </c>
       <c r="Y211" s="3"/>
       <c r="Z211" s="3"/>
       <c r="AA211" s="3"/>
     </row>
-    <row r="212" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>730</v>
       </c>
@@ -15942,11 +16317,17 @@
       <c r="P212">
         <v>37</v>
       </c>
+      <c r="T212">
+        <v>12.46</v>
+      </c>
       <c r="V212">
         <v>50.7</v>
       </c>
-    </row>
-    <row r="213" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X212">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="213" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>732</v>
       </c>
@@ -15988,18 +16369,22 @@
       <c r="Q213" s="3"/>
       <c r="R213" s="3"/>
       <c r="S213" s="3"/>
-      <c r="T213" s="3"/>
+      <c r="T213" s="3">
+        <v>7.9</v>
+      </c>
       <c r="U213" s="3"/>
       <c r="V213" s="3">
         <v>31.8</v>
       </c>
       <c r="W213" s="3"/>
-      <c r="X213" s="3"/>
+      <c r="X213">
+        <v>313</v>
+      </c>
       <c r="Y213" s="3"/>
       <c r="Z213" s="3"/>
       <c r="AA213" s="3"/>
     </row>
-    <row r="214" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>734</v>
       </c>
@@ -16036,11 +16421,17 @@
       <c r="P214">
         <v>37</v>
       </c>
+      <c r="T214">
+        <v>11.98</v>
+      </c>
       <c r="V214">
         <v>33</v>
       </c>
-    </row>
-    <row r="215" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X214">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="215" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>737</v>
       </c>
@@ -16082,18 +16473,22 @@
       <c r="Q215" s="3"/>
       <c r="R215" s="3"/>
       <c r="S215" s="3"/>
-      <c r="T215" s="3"/>
+      <c r="T215" s="3">
+        <v>9.4700000000000006</v>
+      </c>
       <c r="U215" s="3"/>
       <c r="V215" s="3">
         <v>34.9</v>
       </c>
       <c r="W215" s="3"/>
-      <c r="X215" s="3"/>
+      <c r="X215">
+        <v>313</v>
+      </c>
       <c r="Y215" s="3"/>
       <c r="Z215" s="3"/>
       <c r="AA215" s="3"/>
     </row>
-    <row r="216" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>739</v>
       </c>
@@ -16130,11 +16525,17 @@
       <c r="P216">
         <v>37</v>
       </c>
+      <c r="T216">
+        <v>10.39</v>
+      </c>
       <c r="V216">
         <v>43.1</v>
       </c>
-    </row>
-    <row r="217" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X216">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="217" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>742</v>
       </c>
@@ -16176,16 +16577,22 @@
       <c r="Q217" s="3"/>
       <c r="R217" s="3"/>
       <c r="S217" s="3"/>
-      <c r="T217" s="3"/>
+      <c r="T217" s="3">
+        <v>7.95</v>
+      </c>
       <c r="U217" s="3"/>
-      <c r="V217" s="3"/>
+      <c r="V217" s="3">
+        <v>22.1</v>
+      </c>
       <c r="W217" s="3"/>
-      <c r="X217" s="3"/>
+      <c r="X217" s="3">
+        <v>317</v>
+      </c>
       <c r="Y217" s="3"/>
       <c r="Z217" s="3"/>
       <c r="AA217" s="3"/>
     </row>
-    <row r="218" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>744</v>
       </c>
@@ -16222,8 +16629,17 @@
       <c r="P218">
         <v>37</v>
       </c>
-    </row>
-    <row r="219" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T218">
+        <v>13.92</v>
+      </c>
+      <c r="V218">
+        <v>64.8</v>
+      </c>
+      <c r="X218" s="3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="219" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>746</v>
       </c>
@@ -16265,16 +16681,22 @@
       <c r="Q219" s="3"/>
       <c r="R219" s="3"/>
       <c r="S219" s="3"/>
-      <c r="T219" s="3"/>
+      <c r="T219" s="3">
+        <v>10.8</v>
+      </c>
       <c r="U219" s="3"/>
-      <c r="V219" s="3"/>
+      <c r="V219" s="3">
+        <v>36.200000000000003</v>
+      </c>
       <c r="W219" s="3"/>
-      <c r="X219" s="3"/>
+      <c r="X219" s="3">
+        <v>317</v>
+      </c>
       <c r="Y219" s="3"/>
       <c r="Z219" s="3"/>
       <c r="AA219" s="3"/>
     </row>
-    <row r="220" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>748</v>
       </c>
@@ -16311,8 +16733,17 @@
       <c r="P220">
         <v>37</v>
       </c>
-    </row>
-    <row r="221" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T220">
+        <v>15.54</v>
+      </c>
+      <c r="V220">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="X220" s="3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="221" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>750</v>
       </c>
@@ -16354,16 +16785,22 @@
       <c r="Q221" s="3"/>
       <c r="R221" s="3"/>
       <c r="S221" s="3"/>
-      <c r="T221" s="3"/>
+      <c r="T221" s="3">
+        <v>14.6</v>
+      </c>
       <c r="U221" s="3"/>
-      <c r="V221" s="3"/>
+      <c r="V221" s="3">
+        <v>67.900000000000006</v>
+      </c>
       <c r="W221" s="3"/>
-      <c r="X221" s="3"/>
+      <c r="X221" s="3">
+        <v>317</v>
+      </c>
       <c r="Y221" s="3"/>
       <c r="Z221" s="3"/>
       <c r="AA221" s="3"/>
     </row>
-    <row r="222" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>752</v>
       </c>
@@ -16400,11 +16837,17 @@
       <c r="P222">
         <v>57</v>
       </c>
+      <c r="T222">
+        <v>10.26</v>
+      </c>
       <c r="V222">
         <v>33</v>
       </c>
-    </row>
-    <row r="223" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X222">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="223" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>753</v>
       </c>
@@ -16446,18 +16889,22 @@
       <c r="Q223" s="3"/>
       <c r="R223" s="3"/>
       <c r="S223" s="3"/>
-      <c r="T223" s="3"/>
+      <c r="T223" s="3">
+        <v>13.08</v>
+      </c>
       <c r="U223" s="3"/>
       <c r="V223" s="3">
         <v>48.5</v>
       </c>
       <c r="W223" s="3"/>
-      <c r="X223" s="3"/>
+      <c r="X223">
+        <v>313</v>
+      </c>
       <c r="Y223" s="3"/>
       <c r="Z223" s="3"/>
       <c r="AA223" s="3"/>
     </row>
-    <row r="224" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>754</v>
       </c>
@@ -16494,11 +16941,17 @@
       <c r="P224">
         <v>57</v>
       </c>
+      <c r="T224">
+        <v>11.97</v>
+      </c>
       <c r="V224">
         <v>44.9</v>
       </c>
-    </row>
-    <row r="225" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X224">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>756</v>
       </c>
@@ -16540,18 +16993,22 @@
       <c r="Q225" s="3"/>
       <c r="R225" s="3"/>
       <c r="S225" s="3"/>
-      <c r="T225" s="3"/>
+      <c r="T225" s="3">
+        <v>15.33</v>
+      </c>
       <c r="U225" s="3"/>
       <c r="V225" s="3">
         <v>56.6</v>
       </c>
       <c r="W225" s="3"/>
-      <c r="X225" s="3"/>
+      <c r="X225">
+        <v>313</v>
+      </c>
       <c r="Y225" s="3"/>
       <c r="Z225" s="3"/>
       <c r="AA225" s="3"/>
     </row>
-    <row r="226" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>757</v>
       </c>
@@ -16588,11 +17045,17 @@
       <c r="P226">
         <v>57</v>
       </c>
+      <c r="T226">
+        <v>8.2899999999999991</v>
+      </c>
       <c r="V226">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="227" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X226">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>760</v>
       </c>
@@ -16634,18 +17097,22 @@
       <c r="Q227" s="3"/>
       <c r="R227" s="3"/>
       <c r="S227" s="3"/>
-      <c r="T227" s="3"/>
+      <c r="T227" s="3">
+        <v>13.45</v>
+      </c>
       <c r="U227" s="3"/>
       <c r="V227" s="3">
         <v>58.7</v>
       </c>
       <c r="W227" s="3"/>
-      <c r="X227" s="3"/>
+      <c r="X227">
+        <v>313</v>
+      </c>
       <c r="Y227" s="3"/>
       <c r="Z227" s="3"/>
       <c r="AA227" s="3"/>
     </row>
-    <row r="228" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>762</v>
       </c>
@@ -16682,14 +17149,20 @@
       <c r="P228">
         <v>37</v>
       </c>
+      <c r="T228">
+        <v>12.32</v>
+      </c>
       <c r="V228">
         <v>52.6</v>
       </c>
+      <c r="X228">
+        <v>313</v>
+      </c>
       <c r="AA228" s="42" t="s">
         <v>1450</v>
       </c>
     </row>
-    <row r="229" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>763</v>
       </c>
@@ -16731,18 +17204,22 @@
       <c r="Q229" s="3"/>
       <c r="R229" s="3"/>
       <c r="S229" s="3"/>
-      <c r="T229" s="3"/>
+      <c r="T229" s="3">
+        <v>9.91</v>
+      </c>
       <c r="U229" s="3"/>
       <c r="V229" s="3">
         <v>36.9</v>
       </c>
       <c r="W229" s="3"/>
-      <c r="X229" s="3"/>
+      <c r="X229">
+        <v>313</v>
+      </c>
       <c r="Y229" s="3"/>
       <c r="Z229" s="3"/>
       <c r="AA229" s="3"/>
     </row>
-    <row r="230" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>766</v>
       </c>
@@ -16779,12 +17256,18 @@
       <c r="P230">
         <v>37</v>
       </c>
+      <c r="T230">
+        <v>7.76</v>
+      </c>
       <c r="V230">
         <v>26.5</v>
       </c>
+      <c r="X230">
+        <v>313</v>
+      </c>
       <c r="AA230" s="42"/>
     </row>
-    <row r="231" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>767</v>
       </c>
@@ -16826,20 +17309,24 @@
       <c r="Q231" s="3"/>
       <c r="R231" s="3"/>
       <c r="S231" s="3"/>
-      <c r="T231" s="3"/>
+      <c r="T231" s="3">
+        <v>11.47</v>
+      </c>
       <c r="U231" s="3"/>
       <c r="V231" s="3">
         <v>49.8</v>
       </c>
       <c r="W231" s="3"/>
-      <c r="X231" s="3"/>
+      <c r="X231">
+        <v>313</v>
+      </c>
       <c r="Y231" s="3"/>
       <c r="Z231" s="3"/>
       <c r="AA231" s="42" t="s">
         <v>1451</v>
       </c>
     </row>
-    <row r="232" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>769</v>
       </c>
@@ -16876,8 +17363,17 @@
       <c r="P232">
         <v>37</v>
       </c>
-    </row>
-    <row r="233" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T232">
+        <v>11.61</v>
+      </c>
+      <c r="V232">
+        <v>38.6</v>
+      </c>
+      <c r="X232" s="3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="233" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>771</v>
       </c>
@@ -16919,16 +17415,22 @@
       <c r="Q233" s="3"/>
       <c r="R233" s="3"/>
       <c r="S233" s="3"/>
-      <c r="T233" s="3"/>
+      <c r="T233" s="3">
+        <v>11.78</v>
+      </c>
       <c r="U233" s="3"/>
-      <c r="V233" s="3"/>
+      <c r="V233" s="3">
+        <v>29.8</v>
+      </c>
       <c r="W233" s="3"/>
-      <c r="X233" s="3"/>
+      <c r="X233" s="3">
+        <v>317</v>
+      </c>
       <c r="Y233" s="3"/>
       <c r="Z233" s="3"/>
       <c r="AA233" s="3"/>
     </row>
-    <row r="234" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>774</v>
       </c>
@@ -16965,8 +17467,17 @@
       <c r="P234">
         <v>37</v>
       </c>
-    </row>
-    <row r="235" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T234">
+        <v>15.12</v>
+      </c>
+      <c r="V234">
+        <v>50.9</v>
+      </c>
+      <c r="X234" s="3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="235" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>775</v>
       </c>
@@ -17008,16 +17519,22 @@
       <c r="Q235" s="3"/>
       <c r="R235" s="3"/>
       <c r="S235" s="3"/>
-      <c r="T235" s="3"/>
+      <c r="T235" s="3">
+        <v>12.74</v>
+      </c>
       <c r="U235" s="3"/>
-      <c r="V235" s="3"/>
+      <c r="V235" s="3">
+        <v>52</v>
+      </c>
       <c r="W235" s="3"/>
-      <c r="X235" s="3"/>
+      <c r="X235" s="3">
+        <v>317</v>
+      </c>
       <c r="Y235" s="3"/>
       <c r="Z235" s="3"/>
       <c r="AA235" s="3"/>
     </row>
-    <row r="236" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>776</v>
       </c>
@@ -17054,8 +17571,17 @@
       <c r="P236">
         <v>37</v>
       </c>
-    </row>
-    <row r="237" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T236">
+        <v>15.07</v>
+      </c>
+      <c r="V236">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="X236" s="3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="237" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>778</v>
       </c>
@@ -17097,18 +17623,22 @@
       <c r="Q237" s="3"/>
       <c r="R237" s="3"/>
       <c r="S237" s="3"/>
-      <c r="T237" s="3"/>
+      <c r="T237" s="3">
+        <v>8.19</v>
+      </c>
       <c r="U237" s="3"/>
       <c r="V237" s="3">
         <v>30.9</v>
       </c>
       <c r="W237" s="3"/>
-      <c r="X237" s="3"/>
+      <c r="X237">
+        <v>313</v>
+      </c>
       <c r="Y237" s="3"/>
       <c r="Z237" s="3"/>
       <c r="AA237" s="3"/>
     </row>
-    <row r="238" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>779</v>
       </c>
@@ -17145,11 +17675,17 @@
       <c r="P238">
         <v>57</v>
       </c>
+      <c r="T238">
+        <v>13.13</v>
+      </c>
       <c r="V238">
         <v>61.5</v>
       </c>
-    </row>
-    <row r="239" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X238">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="239" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>781</v>
       </c>
@@ -17191,18 +17727,22 @@
       <c r="Q239" s="3"/>
       <c r="R239" s="3"/>
       <c r="S239" s="3"/>
-      <c r="T239" s="3"/>
+      <c r="T239" s="3">
+        <v>10.91</v>
+      </c>
       <c r="U239" s="3"/>
       <c r="V239" s="3">
         <v>52</v>
       </c>
       <c r="W239" s="3"/>
-      <c r="X239" s="3"/>
+      <c r="X239">
+        <v>313</v>
+      </c>
       <c r="Y239" s="3"/>
       <c r="Z239" s="3"/>
       <c r="AA239" s="3"/>
     </row>
-    <row r="240" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>783</v>
       </c>
@@ -17239,11 +17779,17 @@
       <c r="P240">
         <v>57</v>
       </c>
+      <c r="T240">
+        <v>8.17</v>
+      </c>
       <c r="V240">
         <v>31.7</v>
       </c>
-    </row>
-    <row r="241" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X240">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>785</v>
       </c>
@@ -17285,18 +17831,22 @@
       <c r="Q241" s="3"/>
       <c r="R241" s="3"/>
       <c r="S241" s="3"/>
-      <c r="T241" s="3"/>
+      <c r="T241" s="3">
+        <v>11.8</v>
+      </c>
       <c r="U241" s="3"/>
       <c r="V241" s="3">
         <v>40</v>
       </c>
       <c r="W241" s="3"/>
-      <c r="X241" s="3"/>
+      <c r="X241">
+        <v>313</v>
+      </c>
       <c r="Y241" s="3"/>
       <c r="Z241" s="3"/>
       <c r="AA241" s="3"/>
     </row>
-    <row r="242" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>786</v>
       </c>
@@ -17333,11 +17883,17 @@
       <c r="P242">
         <v>37</v>
       </c>
+      <c r="T242">
+        <v>11.13</v>
+      </c>
       <c r="V242">
         <v>41.8</v>
       </c>
-    </row>
-    <row r="243" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X242">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>788</v>
       </c>
@@ -17379,18 +17935,22 @@
       <c r="Q243" s="3"/>
       <c r="R243" s="3"/>
       <c r="S243" s="3"/>
-      <c r="T243" s="3"/>
+      <c r="T243" s="3">
+        <v>12.07</v>
+      </c>
       <c r="U243" s="3"/>
       <c r="V243" s="3">
         <v>62</v>
       </c>
       <c r="W243" s="3"/>
-      <c r="X243" s="3"/>
+      <c r="X243">
+        <v>313</v>
+      </c>
       <c r="Y243" s="3"/>
       <c r="Z243" s="3"/>
       <c r="AA243" s="3"/>
     </row>
-    <row r="244" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>789</v>
       </c>
@@ -17427,11 +17987,17 @@
       <c r="P244">
         <v>37</v>
       </c>
+      <c r="T244">
+        <v>14.96</v>
+      </c>
       <c r="V244">
         <v>60.8</v>
       </c>
-    </row>
-    <row r="245" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X244">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="245" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>791</v>
       </c>
@@ -17475,18 +18041,22 @@
       <c r="S245" s="3" t="s">
         <v>1390</v>
       </c>
-      <c r="T245" s="3"/>
+      <c r="T245" s="3">
+        <v>10.029999999999999</v>
+      </c>
       <c r="U245" s="3"/>
       <c r="V245" s="3">
         <v>41.5</v>
       </c>
       <c r="W245" s="3"/>
-      <c r="X245" s="3"/>
+      <c r="X245">
+        <v>313</v>
+      </c>
       <c r="Y245" s="3"/>
       <c r="Z245" s="3"/>
       <c r="AA245" s="3"/>
     </row>
-    <row r="246" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>793</v>
       </c>
@@ -17523,11 +18093,17 @@
       <c r="P246">
         <v>37</v>
       </c>
+      <c r="T246">
+        <v>9.76</v>
+      </c>
       <c r="V246">
         <v>42.8</v>
       </c>
-    </row>
-    <row r="247" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X246">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="247" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>794</v>
       </c>
@@ -17569,16 +18145,22 @@
       <c r="Q247" s="3"/>
       <c r="R247" s="3"/>
       <c r="S247" s="3"/>
-      <c r="T247" s="3"/>
+      <c r="T247" s="3">
+        <v>11.07</v>
+      </c>
       <c r="U247" s="3"/>
-      <c r="V247" s="3"/>
+      <c r="V247" s="3">
+        <v>47.1</v>
+      </c>
       <c r="W247" s="3"/>
-      <c r="X247" s="3"/>
+      <c r="X247" s="3">
+        <v>317</v>
+      </c>
       <c r="Y247" s="3"/>
       <c r="Z247" s="3"/>
       <c r="AA247" s="3"/>
     </row>
-    <row r="248" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>796</v>
       </c>
@@ -17615,8 +18197,17 @@
       <c r="P248">
         <v>37</v>
       </c>
-    </row>
-    <row r="249" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T248">
+        <v>15.94</v>
+      </c>
+      <c r="V248">
+        <v>59.2</v>
+      </c>
+      <c r="X248" s="3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="249" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>798</v>
       </c>
@@ -17658,16 +18249,22 @@
       <c r="Q249" s="3"/>
       <c r="R249" s="3"/>
       <c r="S249" s="3"/>
-      <c r="T249" s="3"/>
+      <c r="T249" s="3">
+        <v>10.6</v>
+      </c>
       <c r="U249" s="3"/>
-      <c r="V249" s="3"/>
+      <c r="V249" s="3">
+        <v>35.700000000000003</v>
+      </c>
       <c r="W249" s="3"/>
-      <c r="X249" s="3"/>
+      <c r="X249" s="3">
+        <v>317</v>
+      </c>
       <c r="Y249" s="3"/>
       <c r="Z249" s="3"/>
       <c r="AA249" s="3"/>
     </row>
-    <row r="250" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>800</v>
       </c>
@@ -17704,8 +18301,17 @@
       <c r="P250">
         <v>37</v>
       </c>
-    </row>
-    <row r="251" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T250">
+        <v>21.72</v>
+      </c>
+      <c r="V250">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="X250" s="3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="251" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>803</v>
       </c>
@@ -17747,16 +18353,22 @@
       <c r="Q251" s="3"/>
       <c r="R251" s="3"/>
       <c r="S251" s="3"/>
-      <c r="T251" s="3"/>
+      <c r="T251" s="3">
+        <v>8.18</v>
+      </c>
       <c r="U251" s="3"/>
-      <c r="V251" s="3"/>
+      <c r="V251" s="3">
+        <v>29.7</v>
+      </c>
       <c r="W251" s="3"/>
-      <c r="X251" s="3"/>
+      <c r="X251" s="3">
+        <v>317</v>
+      </c>
       <c r="Y251" s="3"/>
       <c r="Z251" s="3"/>
       <c r="AA251" s="3"/>
     </row>
-    <row r="252" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>805</v>
       </c>
@@ -17793,11 +18405,17 @@
       <c r="P252">
         <v>57</v>
       </c>
+      <c r="T252">
+        <v>9.33</v>
+      </c>
       <c r="V252">
         <v>34</v>
       </c>
-    </row>
-    <row r="253" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X252">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="253" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>807</v>
       </c>
@@ -17839,18 +18457,22 @@
       <c r="Q253" s="3"/>
       <c r="R253" s="3"/>
       <c r="S253" s="3"/>
-      <c r="T253" s="3"/>
+      <c r="T253" s="3">
+        <v>18.239999999999998</v>
+      </c>
       <c r="U253" s="3"/>
       <c r="V253" s="3">
         <v>80.3</v>
       </c>
       <c r="W253" s="3"/>
-      <c r="X253" s="3"/>
+      <c r="X253">
+        <v>313</v>
+      </c>
       <c r="Y253" s="3"/>
       <c r="Z253" s="3"/>
       <c r="AA253" s="3"/>
     </row>
-    <row r="254" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>809</v>
       </c>
@@ -17887,11 +18509,17 @@
       <c r="P254">
         <v>57</v>
       </c>
+      <c r="T254">
+        <v>11.68</v>
+      </c>
       <c r="V254">
         <v>45.4</v>
       </c>
-    </row>
-    <row r="255" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X254">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="255" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>810</v>
       </c>
@@ -17933,18 +18561,22 @@
       <c r="Q255" s="3"/>
       <c r="R255" s="3"/>
       <c r="S255" s="3"/>
-      <c r="T255" s="3"/>
+      <c r="T255" s="3">
+        <v>10.09</v>
+      </c>
       <c r="U255" s="3"/>
       <c r="V255" s="3">
         <v>33.6</v>
       </c>
       <c r="W255" s="3"/>
-      <c r="X255" s="3"/>
+      <c r="X255">
+        <v>313</v>
+      </c>
       <c r="Y255" s="3"/>
       <c r="Z255" s="3"/>
       <c r="AA255" s="3"/>
     </row>
-    <row r="256" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>812</v>
       </c>
@@ -17981,11 +18613,17 @@
       <c r="P256">
         <v>57</v>
       </c>
+      <c r="T256">
+        <v>13.13</v>
+      </c>
       <c r="V256">
         <v>36.299999999999997</v>
       </c>
-    </row>
-    <row r="257" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X256">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="257" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>814</v>
       </c>
@@ -18027,18 +18665,22 @@
       <c r="Q257" s="3"/>
       <c r="R257" s="3"/>
       <c r="S257" s="3"/>
-      <c r="T257" s="3"/>
+      <c r="T257" s="3">
+        <v>11.68</v>
+      </c>
       <c r="U257" s="3"/>
       <c r="V257" s="3">
         <v>44.4</v>
       </c>
       <c r="W257" s="3"/>
-      <c r="X257" s="3"/>
+      <c r="X257">
+        <v>313</v>
+      </c>
       <c r="Y257" s="3"/>
       <c r="Z257" s="3"/>
       <c r="AA257" s="3"/>
     </row>
-    <row r="258" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>816</v>
       </c>
@@ -18075,11 +18717,17 @@
       <c r="P258">
         <v>37</v>
       </c>
+      <c r="T258">
+        <v>14.17</v>
+      </c>
       <c r="V258">
         <v>50.3</v>
       </c>
-    </row>
-    <row r="259" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X258">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="259" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>817</v>
       </c>
@@ -18121,18 +18769,22 @@
       <c r="Q259" s="3"/>
       <c r="R259" s="3"/>
       <c r="S259" s="3"/>
-      <c r="T259" s="3"/>
+      <c r="T259" s="3">
+        <v>11.28</v>
+      </c>
       <c r="U259" s="3"/>
       <c r="V259" s="3">
         <v>34.700000000000003</v>
       </c>
       <c r="W259" s="3"/>
-      <c r="X259" s="3"/>
+      <c r="X259">
+        <v>313</v>
+      </c>
       <c r="Y259" s="3"/>
       <c r="Z259" s="3"/>
       <c r="AA259" s="3"/>
     </row>
-    <row r="260" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>819</v>
       </c>
@@ -18169,11 +18821,17 @@
       <c r="P260">
         <v>37</v>
       </c>
+      <c r="T260">
+        <v>10.27</v>
+      </c>
       <c r="V260">
         <v>40.799999999999997</v>
       </c>
-    </row>
-    <row r="261" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X260">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="261" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>821</v>
       </c>
@@ -18215,18 +18873,22 @@
       <c r="Q261" s="3"/>
       <c r="R261" s="3"/>
       <c r="S261" s="3"/>
-      <c r="T261" s="3"/>
+      <c r="T261" s="3">
+        <v>12.77</v>
+      </c>
       <c r="U261" s="3"/>
       <c r="V261" s="3">
         <v>40.700000000000003</v>
       </c>
       <c r="W261" s="3"/>
-      <c r="X261" s="3"/>
+      <c r="X261">
+        <v>313</v>
+      </c>
       <c r="Y261" s="3"/>
       <c r="Z261" s="3"/>
       <c r="AA261" s="3"/>
     </row>
-    <row r="262" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>822</v>
       </c>
@@ -18263,8 +18925,17 @@
       <c r="P262">
         <v>37</v>
       </c>
-    </row>
-    <row r="263" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T262">
+        <v>10.66</v>
+      </c>
+      <c r="V262">
+        <v>42.9</v>
+      </c>
+      <c r="X262" s="3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="263" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>825</v>
       </c>
@@ -18306,16 +18977,22 @@
       <c r="Q263" s="3"/>
       <c r="R263" s="3"/>
       <c r="S263" s="3"/>
-      <c r="T263" s="3"/>
+      <c r="T263" s="3">
+        <v>8.5399999999999991</v>
+      </c>
       <c r="U263" s="3"/>
-      <c r="V263" s="3"/>
+      <c r="V263" s="3">
+        <v>31.5</v>
+      </c>
       <c r="W263" s="3"/>
-      <c r="X263" s="3"/>
+      <c r="X263" s="3">
+        <v>317</v>
+      </c>
       <c r="Y263" s="3"/>
       <c r="Z263" s="3"/>
       <c r="AA263" s="3"/>
     </row>
-    <row r="264" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>827</v>
       </c>
@@ -18352,8 +19029,20 @@
       <c r="P264">
         <v>37</v>
       </c>
-    </row>
-    <row r="265" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T264" s="44" t="s">
+        <v>1386</v>
+      </c>
+      <c r="V264" s="44" t="s">
+        <v>1386</v>
+      </c>
+      <c r="X264" s="3">
+        <v>317</v>
+      </c>
+      <c r="AA264" s="44" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="265" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>828</v>
       </c>
@@ -18395,16 +19084,22 @@
       <c r="Q265" s="3"/>
       <c r="R265" s="3"/>
       <c r="S265" s="3"/>
-      <c r="T265" s="3"/>
+      <c r="T265" s="3">
+        <v>13.75</v>
+      </c>
       <c r="U265" s="3"/>
-      <c r="V265" s="3"/>
+      <c r="V265" s="3">
+        <v>68.8</v>
+      </c>
       <c r="W265" s="3"/>
-      <c r="X265" s="3"/>
+      <c r="X265" s="3">
+        <v>317</v>
+      </c>
       <c r="Y265" s="3"/>
       <c r="Z265" s="3"/>
       <c r="AA265" s="3"/>
     </row>
-    <row r="266" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>829</v>
       </c>
@@ -18441,8 +19136,17 @@
       <c r="P266">
         <v>37</v>
       </c>
-    </row>
-    <row r="267" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T266">
+        <v>15.13</v>
+      </c>
+      <c r="V266">
+        <v>63.3</v>
+      </c>
+      <c r="X266" s="3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="267" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>830</v>
       </c>
@@ -18484,18 +19188,22 @@
       <c r="Q267" s="3"/>
       <c r="R267" s="3"/>
       <c r="S267" s="3"/>
-      <c r="T267" s="3"/>
+      <c r="T267" s="3">
+        <v>11.6</v>
+      </c>
       <c r="U267" s="3"/>
       <c r="V267" s="3">
         <v>38.1</v>
       </c>
       <c r="W267" s="3"/>
-      <c r="X267" s="3"/>
+      <c r="X267">
+        <v>313</v>
+      </c>
       <c r="Y267" s="3"/>
       <c r="Z267" s="3"/>
       <c r="AA267" s="3"/>
     </row>
-    <row r="268" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>832</v>
       </c>
@@ -18532,11 +19240,17 @@
       <c r="P268">
         <v>57</v>
       </c>
+      <c r="T268">
+        <v>8.7200000000000006</v>
+      </c>
       <c r="V268">
         <v>31.8</v>
       </c>
-    </row>
-    <row r="269" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X268">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="269" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>833</v>
       </c>
@@ -18578,18 +19292,22 @@
       <c r="Q269" s="3"/>
       <c r="R269" s="3"/>
       <c r="S269" s="3"/>
-      <c r="T269" s="3"/>
+      <c r="T269" s="3">
+        <v>9.2200000000000006</v>
+      </c>
       <c r="U269" s="3"/>
       <c r="V269" s="3">
         <v>33.4</v>
       </c>
       <c r="W269" s="3"/>
-      <c r="X269" s="3"/>
+      <c r="X269">
+        <v>313</v>
+      </c>
       <c r="Y269" s="3"/>
       <c r="Z269" s="3"/>
       <c r="AA269" s="3"/>
     </row>
-    <row r="270" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>834</v>
       </c>
@@ -18626,11 +19344,17 @@
       <c r="P270">
         <v>57</v>
       </c>
+      <c r="T270">
+        <v>15.31</v>
+      </c>
       <c r="V270">
         <v>72.3</v>
       </c>
-    </row>
-    <row r="271" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X270">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="271" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>836</v>
       </c>
@@ -18672,18 +19396,22 @@
       <c r="Q271" s="3"/>
       <c r="R271" s="3"/>
       <c r="S271" s="3"/>
-      <c r="T271" s="3"/>
+      <c r="T271" s="3">
+        <v>12.28</v>
+      </c>
       <c r="U271" s="3"/>
       <c r="V271" s="3">
         <v>31.9</v>
       </c>
       <c r="W271" s="3"/>
-      <c r="X271" s="3"/>
+      <c r="X271">
+        <v>313</v>
+      </c>
       <c r="Y271" s="3"/>
       <c r="Z271" s="3"/>
       <c r="AA271" s="3"/>
     </row>
-    <row r="272" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>838</v>
       </c>
@@ -18724,7 +19452,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="273" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>843</v>
       </c>
@@ -18775,7 +19503,7 @@
       <c r="Z273" s="3"/>
       <c r="AA273" s="3"/>
     </row>
-    <row r="274" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>845</v>
       </c>
@@ -18813,7 +19541,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="275" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>847</v>
       </c>
@@ -18866,7 +19594,7 @@
       <c r="Z275" s="3"/>
       <c r="AA275" s="3"/>
     </row>
-    <row r="276" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>848</v>
       </c>
@@ -18907,7 +19635,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="277" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>850</v>
       </c>
@@ -18958,7 +19686,7 @@
       <c r="Z277" s="3"/>
       <c r="AA277" s="3"/>
     </row>
-    <row r="278" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>853</v>
       </c>
@@ -18996,7 +19724,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="279" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>854</v>
       </c>
@@ -19053,7 +19781,7 @@
       <c r="Z279" s="3"/>
       <c r="AA279" s="3"/>
     </row>
-    <row r="280" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>855</v>
       </c>
@@ -19091,7 +19819,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="281" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>856</v>
       </c>
@@ -19142,7 +19870,7 @@
       <c r="Z281" s="3"/>
       <c r="AA281" s="3"/>
     </row>
-    <row r="282" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>857</v>
       </c>
@@ -19197,7 +19925,7 @@
       <c r="Z282" s="30"/>
       <c r="AA282" s="30"/>
     </row>
-    <row r="283" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>858</v>
       </c>
@@ -19250,7 +19978,7 @@
       <c r="Z283" s="3"/>
       <c r="AA283" s="3"/>
     </row>
-    <row r="284" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>860</v>
       </c>
@@ -19288,7 +20016,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="285" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>862</v>
       </c>
@@ -19339,7 +20067,7 @@
       <c r="Z285" s="3"/>
       <c r="AA285" s="3"/>
     </row>
-    <row r="286" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>864</v>
       </c>
@@ -19377,7 +20105,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="287" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>867</v>
       </c>
@@ -19428,7 +20156,7 @@
       <c r="Z287" s="3"/>
       <c r="AA287" s="3"/>
     </row>
-    <row r="288" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>868</v>
       </c>
@@ -19466,7 +20194,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="289" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>870</v>
       </c>
@@ -19517,7 +20245,7 @@
       <c r="Z289" s="3"/>
       <c r="AA289" s="3"/>
     </row>
-    <row r="290" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>871</v>
       </c>
@@ -19555,7 +20283,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="291" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>873</v>
       </c>
@@ -19612,7 +20340,7 @@
       <c r="Z291" s="3"/>
       <c r="AA291" s="3"/>
     </row>
-    <row r="292" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>874</v>
       </c>
@@ -19653,7 +20381,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="293" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>875</v>
       </c>
@@ -19704,7 +20432,7 @@
       <c r="Z293" s="3"/>
       <c r="AA293" s="3"/>
     </row>
-    <row r="294" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>878</v>
       </c>
@@ -19745,7 +20473,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="295" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>880</v>
       </c>
@@ -19796,7 +20524,7 @@
       <c r="Z295" s="3"/>
       <c r="AA295" s="3"/>
     </row>
-    <row r="296" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>882</v>
       </c>
@@ -19834,7 +20562,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="297" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>883</v>
       </c>
@@ -19885,7 +20613,7 @@
       <c r="Z297" s="3"/>
       <c r="AA297" s="3"/>
     </row>
-    <row r="298" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>884</v>
       </c>
@@ -19923,7 +20651,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="299" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>885</v>
       </c>
@@ -19974,7 +20702,7 @@
       <c r="Z299" s="3"/>
       <c r="AA299" s="3"/>
     </row>
-    <row r="300" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>886</v>
       </c>
@@ -20012,7 +20740,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="301" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>888</v>
       </c>
@@ -20067,7 +20795,7 @@
       <c r="Z301" s="3"/>
       <c r="AA301" s="3"/>
     </row>
-    <row r="302" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>890</v>
       </c>
@@ -20105,7 +20833,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="303" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>892</v>
       </c>
@@ -20156,7 +20884,7 @@
       <c r="Z303" s="3"/>
       <c r="AA303" s="3"/>
     </row>
-    <row r="304" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>893</v>
       </c>
@@ -20194,7 +20922,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="305" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>896</v>
       </c>
@@ -20245,7 +20973,7 @@
       <c r="Z305" s="3"/>
       <c r="AA305" s="3"/>
     </row>
-    <row r="306" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>898</v>
       </c>
@@ -20283,7 +21011,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="307" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
         <v>899</v>
       </c>
@@ -20334,7 +21062,7 @@
       <c r="Z307" s="3"/>
       <c r="AA307" s="3"/>
     </row>
-    <row r="308" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>901</v>
       </c>
@@ -20372,7 +21100,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="309" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>902</v>
       </c>
@@ -20423,7 +21151,7 @@
       <c r="Z309" s="3"/>
       <c r="AA309" s="3"/>
     </row>
-    <row r="310" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>903</v>
       </c>
@@ -20461,7 +21189,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="311" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>904</v>
       </c>
@@ -20512,7 +21240,7 @@
       <c r="Z311" s="3"/>
       <c r="AA311" s="3"/>
     </row>
-    <row r="312" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>905</v>
       </c>
@@ -20550,7 +21278,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="313" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>906</v>
       </c>
@@ -20601,7 +21329,7 @@
       <c r="Z313" s="3"/>
       <c r="AA313" s="3"/>
     </row>
-    <row r="314" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>908</v>
       </c>
@@ -20639,7 +21367,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="315" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>909</v>
       </c>
@@ -20690,7 +21418,7 @@
       <c r="Z315" s="3"/>
       <c r="AA315" s="3"/>
     </row>
-    <row r="316" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>912</v>
       </c>
@@ -20728,7 +21456,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="317" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>914</v>
       </c>
@@ -20779,7 +21507,7 @@
       <c r="Z317" s="3"/>
       <c r="AA317" s="3"/>
     </row>
-    <row r="318" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>915</v>
       </c>
@@ -20817,7 +21545,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="319" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
         <v>917</v>
       </c>
@@ -20868,7 +21596,7 @@
       <c r="Z319" s="3"/>
       <c r="AA319" s="3"/>
     </row>
-    <row r="320" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>919</v>
       </c>
@@ -20921,7 +21649,7 @@
       <c r="Z320" s="30"/>
       <c r="AA320" s="30"/>
     </row>
-    <row r="321" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
         <v>921</v>
       </c>
@@ -20972,7 +21700,7 @@
       <c r="Z321" s="3"/>
       <c r="AA321" s="3"/>
     </row>
-    <row r="322" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>922</v>
       </c>
@@ -21010,7 +21738,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="323" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>923</v>
       </c>
@@ -21061,7 +21789,7 @@
       <c r="Z323" s="3"/>
       <c r="AA323" s="3"/>
     </row>
-    <row r="324" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>924</v>
       </c>
@@ -21099,7 +21827,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="325" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>925</v>
       </c>
@@ -21150,7 +21878,7 @@
       <c r="Z325" s="3"/>
       <c r="AA325" s="3"/>
     </row>
-    <row r="326" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>926</v>
       </c>
@@ -21188,7 +21916,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="327" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>927</v>
       </c>
@@ -21239,7 +21967,7 @@
       <c r="Z327" s="3"/>
       <c r="AA327" s="3"/>
     </row>
-    <row r="328" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>928</v>
       </c>
@@ -21280,7 +22008,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="329" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
         <v>930</v>
       </c>
@@ -21331,7 +22059,7 @@
       <c r="Z329" s="3"/>
       <c r="AA329" s="3"/>
     </row>
-    <row r="330" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>931</v>
       </c>
@@ -21369,7 +22097,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="331" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
         <v>932</v>
       </c>
@@ -21420,7 +22148,7 @@
       <c r="Z331" s="3"/>
       <c r="AA331" s="3"/>
     </row>
-    <row r="332" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>934</v>
       </c>
@@ -21473,7 +22201,7 @@
       <c r="Z332" s="30"/>
       <c r="AA332" s="30"/>
     </row>
-    <row r="333" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>935</v>
       </c>
@@ -21528,7 +22256,7 @@
       <c r="Z333" s="30"/>
       <c r="AA333" s="30"/>
     </row>
-    <row r="334" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>937</v>
       </c>
@@ -21581,7 +22309,7 @@
       <c r="Z334" s="30"/>
       <c r="AA334" s="30"/>
     </row>
-    <row r="335" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>939</v>
       </c>
@@ -21632,7 +22360,7 @@
       <c r="Z335" s="3"/>
       <c r="AA335" s="3"/>
     </row>
-    <row r="336" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>940</v>
       </c>
@@ -21670,7 +22398,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="337" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>941</v>
       </c>
@@ -21727,7 +22455,7 @@
       <c r="Z337" s="30"/>
       <c r="AA337" s="30"/>
     </row>
-    <row r="338" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>943</v>
       </c>
@@ -21765,7 +22493,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="339" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>945</v>
       </c>
@@ -21820,7 +22548,7 @@
       <c r="Z339" s="30"/>
       <c r="AA339" s="30"/>
     </row>
-    <row r="340" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>946</v>
       </c>
@@ -21858,7 +22586,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="341" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>947</v>
       </c>
@@ -21909,7 +22637,7 @@
       <c r="Z341" s="3"/>
       <c r="AA341" s="3"/>
     </row>
-    <row r="342" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>948</v>
       </c>
@@ -21947,7 +22675,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="343" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>950</v>
       </c>
@@ -21998,7 +22726,7 @@
       <c r="Z343" s="3"/>
       <c r="AA343" s="3"/>
     </row>
-    <row r="344" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>952</v>
       </c>
@@ -22036,7 +22764,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="345" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>954</v>
       </c>
@@ -22087,7 +22815,7 @@
       <c r="Z345" s="3"/>
       <c r="AA345" s="3"/>
     </row>
-    <row r="346" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>956</v>
       </c>
@@ -22140,7 +22868,7 @@
       <c r="Z346" s="30"/>
       <c r="AA346" s="30"/>
     </row>
-    <row r="347" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>959</v>
       </c>
@@ -22191,7 +22919,7 @@
       <c r="Z347" s="3"/>
       <c r="AA347" s="3"/>
     </row>
-    <row r="348" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>962</v>
       </c>
@@ -22229,7 +22957,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="349" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>964</v>
       </c>
@@ -22280,7 +23008,7 @@
       <c r="Z349" s="3"/>
       <c r="AA349" s="3"/>
     </row>
-    <row r="350" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>965</v>
       </c>
@@ -22321,7 +23049,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="351" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>967</v>
       </c>
@@ -22372,7 +23100,7 @@
       <c r="Z351" s="3"/>
       <c r="AA351" s="3"/>
     </row>
-    <row r="352" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>969</v>
       </c>
@@ -22410,7 +23138,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="353" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
         <v>971</v>
       </c>
@@ -22460,7 +23188,7 @@
       <c r="Z353" s="3"/>
       <c r="AA353" s="3"/>
     </row>
-    <row r="354" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>972</v>
       </c>
@@ -22498,7 +23226,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="355" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
         <v>974</v>
       </c>
@@ -22551,7 +23279,7 @@
       <c r="Z355" s="3"/>
       <c r="AA355" s="3"/>
     </row>
-    <row r="356" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>976</v>
       </c>
@@ -22604,7 +23332,7 @@
       <c r="Z356" s="30"/>
       <c r="AA356" s="30"/>
     </row>
-    <row r="357" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
         <v>977</v>
       </c>
@@ -22655,7 +23383,7 @@
       <c r="Z357" s="3"/>
       <c r="AA357" s="3"/>
     </row>
-    <row r="358" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>979</v>
       </c>
@@ -22693,7 +23421,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="359" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
         <v>980</v>
       </c>
@@ -22744,7 +23472,7 @@
       <c r="Z359" s="3"/>
       <c r="AA359" s="3"/>
     </row>
-    <row r="360" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>982</v>
       </c>
@@ -22782,7 +23510,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="361" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
         <v>983</v>
       </c>
@@ -22833,7 +23561,7 @@
       <c r="Z361" s="3"/>
       <c r="AA361" s="3"/>
     </row>
-    <row r="362" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>985</v>
       </c>
@@ -22898,7 +23626,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="363" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
         <v>988</v>
       </c>
@@ -22955,7 +23683,7 @@
       <c r="Z363" s="3"/>
       <c r="AA363" s="3"/>
     </row>
-    <row r="364" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>989</v>
       </c>
@@ -23002,7 +23730,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="365" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
         <v>992</v>
       </c>
@@ -23059,7 +23787,7 @@
       <c r="Z365" s="3"/>
       <c r="AA365" s="3"/>
     </row>
-    <row r="366" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>994</v>
       </c>
@@ -23106,7 +23834,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="367" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
         <v>996</v>
       </c>
@@ -23163,7 +23891,7 @@
       <c r="Z367" s="3"/>
       <c r="AA367" s="3"/>
     </row>
-    <row r="368" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>997</v>
       </c>
@@ -23210,7 +23938,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="369" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
         <v>999</v>
       </c>
@@ -23269,7 +23997,7 @@
       <c r="Z369" s="11"/>
       <c r="AA369" s="11"/>
     </row>
-    <row r="370" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>1001</v>
       </c>
@@ -23316,7 +24044,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="371" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
         <v>1002</v>
       </c>
@@ -23373,7 +24101,7 @@
       <c r="Z371" s="3"/>
       <c r="AA371" s="3"/>
     </row>
-    <row r="372" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>1003</v>
       </c>
@@ -23433,7 +24161,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="373" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
         <v>1005</v>
       </c>
@@ -23494,7 +24222,7 @@
       <c r="Z373" s="11"/>
       <c r="AA373" s="11"/>
     </row>
-    <row r="374" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>1007</v>
       </c>
@@ -23541,7 +24269,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="375" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
         <v>1008</v>
       </c>
@@ -23602,7 +24330,7 @@
       <c r="Z375" s="3"/>
       <c r="AA375" s="3"/>
     </row>
-    <row r="376" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>1009</v>
       </c>
@@ -23661,7 +24389,7 @@
       <c r="Z376" s="17"/>
       <c r="AA376" s="17"/>
     </row>
-    <row r="377" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
         <v>1010</v>
       </c>
@@ -23718,7 +24446,7 @@
       <c r="Z377" s="3"/>
       <c r="AA377" s="3"/>
     </row>
-    <row r="378" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>1012</v>
       </c>
@@ -23765,7 +24493,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="379" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
         <v>1013</v>
       </c>
@@ -23832,7 +24560,7 @@
       <c r="Z379" s="3"/>
       <c r="AA379" s="3"/>
     </row>
-    <row r="380" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>1015</v>
       </c>
@@ -23879,7 +24607,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="381" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
         <v>1018</v>
       </c>
@@ -23936,7 +24664,7 @@
       <c r="Z381" s="3"/>
       <c r="AA381" s="3"/>
     </row>
-    <row r="382" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>1020</v>
       </c>
@@ -23983,7 +24711,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="383" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
         <v>1023</v>
       </c>
@@ -24040,7 +24768,7 @@
       <c r="Z383" s="3"/>
       <c r="AA383" s="3"/>
     </row>
-    <row r="384" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>1025</v>
       </c>
@@ -24087,7 +24815,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="385" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
         <v>1026</v>
       </c>
@@ -24144,7 +24872,7 @@
       <c r="Z385" s="3"/>
       <c r="AA385" s="3"/>
     </row>
-    <row r="386" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>1027</v>
       </c>
@@ -24191,7 +24919,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="387" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
         <v>1028</v>
       </c>
@@ -24250,7 +24978,7 @@
       <c r="Z387" s="3"/>
       <c r="AA387" s="3"/>
     </row>
-    <row r="388" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>1029</v>
       </c>
@@ -24314,7 +25042,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="389" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
         <v>1031</v>
       </c>
@@ -24371,7 +25099,7 @@
       <c r="Z389" s="3"/>
       <c r="AA389" s="3"/>
     </row>
-    <row r="390" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>1032</v>
       </c>
@@ -24418,7 +25146,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="391" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
         <v>1034</v>
       </c>
@@ -24479,7 +25207,7 @@
       <c r="Z391" s="11"/>
       <c r="AA391" s="11"/>
     </row>
-    <row r="392" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>1035</v>
       </c>
@@ -24540,7 +25268,7 @@
       <c r="Z392" s="30"/>
       <c r="AA392" s="15"/>
     </row>
-    <row r="393" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
         <v>1036</v>
       </c>
@@ -24597,7 +25325,7 @@
       <c r="Z393" s="3"/>
       <c r="AA393" s="3"/>
     </row>
-    <row r="394" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>1038</v>
       </c>
@@ -24658,7 +25386,7 @@
       <c r="Z394" s="30"/>
       <c r="AA394" s="30"/>
     </row>
-    <row r="395" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
         <v>1039</v>
       </c>
@@ -24715,7 +25443,7 @@
       <c r="Z395" s="3"/>
       <c r="AA395" s="3"/>
     </row>
-    <row r="396" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>1041</v>
       </c>
@@ -24763,7 +25491,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="397" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
         <v>1042</v>
       </c>
@@ -24820,7 +25548,7 @@
       <c r="Z397" s="3"/>
       <c r="AA397" s="3"/>
     </row>
-    <row r="398" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>1045</v>
       </c>
@@ -24867,7 +25595,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="399" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
         <v>1047</v>
       </c>
@@ -24930,7 +25658,7 @@
       <c r="Z399" s="3"/>
       <c r="AA399" s="3"/>
     </row>
-    <row r="400" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>1050</v>
       </c>
@@ -24977,7 +25705,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="401" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
         <v>1052</v>
       </c>
@@ -25034,7 +25762,7 @@
       <c r="Z401" s="3"/>
       <c r="AA401" s="3"/>
     </row>
-    <row r="402" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>1053</v>
       </c>
@@ -25097,7 +25825,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="403" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
         <v>1055</v>
       </c>
@@ -25154,7 +25882,7 @@
       <c r="Z403" s="3"/>
       <c r="AA403" s="3"/>
     </row>
-    <row r="404" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>1056</v>
       </c>
@@ -25222,7 +25950,7 @@
       <c r="Z404" s="30"/>
       <c r="AA404" s="30"/>
     </row>
-    <row r="405" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
         <v>1057</v>
       </c>
@@ -25279,7 +26007,7 @@
       <c r="Z405" s="3"/>
       <c r="AA405" s="3"/>
     </row>
-    <row r="406" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>1059</v>
       </c>
@@ -25336,7 +26064,7 @@
       <c r="Z406" s="17"/>
       <c r="AA406" s="17"/>
     </row>
-    <row r="407" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
         <v>1060</v>
       </c>
@@ -25393,7 +26121,7 @@
       <c r="Z407" s="3"/>
       <c r="AA407" s="3"/>
     </row>
-    <row r="408" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>1061</v>
       </c>
@@ -25441,7 +26169,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="409" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
         <v>1062</v>
       </c>
@@ -25498,7 +26226,7 @@
       <c r="Z409" s="3"/>
       <c r="AA409" s="3"/>
     </row>
-    <row r="410" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>1064</v>
       </c>
@@ -25546,7 +26274,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="411" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
         <v>1066</v>
       </c>
@@ -25609,7 +26337,7 @@
       <c r="Z411" s="3"/>
       <c r="AA411" s="3"/>
     </row>
-    <row r="412" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>1069</v>
       </c>
@@ -25656,7 +26384,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="413" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
         <v>1071</v>
       </c>
@@ -25717,7 +26445,7 @@
       <c r="Z413" s="11"/>
       <c r="AA413" s="11"/>
     </row>
-    <row r="414" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>1073</v>
       </c>
@@ -25778,7 +26506,7 @@
       <c r="Z414" s="17"/>
       <c r="AA414" s="17"/>
     </row>
-    <row r="415" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
         <v>1074</v>
       </c>
@@ -25835,7 +26563,7 @@
       <c r="Z415" s="3"/>
       <c r="AA415" s="3"/>
     </row>
-    <row r="416" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>1075</v>
       </c>
@@ -25882,7 +26610,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="417" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
         <v>1077</v>
       </c>
@@ -25939,7 +26667,7 @@
       <c r="Z417" s="3"/>
       <c r="AA417" s="3"/>
     </row>
-    <row r="418" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>1078</v>
       </c>
@@ -25999,7 +26727,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="419" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
         <v>1079</v>
       </c>
@@ -26062,7 +26790,7 @@
       <c r="Z419" s="3"/>
       <c r="AA419" s="3"/>
     </row>
-    <row r="420" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>1081</v>
       </c>
@@ -26109,7 +26837,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="421" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
         <v>1082</v>
       </c>
@@ -26166,7 +26894,7 @@
       <c r="Z421" s="3"/>
       <c r="AA421" s="3"/>
     </row>
-    <row r="422" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>1084</v>
       </c>
@@ -26213,7 +26941,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="423" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
         <v>1085</v>
       </c>
@@ -26286,7 +27014,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="424" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>1086</v>
       </c>
@@ -26333,7 +27061,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="425" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
         <v>1087</v>
       </c>
@@ -26404,7 +27132,7 @@
       <c r="Z425" s="3"/>
       <c r="AA425" s="3"/>
     </row>
-    <row r="426" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>1089</v>
       </c>
@@ -26451,7 +27179,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="427" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
         <v>1091</v>
       </c>
@@ -26508,7 +27236,7 @@
       <c r="Z427" s="3"/>
       <c r="AA427" s="3"/>
     </row>
-    <row r="428" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>1093</v>
       </c>
@@ -26555,7 +27283,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="429" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
         <v>1094</v>
       </c>
@@ -26612,7 +27340,7 @@
       <c r="Z429" s="3"/>
       <c r="AA429" s="3"/>
     </row>
-    <row r="430" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>1096</v>
       </c>
@@ -26659,7 +27387,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="431" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="s">
         <v>1098</v>
       </c>
@@ -26716,7 +27444,7 @@
       <c r="Z431" s="3"/>
       <c r="AA431" s="3"/>
     </row>
-    <row r="432" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>1100</v>
       </c>
@@ -26766,7 +27494,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="433" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="3" t="s">
         <v>1102</v>
       </c>
@@ -26823,7 +27551,7 @@
       <c r="Z433" s="3"/>
       <c r="AA433" s="3"/>
     </row>
-    <row r="434" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>1103</v>
       </c>
@@ -26870,7 +27598,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="435" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
         <v>1104</v>
       </c>
@@ -26927,7 +27655,7 @@
       <c r="Z435" s="11"/>
       <c r="AA435" s="11"/>
     </row>
-    <row r="436" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>1105</v>
       </c>
@@ -26986,7 +27714,7 @@
       <c r="Z436" s="17"/>
       <c r="AA436" s="17"/>
     </row>
-    <row r="437" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
         <v>1107</v>
       </c>
@@ -27043,7 +27771,7 @@
       <c r="Z437" s="3"/>
       <c r="AA437" s="3"/>
     </row>
-    <row r="438" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>1109</v>
       </c>
@@ -27090,7 +27818,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="439" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
         <v>1110</v>
       </c>
@@ -27151,7 +27879,7 @@
       <c r="Z439" s="3"/>
       <c r="AA439" s="3"/>
     </row>
-    <row r="440" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>1111</v>
       </c>
@@ -27198,7 +27926,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="441" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
         <v>1113</v>
       </c>
@@ -27255,7 +27983,7 @@
       <c r="Z441" s="3"/>
       <c r="AA441" s="3"/>
     </row>
-    <row r="442" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>1114</v>
       </c>
@@ -27302,7 +28030,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="443" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
         <v>1117</v>
       </c>
@@ -27367,7 +28095,7 @@
       <c r="Z443" s="3"/>
       <c r="AA443" s="3"/>
     </row>
-    <row r="444" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>1118</v>
       </c>
@@ -27429,7 +28157,7 @@
       <c r="Z444" s="17"/>
       <c r="AA444" s="17"/>
     </row>
-    <row r="445" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
         <v>1119</v>
       </c>
@@ -27486,7 +28214,7 @@
       <c r="Z445" s="3"/>
       <c r="AA445" s="3"/>
     </row>
-    <row r="446" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>1120</v>
       </c>
@@ -27533,7 +28261,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="447" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
         <v>1121</v>
       </c>
@@ -27590,7 +28318,7 @@
       <c r="Z447" s="3"/>
       <c r="AA447" s="3"/>
     </row>
-    <row r="448" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>1122</v>
       </c>
@@ -27650,7 +28378,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="449" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
         <v>1123</v>
       </c>
@@ -27707,7 +28435,7 @@
       <c r="Z449" s="3"/>
       <c r="AA449" s="3"/>
     </row>
-    <row r="450" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>1126</v>
       </c>
@@ -27754,7 +28482,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="451" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
         <v>1128</v>
       </c>
@@ -27815,7 +28543,7 @@
       <c r="Z451" s="11"/>
       <c r="AA451" s="11"/>
     </row>
-    <row r="452" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>1129</v>
       </c>
@@ -27863,7 +28591,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="453" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
         <v>1132</v>
       </c>
@@ -27919,7 +28647,7 @@
       <c r="Z453" s="3"/>
       <c r="AA453" s="3"/>
     </row>
-    <row r="454" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>1134</v>
       </c>
@@ -27966,7 +28694,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="455" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
         <v>1136</v>
       </c>
@@ -28023,7 +28751,7 @@
       <c r="Z455" s="3"/>
       <c r="AA455" s="3"/>
     </row>
-    <row r="456" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>1137</v>
       </c>
@@ -28070,7 +28798,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="457" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
         <v>1139</v>
       </c>
@@ -28127,7 +28855,7 @@
       <c r="Z457" s="3"/>
       <c r="AA457" s="3"/>
     </row>
-    <row r="458" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>1140</v>
       </c>
@@ -28174,7 +28902,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="459" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="s">
         <v>1141</v>
       </c>
@@ -28231,7 +28959,7 @@
       <c r="Z459" s="3"/>
       <c r="AA459" s="3"/>
     </row>
-    <row r="460" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>1143</v>
       </c>
@@ -28278,7 +29006,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="461" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="3" t="s">
         <v>1145</v>
       </c>
@@ -28335,7 +29063,7 @@
       <c r="Z461" s="3"/>
       <c r="AA461" s="3"/>
     </row>
-    <row r="462" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>1146</v>
       </c>
@@ -28396,7 +29124,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="463" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="3" t="s">
         <v>1147</v>
       </c>
@@ -28453,7 +29181,7 @@
       <c r="Z463" s="3"/>
       <c r="AA463" s="3"/>
     </row>
-    <row r="464" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>1148</v>
       </c>
@@ -28503,7 +29231,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="465" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="3" t="s">
         <v>1149</v>
       </c>
@@ -28560,7 +29288,7 @@
       <c r="Z465" s="3"/>
       <c r="AA465" s="3"/>
     </row>
-    <row r="466" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>1150</v>
       </c>
@@ -28607,7 +29335,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="467" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="3" t="s">
         <v>1151</v>
       </c>
@@ -28664,7 +29392,7 @@
       <c r="Z467" s="3"/>
       <c r="AA467" s="3"/>
     </row>
-    <row r="468" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>1152</v>
       </c>
@@ -28711,7 +29439,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="469" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="3" t="s">
         <v>1153</v>
       </c>
@@ -28768,7 +29496,7 @@
       <c r="Z469" s="3"/>
       <c r="AA469" s="3"/>
     </row>
-    <row r="470" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>1154</v>
       </c>
@@ -28815,7 +29543,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="471" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
         <v>1156</v>
       </c>
@@ -28872,7 +29600,7 @@
       <c r="Z471" s="3"/>
       <c r="AA471" s="3"/>
     </row>
-    <row r="472" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>1157</v>
       </c>
@@ -28919,7 +29647,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="473" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="3" t="s">
         <v>1158</v>
       </c>
@@ -28976,7 +29704,7 @@
       <c r="Z473" s="3"/>
       <c r="AA473" s="3"/>
     </row>
-    <row r="474" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>1160</v>
       </c>
@@ -29023,7 +29751,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="475" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="3" t="s">
         <v>1161</v>
       </c>
@@ -29080,7 +29808,7 @@
       <c r="Z475" s="3"/>
       <c r="AA475" s="3"/>
     </row>
-    <row r="476" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>1163</v>
       </c>
@@ -29127,7 +29855,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="477" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="s">
         <v>1165</v>
       </c>
@@ -29184,7 +29912,7 @@
       <c r="Z477" s="3"/>
       <c r="AA477" s="3"/>
     </row>
-    <row r="478" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>1166</v>
       </c>
@@ -29231,7 +29959,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="479" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
         <v>1168</v>
       </c>
@@ -29288,7 +30016,7 @@
       <c r="Z479" s="3"/>
       <c r="AA479" s="3"/>
     </row>
-    <row r="480" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>1170</v>
       </c>
@@ -29335,7 +30063,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="481" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="3" t="s">
         <v>1171</v>
       </c>
@@ -29392,7 +30120,7 @@
       <c r="Z481" s="3"/>
       <c r="AA481" s="3"/>
     </row>
-    <row r="482" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>1172</v>
       </c>
@@ -29439,7 +30167,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="483" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="3" t="s">
         <v>1174</v>
       </c>
@@ -29496,7 +30224,7 @@
       <c r="Z483" s="3"/>
       <c r="AA483" s="3"/>
     </row>
-    <row r="484" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>1175</v>
       </c>
@@ -29543,7 +30271,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="485" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="3" t="s">
         <v>1176</v>
       </c>
@@ -29600,7 +30328,7 @@
       <c r="Z485" s="3"/>
       <c r="AA485" s="3"/>
     </row>
-    <row r="486" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>1178</v>
       </c>
@@ -29647,7 +30375,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="487" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="3" t="s">
         <v>1179</v>
       </c>
@@ -29704,7 +30432,7 @@
       <c r="Z487" s="3"/>
       <c r="AA487" s="3"/>
     </row>
-    <row r="488" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>1181</v>
       </c>
@@ -29751,7 +30479,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="489" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="3" t="s">
         <v>1182</v>
       </c>
@@ -29808,7 +30536,7 @@
       <c r="Z489" s="3"/>
       <c r="AA489" s="3"/>
     </row>
-    <row r="490" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>1183</v>
       </c>
@@ -29855,7 +30583,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="491" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
         <v>1184</v>
       </c>
@@ -29912,7 +30640,7 @@
       <c r="Z491" s="3"/>
       <c r="AA491" s="3"/>
     </row>
-    <row r="492" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>1185</v>
       </c>
@@ -29959,7 +30687,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="493" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="3" t="s">
         <v>1186</v>
       </c>
@@ -30016,7 +30744,7 @@
       <c r="Z493" s="3"/>
       <c r="AA493" s="3"/>
     </row>
-    <row r="494" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>1187</v>
       </c>
@@ -30066,7 +30794,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="495" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="3" t="s">
         <v>1188</v>
       </c>
@@ -30125,7 +30853,7 @@
       <c r="Z495" s="3"/>
       <c r="AA495" s="3"/>
     </row>
-    <row r="496" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>1189</v>
       </c>
@@ -30172,7 +30900,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="497" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="3" t="s">
         <v>1192</v>
       </c>
@@ -30229,7 +30957,7 @@
       <c r="Z497" s="3"/>
       <c r="AA497" s="3"/>
     </row>
-    <row r="498" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>1194</v>
       </c>
@@ -30276,7 +31004,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="499" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="3" t="s">
         <v>1195</v>
       </c>
@@ -30333,7 +31061,7 @@
       <c r="Z499" s="3"/>
       <c r="AA499" s="3"/>
     </row>
-    <row r="500" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>1196</v>
       </c>
@@ -30380,7 +31108,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="501" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="3" t="s">
         <v>1197</v>
       </c>
@@ -30437,7 +31165,7 @@
       <c r="Z501" s="3"/>
       <c r="AA501" s="3"/>
     </row>
-    <row r="502" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>1198</v>
       </c>
@@ -30487,7 +31215,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="503" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="3" t="s">
         <v>1200</v>
       </c>
@@ -30554,7 +31282,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="504" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>1203</v>
       </c>
@@ -30601,7 +31329,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="505" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="3" t="s">
         <v>1204</v>
       </c>
@@ -30658,7 +31386,7 @@
       <c r="Z505" s="3"/>
       <c r="AA505" s="3"/>
     </row>
-    <row r="506" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>1206</v>
       </c>
@@ -30705,7 +31433,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="507" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="3" t="s">
         <v>1207</v>
       </c>
@@ -30762,7 +31490,7 @@
       <c r="Z507" s="3"/>
       <c r="AA507" s="3"/>
     </row>
-    <row r="508" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>1209</v>
       </c>
@@ -30809,7 +31537,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="509" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="3" t="s">
         <v>1210</v>
       </c>
@@ -30866,7 +31594,7 @@
       <c r="Z509" s="3"/>
       <c r="AA509" s="3"/>
     </row>
-    <row r="510" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>1212</v>
       </c>
@@ -30941,7 +31669,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="511" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="3" t="s">
         <v>1214</v>
       </c>
@@ -30998,7 +31726,7 @@
       <c r="Z511" s="3"/>
       <c r="AA511" s="3"/>
     </row>
-    <row r="512" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>1216</v>
       </c>
@@ -31045,7 +31773,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="513" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="3" t="s">
         <v>1218</v>
       </c>
@@ -31102,7 +31830,7 @@
       <c r="Z513" s="3"/>
       <c r="AA513" s="3"/>
     </row>
-    <row r="514" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>1219</v>
       </c>
@@ -31149,7 +31877,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="515" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="3" t="s">
         <v>1220</v>
       </c>
@@ -31206,7 +31934,7 @@
       <c r="Z515" s="3"/>
       <c r="AA515" s="3"/>
     </row>
-    <row r="516" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>1221</v>
       </c>
@@ -31253,7 +31981,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="517" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="3" t="s">
         <v>1222</v>
       </c>
@@ -31310,7 +32038,7 @@
       <c r="Z517" s="3"/>
       <c r="AA517" s="3"/>
     </row>
-    <row r="518" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>1223</v>
       </c>
@@ -31360,7 +32088,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="519" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="3" t="s">
         <v>1225</v>
       </c>
@@ -31429,7 +32157,7 @@
       <c r="Z519" s="3"/>
       <c r="AA519" s="3"/>
     </row>
-    <row r="520" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>1227</v>
       </c>
@@ -31491,7 +32219,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="521" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="3" t="s">
         <v>1229</v>
       </c>
@@ -31548,7 +32276,7 @@
       <c r="Z521" s="3"/>
       <c r="AA521" s="3"/>
     </row>
-    <row r="522" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>1231</v>
       </c>
@@ -31595,7 +32323,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="523" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="3" t="s">
         <v>1232</v>
       </c>
@@ -31652,7 +32380,7 @@
       <c r="Z523" s="3"/>
       <c r="AA523" s="3"/>
     </row>
-    <row r="524" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>1234</v>
       </c>
@@ -31699,7 +32427,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="525" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="3" t="s">
         <v>1236</v>
       </c>
@@ -31756,7 +32484,7 @@
       <c r="Z525" s="3"/>
       <c r="AA525" s="3"/>
     </row>
-    <row r="526" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>1238</v>
       </c>
@@ -31806,7 +32534,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="527" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="3" t="s">
         <v>1240</v>
       </c>
@@ -31863,7 +32591,7 @@
       <c r="Z527" s="3"/>
       <c r="AA527" s="3"/>
     </row>
-    <row r="528" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>1241</v>
       </c>
@@ -31910,7 +32638,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="529" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="3" t="s">
         <v>1242</v>
       </c>
@@ -31967,7 +32695,7 @@
       <c r="Z529" s="3"/>
       <c r="AA529" s="3"/>
     </row>
-    <row r="530" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
         <v>1243</v>
       </c>
@@ -32014,7 +32742,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="531" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="3" t="s">
         <v>1245</v>
       </c>
@@ -32071,7 +32799,7 @@
       <c r="Z531" s="3"/>
       <c r="AA531" s="3"/>
     </row>
-    <row r="532" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>1246</v>
       </c>
@@ -32118,7 +32846,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="533" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="3" t="s">
         <v>1247</v>
       </c>
@@ -32175,7 +32903,7 @@
       <c r="Z533" s="3"/>
       <c r="AA533" s="3"/>
     </row>
-    <row r="534" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>1248</v>
       </c>
@@ -32222,7 +32950,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="535" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="3" t="s">
         <v>1249</v>
       </c>
@@ -32279,7 +33007,7 @@
       <c r="Z535" s="3"/>
       <c r="AA535" s="3"/>
     </row>
-    <row r="536" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>1252</v>
       </c>
@@ -32326,7 +33054,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="537" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="3" t="s">
         <v>1254</v>
       </c>
@@ -32383,7 +33111,7 @@
       <c r="Z537" s="3"/>
       <c r="AA537" s="3"/>
     </row>
-    <row r="538" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
         <v>1255</v>
       </c>
@@ -32430,7 +33158,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="539" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="3" t="s">
         <v>1257</v>
       </c>
@@ -32487,7 +33215,7 @@
       <c r="Z539" s="3"/>
       <c r="AA539" s="3"/>
     </row>
-    <row r="540" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
         <v>1258</v>
       </c>
@@ -32534,7 +33262,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="541" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="3" t="s">
         <v>1259</v>
       </c>
@@ -32591,7 +33319,7 @@
       <c r="Z541" s="3"/>
       <c r="AA541" s="3"/>
     </row>
-    <row r="542" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>1261</v>
       </c>
@@ -32632,7 +33360,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="543" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="3" t="s">
         <v>1264</v>
       </c>
@@ -32683,7 +33411,7 @@
       <c r="Z543" s="3"/>
       <c r="AA543" s="3"/>
     </row>
-    <row r="544" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>1265</v>
       </c>
@@ -32724,7 +33452,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="545" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="3" t="s">
         <v>1266</v>
       </c>
@@ -32775,7 +33503,7 @@
       <c r="Z545" s="3"/>
       <c r="AA545" s="3"/>
     </row>
-    <row r="546" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>1267</v>
       </c>
@@ -32813,7 +33541,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="547" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="3" t="s">
         <v>1269</v>
       </c>
@@ -32864,7 +33592,7 @@
       <c r="Z547" s="3"/>
       <c r="AA547" s="3"/>
     </row>
-    <row r="548" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>1270</v>
       </c>
@@ -32902,7 +33630,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="549" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="3" t="s">
         <v>1271</v>
       </c>
@@ -32953,7 +33681,7 @@
       <c r="Z549" s="3"/>
       <c r="AA549" s="3"/>
     </row>
-    <row r="550" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>1272</v>
       </c>
@@ -32991,7 +33719,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="551" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="3" t="s">
         <v>1274</v>
       </c>
@@ -33042,7 +33770,7 @@
       <c r="Z551" s="3"/>
       <c r="AA551" s="3"/>
     </row>
-    <row r="552" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>1275</v>
       </c>
@@ -33083,7 +33811,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="553" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="3" t="s">
         <v>1277</v>
       </c>
@@ -33134,7 +33862,7 @@
       <c r="Z553" s="3"/>
       <c r="AA553" s="3"/>
     </row>
-    <row r="554" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>1278</v>
       </c>
@@ -33175,7 +33903,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="555" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="3" t="s">
         <v>1280</v>
       </c>
@@ -33226,7 +33954,7 @@
       <c r="Z555" s="3"/>
       <c r="AA555" s="3"/>
     </row>
-    <row r="556" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>1282</v>
       </c>
@@ -33264,7 +33992,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="557" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="3" t="s">
         <v>1283</v>
       </c>
@@ -33315,7 +34043,7 @@
       <c r="Z557" s="3"/>
       <c r="AA557" s="3"/>
     </row>
-    <row r="558" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>1284</v>
       </c>
@@ -33356,7 +34084,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="559" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="3" t="s">
         <v>1286</v>
       </c>
@@ -33409,7 +34137,7 @@
       <c r="Z559" s="3"/>
       <c r="AA559" s="3"/>
     </row>
-    <row r="560" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>1287</v>
       </c>
@@ -33450,7 +34178,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="561" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="3" t="s">
         <v>1288</v>
       </c>
@@ -33501,7 +34229,7 @@
       <c r="Z561" s="3"/>
       <c r="AA561" s="3"/>
     </row>
-    <row r="562" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>1290</v>
       </c>
@@ -33539,7 +34267,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="563" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="3" t="s">
         <v>1293</v>
       </c>
@@ -33590,7 +34318,7 @@
       <c r="Z563" s="3"/>
       <c r="AA563" s="3"/>
     </row>
-    <row r="564" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>1295</v>
       </c>
@@ -33628,7 +34356,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="565" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="3" t="s">
         <v>1297</v>
       </c>
@@ -33679,7 +34407,7 @@
       <c r="Z565" s="3"/>
       <c r="AA565" s="3"/>
     </row>
-    <row r="566" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>1298</v>
       </c>
@@ -33717,7 +34445,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="567" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="3" t="s">
         <v>1299</v>
       </c>
@@ -33768,7 +34496,7 @@
       <c r="Z567" s="3"/>
       <c r="AA567" s="3"/>
     </row>
-    <row r="568" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
         <v>1300</v>
       </c>
@@ -33806,7 +34534,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="569" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="3" t="s">
         <v>1302</v>
       </c>
@@ -33857,7 +34585,7 @@
       <c r="Z569" s="3"/>
       <c r="AA569" s="3"/>
     </row>
-    <row r="570" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
         <v>1303</v>
       </c>
@@ -33895,7 +34623,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="571" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="3" t="s">
         <v>1304</v>
       </c>
@@ -33948,7 +34676,7 @@
       <c r="Z571" s="3"/>
       <c r="AA571" s="3"/>
     </row>
-    <row r="572" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>1306</v>
       </c>
@@ -33986,7 +34714,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="573" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="3" t="s">
         <v>1308</v>
       </c>
@@ -34035,7 +34763,7 @@
       <c r="Z573" s="3"/>
       <c r="AA573" s="3"/>
     </row>
-    <row r="574" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>1310</v>
       </c>
@@ -34076,7 +34804,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="575" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="3" t="s">
         <v>1311</v>
       </c>
@@ -34129,7 +34857,7 @@
       <c r="Z575" s="3"/>
       <c r="AA575" s="3"/>
     </row>
-    <row r="576" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>1312</v>
       </c>
@@ -34170,7 +34898,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="577" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="3" t="s">
         <v>1313</v>
       </c>
@@ -34221,7 +34949,7 @@
       <c r="Z577" s="3"/>
       <c r="AA577" s="3"/>
     </row>
-    <row r="578" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>1315</v>
       </c>
@@ -34262,7 +34990,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="579" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="3" t="s">
         <v>1316</v>
       </c>
@@ -34313,7 +35041,7 @@
       <c r="Z579" s="3"/>
       <c r="AA579" s="3"/>
     </row>
-    <row r="580" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>1317</v>
       </c>
@@ -34351,7 +35079,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="581" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="3" t="s">
         <v>1318</v>
       </c>
@@ -34402,7 +35130,7 @@
       <c r="Z581" s="3"/>
       <c r="AA581" s="3"/>
     </row>
-    <row r="582" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
         <v>1320</v>
       </c>
@@ -34440,7 +35168,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="583" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="3" t="s">
         <v>1322</v>
       </c>
@@ -34493,7 +35221,7 @@
       <c r="Z583" s="3"/>
       <c r="AA583" s="3"/>
     </row>
-    <row r="584" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>1323</v>
       </c>
@@ -34531,7 +35259,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="585" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="3" t="s">
         <v>1325</v>
       </c>
@@ -34582,7 +35310,7 @@
       <c r="Z585" s="3"/>
       <c r="AA585" s="3"/>
     </row>
-    <row r="586" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
         <v>1326</v>
       </c>
@@ -34620,7 +35348,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="587" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="3" t="s">
         <v>1327</v>
       </c>
@@ -34671,7 +35399,7 @@
       <c r="Z587" s="3"/>
       <c r="AA587" s="3"/>
     </row>
-    <row r="588" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
         <v>1328</v>
       </c>
@@ -34712,7 +35440,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="589" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="3" t="s">
         <v>1329</v>
       </c>
@@ -34765,7 +35493,7 @@
       <c r="Z589" s="3"/>
       <c r="AA589" s="3"/>
     </row>
-    <row r="590" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>1330</v>
       </c>
@@ -34806,7 +35534,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="591" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="3" t="s">
         <v>1331</v>
       </c>
@@ -34857,7 +35585,7 @@
       <c r="Z591" s="3"/>
       <c r="AA591" s="3"/>
     </row>
-    <row r="592" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>1332</v>
       </c>
@@ -34895,7 +35623,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="593" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="3" t="s">
         <v>1333</v>
       </c>
@@ -34946,7 +35674,7 @@
       <c r="Z593" s="3"/>
       <c r="AA593" s="3"/>
     </row>
-    <row r="594" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>1335</v>
       </c>
@@ -34987,7 +35715,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="595" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="3" t="s">
         <v>1336</v>
       </c>
@@ -35042,7 +35770,7 @@
       <c r="Z595" s="11"/>
       <c r="AA595" s="11"/>
     </row>
-    <row r="596" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>1337</v>
       </c>
@@ -35083,7 +35811,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="597" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="3" t="s">
         <v>1339</v>
       </c>
@@ -35136,7 +35864,7 @@
       <c r="Z597" s="3"/>
       <c r="AA597" s="3"/>
     </row>
-    <row r="598" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>1340</v>
       </c>
@@ -35174,7 +35902,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="599" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="3" t="s">
         <v>1342</v>
       </c>
@@ -35225,7 +35953,7 @@
       <c r="Z599" s="3"/>
       <c r="AA599" s="3"/>
     </row>
-    <row r="600" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>1344</v>
       </c>
@@ -35263,7 +35991,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="601" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="3" t="s">
         <v>1346</v>
       </c>
@@ -35314,7 +36042,7 @@
       <c r="Z601" s="3"/>
       <c r="AA601" s="3"/>
     </row>
-    <row r="602" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>1347</v>
       </c>
@@ -35355,7 +36083,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="603" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="3" t="s">
         <v>1348</v>
       </c>
@@ -35406,7 +36134,7 @@
       <c r="Z603" s="3"/>
       <c r="AA603" s="3"/>
     </row>
-    <row r="604" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>1349</v>
       </c>
@@ -35444,7 +36172,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="605" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="3" t="s">
         <v>1350</v>
       </c>
@@ -35495,7 +36223,7 @@
       <c r="Z605" s="3"/>
       <c r="AA605" s="3"/>
     </row>
-    <row r="606" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
         <v>1352</v>
       </c>
@@ -35533,7 +36261,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="607" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="3" t="s">
         <v>1353</v>
       </c>
@@ -35584,7 +36312,7 @@
       <c r="Z607" s="3"/>
       <c r="AA607" s="3"/>
     </row>
-    <row r="608" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
         <v>1354</v>
       </c>
@@ -35622,7 +36350,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="609" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="3" t="s">
         <v>1355</v>
       </c>
@@ -35673,7 +36401,7 @@
       <c r="Z609" s="3"/>
       <c r="AA609" s="3"/>
     </row>
-    <row r="610" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>1356</v>
       </c>
@@ -35711,7 +36439,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="611" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="3" t="s">
         <v>1357</v>
       </c>
@@ -35764,7 +36492,7 @@
       <c r="Z611" s="3"/>
       <c r="AA611" s="3"/>
     </row>
-    <row r="612" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
         <v>1359</v>
       </c>
@@ -35802,7 +36530,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="613" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="3" t="s">
         <v>1360</v>
       </c>
@@ -35853,7 +36581,7 @@
       <c r="Z613" s="3"/>
       <c r="AA613" s="3"/>
     </row>
-    <row r="614" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
         <v>1361</v>
       </c>
@@ -35891,7 +36619,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="615" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="3" t="s">
         <v>1363</v>
       </c>
@@ -35942,7 +36670,7 @@
       <c r="Z615" s="3"/>
       <c r="AA615" s="3"/>
     </row>
-    <row r="616" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>1365</v>
       </c>
@@ -35983,7 +36711,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="617" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="3" t="s">
         <v>1366</v>
       </c>
@@ -36034,7 +36762,7 @@
       <c r="Z617" s="3"/>
       <c r="AA617" s="3"/>
     </row>
-    <row r="618" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>1368</v>
       </c>
@@ -36072,7 +36800,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="619" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="3" t="s">
         <v>1369</v>
       </c>
@@ -36123,7 +36851,7 @@
       <c r="Z619" s="3"/>
       <c r="AA619" s="3"/>
     </row>
-    <row r="620" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
         <v>1370</v>
       </c>
@@ -36164,7 +36892,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="621" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="3" t="s">
         <v>1371</v>
       </c>
@@ -36215,7 +36943,7 @@
       <c r="Z621" s="3"/>
       <c r="AA621" s="3"/>
     </row>
-    <row r="622" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>1372</v>
       </c>
@@ -36253,7 +36981,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="623" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="3" t="s">
         <v>1373</v>
       </c>
@@ -36304,7 +37032,7 @@
       <c r="Z623" s="3"/>
       <c r="AA623" s="3"/>
     </row>
-    <row r="624" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>1374</v>
       </c>
@@ -36342,7 +37070,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="625" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="3" t="s">
         <v>1375</v>
       </c>
@@ -36393,7 +37121,7 @@
       <c r="Z625" s="3"/>
       <c r="AA625" s="3"/>
     </row>
-    <row r="626" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
         <v>1377</v>
       </c>
@@ -36431,7 +37159,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="627" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="3" t="s">
         <v>1378</v>
       </c>
@@ -36482,7 +37210,7 @@
       <c r="Z627" s="3"/>
       <c r="AA627" s="3"/>
     </row>
-    <row r="628" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
         <v>1379</v>
       </c>
@@ -36520,7 +37248,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="629" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="3" t="s">
         <v>1380</v>
       </c>
@@ -36571,7 +37299,7 @@
       <c r="Z629" s="3"/>
       <c r="AA629" s="3"/>
     </row>
-    <row r="630" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
         <v>1382</v>
       </c>
@@ -36609,7 +37337,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="631" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="14" t="s">
         <v>1383</v>
       </c>
@@ -38173,7 +38901,7 @@
       <c r="K820" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <tableParts count="1">

--- a/data/treeMeasurements/TreeMeasurements.xlsx
+++ b/data/treeMeasurements/TreeMeasurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/treeMeasurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FBA737-67BB-4349-B289-A4507622F358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893BCE22-9A84-374E-8CDE-2C9FBBC1DAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4738" uniqueCount="1455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4750" uniqueCount="1462">
   <si>
     <t>tree_ID</t>
   </si>
@@ -4401,6 +4401,27 @@
   </si>
   <si>
     <t>trunk 2 is smaller than previous year because its dead</t>
+  </si>
+  <si>
+    <t>there are 2 trunks; might have missed measurement last year</t>
+  </si>
+  <si>
+    <t>main trunk might be dead but still took measurement</t>
+  </si>
+  <si>
+    <t>top of tree is dead; highest lateral shoot measured</t>
+  </si>
+  <si>
+    <t>previous year's measurement was probably wrong; double checked and shoot is intact</t>
+  </si>
+  <si>
+    <t>yes (trunk 2)</t>
+  </si>
+  <si>
+    <t>second trunk previous year measurement is wrong; it grew 2cm in 2025</t>
+  </si>
+  <si>
+    <t>apical shoot died; lateral shoot measured</t>
   </si>
 </sst>
 </file>
@@ -4410,11 +4431,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4597,47 +4625,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5289,7 +5318,7 @@
   <autoFilter ref="A1:AA631" xr:uid="{3F288811-81FB-F847-9587-99D03002EDFF}">
     <filterColumn colId="1">
       <filters>
-        <filter val="2"/>
+        <filter val="3"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
@@ -5531,9 +5560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA820"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U99" sqref="U99"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="167" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W163" sqref="W163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5549,20 +5578,20 @@
     <col min="9" max="9" width="0.33203125" customWidth="1"/>
     <col min="10" max="10" width="20.83203125" customWidth="1"/>
     <col min="11" max="11" width="18.1640625" customWidth="1"/>
-    <col min="12" max="12" width="22.5" style="18" customWidth="1"/>
-    <col min="13" max="13" width="22.83203125" customWidth="1"/>
-    <col min="14" max="14" width="0.6640625" customWidth="1"/>
-    <col min="15" max="15" width="0.1640625" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" style="18" customWidth="1"/>
+    <col min="13" max="13" width="2.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.1640625" customWidth="1"/>
+    <col min="15" max="15" width="20.83203125" customWidth="1"/>
     <col min="16" max="16" width="21.33203125" customWidth="1"/>
     <col min="17" max="17" width="10.33203125" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="19.83203125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" customWidth="1"/>
-    <col min="21" max="21" width="25.5" customWidth="1"/>
-    <col min="22" max="22" width="10.83203125" customWidth="1"/>
+    <col min="19" max="19" width="17.1640625" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="0.5" customWidth="1"/>
+    <col min="22" max="22" width="12.5" customWidth="1"/>
     <col min="23" max="23" width="19.83203125" customWidth="1"/>
     <col min="24" max="24" width="23.1640625" customWidth="1"/>
-    <col min="25" max="25" width="26.1640625" customWidth="1"/>
+    <col min="25" max="25" width="22.5" customWidth="1"/>
     <col min="26" max="26" width="17.83203125" customWidth="1"/>
     <col min="27" max="27" width="25.83203125" customWidth="1"/>
   </cols>
@@ -10378,6 +10407,9 @@
       <c r="T92">
         <v>9.57</v>
       </c>
+      <c r="V92">
+        <v>65.7</v>
+      </c>
     </row>
     <row r="93" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
@@ -10425,7 +10457,9 @@
         <v>9.0299999999999994</v>
       </c>
       <c r="U93" s="3"/>
-      <c r="V93" s="3"/>
+      <c r="V93" s="3">
+        <v>93.3</v>
+      </c>
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
@@ -10472,6 +10506,9 @@
       <c r="T94">
         <v>8.52</v>
       </c>
+      <c r="V94">
+        <v>69.5</v>
+      </c>
     </row>
     <row r="95" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
@@ -10529,12 +10566,18 @@
       <c r="U95" s="3">
         <v>11.15</v>
       </c>
-      <c r="V95" s="3"/>
-      <c r="W95" s="3"/>
+      <c r="V95" s="3">
+        <v>103.3</v>
+      </c>
+      <c r="W95" s="3">
+        <v>110</v>
+      </c>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-      <c r="AA95" s="3"/>
+      <c r="AA95" s="3" t="s">
+        <v>1456</v>
+      </c>
     </row>
     <row r="96" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
@@ -10576,8 +10619,11 @@
       <c r="T96">
         <v>8.65</v>
       </c>
-    </row>
-    <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V96">
+        <v>72.900000000000006</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>416</v>
       </c>
@@ -10623,14 +10669,16 @@
         <v>10.93</v>
       </c>
       <c r="U97" s="3"/>
-      <c r="V97" s="3"/>
+      <c r="V97" s="3">
+        <v>98.6</v>
+      </c>
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
       <c r="AA97" s="3"/>
     </row>
-    <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>419</v>
       </c>
@@ -10670,8 +10718,11 @@
       <c r="T98">
         <v>9.7200000000000006</v>
       </c>
-    </row>
-    <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V98">
+        <v>106.9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>422</v>
       </c>
@@ -10717,14 +10768,16 @@
         <v>13.89</v>
       </c>
       <c r="U99" s="3"/>
-      <c r="V99" s="3"/>
+      <c r="V99" s="3">
+        <v>114.3</v>
+      </c>
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
       <c r="AA99" s="3"/>
     </row>
-    <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>425</v>
       </c>
@@ -10764,8 +10817,17 @@
       <c r="T100">
         <v>10.23</v>
       </c>
-    </row>
-    <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V100">
+        <v>98.6</v>
+      </c>
+      <c r="Y100" s="45" t="s">
+        <v>1427</v>
+      </c>
+      <c r="AA100" s="45" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>428</v>
       </c>
@@ -10811,14 +10873,16 @@
         <v>9.2899999999999991</v>
       </c>
       <c r="U101" s="3"/>
-      <c r="V101" s="3"/>
+      <c r="V101" s="3">
+        <v>128.6</v>
+      </c>
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
       <c r="AA101" s="3"/>
     </row>
-    <row r="102" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>431</v>
       </c>
@@ -10865,8 +10929,26 @@
       <c r="P102">
         <v>57</v>
       </c>
-    </row>
-    <row r="103" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T102">
+        <v>7.77</v>
+      </c>
+      <c r="U102">
+        <v>6.41</v>
+      </c>
+      <c r="V102">
+        <v>69.5</v>
+      </c>
+      <c r="W102">
+        <v>60.6</v>
+      </c>
+      <c r="Y102" s="45" t="s">
+        <v>1427</v>
+      </c>
+      <c r="AA102" s="45" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>436</v>
       </c>
@@ -10908,16 +10990,20 @@
       <c r="Q103" s="3"/>
       <c r="R103" s="3"/>
       <c r="S103" s="3"/>
-      <c r="T103" s="3"/>
+      <c r="T103" s="3">
+        <v>9.61</v>
+      </c>
       <c r="U103" s="3"/>
-      <c r="V103" s="3"/>
+      <c r="V103" s="3">
+        <v>95.7</v>
+      </c>
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
       <c r="AA103" s="3"/>
     </row>
-    <row r="104" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>439</v>
       </c>
@@ -10954,8 +11040,14 @@
       <c r="P104">
         <v>57</v>
       </c>
-    </row>
-    <row r="105" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T104">
+        <v>11.12</v>
+      </c>
+      <c r="V104">
+        <v>120.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>442</v>
       </c>
@@ -11005,16 +11097,24 @@
       <c r="Q105" s="3"/>
       <c r="R105" s="3"/>
       <c r="S105" s="3"/>
-      <c r="T105" s="3"/>
-      <c r="U105" s="3"/>
-      <c r="V105" s="3"/>
-      <c r="W105" s="3"/>
+      <c r="T105" s="3">
+        <v>6.27</v>
+      </c>
+      <c r="U105" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="V105" s="3">
+        <v>63.3</v>
+      </c>
+      <c r="W105" s="3">
+        <v>63.5</v>
+      </c>
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
       <c r="AA105" s="3"/>
     </row>
-    <row r="106" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>446</v>
       </c>
@@ -11060,6 +11160,18 @@
       </c>
       <c r="P106">
         <v>57</v>
+      </c>
+      <c r="T106">
+        <v>8.58</v>
+      </c>
+      <c r="U106">
+        <v>5.75</v>
+      </c>
+      <c r="V106">
+        <v>82.8</v>
+      </c>
+      <c r="W106">
+        <v>46</v>
       </c>
     </row>
     <row r="107" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11108,7 +11220,9 @@
         <v>12.17</v>
       </c>
       <c r="U107" s="3"/>
-      <c r="V107" s="3"/>
+      <c r="V107" s="3">
+        <v>120.8</v>
+      </c>
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
@@ -11155,6 +11269,9 @@
       <c r="T108">
         <v>7.95</v>
       </c>
+      <c r="V108">
+        <v>74.400000000000006</v>
+      </c>
     </row>
     <row r="109" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
@@ -11202,7 +11319,9 @@
         <v>11.08</v>
       </c>
       <c r="U109" s="3"/>
-      <c r="V109" s="3"/>
+      <c r="V109" s="3">
+        <v>99</v>
+      </c>
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
@@ -11262,6 +11381,18 @@
       <c r="U110">
         <v>8.85</v>
       </c>
+      <c r="V110">
+        <v>58.5</v>
+      </c>
+      <c r="W110">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="Y110" s="45" t="s">
+        <v>1427</v>
+      </c>
+      <c r="AA110" s="45" t="s">
+        <v>1419</v>
+      </c>
     </row>
     <row r="111" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
@@ -11309,14 +11440,16 @@
         <v>9.09</v>
       </c>
       <c r="U111" s="3"/>
-      <c r="V111" s="3"/>
+      <c r="V111" s="3">
+        <v>57.6</v>
+      </c>
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
       <c r="AA111" s="3"/>
     </row>
-    <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>461</v>
       </c>
@@ -11356,8 +11489,11 @@
       <c r="T112">
         <v>10.77</v>
       </c>
-    </row>
-    <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V112">
+        <v>126.9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>463</v>
       </c>
@@ -11403,14 +11539,16 @@
         <v>13.08</v>
       </c>
       <c r="U113" s="3"/>
-      <c r="V113" s="3"/>
+      <c r="V113" s="3">
+        <v>105.3</v>
+      </c>
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
       <c r="AA113" s="3"/>
     </row>
-    <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>466</v>
       </c>
@@ -11450,8 +11588,11 @@
       <c r="T114">
         <v>8.5299999999999994</v>
       </c>
-    </row>
-    <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V114">
+        <v>97.1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>469</v>
       </c>
@@ -11497,14 +11638,16 @@
         <v>9.0299999999999994</v>
       </c>
       <c r="U115" s="3"/>
-      <c r="V115" s="3"/>
+      <c r="V115" s="3">
+        <v>85</v>
+      </c>
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
       <c r="AA115" s="3"/>
     </row>
-    <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>471</v>
       </c>
@@ -11544,8 +11687,11 @@
       <c r="T116">
         <v>12.25</v>
       </c>
-    </row>
-    <row r="117" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V116">
+        <v>122.9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>473</v>
       </c>
@@ -11587,16 +11733,20 @@
       <c r="Q117" s="3"/>
       <c r="R117" s="3"/>
       <c r="S117" s="3"/>
-      <c r="T117" s="3"/>
+      <c r="T117" s="3">
+        <v>8.1300000000000008</v>
+      </c>
       <c r="U117" s="3"/>
-      <c r="V117" s="3"/>
+      <c r="V117" s="3">
+        <v>68.8</v>
+      </c>
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
       <c r="AA117" s="3"/>
     </row>
-    <row r="118" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>476</v>
       </c>
@@ -11633,8 +11783,14 @@
       <c r="P118">
         <v>57</v>
       </c>
-    </row>
-    <row r="119" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T118">
+        <v>9.98</v>
+      </c>
+      <c r="V118">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>478</v>
       </c>
@@ -11682,16 +11838,26 @@
       <c r="Q119" s="3"/>
       <c r="R119" s="3"/>
       <c r="S119" s="3"/>
-      <c r="T119" s="3"/>
-      <c r="U119" s="3"/>
-      <c r="V119" s="3"/>
-      <c r="W119" s="3"/>
+      <c r="T119" s="3">
+        <v>9.68</v>
+      </c>
+      <c r="U119" s="3">
+        <v>5.05</v>
+      </c>
+      <c r="V119" s="3">
+        <v>87.6</v>
+      </c>
+      <c r="W119" s="3">
+        <v>58.9</v>
+      </c>
       <c r="X119" s="3"/>
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
-      <c r="AA119" s="3"/>
-    </row>
-    <row r="120" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA119" s="3" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>481</v>
       </c>
@@ -11728,8 +11894,14 @@
       <c r="P120">
         <v>57</v>
       </c>
-    </row>
-    <row r="121" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T120">
+        <v>12.37</v>
+      </c>
+      <c r="V120">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>483</v>
       </c>
@@ -11771,9 +11943,13 @@
       <c r="Q121" s="3"/>
       <c r="R121" s="3"/>
       <c r="S121" s="3"/>
-      <c r="T121" s="3"/>
+      <c r="T121" s="3">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="U121" s="3"/>
-      <c r="V121" s="3"/>
+      <c r="V121" s="3">
+        <v>87.4</v>
+      </c>
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
       <c r="Y121" s="3"/>
@@ -11820,6 +11996,9 @@
       <c r="T122">
         <v>8.2899999999999991</v>
       </c>
+      <c r="V122">
+        <v>62.4</v>
+      </c>
     </row>
     <row r="123" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
@@ -11867,7 +12046,9 @@
         <v>8.52</v>
       </c>
       <c r="U123" s="3"/>
-      <c r="V123" s="3"/>
+      <c r="V123" s="3">
+        <v>68.3</v>
+      </c>
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
       <c r="Y123" s="3"/>
@@ -11914,6 +12095,9 @@
       <c r="T124">
         <v>8.66</v>
       </c>
+      <c r="V124">
+        <v>91.1</v>
+      </c>
     </row>
     <row r="125" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
@@ -11961,7 +12145,9 @@
         <v>10.49</v>
       </c>
       <c r="U125" s="3"/>
-      <c r="V125" s="3"/>
+      <c r="V125" s="3">
+        <v>109.1</v>
+      </c>
       <c r="W125" s="3"/>
       <c r="X125" s="3"/>
       <c r="Y125" s="3"/>
@@ -12015,8 +12201,14 @@
       <c r="T126">
         <v>7.37</v>
       </c>
-    </row>
-    <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V126">
+        <v>87.3</v>
+      </c>
+      <c r="W126">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>498</v>
       </c>
@@ -12062,14 +12254,16 @@
         <v>12.18</v>
       </c>
       <c r="U127" s="3"/>
-      <c r="V127" s="3"/>
+      <c r="V127" s="3">
+        <v>75</v>
+      </c>
       <c r="W127" s="3"/>
       <c r="X127" s="3"/>
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
       <c r="AA127" s="3"/>
     </row>
-    <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>501</v>
       </c>
@@ -12109,8 +12303,11 @@
       <c r="T128">
         <v>10.93</v>
       </c>
-    </row>
-    <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V128">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>504</v>
       </c>
@@ -12156,14 +12353,16 @@
         <v>9.91</v>
       </c>
       <c r="U129" s="3"/>
-      <c r="V129" s="3"/>
+      <c r="V129" s="3">
+        <v>90.8</v>
+      </c>
       <c r="W129" s="3"/>
       <c r="X129" s="3"/>
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
       <c r="AA129" s="3"/>
     </row>
-    <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>507</v>
       </c>
@@ -12203,8 +12402,11 @@
       <c r="T130">
         <v>13.66</v>
       </c>
-    </row>
-    <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V130">
+        <v>110.1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>510</v>
       </c>
@@ -12250,14 +12452,16 @@
         <v>9.4700000000000006</v>
       </c>
       <c r="U131" s="3"/>
-      <c r="V131" s="3"/>
+      <c r="V131" s="3">
+        <v>86</v>
+      </c>
       <c r="W131" s="3"/>
       <c r="X131" s="3"/>
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
       <c r="AA131" s="3"/>
     </row>
-    <row r="132" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>513</v>
       </c>
@@ -12304,8 +12508,20 @@
       <c r="P132">
         <v>57</v>
       </c>
-    </row>
-    <row r="133" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T132">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="U132">
+        <v>6.52</v>
+      </c>
+      <c r="V132">
+        <v>86.9</v>
+      </c>
+      <c r="W132">
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>516</v>
       </c>
@@ -12355,16 +12571,24 @@
       <c r="Q133" s="3"/>
       <c r="R133" s="3"/>
       <c r="S133" s="3"/>
-      <c r="T133" s="3"/>
-      <c r="U133" s="3"/>
-      <c r="V133" s="3"/>
-      <c r="W133" s="3"/>
+      <c r="T133" s="3">
+        <v>9.51</v>
+      </c>
+      <c r="U133" s="3">
+        <v>5.44</v>
+      </c>
+      <c r="V133" s="3">
+        <v>91.7</v>
+      </c>
+      <c r="W133" s="3">
+        <v>62.3</v>
+      </c>
       <c r="X133" s="3"/>
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
       <c r="AA133" s="3"/>
     </row>
-    <row r="134" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>520</v>
       </c>
@@ -12401,8 +12625,14 @@
       <c r="P134">
         <v>57</v>
       </c>
-    </row>
-    <row r="135" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T134">
+        <v>9.26</v>
+      </c>
+      <c r="V134">
+        <v>78.099999999999994</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>522</v>
       </c>
@@ -12444,16 +12674,20 @@
       <c r="Q135" s="3"/>
       <c r="R135" s="3"/>
       <c r="S135" s="3"/>
-      <c r="T135" s="3"/>
+      <c r="T135" s="3">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="U135" s="3"/>
-      <c r="V135" s="3"/>
+      <c r="V135" s="3">
+        <v>74.2</v>
+      </c>
       <c r="W135" s="3"/>
       <c r="X135" s="3"/>
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
       <c r="AA135" s="3"/>
     </row>
-    <row r="136" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>524</v>
       </c>
@@ -12502,6 +12736,12 @@
       </c>
       <c r="S136" s="17" t="s">
         <v>1411</v>
+      </c>
+      <c r="T136">
+        <v>7.16</v>
+      </c>
+      <c r="V136">
+        <v>72.8</v>
       </c>
     </row>
     <row r="137" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12550,7 +12790,9 @@
         <v>9.81</v>
       </c>
       <c r="U137" s="3"/>
-      <c r="V137" s="3"/>
+      <c r="V137" s="3">
+        <v>83.6</v>
+      </c>
       <c r="W137" s="3"/>
       <c r="X137" s="3"/>
       <c r="Y137" s="3"/>
@@ -12610,6 +12852,12 @@
       <c r="U138">
         <v>6.45</v>
       </c>
+      <c r="V138">
+        <v>64.2</v>
+      </c>
+      <c r="W138">
+        <v>63.9</v>
+      </c>
     </row>
     <row r="139" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
@@ -12657,7 +12905,9 @@
         <v>10.24</v>
       </c>
       <c r="U139" s="3"/>
-      <c r="V139" s="3"/>
+      <c r="V139" s="3">
+        <v>88.2</v>
+      </c>
       <c r="W139" s="3"/>
       <c r="X139" s="3"/>
       <c r="Y139" s="3"/>
@@ -12717,6 +12967,12 @@
       <c r="U140">
         <v>5.33</v>
       </c>
+      <c r="V140">
+        <v>107.1</v>
+      </c>
+      <c r="W140">
+        <v>64.2</v>
+      </c>
     </row>
     <row r="141" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
@@ -12764,14 +13020,16 @@
         <v>12.72</v>
       </c>
       <c r="U141" s="3"/>
-      <c r="V141" s="3"/>
+      <c r="V141" s="3">
+        <v>108.9</v>
+      </c>
       <c r="W141" s="3"/>
       <c r="X141" s="3"/>
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
       <c r="AA141" s="3"/>
     </row>
-    <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>544</v>
       </c>
@@ -12811,8 +13069,11 @@
       <c r="T142">
         <v>9.42</v>
       </c>
-    </row>
-    <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V142">
+        <v>69.7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>547</v>
       </c>
@@ -12858,14 +13119,16 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="U143" s="3"/>
-      <c r="V143" s="3"/>
+      <c r="V143" s="3">
+        <v>91.4</v>
+      </c>
       <c r="W143" s="3"/>
       <c r="X143" s="3"/>
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
       <c r="AA143" s="3"/>
     </row>
-    <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>550</v>
       </c>
@@ -12905,8 +13168,11 @@
       <c r="T144">
         <v>12.78</v>
       </c>
-    </row>
-    <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V144">
+        <v>132.4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>553</v>
       </c>
@@ -12962,14 +13228,18 @@
       <c r="U145" s="3">
         <v>3.52</v>
       </c>
-      <c r="V145" s="3"/>
-      <c r="W145" s="3"/>
+      <c r="V145" s="3">
+        <v>159.19999999999999</v>
+      </c>
+      <c r="W145" s="3">
+        <v>38.9</v>
+      </c>
       <c r="X145" s="3"/>
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
       <c r="AA145" s="3"/>
     </row>
-    <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>558</v>
       </c>
@@ -13009,8 +13279,11 @@
       <c r="T146">
         <v>11.55</v>
       </c>
-    </row>
-    <row r="147" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V146">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>561</v>
       </c>
@@ -13052,16 +13325,20 @@
       <c r="Q147" s="3"/>
       <c r="R147" s="3"/>
       <c r="S147" s="3"/>
-      <c r="T147" s="3"/>
+      <c r="T147" s="3">
+        <v>12.81</v>
+      </c>
       <c r="U147" s="3"/>
-      <c r="V147" s="3"/>
+      <c r="V147" s="3">
+        <v>151.1</v>
+      </c>
       <c r="W147" s="3"/>
       <c r="X147" s="3"/>
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
       <c r="AA147" s="3"/>
     </row>
-    <row r="148" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>564</v>
       </c>
@@ -13098,8 +13375,14 @@
       <c r="P148">
         <v>57</v>
       </c>
-    </row>
-    <row r="149" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T148">
+        <v>7.46</v>
+      </c>
+      <c r="V148">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>566</v>
       </c>
@@ -13141,16 +13424,20 @@
       <c r="Q149" s="3"/>
       <c r="R149" s="3"/>
       <c r="S149" s="3"/>
-      <c r="T149" s="3"/>
+      <c r="T149" s="3">
+        <v>12.04</v>
+      </c>
       <c r="U149" s="3"/>
-      <c r="V149" s="3"/>
+      <c r="V149" s="3">
+        <v>129</v>
+      </c>
       <c r="W149" s="3"/>
       <c r="X149" s="3"/>
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
       <c r="AA149" s="3"/>
     </row>
-    <row r="150" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>569</v>
       </c>
@@ -13197,11 +13484,23 @@
       <c r="P150">
         <v>57</v>
       </c>
-      <c r="S150" s="36" t="s">
+      <c r="S150" s="45" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="151" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T150">
+        <v>7.22</v>
+      </c>
+      <c r="U150">
+        <v>9.24</v>
+      </c>
+      <c r="V150">
+        <v>109.6</v>
+      </c>
+      <c r="W150">
+        <v>127.9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>574</v>
       </c>
@@ -13243,9 +13542,13 @@
       <c r="Q151" s="3"/>
       <c r="R151" s="3"/>
       <c r="S151" s="3"/>
-      <c r="T151" s="3"/>
+      <c r="T151" s="3">
+        <v>10.050000000000001</v>
+      </c>
       <c r="U151" s="3"/>
-      <c r="V151" s="3"/>
+      <c r="V151" s="3">
+        <v>77.3</v>
+      </c>
       <c r="W151" s="3"/>
       <c r="X151" s="3"/>
       <c r="Y151" s="3"/>
@@ -13292,6 +13595,9 @@
       <c r="T152">
         <v>12.49</v>
       </c>
+      <c r="V152">
+        <v>107.7</v>
+      </c>
     </row>
     <row r="153" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
@@ -13339,7 +13645,9 @@
         <v>9.89</v>
       </c>
       <c r="U153" s="3"/>
-      <c r="V153" s="3"/>
+      <c r="V153" s="3">
+        <v>120</v>
+      </c>
       <c r="W153" s="3"/>
       <c r="X153" s="3"/>
       <c r="Y153" s="3"/>
@@ -13386,6 +13694,9 @@
       <c r="T154">
         <v>10.02</v>
       </c>
+      <c r="V154">
+        <v>68.8</v>
+      </c>
     </row>
     <row r="155" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
@@ -13443,8 +13754,12 @@
       <c r="U155" s="3" t="s">
         <v>1386</v>
       </c>
-      <c r="V155" s="3"/>
-      <c r="W155" s="3"/>
+      <c r="V155" s="3">
+        <v>91</v>
+      </c>
+      <c r="W155" s="3">
+        <v>46.9</v>
+      </c>
       <c r="X155" s="3"/>
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
@@ -13492,8 +13807,11 @@
       <c r="T156">
         <v>15.19</v>
       </c>
-    </row>
-    <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V156">
+        <v>139.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>593</v>
       </c>
@@ -13539,14 +13857,16 @@
         <v>13.04</v>
       </c>
       <c r="U157" s="3"/>
-      <c r="V157" s="3"/>
+      <c r="V157" s="3">
+        <v>93.3</v>
+      </c>
       <c r="W157" s="3"/>
       <c r="X157" s="3"/>
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
       <c r="AA157" s="3"/>
     </row>
-    <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>596</v>
       </c>
@@ -13586,8 +13906,17 @@
       <c r="T158">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V158">
+        <v>38.1</v>
+      </c>
+      <c r="Y158" s="45" t="s">
+        <v>1427</v>
+      </c>
+      <c r="AA158" s="45" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>599</v>
       </c>
@@ -13633,14 +13962,16 @@
         <v>10.29</v>
       </c>
       <c r="U159" s="3"/>
-      <c r="V159" s="3"/>
+      <c r="V159" s="3">
+        <v>109.1</v>
+      </c>
       <c r="W159" s="3"/>
       <c r="X159" s="3"/>
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
       <c r="AA159" s="3"/>
     </row>
-    <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>602</v>
       </c>
@@ -13680,8 +14011,11 @@
       <c r="T160">
         <v>13.62</v>
       </c>
-    </row>
-    <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V160">
+        <v>141.9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>605</v>
       </c>
@@ -13727,14 +14061,16 @@
         <v>8.89</v>
       </c>
       <c r="U161" s="3"/>
-      <c r="V161" s="3"/>
+      <c r="V161" s="3">
+        <v>46.2</v>
+      </c>
       <c r="W161" s="3"/>
       <c r="X161" s="3"/>
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
       <c r="AA161" s="3"/>
     </row>
-    <row r="162" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>607</v>
       </c>
@@ -13771,8 +14107,14 @@
       <c r="P162">
         <v>57</v>
       </c>
-    </row>
-    <row r="163" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T162">
+        <v>11.96</v>
+      </c>
+      <c r="V162">
+        <v>114.9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>610</v>
       </c>
@@ -13822,16 +14164,28 @@
       <c r="Q163" s="3"/>
       <c r="R163" s="3"/>
       <c r="S163" s="3"/>
-      <c r="T163" s="3"/>
-      <c r="U163" s="3"/>
-      <c r="V163" s="3"/>
-      <c r="W163" s="3"/>
+      <c r="T163" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="U163" s="3">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="V163" s="3">
+        <v>76.2</v>
+      </c>
+      <c r="W163" s="3">
+        <v>53.7</v>
+      </c>
       <c r="X163" s="3"/>
-      <c r="Y163" s="3"/>
+      <c r="Y163" s="3" t="s">
+        <v>1459</v>
+      </c>
       <c r="Z163" s="3"/>
-      <c r="AA163" s="3"/>
-    </row>
-    <row r="164" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA163" s="3" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>614</v>
       </c>
@@ -13878,8 +14232,20 @@
       <c r="P164">
         <v>57</v>
       </c>
-    </row>
-    <row r="165" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T164">
+        <v>8.43</v>
+      </c>
+      <c r="U164">
+        <v>6.49</v>
+      </c>
+      <c r="V164">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="W164">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>617</v>
       </c>
@@ -13921,16 +14287,20 @@
       <c r="Q165" s="3"/>
       <c r="R165" s="3"/>
       <c r="S165" s="3"/>
-      <c r="T165" s="3"/>
+      <c r="T165" s="3">
+        <v>7.3</v>
+      </c>
       <c r="U165" s="3"/>
-      <c r="V165" s="3"/>
+      <c r="V165" s="3">
+        <v>73.3</v>
+      </c>
       <c r="W165" s="3"/>
       <c r="X165" s="3"/>
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
       <c r="AA165" s="3"/>
     </row>
-    <row r="166" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>620</v>
       </c>
@@ -13966,6 +14336,12 @@
       </c>
       <c r="P166">
         <v>57</v>
+      </c>
+      <c r="T166">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="V166">
+        <v>55.1</v>
       </c>
     </row>
     <row r="167" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -14024,8 +14400,12 @@
       <c r="U167" s="3">
         <v>6.33</v>
       </c>
-      <c r="V167" s="3"/>
-      <c r="W167" s="3"/>
+      <c r="V167" s="3">
+        <v>108.4</v>
+      </c>
+      <c r="W167" s="3">
+        <v>51.8</v>
+      </c>
       <c r="X167" s="3"/>
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
@@ -14070,6 +14450,9 @@
       </c>
       <c r="T168">
         <v>7.73</v>
+      </c>
+      <c r="V168">
+        <v>63.5</v>
       </c>
     </row>
     <row r="169" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -14128,8 +14511,12 @@
       <c r="U169" s="3">
         <v>7.86</v>
       </c>
-      <c r="V169" s="3"/>
-      <c r="W169" s="3"/>
+      <c r="V169" s="3">
+        <v>130.1</v>
+      </c>
+      <c r="W169" s="3">
+        <v>97.4</v>
+      </c>
       <c r="X169" s="3"/>
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
@@ -14174,6 +14561,9 @@
       </c>
       <c r="T170">
         <v>9.15</v>
+      </c>
+      <c r="V170">
+        <v>84.5</v>
       </c>
     </row>
     <row r="171" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -14222,14 +14612,16 @@
         <v>11.27</v>
       </c>
       <c r="U171" s="3"/>
-      <c r="V171" s="3"/>
+      <c r="V171" s="3">
+        <v>78.599999999999994</v>
+      </c>
       <c r="W171" s="3"/>
       <c r="X171" s="3"/>
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
       <c r="AA171" s="3"/>
     </row>
-    <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>637</v>
       </c>
@@ -14282,8 +14674,14 @@
       <c r="U172">
         <v>6.34</v>
       </c>
-    </row>
-    <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V172">
+        <v>55.4</v>
+      </c>
+      <c r="W172">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>640</v>
       </c>
@@ -14329,14 +14727,16 @@
         <v>9.32</v>
       </c>
       <c r="U173" s="3"/>
-      <c r="V173" s="3"/>
+      <c r="V173" s="3">
+        <v>124.9</v>
+      </c>
       <c r="W173" s="3"/>
       <c r="X173" s="3"/>
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
       <c r="AA173" s="3"/>
     </row>
-    <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>643</v>
       </c>
@@ -14389,8 +14789,14 @@
       <c r="U174">
         <v>5.0199999999999996</v>
       </c>
-    </row>
-    <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V174">
+        <v>60.2</v>
+      </c>
+      <c r="W174">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>647</v>
       </c>
@@ -14436,14 +14842,16 @@
         <v>13.14</v>
       </c>
       <c r="U175" s="3"/>
-      <c r="V175" s="3"/>
+      <c r="V175" s="3">
+        <v>104.3</v>
+      </c>
       <c r="W175" s="3"/>
       <c r="X175" s="3"/>
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
       <c r="AA175" s="3"/>
     </row>
-    <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>650</v>
       </c>
@@ -14483,8 +14891,11 @@
       <c r="T176">
         <v>11.13</v>
       </c>
-    </row>
-    <row r="177" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V176">
+        <v>97.4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>653</v>
       </c>
@@ -14526,16 +14937,20 @@
       <c r="Q177" s="3"/>
       <c r="R177" s="3"/>
       <c r="S177" s="3"/>
-      <c r="T177" s="3"/>
+      <c r="T177" s="3">
+        <v>7.21</v>
+      </c>
       <c r="U177" s="3"/>
-      <c r="V177" s="3"/>
+      <c r="V177" s="3">
+        <v>96.8</v>
+      </c>
       <c r="W177" s="3"/>
       <c r="X177" s="3"/>
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
       <c r="AA177" s="3"/>
     </row>
-    <row r="178" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>656</v>
       </c>
@@ -14572,8 +14987,14 @@
       <c r="P178">
         <v>57</v>
       </c>
-    </row>
-    <row r="179" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T178">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="V178">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>659</v>
       </c>
@@ -14615,16 +15036,20 @@
       <c r="Q179" s="3"/>
       <c r="R179" s="3"/>
       <c r="S179" s="3"/>
-      <c r="T179" s="3"/>
+      <c r="T179" s="3">
+        <v>11.69</v>
+      </c>
       <c r="U179" s="3"/>
-      <c r="V179" s="3"/>
+      <c r="V179" s="3">
+        <v>98.7</v>
+      </c>
       <c r="W179" s="3"/>
       <c r="X179" s="3"/>
       <c r="Y179" s="3"/>
       <c r="Z179" s="3"/>
       <c r="AA179" s="3"/>
     </row>
-    <row r="180" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>662</v>
       </c>
@@ -14661,8 +15086,14 @@
       <c r="P180">
         <v>57</v>
       </c>
-    </row>
-    <row r="181" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T180">
+        <v>8.51</v>
+      </c>
+      <c r="V180">
+        <v>83.1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>664</v>
       </c>
@@ -14704,9 +15135,13 @@
       <c r="Q181" s="3"/>
       <c r="R181" s="3"/>
       <c r="S181" s="3"/>
-      <c r="T181" s="3"/>
+      <c r="T181" s="3">
+        <v>6.82</v>
+      </c>
       <c r="U181" s="3"/>
-      <c r="V181" s="3"/>
+      <c r="V181" s="3">
+        <v>78.7</v>
+      </c>
       <c r="W181" s="3"/>
       <c r="X181" s="3"/>
       <c r="Y181" s="3"/>
@@ -38901,7 +39336,7 @@
       <c r="K820" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <tableParts count="1">

--- a/data/treeMeasurements/TreeMeasurements.xlsx
+++ b/data/treeMeasurements/TreeMeasurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/treeMeasurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893BCE22-9A84-374E-8CDE-2C9FBBC1DAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C7BA4B-2DA5-1B4C-8837-B4E69E3A0E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4750" uniqueCount="1462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4752" uniqueCount="1462">
   <si>
     <t>tree_ID</t>
   </si>
@@ -4431,11 +4431,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4625,47 +4632,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5318,12 +5326,12 @@
   <autoFilter ref="A1:AA631" xr:uid="{3F288811-81FB-F847-9587-99D03002EDFF}">
     <filterColumn colId="1">
       <filters>
-        <filter val="3"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="betula"/>
+        <filter val="populus"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5560,9 +5568,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA820"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="167" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W163" sqref="W163"/>
+    <sheetView tabSelected="1" topLeftCell="A311" zoomScale="167" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V292" sqref="V292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5577,17 +5585,17 @@
     <col min="8" max="8" width="0.83203125" customWidth="1"/>
     <col min="9" max="9" width="0.33203125" customWidth="1"/>
     <col min="10" max="10" width="20.83203125" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="20.5" style="18" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="2.6640625" customWidth="1"/>
-    <col min="14" max="14" width="18.1640625" customWidth="1"/>
-    <col min="15" max="15" width="20.83203125" customWidth="1"/>
-    <col min="16" max="16" width="21.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.5" customWidth="1"/>
+    <col min="15" max="15" width="21.83203125" customWidth="1"/>
+    <col min="16" max="16" width="0.5" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="10.33203125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="19.83203125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="0.1640625" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="17.1640625" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="0.5" customWidth="1"/>
+    <col min="20" max="20" width="0.33203125" customWidth="1"/>
+    <col min="21" max="21" width="1.33203125" customWidth="1"/>
     <col min="22" max="22" width="12.5" customWidth="1"/>
     <col min="23" max="23" width="19.83203125" customWidth="1"/>
     <col min="24" max="24" width="23.1640625" customWidth="1"/>
@@ -10882,7 +10890,7 @@
       <c r="Z101" s="3"/>
       <c r="AA101" s="3"/>
     </row>
-    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>431</v>
       </c>
@@ -10948,7 +10956,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>436</v>
       </c>
@@ -11003,7 +11011,7 @@
       <c r="Z103" s="3"/>
       <c r="AA103" s="3"/>
     </row>
-    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>439</v>
       </c>
@@ -11047,7 +11055,7 @@
         <v>120.3</v>
       </c>
     </row>
-    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>442</v>
       </c>
@@ -11114,7 +11122,7 @@
       <c r="Z105" s="3"/>
       <c r="AA105" s="3"/>
     </row>
-    <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>446</v>
       </c>
@@ -11691,7 +11699,7 @@
         <v>122.9</v>
       </c>
     </row>
-    <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>473</v>
       </c>
@@ -11746,7 +11754,7 @@
       <c r="Z117" s="3"/>
       <c r="AA117" s="3"/>
     </row>
-    <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>476</v>
       </c>
@@ -11790,7 +11798,7 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>478</v>
       </c>
@@ -11857,7 +11865,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>481</v>
       </c>
@@ -11901,7 +11909,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>483</v>
       </c>
@@ -12461,7 +12469,7 @@
       <c r="Z131" s="3"/>
       <c r="AA131" s="3"/>
     </row>
-    <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>513</v>
       </c>
@@ -12521,7 +12529,7 @@
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>516</v>
       </c>
@@ -12588,7 +12596,7 @@
       <c r="Z133" s="3"/>
       <c r="AA133" s="3"/>
     </row>
-    <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>520</v>
       </c>
@@ -12632,7 +12640,7 @@
         <v>78.099999999999994</v>
       </c>
     </row>
-    <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>522</v>
       </c>
@@ -12687,7 +12695,7 @@
       <c r="Z135" s="3"/>
       <c r="AA135" s="3"/>
     </row>
-    <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>524</v>
       </c>
@@ -13283,7 +13291,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>561</v>
       </c>
@@ -13338,7 +13346,7 @@
       <c r="Z147" s="3"/>
       <c r="AA147" s="3"/>
     </row>
-    <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>564</v>
       </c>
@@ -13382,7 +13390,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>566</v>
       </c>
@@ -13437,7 +13445,7 @@
       <c r="Z149" s="3"/>
       <c r="AA149" s="3"/>
     </row>
-    <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>569</v>
       </c>
@@ -13500,7 +13508,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>574</v>
       </c>
@@ -14070,7 +14078,7 @@
       <c r="Z161" s="3"/>
       <c r="AA161" s="3"/>
     </row>
-    <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>607</v>
       </c>
@@ -14114,7 +14122,7 @@
         <v>114.9</v>
       </c>
     </row>
-    <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>610</v>
       </c>
@@ -14185,7 +14193,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>614</v>
       </c>
@@ -14245,7 +14253,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>617</v>
       </c>
@@ -14300,7 +14308,7 @@
       <c r="Z165" s="3"/>
       <c r="AA165" s="3"/>
     </row>
-    <row r="166" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>620</v>
       </c>
@@ -14895,7 +14903,7 @@
         <v>97.4</v>
       </c>
     </row>
-    <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>653</v>
       </c>
@@ -14950,7 +14958,7 @@
       <c r="Z177" s="3"/>
       <c r="AA177" s="3"/>
     </row>
-    <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>656</v>
       </c>
@@ -14994,7 +15002,7 @@
         <v>75.900000000000006</v>
       </c>
     </row>
-    <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>659</v>
       </c>
@@ -15049,7 +15057,7 @@
       <c r="Z179" s="3"/>
       <c r="AA179" s="3"/>
     </row>
-    <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>662</v>
       </c>
@@ -15093,7 +15101,7 @@
         <v>83.1</v>
       </c>
     </row>
-    <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>664</v>
       </c>
@@ -19886,6 +19894,9 @@
       <c r="S272" s="11" t="s">
         <v>1387</v>
       </c>
+      <c r="V272">
+        <v>72.2</v>
+      </c>
     </row>
     <row r="273" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
@@ -19931,7 +19942,9 @@
       <c r="S273" s="3"/>
       <c r="T273" s="3"/>
       <c r="U273" s="3"/>
-      <c r="V273" s="3"/>
+      <c r="V273" s="3">
+        <v>88.9</v>
+      </c>
       <c r="W273" s="3"/>
       <c r="X273" s="3"/>
       <c r="Y273" s="3"/>
@@ -19975,6 +19988,9 @@
       <c r="P274">
         <v>37</v>
       </c>
+      <c r="V274">
+        <v>70.2</v>
+      </c>
     </row>
     <row r="275" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
@@ -20022,7 +20038,9 @@
       </c>
       <c r="T275" s="3"/>
       <c r="U275" s="3"/>
-      <c r="V275" s="3"/>
+      <c r="V275" s="3">
+        <v>82.9</v>
+      </c>
       <c r="W275" s="3"/>
       <c r="X275" s="3"/>
       <c r="Y275" s="3"/>
@@ -20069,8 +20087,11 @@
       <c r="S276" s="11" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="277" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V276">
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>850</v>
       </c>
@@ -20114,14 +20135,16 @@
       <c r="S277" s="3"/>
       <c r="T277" s="3"/>
       <c r="U277" s="3"/>
-      <c r="V277" s="3"/>
+      <c r="V277" s="3" t="s">
+        <v>1386</v>
+      </c>
       <c r="W277" s="3"/>
       <c r="X277" s="3"/>
       <c r="Y277" s="3"/>
       <c r="Z277" s="3"/>
       <c r="AA277" s="3"/>
     </row>
-    <row r="278" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>853</v>
       </c>
@@ -20158,8 +20181,11 @@
       <c r="P278">
         <v>37</v>
       </c>
-    </row>
-    <row r="279" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V278" s="46" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="279" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>854</v>
       </c>
@@ -20209,14 +20235,16 @@
       </c>
       <c r="T279" s="3"/>
       <c r="U279" s="3"/>
-      <c r="V279" s="3"/>
+      <c r="V279" s="3">
+        <v>94.2</v>
+      </c>
       <c r="W279" s="3"/>
       <c r="X279" s="3"/>
       <c r="Y279" s="3"/>
       <c r="Z279" s="3"/>
       <c r="AA279" s="3"/>
     </row>
-    <row r="280" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>855</v>
       </c>
@@ -20253,8 +20281,11 @@
       <c r="P280">
         <v>37</v>
       </c>
-    </row>
-    <row r="281" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V280">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="281" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>856</v>
       </c>
@@ -20298,7 +20329,9 @@
       <c r="S281" s="3"/>
       <c r="T281" s="3"/>
       <c r="U281" s="3"/>
-      <c r="V281" s="3"/>
+      <c r="V281" s="3">
+        <v>97.9</v>
+      </c>
       <c r="W281" s="3"/>
       <c r="X281" s="3"/>
       <c r="Y281" s="3"/>
@@ -20584,7 +20617,9 @@
       <c r="S287" s="3"/>
       <c r="T287" s="3"/>
       <c r="U287" s="3"/>
-      <c r="V287" s="3"/>
+      <c r="V287" s="3">
+        <v>101.6</v>
+      </c>
       <c r="W287" s="3"/>
       <c r="X287" s="3"/>
       <c r="Y287" s="3"/>
@@ -20628,6 +20663,9 @@
       <c r="P288">
         <v>37</v>
       </c>
+      <c r="V288">
+        <v>66.5</v>
+      </c>
     </row>
     <row r="289" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
@@ -20673,7 +20711,9 @@
       <c r="S289" s="3"/>
       <c r="T289" s="3"/>
       <c r="U289" s="3"/>
-      <c r="V289" s="3"/>
+      <c r="V289" s="3">
+        <v>90.5</v>
+      </c>
       <c r="W289" s="3"/>
       <c r="X289" s="3"/>
       <c r="Y289" s="3"/>
@@ -20717,6 +20757,9 @@
       <c r="P290">
         <v>37</v>
       </c>
+      <c r="V290">
+        <v>83.6</v>
+      </c>
     </row>
     <row r="291" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
@@ -20768,14 +20811,16 @@
       </c>
       <c r="T291" s="3"/>
       <c r="U291" s="3"/>
-      <c r="V291" s="3"/>
+      <c r="V291" s="3">
+        <v>80.7</v>
+      </c>
       <c r="W291" s="3"/>
       <c r="X291" s="3"/>
       <c r="Y291" s="3"/>
       <c r="Z291" s="3"/>
       <c r="AA291" s="3"/>
     </row>
-    <row r="292" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>874</v>
       </c>
@@ -20816,7 +20861,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="293" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>875</v>
       </c>
@@ -20860,14 +20905,16 @@
       <c r="S293" s="3"/>
       <c r="T293" s="3"/>
       <c r="U293" s="3"/>
-      <c r="V293" s="3"/>
+      <c r="V293" s="3">
+        <v>101.7</v>
+      </c>
       <c r="W293" s="3"/>
       <c r="X293" s="3"/>
       <c r="Y293" s="3"/>
       <c r="Z293" s="3"/>
       <c r="AA293" s="3"/>
     </row>
-    <row r="294" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>878</v>
       </c>
@@ -20908,7 +20955,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="295" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>880</v>
       </c>
@@ -20952,14 +20999,16 @@
       <c r="S295" s="3"/>
       <c r="T295" s="3"/>
       <c r="U295" s="3"/>
-      <c r="V295" s="3"/>
+      <c r="V295" s="3">
+        <v>122.5</v>
+      </c>
       <c r="W295" s="3"/>
       <c r="X295" s="3"/>
       <c r="Y295" s="3"/>
       <c r="Z295" s="3"/>
       <c r="AA295" s="3"/>
     </row>
-    <row r="296" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>882</v>
       </c>
@@ -20995,6 +21044,9 @@
       </c>
       <c r="P296">
         <v>37</v>
+      </c>
+      <c r="V296">
+        <v>114.9</v>
       </c>
     </row>
     <row r="297" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -21267,6 +21319,9 @@
       <c r="P302">
         <v>37</v>
       </c>
+      <c r="V302">
+        <v>51.5</v>
+      </c>
     </row>
     <row r="303" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
@@ -21312,7 +21367,9 @@
       <c r="S303" s="3"/>
       <c r="T303" s="3"/>
       <c r="U303" s="3"/>
-      <c r="V303" s="3"/>
+      <c r="V303" s="3">
+        <v>87.6</v>
+      </c>
       <c r="W303" s="3"/>
       <c r="X303" s="3"/>
       <c r="Y303" s="3"/>
@@ -21356,6 +21413,9 @@
       <c r="P304">
         <v>37</v>
       </c>
+      <c r="V304">
+        <v>78.099999999999994</v>
+      </c>
     </row>
     <row r="305" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
@@ -21401,7 +21461,9 @@
       <c r="S305" s="3"/>
       <c r="T305" s="3"/>
       <c r="U305" s="3"/>
-      <c r="V305" s="3"/>
+      <c r="V305" s="3">
+        <v>82.3</v>
+      </c>
       <c r="W305" s="3"/>
       <c r="X305" s="3"/>
       <c r="Y305" s="3"/>
@@ -21445,8 +21507,11 @@
       <c r="P306">
         <v>37</v>
       </c>
-    </row>
-    <row r="307" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V306">
+        <v>90.7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
         <v>899</v>
       </c>
@@ -21490,14 +21555,16 @@
       <c r="S307" s="3"/>
       <c r="T307" s="3"/>
       <c r="U307" s="3"/>
-      <c r="V307" s="3"/>
+      <c r="V307" s="3">
+        <v>88.2</v>
+      </c>
       <c r="W307" s="3"/>
       <c r="X307" s="3"/>
       <c r="Y307" s="3"/>
       <c r="Z307" s="3"/>
       <c r="AA307" s="3"/>
     </row>
-    <row r="308" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>901</v>
       </c>
@@ -21534,8 +21601,11 @@
       <c r="P308">
         <v>37</v>
       </c>
-    </row>
-    <row r="309" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V308">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>902</v>
       </c>
@@ -21579,14 +21649,16 @@
       <c r="S309" s="3"/>
       <c r="T309" s="3"/>
       <c r="U309" s="3"/>
-      <c r="V309" s="3"/>
+      <c r="V309" s="3">
+        <v>63.5</v>
+      </c>
       <c r="W309" s="3"/>
       <c r="X309" s="3"/>
       <c r="Y309" s="3"/>
       <c r="Z309" s="3"/>
       <c r="AA309" s="3"/>
     </row>
-    <row r="310" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>903</v>
       </c>
@@ -21623,8 +21695,11 @@
       <c r="P310">
         <v>37</v>
       </c>
-    </row>
-    <row r="311" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V310">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>904</v>
       </c>
@@ -21668,7 +21743,9 @@
       <c r="S311" s="3"/>
       <c r="T311" s="3"/>
       <c r="U311" s="3"/>
-      <c r="V311" s="3"/>
+      <c r="V311" s="3">
+        <v>106.9</v>
+      </c>
       <c r="W311" s="3"/>
       <c r="X311" s="3"/>
       <c r="Y311" s="3"/>
@@ -21935,7 +22012,9 @@
       <c r="S317" s="3"/>
       <c r="T317" s="3"/>
       <c r="U317" s="3"/>
-      <c r="V317" s="3"/>
+      <c r="V317" s="3">
+        <v>97.5</v>
+      </c>
       <c r="W317" s="3"/>
       <c r="X317" s="3"/>
       <c r="Y317" s="3"/>
@@ -21979,6 +22058,9 @@
       <c r="P318">
         <v>37</v>
       </c>
+      <c r="V318">
+        <v>86.6</v>
+      </c>
     </row>
     <row r="319" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
@@ -22024,7 +22106,9 @@
       <c r="S319" s="3"/>
       <c r="T319" s="3"/>
       <c r="U319" s="3"/>
-      <c r="V319" s="3"/>
+      <c r="V319" s="3">
+        <v>62</v>
+      </c>
       <c r="W319" s="3"/>
       <c r="X319" s="3"/>
       <c r="Y319" s="3"/>
@@ -22077,7 +22161,9 @@
       <c r="S320" s="12"/>
       <c r="T320" s="30"/>
       <c r="U320" s="30"/>
-      <c r="V320" s="30"/>
+      <c r="V320" s="30">
+        <v>61.9</v>
+      </c>
       <c r="W320" s="30"/>
       <c r="X320" s="30"/>
       <c r="Y320" s="30"/>
@@ -22128,14 +22214,16 @@
       <c r="S321" s="3"/>
       <c r="T321" s="3"/>
       <c r="U321" s="3"/>
-      <c r="V321" s="3"/>
+      <c r="V321" s="3">
+        <v>83.8</v>
+      </c>
       <c r="W321" s="3"/>
       <c r="X321" s="3"/>
       <c r="Y321" s="3"/>
       <c r="Z321" s="3"/>
       <c r="AA321" s="3"/>
     </row>
-    <row r="322" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>922</v>
       </c>
@@ -22172,8 +22260,11 @@
       <c r="P322">
         <v>37</v>
       </c>
-    </row>
-    <row r="323" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V322">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="323" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>923</v>
       </c>
@@ -22217,14 +22308,16 @@
       <c r="S323" s="3"/>
       <c r="T323" s="3"/>
       <c r="U323" s="3"/>
-      <c r="V323" s="3"/>
+      <c r="V323" s="3">
+        <v>76.900000000000006</v>
+      </c>
       <c r="W323" s="3"/>
       <c r="X323" s="3"/>
       <c r="Y323" s="3"/>
       <c r="Z323" s="3"/>
       <c r="AA323" s="3"/>
     </row>
-    <row r="324" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>924</v>
       </c>
@@ -22261,8 +22354,11 @@
       <c r="P324">
         <v>37</v>
       </c>
-    </row>
-    <row r="325" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V324">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="325" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>925</v>
       </c>
@@ -22306,14 +22402,16 @@
       <c r="S325" s="3"/>
       <c r="T325" s="3"/>
       <c r="U325" s="3"/>
-      <c r="V325" s="3"/>
+      <c r="V325" s="3">
+        <v>102.3</v>
+      </c>
       <c r="W325" s="3"/>
       <c r="X325" s="3"/>
       <c r="Y325" s="3"/>
       <c r="Z325" s="3"/>
       <c r="AA325" s="3"/>
     </row>
-    <row r="326" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>926</v>
       </c>
@@ -22349,6 +22447,9 @@
       </c>
       <c r="P326">
         <v>37</v>
+      </c>
+      <c r="V326">
+        <v>91</v>
       </c>
     </row>
     <row r="327" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -22629,7 +22730,9 @@
       <c r="S332" s="12"/>
       <c r="T332" s="30"/>
       <c r="U332" s="30"/>
-      <c r="V332" s="30"/>
+      <c r="V332" s="30">
+        <v>85.2</v>
+      </c>
       <c r="W332" s="30"/>
       <c r="X332" s="30"/>
       <c r="Y332" s="30"/>
@@ -22684,7 +22787,9 @@
       <c r="S333" s="12"/>
       <c r="T333" s="30"/>
       <c r="U333" s="30"/>
-      <c r="V333" s="30"/>
+      <c r="V333" s="30">
+        <v>99.6</v>
+      </c>
       <c r="W333" s="30"/>
       <c r="X333" s="30"/>
       <c r="Y333" s="30"/>
@@ -22737,7 +22842,9 @@
       <c r="S334" s="12"/>
       <c r="T334" s="30"/>
       <c r="U334" s="30"/>
-      <c r="V334" s="30"/>
+      <c r="V334" s="30">
+        <v>95.4</v>
+      </c>
       <c r="W334" s="30"/>
       <c r="X334" s="30"/>
       <c r="Y334" s="30"/>
@@ -22788,7 +22895,9 @@
       <c r="S335" s="3"/>
       <c r="T335" s="3"/>
       <c r="U335" s="3"/>
-      <c r="V335" s="3"/>
+      <c r="V335" s="3">
+        <v>74.400000000000006</v>
+      </c>
       <c r="W335" s="3"/>
       <c r="X335" s="3"/>
       <c r="Y335" s="3"/>
@@ -22832,8 +22941,11 @@
       <c r="P336">
         <v>37</v>
       </c>
-    </row>
-    <row r="337" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V336">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>941</v>
       </c>
@@ -22883,14 +22995,16 @@
       </c>
       <c r="T337" s="30"/>
       <c r="U337" s="30"/>
-      <c r="V337" s="30"/>
+      <c r="V337" s="30">
+        <v>94.5</v>
+      </c>
       <c r="W337" s="30"/>
       <c r="X337" s="30"/>
       <c r="Y337" s="30"/>
       <c r="Z337" s="30"/>
       <c r="AA337" s="30"/>
     </row>
-    <row r="338" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>943</v>
       </c>
@@ -22927,8 +23041,11 @@
       <c r="P338">
         <v>37</v>
       </c>
-    </row>
-    <row r="339" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V338">
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="339" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>945</v>
       </c>
@@ -22976,14 +23093,16 @@
       <c r="S339" s="12"/>
       <c r="T339" s="30"/>
       <c r="U339" s="30"/>
-      <c r="V339" s="30"/>
+      <c r="V339" s="30">
+        <v>63.9</v>
+      </c>
       <c r="W339" s="30"/>
       <c r="X339" s="30"/>
       <c r="Y339" s="30"/>
       <c r="Z339" s="30"/>
       <c r="AA339" s="30"/>
     </row>
-    <row r="340" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>946</v>
       </c>
@@ -23020,8 +23139,11 @@
       <c r="P340">
         <v>37</v>
       </c>
-    </row>
-    <row r="341" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V340">
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>947</v>
       </c>
@@ -23065,7 +23187,9 @@
       <c r="S341" s="3"/>
       <c r="T341" s="3"/>
       <c r="U341" s="3"/>
-      <c r="V341" s="3"/>
+      <c r="V341" s="3">
+        <v>110.4</v>
+      </c>
       <c r="W341" s="3"/>
       <c r="X341" s="3"/>
       <c r="Y341" s="3"/>
@@ -23347,7 +23471,9 @@
       <c r="S347" s="3"/>
       <c r="T347" s="3"/>
       <c r="U347" s="3"/>
-      <c r="V347" s="3"/>
+      <c r="V347" s="3">
+        <v>85.3</v>
+      </c>
       <c r="W347" s="3"/>
       <c r="X347" s="3"/>
       <c r="Y347" s="3"/>
@@ -23391,6 +23517,9 @@
       <c r="P348">
         <v>37</v>
       </c>
+      <c r="V348">
+        <v>91.9</v>
+      </c>
     </row>
     <row r="349" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
@@ -23436,7 +23565,9 @@
       <c r="S349" s="3"/>
       <c r="T349" s="3"/>
       <c r="U349" s="3"/>
-      <c r="V349" s="3"/>
+      <c r="V349" s="3">
+        <v>75.900000000000006</v>
+      </c>
       <c r="W349" s="3"/>
       <c r="X349" s="3"/>
       <c r="Y349" s="3"/>
@@ -23483,6 +23614,9 @@
       <c r="S350" s="11" t="s">
         <v>1387</v>
       </c>
+      <c r="V350">
+        <v>71.8</v>
+      </c>
     </row>
     <row r="351" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
@@ -23528,14 +23662,16 @@
       <c r="S351" s="3"/>
       <c r="T351" s="3"/>
       <c r="U351" s="3"/>
-      <c r="V351" s="3"/>
+      <c r="V351" s="3">
+        <v>91.7</v>
+      </c>
       <c r="W351" s="3"/>
       <c r="X351" s="3"/>
       <c r="Y351" s="3"/>
       <c r="Z351" s="3"/>
       <c r="AA351" s="3"/>
     </row>
-    <row r="352" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>969</v>
       </c>
@@ -23572,8 +23708,11 @@
       <c r="P352">
         <v>37</v>
       </c>
-    </row>
-    <row r="353" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V352">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
         <v>971</v>
       </c>
@@ -23616,14 +23755,16 @@
       <c r="S353" s="3"/>
       <c r="T353" s="3"/>
       <c r="U353" s="3"/>
-      <c r="V353" s="3"/>
+      <c r="V353" s="3">
+        <v>82.8</v>
+      </c>
       <c r="W353" s="3"/>
       <c r="X353" s="3"/>
       <c r="Y353" s="3"/>
       <c r="Z353" s="3"/>
       <c r="AA353" s="3"/>
     </row>
-    <row r="354" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>972</v>
       </c>
@@ -23660,8 +23801,11 @@
       <c r="P354">
         <v>37</v>
       </c>
-    </row>
-    <row r="355" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V354">
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="355" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
         <v>974</v>
       </c>
@@ -23714,7 +23858,7 @@
       <c r="Z355" s="3"/>
       <c r="AA355" s="3"/>
     </row>
-    <row r="356" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>976</v>
       </c>
@@ -23760,7 +23904,9 @@
       <c r="S356" s="12"/>
       <c r="T356" s="30"/>
       <c r="U356" s="30"/>
-      <c r="V356" s="30"/>
+      <c r="V356" s="30">
+        <v>87</v>
+      </c>
       <c r="W356" s="30"/>
       <c r="X356" s="30"/>
       <c r="Y356" s="30"/>
@@ -33794,6 +33940,9 @@
       <c r="S542" s="12" t="s">
         <v>1391</v>
       </c>
+      <c r="X542">
+        <v>328</v>
+      </c>
     </row>
     <row r="543" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="3" t="s">
@@ -33839,9 +33988,13 @@
       <c r="S543" s="3"/>
       <c r="T543" s="3"/>
       <c r="U543" s="3"/>
-      <c r="V543" s="3"/>
+      <c r="V543" s="3">
+        <v>31.7</v>
+      </c>
       <c r="W543" s="3"/>
-      <c r="X543" s="3"/>
+      <c r="X543">
+        <v>328</v>
+      </c>
       <c r="Y543" s="3"/>
       <c r="Z543" s="3"/>
       <c r="AA543" s="3"/>
@@ -33885,6 +34038,9 @@
       </c>
       <c r="S544" s="12" t="s">
         <v>1391</v>
+      </c>
+      <c r="X544">
+        <v>328</v>
       </c>
     </row>
     <row r="545" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -33931,9 +34087,13 @@
       <c r="S545" s="3"/>
       <c r="T545" s="3"/>
       <c r="U545" s="3"/>
-      <c r="V545" s="3"/>
+      <c r="V545" s="3">
+        <v>26.7</v>
+      </c>
       <c r="W545" s="3"/>
-      <c r="X545" s="3"/>
+      <c r="X545">
+        <v>328</v>
+      </c>
       <c r="Y545" s="3"/>
       <c r="Z545" s="3"/>
       <c r="AA545" s="3"/>
@@ -33974,6 +34134,12 @@
       </c>
       <c r="P546">
         <v>37</v>
+      </c>
+      <c r="V546">
+        <v>23.8</v>
+      </c>
+      <c r="X546">
+        <v>328</v>
       </c>
     </row>
     <row r="547" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -34020,9 +34186,13 @@
       <c r="S547" s="3"/>
       <c r="T547" s="3"/>
       <c r="U547" s="3"/>
-      <c r="V547" s="3"/>
+      <c r="V547" s="3">
+        <v>28.5</v>
+      </c>
       <c r="W547" s="3"/>
-      <c r="X547" s="3"/>
+      <c r="X547">
+        <v>328</v>
+      </c>
       <c r="Y547" s="3"/>
       <c r="Z547" s="3"/>
       <c r="AA547" s="3"/>
@@ -34063,6 +34233,12 @@
       </c>
       <c r="P548">
         <v>37</v>
+      </c>
+      <c r="V548">
+        <v>28.2</v>
+      </c>
+      <c r="X548">
+        <v>328</v>
       </c>
     </row>
     <row r="549" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -34109,9 +34285,13 @@
       <c r="S549" s="3"/>
       <c r="T549" s="3"/>
       <c r="U549" s="3"/>
-      <c r="V549" s="3"/>
+      <c r="V549" s="3">
+        <v>26.7</v>
+      </c>
       <c r="W549" s="3"/>
-      <c r="X549" s="3"/>
+      <c r="X549">
+        <v>328</v>
+      </c>
       <c r="Y549" s="3"/>
       <c r="Z549" s="3"/>
       <c r="AA549" s="3"/>
@@ -34152,6 +34332,12 @@
       </c>
       <c r="P550">
         <v>37</v>
+      </c>
+      <c r="V550">
+        <v>24.6</v>
+      </c>
+      <c r="X550">
+        <v>328</v>
       </c>
     </row>
     <row r="551" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -34198,9 +34384,13 @@
       <c r="S551" s="3"/>
       <c r="T551" s="3"/>
       <c r="U551" s="3"/>
-      <c r="V551" s="3"/>
+      <c r="V551" s="3">
+        <v>29.7</v>
+      </c>
       <c r="W551" s="3"/>
-      <c r="X551" s="3"/>
+      <c r="X551">
+        <v>328</v>
+      </c>
       <c r="Y551" s="3"/>
       <c r="Z551" s="3"/>
       <c r="AA551" s="3"/>
@@ -34244,6 +34434,9 @@
       </c>
       <c r="S552" s="17" t="s">
         <v>1391</v>
+      </c>
+      <c r="X552">
+        <v>328</v>
       </c>
     </row>
     <row r="553" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -34290,9 +34483,13 @@
       <c r="S553" s="3"/>
       <c r="T553" s="3"/>
       <c r="U553" s="3"/>
-      <c r="V553" s="3"/>
+      <c r="V553" s="3">
+        <v>24.7</v>
+      </c>
       <c r="W553" s="3"/>
-      <c r="X553" s="3"/>
+      <c r="X553">
+        <v>328</v>
+      </c>
       <c r="Y553" s="3"/>
       <c r="Z553" s="3"/>
       <c r="AA553" s="3"/>
@@ -34336,6 +34533,9 @@
       </c>
       <c r="S554" s="17" t="s">
         <v>1391</v>
+      </c>
+      <c r="X554">
+        <v>328</v>
       </c>
     </row>
     <row r="555" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -34382,9 +34582,13 @@
       <c r="S555" s="3"/>
       <c r="T555" s="3"/>
       <c r="U555" s="3"/>
-      <c r="V555" s="3"/>
+      <c r="V555" s="3">
+        <v>30.1</v>
+      </c>
       <c r="W555" s="3"/>
-      <c r="X555" s="3"/>
+      <c r="X555">
+        <v>328</v>
+      </c>
       <c r="Y555" s="3"/>
       <c r="Z555" s="3"/>
       <c r="AA555" s="3"/>
@@ -34425,6 +34629,12 @@
       </c>
       <c r="P556">
         <v>57</v>
+      </c>
+      <c r="V556">
+        <v>28.2</v>
+      </c>
+      <c r="X556">
+        <v>328</v>
       </c>
     </row>
     <row r="557" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -34471,9 +34681,13 @@
       <c r="S557" s="3"/>
       <c r="T557" s="3"/>
       <c r="U557" s="3"/>
-      <c r="V557" s="3"/>
+      <c r="V557" s="3">
+        <v>24.1</v>
+      </c>
       <c r="W557" s="3"/>
-      <c r="X557" s="3"/>
+      <c r="X557">
+        <v>328</v>
+      </c>
       <c r="Y557" s="3"/>
       <c r="Z557" s="3"/>
       <c r="AA557" s="3"/>
@@ -34517,6 +34731,9 @@
       </c>
       <c r="S558" s="12" t="s">
         <v>1391</v>
+      </c>
+      <c r="X558">
+        <v>328</v>
       </c>
     </row>
     <row r="559" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -34567,7 +34784,9 @@
       <c r="U559" s="3"/>
       <c r="V559" s="3"/>
       <c r="W559" s="3"/>
-      <c r="X559" s="3"/>
+      <c r="X559">
+        <v>328</v>
+      </c>
       <c r="Y559" s="3"/>
       <c r="Z559" s="3"/>
       <c r="AA559" s="3"/>
@@ -34611,6 +34830,9 @@
       </c>
       <c r="S560" s="12" t="s">
         <v>1391</v>
+      </c>
+      <c r="X560">
+        <v>328</v>
       </c>
     </row>
     <row r="561" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -34657,9 +34879,13 @@
       <c r="S561" s="3"/>
       <c r="T561" s="3"/>
       <c r="U561" s="3"/>
-      <c r="V561" s="3"/>
+      <c r="V561" s="3">
+        <v>21.4</v>
+      </c>
       <c r="W561" s="3"/>
-      <c r="X561" s="3"/>
+      <c r="X561">
+        <v>328</v>
+      </c>
       <c r="Y561" s="3"/>
       <c r="Z561" s="3"/>
       <c r="AA561" s="3"/>
@@ -34700,6 +34926,12 @@
       </c>
       <c r="P562">
         <v>37</v>
+      </c>
+      <c r="V562">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="X562">
+        <v>328</v>
       </c>
     </row>
     <row r="563" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -34746,9 +34978,13 @@
       <c r="S563" s="3"/>
       <c r="T563" s="3"/>
       <c r="U563" s="3"/>
-      <c r="V563" s="3"/>
+      <c r="V563" s="3">
+        <v>31.2</v>
+      </c>
       <c r="W563" s="3"/>
-      <c r="X563" s="3"/>
+      <c r="X563">
+        <v>328</v>
+      </c>
       <c r="Y563" s="3"/>
       <c r="Z563" s="3"/>
       <c r="AA563" s="3"/>
@@ -34789,6 +35025,12 @@
       </c>
       <c r="P564">
         <v>37</v>
+      </c>
+      <c r="V564">
+        <v>36.9</v>
+      </c>
+      <c r="X564">
+        <v>328</v>
       </c>
     </row>
     <row r="565" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -34835,9 +35077,13 @@
       <c r="S565" s="3"/>
       <c r="T565" s="3"/>
       <c r="U565" s="3"/>
-      <c r="V565" s="3"/>
+      <c r="V565" s="3">
+        <v>29.4</v>
+      </c>
       <c r="W565" s="3"/>
-      <c r="X565" s="3"/>
+      <c r="X565">
+        <v>328</v>
+      </c>
       <c r="Y565" s="3"/>
       <c r="Z565" s="3"/>
       <c r="AA565" s="3"/>
@@ -34878,6 +35124,12 @@
       </c>
       <c r="P566">
         <v>37</v>
+      </c>
+      <c r="V566">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="X566">
+        <v>328</v>
       </c>
     </row>
     <row r="567" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -34924,9 +35176,13 @@
       <c r="S567" s="3"/>
       <c r="T567" s="3"/>
       <c r="U567" s="3"/>
-      <c r="V567" s="3"/>
+      <c r="V567" s="3">
+        <v>33.6</v>
+      </c>
       <c r="W567" s="3"/>
-      <c r="X567" s="3"/>
+      <c r="X567">
+        <v>328</v>
+      </c>
       <c r="Y567" s="3"/>
       <c r="Z567" s="3"/>
       <c r="AA567" s="3"/>
@@ -34967,6 +35223,12 @@
       </c>
       <c r="P568">
         <v>57</v>
+      </c>
+      <c r="V568">
+        <v>27.7</v>
+      </c>
+      <c r="X568">
+        <v>328</v>
       </c>
     </row>
     <row r="569" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -35013,9 +35275,13 @@
       <c r="S569" s="3"/>
       <c r="T569" s="3"/>
       <c r="U569" s="3"/>
-      <c r="V569" s="3"/>
+      <c r="V569" s="3">
+        <v>30.2</v>
+      </c>
       <c r="W569" s="3"/>
-      <c r="X569" s="3"/>
+      <c r="X569">
+        <v>328</v>
+      </c>
       <c r="Y569" s="3"/>
       <c r="Z569" s="3"/>
       <c r="AA569" s="3"/>
@@ -35056,6 +35322,12 @@
       </c>
       <c r="P570">
         <v>57</v>
+      </c>
+      <c r="V570">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="X570">
+        <v>328</v>
       </c>
     </row>
     <row r="571" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -35106,7 +35378,9 @@
       <c r="U571" s="3"/>
       <c r="V571" s="3"/>
       <c r="W571" s="3"/>
-      <c r="X571" s="3"/>
+      <c r="X571">
+        <v>328</v>
+      </c>
       <c r="Y571" s="3"/>
       <c r="Z571" s="3"/>
       <c r="AA571" s="3"/>
@@ -35147,6 +35421,12 @@
       </c>
       <c r="P572">
         <v>37</v>
+      </c>
+      <c r="V572">
+        <v>28.2</v>
+      </c>
+      <c r="X572">
+        <v>328</v>
       </c>
     </row>
     <row r="573" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -35191,9 +35471,13 @@
       <c r="S573" s="3"/>
       <c r="T573" s="3"/>
       <c r="U573" s="3"/>
-      <c r="V573" s="3"/>
+      <c r="V573" s="3">
+        <v>30</v>
+      </c>
       <c r="W573" s="3"/>
-      <c r="X573" s="3"/>
+      <c r="X573">
+        <v>328</v>
+      </c>
       <c r="Y573" s="3"/>
       <c r="Z573" s="3"/>
       <c r="AA573" s="3"/>
@@ -35237,6 +35521,9 @@
       </c>
       <c r="S574" s="12" t="s">
         <v>1391</v>
+      </c>
+      <c r="X574">
+        <v>328</v>
       </c>
     </row>
     <row r="575" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -35287,7 +35574,9 @@
       <c r="U575" s="3"/>
       <c r="V575" s="3"/>
       <c r="W575" s="3"/>
-      <c r="X575" s="3"/>
+      <c r="X575">
+        <v>328</v>
+      </c>
       <c r="Y575" s="3"/>
       <c r="Z575" s="3"/>
       <c r="AA575" s="3"/>
@@ -35331,6 +35620,9 @@
       </c>
       <c r="S576" s="12" t="s">
         <v>1391</v>
+      </c>
+      <c r="X576">
+        <v>328</v>
       </c>
     </row>
     <row r="577" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -35377,9 +35669,13 @@
       <c r="S577" s="3"/>
       <c r="T577" s="3"/>
       <c r="U577" s="3"/>
-      <c r="V577" s="3"/>
+      <c r="V577" s="3">
+        <v>24.6</v>
+      </c>
       <c r="W577" s="3"/>
-      <c r="X577" s="3"/>
+      <c r="X577">
+        <v>328</v>
+      </c>
       <c r="Y577" s="3"/>
       <c r="Z577" s="3"/>
       <c r="AA577" s="3"/>
@@ -35423,6 +35719,9 @@
       </c>
       <c r="S578" s="17" t="s">
         <v>1391</v>
+      </c>
+      <c r="X578">
+        <v>328</v>
       </c>
     </row>
     <row r="579" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -35469,9 +35768,13 @@
       <c r="S579" s="3"/>
       <c r="T579" s="3"/>
       <c r="U579" s="3"/>
-      <c r="V579" s="3"/>
+      <c r="V579" s="3">
+        <v>30.8</v>
+      </c>
       <c r="W579" s="3"/>
-      <c r="X579" s="3"/>
+      <c r="X579">
+        <v>328</v>
+      </c>
       <c r="Y579" s="3"/>
       <c r="Z579" s="3"/>
       <c r="AA579" s="3"/>
@@ -35512,6 +35815,12 @@
       </c>
       <c r="P580">
         <v>37</v>
+      </c>
+      <c r="V580">
+        <v>28.4</v>
+      </c>
+      <c r="X580">
+        <v>328</v>
       </c>
     </row>
     <row r="581" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -35558,9 +35867,13 @@
       <c r="S581" s="3"/>
       <c r="T581" s="3"/>
       <c r="U581" s="3"/>
-      <c r="V581" s="3"/>
+      <c r="V581" s="3">
+        <v>29.3</v>
+      </c>
       <c r="W581" s="3"/>
-      <c r="X581" s="3"/>
+      <c r="X581">
+        <v>328</v>
+      </c>
       <c r="Y581" s="3"/>
       <c r="Z581" s="3"/>
       <c r="AA581" s="3"/>
@@ -35601,6 +35914,12 @@
       </c>
       <c r="P582">
         <v>57</v>
+      </c>
+      <c r="V582">
+        <v>28.4</v>
+      </c>
+      <c r="X582">
+        <v>328</v>
       </c>
     </row>
     <row r="583" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -35651,7 +35970,9 @@
       <c r="U583" s="3"/>
       <c r="V583" s="3"/>
       <c r="W583" s="3"/>
-      <c r="X583" s="3"/>
+      <c r="X583">
+        <v>328</v>
+      </c>
       <c r="Y583" s="3"/>
       <c r="Z583" s="3"/>
       <c r="AA583" s="3"/>
@@ -35692,6 +36013,12 @@
       </c>
       <c r="P584">
         <v>57</v>
+      </c>
+      <c r="V584">
+        <v>23.4</v>
+      </c>
+      <c r="X584">
+        <v>328</v>
       </c>
     </row>
     <row r="585" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -35738,9 +36065,13 @@
       <c r="S585" s="3"/>
       <c r="T585" s="3"/>
       <c r="U585" s="3"/>
-      <c r="V585" s="3"/>
+      <c r="V585" s="3">
+        <v>33.4</v>
+      </c>
       <c r="W585" s="3"/>
-      <c r="X585" s="3"/>
+      <c r="X585">
+        <v>328</v>
+      </c>
       <c r="Y585" s="3"/>
       <c r="Z585" s="3"/>
       <c r="AA585" s="3"/>
@@ -35781,6 +36112,12 @@
       </c>
       <c r="P586">
         <v>57</v>
+      </c>
+      <c r="V586">
+        <v>34.5</v>
+      </c>
+      <c r="X586">
+        <v>328</v>
       </c>
     </row>
     <row r="587" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -35827,9 +36164,13 @@
       <c r="S587" s="3"/>
       <c r="T587" s="3"/>
       <c r="U587" s="3"/>
-      <c r="V587" s="3"/>
+      <c r="V587" s="3">
+        <v>34.4</v>
+      </c>
       <c r="W587" s="3"/>
-      <c r="X587" s="3"/>
+      <c r="X587">
+        <v>328</v>
+      </c>
       <c r="Y587" s="3"/>
       <c r="Z587" s="3"/>
       <c r="AA587" s="3"/>
@@ -35873,6 +36214,9 @@
       </c>
       <c r="S588" s="12" t="s">
         <v>1391</v>
+      </c>
+      <c r="X588">
+        <v>328</v>
       </c>
     </row>
     <row r="589" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -35923,7 +36267,9 @@
       <c r="U589" s="3"/>
       <c r="V589" s="3"/>
       <c r="W589" s="3"/>
-      <c r="X589" s="3"/>
+      <c r="X589">
+        <v>328</v>
+      </c>
       <c r="Y589" s="3"/>
       <c r="Z589" s="3"/>
       <c r="AA589" s="3"/>
@@ -35967,6 +36313,9 @@
       </c>
       <c r="S590" s="12" t="s">
         <v>1391</v>
+      </c>
+      <c r="X590">
+        <v>328</v>
       </c>
     </row>
     <row r="591" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -36013,9 +36362,13 @@
       <c r="S591" s="3"/>
       <c r="T591" s="3"/>
       <c r="U591" s="3"/>
-      <c r="V591" s="3"/>
+      <c r="V591" s="3">
+        <v>24.1</v>
+      </c>
       <c r="W591" s="3"/>
-      <c r="X591" s="3"/>
+      <c r="X591">
+        <v>328</v>
+      </c>
       <c r="Y591" s="3"/>
       <c r="Z591" s="3"/>
       <c r="AA591" s="3"/>
@@ -36056,6 +36409,12 @@
       </c>
       <c r="P592">
         <v>37</v>
+      </c>
+      <c r="V592">
+        <v>28.4</v>
+      </c>
+      <c r="X592">
+        <v>328</v>
       </c>
     </row>
     <row r="593" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -36102,9 +36461,13 @@
       <c r="S593" s="3"/>
       <c r="T593" s="3"/>
       <c r="U593" s="3"/>
-      <c r="V593" s="3"/>
+      <c r="V593" s="3">
+        <v>33.200000000000003</v>
+      </c>
       <c r="W593" s="3"/>
-      <c r="X593" s="3"/>
+      <c r="X593">
+        <v>328</v>
+      </c>
       <c r="Y593" s="3"/>
       <c r="Z593" s="3"/>
       <c r="AA593" s="3"/>
@@ -36149,6 +36512,9 @@
       <c r="S594" s="17" t="s">
         <v>1391</v>
       </c>
+      <c r="X594">
+        <v>328</v>
+      </c>
     </row>
     <row r="595" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="3" t="s">
@@ -36198,9 +36564,13 @@
       </c>
       <c r="T595" s="11"/>
       <c r="U595" s="11"/>
-      <c r="V595" s="11"/>
+      <c r="V595" s="11">
+        <v>33.6</v>
+      </c>
       <c r="W595" s="11"/>
-      <c r="X595" s="11"/>
+      <c r="X595">
+        <v>328</v>
+      </c>
       <c r="Y595" s="11"/>
       <c r="Z595" s="11"/>
       <c r="AA595" s="11"/>
@@ -36244,6 +36614,9 @@
       </c>
       <c r="S596" s="17" t="s">
         <v>1391</v>
+      </c>
+      <c r="X596">
+        <v>328</v>
       </c>
     </row>
     <row r="597" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -36294,7 +36667,9 @@
       <c r="U597" s="3"/>
       <c r="V597" s="3"/>
       <c r="W597" s="3"/>
-      <c r="X597" s="3"/>
+      <c r="X597">
+        <v>328</v>
+      </c>
       <c r="Y597" s="3"/>
       <c r="Z597" s="3"/>
       <c r="AA597" s="3"/>
@@ -36335,6 +36710,12 @@
       </c>
       <c r="P598">
         <v>57</v>
+      </c>
+      <c r="V598">
+        <v>29.1</v>
+      </c>
+      <c r="X598">
+        <v>328</v>
       </c>
     </row>
     <row r="599" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -36381,9 +36762,13 @@
       <c r="S599" s="3"/>
       <c r="T599" s="3"/>
       <c r="U599" s="3"/>
-      <c r="V599" s="3"/>
+      <c r="V599" s="3">
+        <v>35.799999999999997</v>
+      </c>
       <c r="W599" s="3"/>
-      <c r="X599" s="3"/>
+      <c r="X599">
+        <v>328</v>
+      </c>
       <c r="Y599" s="3"/>
       <c r="Z599" s="3"/>
       <c r="AA599" s="3"/>
@@ -36424,6 +36809,12 @@
       </c>
       <c r="P600">
         <v>57</v>
+      </c>
+      <c r="V600">
+        <v>27.5</v>
+      </c>
+      <c r="X600">
+        <v>328</v>
       </c>
     </row>
     <row r="601" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -36470,9 +36861,13 @@
       <c r="S601" s="3"/>
       <c r="T601" s="3"/>
       <c r="U601" s="3"/>
-      <c r="V601" s="3"/>
+      <c r="V601" s="3">
+        <v>37</v>
+      </c>
       <c r="W601" s="3"/>
-      <c r="X601" s="3"/>
+      <c r="X601">
+        <v>328</v>
+      </c>
       <c r="Y601" s="3"/>
       <c r="Z601" s="3"/>
       <c r="AA601" s="3"/>
@@ -36516,6 +36911,9 @@
       </c>
       <c r="S602" s="12" t="s">
         <v>1391</v>
+      </c>
+      <c r="X602">
+        <v>328</v>
       </c>
     </row>
     <row r="603" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -36562,9 +36960,13 @@
       <c r="S603" s="3"/>
       <c r="T603" s="3"/>
       <c r="U603" s="3"/>
-      <c r="V603" s="3"/>
+      <c r="V603" s="3">
+        <v>24.9</v>
+      </c>
       <c r="W603" s="3"/>
-      <c r="X603" s="3"/>
+      <c r="X603">
+        <v>328</v>
+      </c>
       <c r="Y603" s="3"/>
       <c r="Z603" s="3"/>
       <c r="AA603" s="3"/>
@@ -36605,6 +37007,12 @@
       </c>
       <c r="P604">
         <v>37</v>
+      </c>
+      <c r="V604">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="X604">
+        <v>328</v>
       </c>
     </row>
     <row r="605" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -36651,9 +37059,13 @@
       <c r="S605" s="3"/>
       <c r="T605" s="3"/>
       <c r="U605" s="3"/>
-      <c r="V605" s="3"/>
+      <c r="V605" s="3">
+        <v>25.8</v>
+      </c>
       <c r="W605" s="3"/>
-      <c r="X605" s="3"/>
+      <c r="X605">
+        <v>328</v>
+      </c>
       <c r="Y605" s="3"/>
       <c r="Z605" s="3"/>
       <c r="AA605" s="3"/>
@@ -36694,6 +37106,12 @@
       </c>
       <c r="P606">
         <v>37</v>
+      </c>
+      <c r="V606">
+        <v>33.6</v>
+      </c>
+      <c r="X606">
+        <v>328</v>
       </c>
     </row>
     <row r="607" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -36740,9 +37158,13 @@
       <c r="S607" s="3"/>
       <c r="T607" s="3"/>
       <c r="U607" s="3"/>
-      <c r="V607" s="3"/>
+      <c r="V607" s="3">
+        <v>25.4</v>
+      </c>
       <c r="W607" s="3"/>
-      <c r="X607" s="3"/>
+      <c r="X607">
+        <v>328</v>
+      </c>
       <c r="Y607" s="3"/>
       <c r="Z607" s="3"/>
       <c r="AA607" s="3"/>
@@ -36783,6 +37205,12 @@
       </c>
       <c r="P608">
         <v>37</v>
+      </c>
+      <c r="V608">
+        <v>30.7</v>
+      </c>
+      <c r="X608">
+        <v>328</v>
       </c>
     </row>
     <row r="609" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -36829,9 +37257,13 @@
       <c r="S609" s="3"/>
       <c r="T609" s="3"/>
       <c r="U609" s="3"/>
-      <c r="V609" s="3"/>
+      <c r="V609" s="3">
+        <v>33.9</v>
+      </c>
       <c r="W609" s="3"/>
-      <c r="X609" s="3"/>
+      <c r="X609">
+        <v>328</v>
+      </c>
       <c r="Y609" s="3"/>
       <c r="Z609" s="3"/>
       <c r="AA609" s="3"/>
@@ -36872,6 +37304,12 @@
       </c>
       <c r="P610">
         <v>37</v>
+      </c>
+      <c r="V610">
+        <v>24.4</v>
+      </c>
+      <c r="X610">
+        <v>328</v>
       </c>
     </row>
     <row r="611" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -36922,7 +37360,9 @@
       <c r="U611" s="3"/>
       <c r="V611" s="3"/>
       <c r="W611" s="3"/>
-      <c r="X611" s="3"/>
+      <c r="X611">
+        <v>328</v>
+      </c>
       <c r="Y611" s="3"/>
       <c r="Z611" s="3"/>
       <c r="AA611" s="3"/>
@@ -36963,6 +37403,12 @@
       </c>
       <c r="P612">
         <v>57</v>
+      </c>
+      <c r="V612">
+        <v>27.4</v>
+      </c>
+      <c r="X612">
+        <v>328</v>
       </c>
     </row>
     <row r="613" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -37009,9 +37455,13 @@
       <c r="S613" s="3"/>
       <c r="T613" s="3"/>
       <c r="U613" s="3"/>
-      <c r="V613" s="3"/>
+      <c r="V613" s="3">
+        <v>31.6</v>
+      </c>
       <c r="W613" s="3"/>
-      <c r="X613" s="3"/>
+      <c r="X613">
+        <v>328</v>
+      </c>
       <c r="Y613" s="3"/>
       <c r="Z613" s="3"/>
       <c r="AA613" s="3"/>
@@ -37052,6 +37502,12 @@
       </c>
       <c r="P614">
         <v>57</v>
+      </c>
+      <c r="V614">
+        <v>29.4</v>
+      </c>
+      <c r="X614">
+        <v>328</v>
       </c>
     </row>
     <row r="615" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -37098,9 +37554,13 @@
       <c r="S615" s="3"/>
       <c r="T615" s="3"/>
       <c r="U615" s="3"/>
-      <c r="V615" s="3"/>
+      <c r="V615" s="3">
+        <v>32.9</v>
+      </c>
       <c r="W615" s="3"/>
-      <c r="X615" s="3"/>
+      <c r="X615">
+        <v>328</v>
+      </c>
       <c r="Y615" s="3"/>
       <c r="Z615" s="3"/>
       <c r="AA615" s="3"/>
@@ -37144,6 +37604,9 @@
       </c>
       <c r="S616" s="17" t="s">
         <v>1391</v>
+      </c>
+      <c r="X616">
+        <v>328</v>
       </c>
     </row>
     <row r="617" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -37190,9 +37653,13 @@
       <c r="S617" s="3"/>
       <c r="T617" s="3"/>
       <c r="U617" s="3"/>
-      <c r="V617" s="3"/>
+      <c r="V617" s="3">
+        <v>28.1</v>
+      </c>
       <c r="W617" s="3"/>
-      <c r="X617" s="3"/>
+      <c r="X617">
+        <v>328</v>
+      </c>
       <c r="Y617" s="3"/>
       <c r="Z617" s="3"/>
       <c r="AA617" s="3"/>
@@ -37233,6 +37700,12 @@
       </c>
       <c r="P618">
         <v>37</v>
+      </c>
+      <c r="V618">
+        <v>25.4</v>
+      </c>
+      <c r="X618">
+        <v>328</v>
       </c>
     </row>
     <row r="619" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -37279,9 +37752,13 @@
       <c r="S619" s="3"/>
       <c r="T619" s="3"/>
       <c r="U619" s="3"/>
-      <c r="V619" s="3"/>
+      <c r="V619" s="3">
+        <v>29.3</v>
+      </c>
       <c r="W619" s="3"/>
-      <c r="X619" s="3"/>
+      <c r="X619">
+        <v>328</v>
+      </c>
       <c r="Y619" s="3"/>
       <c r="Z619" s="3"/>
       <c r="AA619" s="3"/>
@@ -37325,6 +37802,9 @@
       </c>
       <c r="S620" s="12" t="s">
         <v>1391</v>
+      </c>
+      <c r="X620">
+        <v>328</v>
       </c>
     </row>
     <row r="621" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -37371,9 +37851,13 @@
       <c r="S621" s="3"/>
       <c r="T621" s="3"/>
       <c r="U621" s="3"/>
-      <c r="V621" s="3"/>
+      <c r="V621" s="3">
+        <v>26.4</v>
+      </c>
       <c r="W621" s="3"/>
-      <c r="X621" s="3"/>
+      <c r="X621">
+        <v>328</v>
+      </c>
       <c r="Y621" s="3"/>
       <c r="Z621" s="3"/>
       <c r="AA621" s="3"/>
@@ -37414,6 +37898,12 @@
       </c>
       <c r="P622">
         <v>37</v>
+      </c>
+      <c r="V622">
+        <v>31.1</v>
+      </c>
+      <c r="X622">
+        <v>328</v>
       </c>
     </row>
     <row r="623" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -37460,9 +37950,13 @@
       <c r="S623" s="3"/>
       <c r="T623" s="3"/>
       <c r="U623" s="3"/>
-      <c r="V623" s="3"/>
+      <c r="V623" s="3">
+        <v>27.9</v>
+      </c>
       <c r="W623" s="3"/>
-      <c r="X623" s="3"/>
+      <c r="X623">
+        <v>328</v>
+      </c>
       <c r="Y623" s="3"/>
       <c r="Z623" s="3"/>
       <c r="AA623" s="3"/>
@@ -37503,6 +37997,12 @@
       </c>
       <c r="P624">
         <v>37</v>
+      </c>
+      <c r="V624">
+        <v>24.9</v>
+      </c>
+      <c r="X624">
+        <v>328</v>
       </c>
     </row>
     <row r="625" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -37549,9 +38049,13 @@
       <c r="S625" s="3"/>
       <c r="T625" s="3"/>
       <c r="U625" s="3"/>
-      <c r="V625" s="3"/>
+      <c r="V625" s="3">
+        <v>30.1</v>
+      </c>
       <c r="W625" s="3"/>
-      <c r="X625" s="3"/>
+      <c r="X625">
+        <v>328</v>
+      </c>
       <c r="Y625" s="3"/>
       <c r="Z625" s="3"/>
       <c r="AA625" s="3"/>
@@ -37592,6 +38096,12 @@
       </c>
       <c r="P626">
         <v>37</v>
+      </c>
+      <c r="V626">
+        <v>25.5</v>
+      </c>
+      <c r="X626">
+        <v>328</v>
       </c>
     </row>
     <row r="627" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -37638,9 +38148,13 @@
       <c r="S627" s="3"/>
       <c r="T627" s="3"/>
       <c r="U627" s="3"/>
-      <c r="V627" s="3"/>
+      <c r="V627" s="3">
+        <v>27.3</v>
+      </c>
       <c r="W627" s="3"/>
-      <c r="X627" s="3"/>
+      <c r="X627">
+        <v>328</v>
+      </c>
       <c r="Y627" s="3"/>
       <c r="Z627" s="3"/>
       <c r="AA627" s="3"/>
@@ -37681,6 +38195,12 @@
       </c>
       <c r="P628">
         <v>57</v>
+      </c>
+      <c r="V628">
+        <v>31.1</v>
+      </c>
+      <c r="X628">
+        <v>328</v>
       </c>
     </row>
     <row r="629" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -37727,9 +38247,13 @@
       <c r="S629" s="3"/>
       <c r="T629" s="3"/>
       <c r="U629" s="3"/>
-      <c r="V629" s="3"/>
+      <c r="V629" s="3">
+        <v>34.9</v>
+      </c>
       <c r="W629" s="3"/>
-      <c r="X629" s="3"/>
+      <c r="X629">
+        <v>328</v>
+      </c>
       <c r="Y629" s="3"/>
       <c r="Z629" s="3"/>
       <c r="AA629" s="3"/>
@@ -37770,6 +38294,12 @@
       </c>
       <c r="P630">
         <v>57</v>
+      </c>
+      <c r="V630">
+        <v>32.4</v>
+      </c>
+      <c r="X630">
+        <v>328</v>
       </c>
     </row>
     <row r="631" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -37816,9 +38346,13 @@
       <c r="S631" s="3"/>
       <c r="T631" s="3"/>
       <c r="U631" s="3"/>
-      <c r="V631" s="3"/>
+      <c r="V631" s="3">
+        <v>32.700000000000003</v>
+      </c>
       <c r="W631" s="3"/>
-      <c r="X631" s="3"/>
+      <c r="X631">
+        <v>328</v>
+      </c>
       <c r="Y631" s="3"/>
       <c r="Z631" s="3"/>
       <c r="AA631" s="3"/>
@@ -39336,7 +39870,7 @@
       <c r="K820" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <tableParts count="1">

--- a/data/treeMeasurements/TreeMeasurements.xlsx
+++ b/data/treeMeasurements/TreeMeasurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/treeMeasurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C7BA4B-2DA5-1B4C-8837-B4E69E3A0E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30694F0D-8950-4D43-9109-FDD968B7501B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4752" uniqueCount="1462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4753" uniqueCount="1462">
   <si>
     <t>tree_ID</t>
   </si>
@@ -4431,11 +4431,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4632,47 +4639,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5331,7 +5339,7 @@
     </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="populus"/>
+        <filter val="sequoiadendron"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5568,9 +5576,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA820"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" zoomScale="167" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V292" sqref="V292"/>
+    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U578" sqref="U578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5585,22 +5593,21 @@
     <col min="8" max="8" width="0.83203125" customWidth="1"/>
     <col min="9" max="9" width="0.33203125" customWidth="1"/>
     <col min="10" max="10" width="20.83203125" customWidth="1"/>
-    <col min="11" max="11" width="17.5" customWidth="1"/>
-    <col min="12" max="12" width="20.5" style="18" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="2.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="20.5" style="18" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" customWidth="1"/>
     <col min="14" max="14" width="18.5" customWidth="1"/>
     <col min="15" max="15" width="21.83203125" customWidth="1"/>
     <col min="16" max="16" width="0.5" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="10.33203125" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="0.1640625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="17.1640625" customWidth="1"/>
-    <col min="20" max="20" width="0.33203125" customWidth="1"/>
-    <col min="21" max="21" width="1.33203125" customWidth="1"/>
-    <col min="22" max="22" width="12.5" customWidth="1"/>
+    <col min="19" max="20" width="14.6640625" customWidth="1"/>
+    <col min="21" max="21" width="22" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" customWidth="1"/>
     <col min="23" max="23" width="19.83203125" customWidth="1"/>
     <col min="24" max="24" width="23.1640625" customWidth="1"/>
     <col min="25" max="25" width="22.5" customWidth="1"/>
-    <col min="26" max="26" width="17.83203125" customWidth="1"/>
+    <col min="26" max="26" width="23.33203125" customWidth="1"/>
     <col min="27" max="27" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20091,7 +20098,7 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="277" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>850</v>
       </c>
@@ -20144,7 +20151,7 @@
       <c r="Z277" s="3"/>
       <c r="AA277" s="3"/>
     </row>
-    <row r="278" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>853</v>
       </c>
@@ -20185,7 +20192,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="279" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>854</v>
       </c>
@@ -20244,7 +20251,7 @@
       <c r="Z279" s="3"/>
       <c r="AA279" s="3"/>
     </row>
-    <row r="280" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>855</v>
       </c>
@@ -20285,7 +20292,7 @@
         <v>80.400000000000006</v>
       </c>
     </row>
-    <row r="281" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>856</v>
       </c>
@@ -20820,7 +20827,7 @@
       <c r="Z291" s="3"/>
       <c r="AA291" s="3"/>
     </row>
-    <row r="292" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>874</v>
       </c>
@@ -20861,7 +20868,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="293" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>875</v>
       </c>
@@ -20914,7 +20921,7 @@
       <c r="Z293" s="3"/>
       <c r="AA293" s="3"/>
     </row>
-    <row r="294" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>878</v>
       </c>
@@ -20955,7 +20962,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="295" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>880</v>
       </c>
@@ -21008,7 +21015,7 @@
       <c r="Z295" s="3"/>
       <c r="AA295" s="3"/>
     </row>
-    <row r="296" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>882</v>
       </c>
@@ -21511,7 +21518,7 @@
         <v>90.7</v>
       </c>
     </row>
-    <row r="307" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
         <v>899</v>
       </c>
@@ -21564,7 +21571,7 @@
       <c r="Z307" s="3"/>
       <c r="AA307" s="3"/>
     </row>
-    <row r="308" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>901</v>
       </c>
@@ -21605,7 +21612,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="309" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>902</v>
       </c>
@@ -21658,7 +21665,7 @@
       <c r="Z309" s="3"/>
       <c r="AA309" s="3"/>
     </row>
-    <row r="310" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>903</v>
       </c>
@@ -21699,7 +21706,7 @@
         <v>85.4</v>
       </c>
     </row>
-    <row r="311" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>904</v>
       </c>
@@ -22223,7 +22230,7 @@
       <c r="Z321" s="3"/>
       <c r="AA321" s="3"/>
     </row>
-    <row r="322" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>922</v>
       </c>
@@ -22264,7 +22271,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="323" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>923</v>
       </c>
@@ -22317,7 +22324,7 @@
       <c r="Z323" s="3"/>
       <c r="AA323" s="3"/>
     </row>
-    <row r="324" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>924</v>
       </c>
@@ -22358,7 +22365,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="325" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>925</v>
       </c>
@@ -22411,7 +22418,7 @@
       <c r="Z325" s="3"/>
       <c r="AA325" s="3"/>
     </row>
-    <row r="326" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>926</v>
       </c>
@@ -22945,7 +22952,7 @@
         <v>87.7</v>
       </c>
     </row>
-    <row r="337" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>941</v>
       </c>
@@ -23004,7 +23011,7 @@
       <c r="Z337" s="30"/>
       <c r="AA337" s="30"/>
     </row>
-    <row r="338" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>943</v>
       </c>
@@ -23045,7 +23052,7 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="339" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>945</v>
       </c>
@@ -23102,7 +23109,7 @@
       <c r="Z339" s="30"/>
       <c r="AA339" s="30"/>
     </row>
-    <row r="340" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>946</v>
       </c>
@@ -23143,7 +23150,7 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="341" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>947</v>
       </c>
@@ -23671,7 +23678,7 @@
       <c r="Z351" s="3"/>
       <c r="AA351" s="3"/>
     </row>
-    <row r="352" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>969</v>
       </c>
@@ -23712,7 +23719,7 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="353" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
         <v>971</v>
       </c>
@@ -23764,7 +23771,7 @@
       <c r="Z353" s="3"/>
       <c r="AA353" s="3"/>
     </row>
-    <row r="354" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>972</v>
       </c>
@@ -23805,7 +23812,7 @@
         <v>82.9</v>
       </c>
     </row>
-    <row r="355" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
         <v>974</v>
       </c>
@@ -23858,7 +23865,7 @@
       <c r="Z355" s="3"/>
       <c r="AA355" s="3"/>
     </row>
-    <row r="356" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>976</v>
       </c>
@@ -34142,7 +34149,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="547" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="3" t="s">
         <v>1269</v>
       </c>
@@ -34184,7 +34191,9 @@
       <c r="Q547" s="3"/>
       <c r="R547" s="3"/>
       <c r="S547" s="3"/>
-      <c r="T547" s="3"/>
+      <c r="T547" s="15">
+        <v>11.57</v>
+      </c>
       <c r="U547" s="3"/>
       <c r="V547" s="3">
         <v>28.5</v>
@@ -34194,10 +34203,10 @@
         <v>328</v>
       </c>
       <c r="Y547" s="3"/>
-      <c r="Z547" s="3"/>
+      <c r="Z547" s="15"/>
       <c r="AA547" s="3"/>
     </row>
-    <row r="548" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>1270</v>
       </c>
@@ -34234,14 +34243,18 @@
       <c r="P548">
         <v>37</v>
       </c>
+      <c r="T548">
+        <v>11.9</v>
+      </c>
       <c r="V548">
         <v>28.2</v>
       </c>
       <c r="X548">
         <v>328</v>
       </c>
-    </row>
-    <row r="549" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z548" s="15"/>
+    </row>
+    <row r="549" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="3" t="s">
         <v>1271</v>
       </c>
@@ -34283,7 +34296,9 @@
       <c r="Q549" s="3"/>
       <c r="R549" s="3"/>
       <c r="S549" s="3"/>
-      <c r="T549" s="3"/>
+      <c r="T549" s="3">
+        <v>9.75</v>
+      </c>
       <c r="U549" s="3"/>
       <c r="V549" s="3">
         <v>26.7</v>
@@ -34293,10 +34308,10 @@
         <v>328</v>
       </c>
       <c r="Y549" s="3"/>
-      <c r="Z549" s="3"/>
+      <c r="Z549" s="15"/>
       <c r="AA549" s="3"/>
     </row>
-    <row r="550" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>1272</v>
       </c>
@@ -34333,14 +34348,18 @@
       <c r="P550">
         <v>37</v>
       </c>
+      <c r="T550" s="15">
+        <v>9.94</v>
+      </c>
       <c r="V550">
         <v>24.6</v>
       </c>
       <c r="X550">
         <v>328</v>
       </c>
-    </row>
-    <row r="551" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z550" s="15"/>
+    </row>
+    <row r="551" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="3" t="s">
         <v>1274</v>
       </c>
@@ -34382,7 +34401,9 @@
       <c r="Q551" s="3"/>
       <c r="R551" s="3"/>
       <c r="S551" s="3"/>
-      <c r="T551" s="3"/>
+      <c r="T551" s="3">
+        <v>10.029999999999999</v>
+      </c>
       <c r="U551" s="3"/>
       <c r="V551" s="3">
         <v>29.7</v>
@@ -34392,7 +34413,7 @@
         <v>328</v>
       </c>
       <c r="Y551" s="3"/>
-      <c r="Z551" s="3"/>
+      <c r="Z551" s="15"/>
       <c r="AA551" s="3"/>
     </row>
     <row r="552" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -34438,6 +34459,7 @@
       <c r="X552">
         <v>328</v>
       </c>
+      <c r="Z552" s="15"/>
     </row>
     <row r="553" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="3" t="s">
@@ -34491,7 +34513,7 @@
         <v>328</v>
       </c>
       <c r="Y553" s="3"/>
-      <c r="Z553" s="3"/>
+      <c r="Z553" s="15"/>
       <c r="AA553" s="3"/>
     </row>
     <row r="554" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -34537,6 +34559,7 @@
       <c r="X554">
         <v>328</v>
       </c>
+      <c r="Z554" s="15"/>
     </row>
     <row r="555" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="3" t="s">
@@ -34590,7 +34613,7 @@
         <v>328</v>
       </c>
       <c r="Y555" s="3"/>
-      <c r="Z555" s="3"/>
+      <c r="Z555" s="15"/>
       <c r="AA555" s="3"/>
     </row>
     <row r="556" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -34636,6 +34659,7 @@
       <c r="X556">
         <v>328</v>
       </c>
+      <c r="Z556" s="15"/>
     </row>
     <row r="557" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="3" t="s">
@@ -34689,7 +34713,7 @@
         <v>328</v>
       </c>
       <c r="Y557" s="3"/>
-      <c r="Z557" s="3"/>
+      <c r="Z557" s="15"/>
       <c r="AA557" s="3"/>
     </row>
     <row r="558" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -34735,6 +34759,7 @@
       <c r="X558">
         <v>328</v>
       </c>
+      <c r="Z558" s="15"/>
     </row>
     <row r="559" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="3" t="s">
@@ -34788,7 +34813,7 @@
         <v>328</v>
       </c>
       <c r="Y559" s="3"/>
-      <c r="Z559" s="3"/>
+      <c r="Z559" s="15"/>
       <c r="AA559" s="3"/>
     </row>
     <row r="560" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -34834,6 +34859,7 @@
       <c r="X560">
         <v>328</v>
       </c>
+      <c r="Z560" s="15"/>
     </row>
     <row r="561" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="3" t="s">
@@ -34887,10 +34913,10 @@
         <v>328</v>
       </c>
       <c r="Y561" s="3"/>
-      <c r="Z561" s="3"/>
+      <c r="Z561" s="15"/>
       <c r="AA561" s="3"/>
     </row>
-    <row r="562" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>1290</v>
       </c>
@@ -34927,14 +34953,18 @@
       <c r="P562">
         <v>37</v>
       </c>
+      <c r="T562">
+        <v>15.19</v>
+      </c>
       <c r="V562">
         <v>33.200000000000003</v>
       </c>
       <c r="X562">
         <v>328</v>
       </c>
-    </row>
-    <row r="563" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z562" s="15"/>
+    </row>
+    <row r="563" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="3" t="s">
         <v>1293</v>
       </c>
@@ -34976,7 +35006,9 @@
       <c r="Q563" s="3"/>
       <c r="R563" s="3"/>
       <c r="S563" s="3"/>
-      <c r="T563" s="3"/>
+      <c r="T563" s="3">
+        <v>10.78</v>
+      </c>
       <c r="U563" s="3"/>
       <c r="V563" s="3">
         <v>31.2</v>
@@ -34986,10 +35018,10 @@
         <v>328</v>
       </c>
       <c r="Y563" s="3"/>
-      <c r="Z563" s="3"/>
+      <c r="Z563" s="15"/>
       <c r="AA563" s="3"/>
     </row>
-    <row r="564" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>1295</v>
       </c>
@@ -35026,14 +35058,18 @@
       <c r="P564">
         <v>37</v>
       </c>
+      <c r="T564">
+        <v>12.45</v>
+      </c>
       <c r="V564">
         <v>36.9</v>
       </c>
       <c r="X564">
         <v>328</v>
       </c>
-    </row>
-    <row r="565" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z564" s="15"/>
+    </row>
+    <row r="565" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="3" t="s">
         <v>1297</v>
       </c>
@@ -35075,7 +35111,9 @@
       <c r="Q565" s="3"/>
       <c r="R565" s="3"/>
       <c r="S565" s="3"/>
-      <c r="T565" s="3"/>
+      <c r="T565" s="3">
+        <v>11.31</v>
+      </c>
       <c r="U565" s="3"/>
       <c r="V565" s="3">
         <v>29.4</v>
@@ -35085,10 +35123,10 @@
         <v>328</v>
       </c>
       <c r="Y565" s="3"/>
-      <c r="Z565" s="3"/>
+      <c r="Z565" s="15"/>
       <c r="AA565" s="3"/>
     </row>
-    <row r="566" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>1298</v>
       </c>
@@ -35125,12 +35163,16 @@
       <c r="P566">
         <v>37</v>
       </c>
+      <c r="T566">
+        <v>6.84</v>
+      </c>
       <c r="V566">
         <v>19.600000000000001</v>
       </c>
       <c r="X566">
         <v>328</v>
       </c>
+      <c r="Z566" s="15"/>
     </row>
     <row r="567" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="3" t="s">
@@ -35184,7 +35226,7 @@
         <v>328</v>
       </c>
       <c r="Y567" s="3"/>
-      <c r="Z567" s="3"/>
+      <c r="Z567" s="15"/>
       <c r="AA567" s="3"/>
     </row>
     <row r="568" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -35230,6 +35272,7 @@
       <c r="X568">
         <v>328</v>
       </c>
+      <c r="Z568" s="15"/>
     </row>
     <row r="569" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="3" t="s">
@@ -35283,7 +35326,7 @@
         <v>328</v>
       </c>
       <c r="Y569" s="3"/>
-      <c r="Z569" s="3"/>
+      <c r="Z569" s="15"/>
       <c r="AA569" s="3"/>
     </row>
     <row r="570" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -35329,6 +35372,7 @@
       <c r="X570">
         <v>328</v>
       </c>
+      <c r="Z570" s="15"/>
     </row>
     <row r="571" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="3" t="s">
@@ -35382,7 +35426,7 @@
         <v>328</v>
       </c>
       <c r="Y571" s="3"/>
-      <c r="Z571" s="3"/>
+      <c r="Z571" s="15"/>
       <c r="AA571" s="3"/>
     </row>
     <row r="572" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -35428,6 +35472,7 @@
       <c r="X572">
         <v>328</v>
       </c>
+      <c r="Z572" s="15"/>
     </row>
     <row r="573" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="3" t="s">
@@ -35479,7 +35524,7 @@
         <v>328</v>
       </c>
       <c r="Y573" s="3"/>
-      <c r="Z573" s="3"/>
+      <c r="Z573" s="15"/>
       <c r="AA573" s="3"/>
     </row>
     <row r="574" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -35525,6 +35570,7 @@
       <c r="X574">
         <v>328</v>
       </c>
+      <c r="Z574" s="15"/>
     </row>
     <row r="575" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="3" t="s">
@@ -35578,7 +35624,7 @@
         <v>328</v>
       </c>
       <c r="Y575" s="3"/>
-      <c r="Z575" s="3"/>
+      <c r="Z575" s="15"/>
       <c r="AA575" s="3"/>
     </row>
     <row r="576" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -35624,8 +35670,9 @@
       <c r="X576">
         <v>328</v>
       </c>
-    </row>
-    <row r="577" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z576" s="15"/>
+    </row>
+    <row r="577" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="3" t="s">
         <v>1313</v>
       </c>
@@ -35667,7 +35714,9 @@
       <c r="Q577" s="3"/>
       <c r="R577" s="3"/>
       <c r="S577" s="3"/>
-      <c r="T577" s="3"/>
+      <c r="T577" s="3">
+        <v>12.04</v>
+      </c>
       <c r="U577" s="3"/>
       <c r="V577" s="3">
         <v>24.6</v>
@@ -35677,10 +35726,10 @@
         <v>328</v>
       </c>
       <c r="Y577" s="3"/>
-      <c r="Z577" s="3"/>
+      <c r="Z577" s="15"/>
       <c r="AA577" s="3"/>
     </row>
-    <row r="578" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>1315</v>
       </c>
@@ -35720,11 +35769,15 @@
       <c r="S578" s="17" t="s">
         <v>1391</v>
       </c>
+      <c r="T578" s="47" t="s">
+        <v>1386</v>
+      </c>
       <c r="X578">
         <v>328</v>
       </c>
-    </row>
-    <row r="579" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z578" s="15"/>
+    </row>
+    <row r="579" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="3" t="s">
         <v>1316</v>
       </c>
@@ -35766,7 +35819,9 @@
       <c r="Q579" s="3"/>
       <c r="R579" s="3"/>
       <c r="S579" s="3"/>
-      <c r="T579" s="3"/>
+      <c r="T579" s="3">
+        <v>11.66</v>
+      </c>
       <c r="U579" s="3"/>
       <c r="V579" s="3">
         <v>30.8</v>
@@ -35776,10 +35831,10 @@
         <v>328</v>
       </c>
       <c r="Y579" s="3"/>
-      <c r="Z579" s="3"/>
+      <c r="Z579" s="15"/>
       <c r="AA579" s="3"/>
     </row>
-    <row r="580" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>1317</v>
       </c>
@@ -35816,14 +35871,18 @@
       <c r="P580">
         <v>37</v>
       </c>
+      <c r="T580">
+        <v>9.86</v>
+      </c>
       <c r="V580">
         <v>28.4</v>
       </c>
       <c r="X580">
         <v>328</v>
       </c>
-    </row>
-    <row r="581" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z580" s="15"/>
+    </row>
+    <row r="581" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="3" t="s">
         <v>1318</v>
       </c>
@@ -35865,7 +35924,9 @@
       <c r="Q581" s="3"/>
       <c r="R581" s="3"/>
       <c r="S581" s="3"/>
-      <c r="T581" s="3"/>
+      <c r="T581" s="3">
+        <v>9.9</v>
+      </c>
       <c r="U581" s="3"/>
       <c r="V581" s="3">
         <v>29.3</v>
@@ -35875,7 +35936,7 @@
         <v>328</v>
       </c>
       <c r="Y581" s="3"/>
-      <c r="Z581" s="3"/>
+      <c r="Z581" s="15"/>
       <c r="AA581" s="3"/>
     </row>
     <row r="582" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -35921,6 +35982,7 @@
       <c r="X582">
         <v>328</v>
       </c>
+      <c r="Z582" s="15"/>
     </row>
     <row r="583" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="3" t="s">
@@ -35974,7 +36036,7 @@
         <v>328</v>
       </c>
       <c r="Y583" s="3"/>
-      <c r="Z583" s="3"/>
+      <c r="Z583" s="15"/>
       <c r="AA583" s="3"/>
     </row>
     <row r="584" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -36020,6 +36082,7 @@
       <c r="X584">
         <v>328</v>
       </c>
+      <c r="Z584" s="15"/>
     </row>
     <row r="585" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="3" t="s">
@@ -36073,7 +36136,7 @@
         <v>328</v>
       </c>
       <c r="Y585" s="3"/>
-      <c r="Z585" s="3"/>
+      <c r="Z585" s="15"/>
       <c r="AA585" s="3"/>
     </row>
     <row r="586" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -36119,6 +36182,7 @@
       <c r="X586">
         <v>328</v>
       </c>
+      <c r="Z586" s="15"/>
     </row>
     <row r="587" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="3" t="s">
@@ -36172,7 +36236,7 @@
         <v>328</v>
       </c>
       <c r="Y587" s="3"/>
-      <c r="Z587" s="3"/>
+      <c r="Z587" s="15"/>
       <c r="AA587" s="3"/>
     </row>
     <row r="588" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -36218,6 +36282,7 @@
       <c r="X588">
         <v>328</v>
       </c>
+      <c r="Z588" s="15"/>
     </row>
     <row r="589" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="3" t="s">
@@ -36271,7 +36336,7 @@
         <v>328</v>
       </c>
       <c r="Y589" s="3"/>
-      <c r="Z589" s="3"/>
+      <c r="Z589" s="15"/>
       <c r="AA589" s="3"/>
     </row>
     <row r="590" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -36317,6 +36382,7 @@
       <c r="X590">
         <v>328</v>
       </c>
+      <c r="Z590" s="15"/>
     </row>
     <row r="591" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="3" t="s">
@@ -36370,10 +36436,10 @@
         <v>328</v>
       </c>
       <c r="Y591" s="3"/>
-      <c r="Z591" s="3"/>
+      <c r="Z591" s="15"/>
       <c r="AA591" s="3"/>
     </row>
-    <row r="592" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>1332</v>
       </c>
@@ -36410,14 +36476,18 @@
       <c r="P592">
         <v>37</v>
       </c>
+      <c r="T592">
+        <v>11.84</v>
+      </c>
       <c r="V592">
         <v>28.4</v>
       </c>
       <c r="X592">
         <v>328</v>
       </c>
-    </row>
-    <row r="593" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z592" s="15"/>
+    </row>
+    <row r="593" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="3" t="s">
         <v>1333</v>
       </c>
@@ -36459,7 +36529,9 @@
       <c r="Q593" s="3"/>
       <c r="R593" s="3"/>
       <c r="S593" s="3"/>
-      <c r="T593" s="3"/>
+      <c r="T593" s="3">
+        <v>11.69</v>
+      </c>
       <c r="U593" s="3"/>
       <c r="V593" s="3">
         <v>33.200000000000003</v>
@@ -36469,10 +36541,10 @@
         <v>328</v>
       </c>
       <c r="Y593" s="3"/>
-      <c r="Z593" s="3"/>
+      <c r="Z593" s="15"/>
       <c r="AA593" s="3"/>
     </row>
-    <row r="594" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>1335</v>
       </c>
@@ -36515,8 +36587,9 @@
       <c r="X594">
         <v>328</v>
       </c>
-    </row>
-    <row r="595" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z594" s="15"/>
+    </row>
+    <row r="595" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="3" t="s">
         <v>1336</v>
       </c>
@@ -36562,7 +36635,9 @@
       <c r="S595" s="11" t="s">
         <v>1405</v>
       </c>
-      <c r="T595" s="11"/>
+      <c r="T595" s="11">
+        <v>10.94</v>
+      </c>
       <c r="U595" s="11"/>
       <c r="V595" s="11">
         <v>33.6</v>
@@ -36572,10 +36647,10 @@
         <v>328</v>
       </c>
       <c r="Y595" s="11"/>
-      <c r="Z595" s="11"/>
+      <c r="Z595" s="15"/>
       <c r="AA595" s="11"/>
     </row>
-    <row r="596" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>1337</v>
       </c>
@@ -36618,6 +36693,7 @@
       <c r="X596">
         <v>328</v>
       </c>
+      <c r="Z596" s="15"/>
     </row>
     <row r="597" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="3" t="s">
@@ -36671,7 +36747,7 @@
         <v>328</v>
       </c>
       <c r="Y597" s="3"/>
-      <c r="Z597" s="3"/>
+      <c r="Z597" s="15"/>
       <c r="AA597" s="3"/>
     </row>
     <row r="598" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -36717,6 +36793,7 @@
       <c r="X598">
         <v>328</v>
       </c>
+      <c r="Z598" s="15"/>
     </row>
     <row r="599" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="3" t="s">
@@ -36770,7 +36847,7 @@
         <v>328</v>
       </c>
       <c r="Y599" s="3"/>
-      <c r="Z599" s="3"/>
+      <c r="Z599" s="15"/>
       <c r="AA599" s="3"/>
     </row>
     <row r="600" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -36816,6 +36893,7 @@
       <c r="X600">
         <v>328</v>
       </c>
+      <c r="Z600" s="15"/>
     </row>
     <row r="601" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="3" t="s">
@@ -36869,7 +36947,7 @@
         <v>328</v>
       </c>
       <c r="Y601" s="3"/>
-      <c r="Z601" s="3"/>
+      <c r="Z601" s="15"/>
       <c r="AA601" s="3"/>
     </row>
     <row r="602" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -36915,6 +36993,7 @@
       <c r="X602">
         <v>328</v>
       </c>
+      <c r="Z602" s="15"/>
     </row>
     <row r="603" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="3" t="s">
@@ -36968,7 +37047,7 @@
         <v>328</v>
       </c>
       <c r="Y603" s="3"/>
-      <c r="Z603" s="3"/>
+      <c r="Z603" s="15"/>
       <c r="AA603" s="3"/>
     </row>
     <row r="604" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -37014,6 +37093,7 @@
       <c r="X604">
         <v>328</v>
       </c>
+      <c r="Z604" s="15"/>
     </row>
     <row r="605" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="3" t="s">
@@ -37067,7 +37147,7 @@
         <v>328</v>
       </c>
       <c r="Y605" s="3"/>
-      <c r="Z605" s="3"/>
+      <c r="Z605" s="15"/>
       <c r="AA605" s="3"/>
     </row>
     <row r="606" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -37113,8 +37193,9 @@
       <c r="X606">
         <v>328</v>
       </c>
-    </row>
-    <row r="607" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z606" s="15"/>
+    </row>
+    <row r="607" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="3" t="s">
         <v>1353</v>
       </c>
@@ -37156,7 +37237,9 @@
       <c r="Q607" s="3"/>
       <c r="R607" s="3"/>
       <c r="S607" s="3"/>
-      <c r="T607" s="3"/>
+      <c r="T607" s="3">
+        <v>8.4499999999999993</v>
+      </c>
       <c r="U607" s="3"/>
       <c r="V607" s="3">
         <v>25.4</v>
@@ -37166,10 +37249,10 @@
         <v>328</v>
       </c>
       <c r="Y607" s="3"/>
-      <c r="Z607" s="3"/>
+      <c r="Z607" s="15"/>
       <c r="AA607" s="3"/>
     </row>
-    <row r="608" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
         <v>1354</v>
       </c>
@@ -37206,14 +37289,18 @@
       <c r="P608">
         <v>37</v>
       </c>
+      <c r="T608">
+        <v>10.199999999999999</v>
+      </c>
       <c r="V608">
         <v>30.7</v>
       </c>
       <c r="X608">
         <v>328</v>
       </c>
-    </row>
-    <row r="609" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z608" s="15"/>
+    </row>
+    <row r="609" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="3" t="s">
         <v>1355</v>
       </c>
@@ -37255,7 +37342,9 @@
       <c r="Q609" s="3"/>
       <c r="R609" s="3"/>
       <c r="S609" s="3"/>
-      <c r="T609" s="3"/>
+      <c r="T609" s="3">
+        <v>12.55</v>
+      </c>
       <c r="U609" s="3"/>
       <c r="V609" s="3">
         <v>33.9</v>
@@ -37265,10 +37354,10 @@
         <v>328</v>
       </c>
       <c r="Y609" s="3"/>
-      <c r="Z609" s="3"/>
+      <c r="Z609" s="15"/>
       <c r="AA609" s="3"/>
     </row>
-    <row r="610" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>1356</v>
       </c>
@@ -37305,14 +37394,18 @@
       <c r="P610">
         <v>37</v>
       </c>
+      <c r="T610">
+        <v>8.26</v>
+      </c>
       <c r="V610">
         <v>24.4</v>
       </c>
       <c r="X610">
         <v>328</v>
       </c>
-    </row>
-    <row r="611" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z610" s="15"/>
+    </row>
+    <row r="611" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="3" t="s">
         <v>1357</v>
       </c>
@@ -37364,7 +37457,7 @@
         <v>328</v>
       </c>
       <c r="Y611" s="3"/>
-      <c r="Z611" s="3"/>
+      <c r="Z611" s="15"/>
       <c r="AA611" s="3"/>
     </row>
     <row r="612" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -37410,6 +37503,7 @@
       <c r="X612">
         <v>328</v>
       </c>
+      <c r="Z612" s="15"/>
     </row>
     <row r="613" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="3" t="s">
@@ -37463,7 +37557,7 @@
         <v>328</v>
       </c>
       <c r="Y613" s="3"/>
-      <c r="Z613" s="3"/>
+      <c r="Z613" s="15"/>
       <c r="AA613" s="3"/>
     </row>
     <row r="614" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -37509,6 +37603,7 @@
       <c r="X614">
         <v>328</v>
       </c>
+      <c r="Z614" s="15"/>
     </row>
     <row r="615" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="3" t="s">
@@ -37562,7 +37657,7 @@
         <v>328</v>
       </c>
       <c r="Y615" s="3"/>
-      <c r="Z615" s="3"/>
+      <c r="Z615" s="15"/>
       <c r="AA615" s="3"/>
     </row>
     <row r="616" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -37608,6 +37703,7 @@
       <c r="X616">
         <v>328</v>
       </c>
+      <c r="Z616" s="15"/>
     </row>
     <row r="617" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="3" t="s">
@@ -37661,7 +37757,7 @@
         <v>328</v>
       </c>
       <c r="Y617" s="3"/>
-      <c r="Z617" s="3"/>
+      <c r="Z617" s="15"/>
       <c r="AA617" s="3"/>
     </row>
     <row r="618" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -37707,6 +37803,7 @@
       <c r="X618">
         <v>328</v>
       </c>
+      <c r="Z618" s="15"/>
     </row>
     <row r="619" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="3" t="s">
@@ -37760,7 +37857,7 @@
         <v>328</v>
       </c>
       <c r="Y619" s="3"/>
-      <c r="Z619" s="3"/>
+      <c r="Z619" s="15"/>
       <c r="AA619" s="3"/>
     </row>
     <row r="620" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -37806,6 +37903,7 @@
       <c r="X620">
         <v>328</v>
       </c>
+      <c r="Z620" s="15"/>
     </row>
     <row r="621" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="3" t="s">
@@ -37859,10 +37957,10 @@
         <v>328</v>
       </c>
       <c r="Y621" s="3"/>
-      <c r="Z621" s="3"/>
+      <c r="Z621" s="15"/>
       <c r="AA621" s="3"/>
     </row>
-    <row r="622" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>1372</v>
       </c>
@@ -37899,14 +37997,18 @@
       <c r="P622">
         <v>37</v>
       </c>
+      <c r="T622">
+        <v>11.67</v>
+      </c>
       <c r="V622">
         <v>31.1</v>
       </c>
       <c r="X622">
         <v>328</v>
       </c>
-    </row>
-    <row r="623" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z622" s="15"/>
+    </row>
+    <row r="623" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="3" t="s">
         <v>1373</v>
       </c>
@@ -37948,7 +38050,9 @@
       <c r="Q623" s="3"/>
       <c r="R623" s="3"/>
       <c r="S623" s="3"/>
-      <c r="T623" s="3"/>
+      <c r="T623" s="3">
+        <v>9.3800000000000008</v>
+      </c>
       <c r="U623" s="3"/>
       <c r="V623" s="3">
         <v>27.9</v>
@@ -37958,10 +38062,10 @@
         <v>328</v>
       </c>
       <c r="Y623" s="3"/>
-      <c r="Z623" s="3"/>
+      <c r="Z623" s="15"/>
       <c r="AA623" s="3"/>
     </row>
-    <row r="624" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>1374</v>
       </c>
@@ -37998,14 +38102,18 @@
       <c r="P624">
         <v>37</v>
       </c>
+      <c r="T624">
+        <v>9.8699999999999992</v>
+      </c>
       <c r="V624">
         <v>24.9</v>
       </c>
       <c r="X624">
         <v>328</v>
       </c>
-    </row>
-    <row r="625" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z624" s="15"/>
+    </row>
+    <row r="625" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="3" t="s">
         <v>1375</v>
       </c>
@@ -38047,7 +38155,9 @@
       <c r="Q625" s="3"/>
       <c r="R625" s="3"/>
       <c r="S625" s="3"/>
-      <c r="T625" s="3"/>
+      <c r="T625" s="3">
+        <v>11.64</v>
+      </c>
       <c r="U625" s="3"/>
       <c r="V625" s="3">
         <v>30.1</v>
@@ -38057,10 +38167,10 @@
         <v>328</v>
       </c>
       <c r="Y625" s="3"/>
-      <c r="Z625" s="3"/>
+      <c r="Z625" s="15"/>
       <c r="AA625" s="3"/>
     </row>
-    <row r="626" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
         <v>1377</v>
       </c>
@@ -38097,12 +38207,16 @@
       <c r="P626">
         <v>37</v>
       </c>
+      <c r="T626">
+        <v>10.79</v>
+      </c>
       <c r="V626">
         <v>25.5</v>
       </c>
       <c r="X626">
         <v>328</v>
       </c>
+      <c r="Z626" s="15"/>
     </row>
     <row r="627" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="3" t="s">
@@ -39870,7 +39984,7 @@
       <c r="K820" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <tableParts count="1">

--- a/data/treeMeasurements/TreeMeasurements.xlsx
+++ b/data/treeMeasurements/TreeMeasurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/treeMeasurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30694F0D-8950-4D43-9109-FDD968B7501B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C44731-F9C3-AB42-97F7-A86469471232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4753" uniqueCount="1462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4783" uniqueCount="1465">
   <si>
     <t>tree_ID</t>
   </si>
@@ -4422,6 +4422,15 @@
   </si>
   <si>
     <t>apical shoot died; lateral shoot measured</t>
+  </si>
+  <si>
+    <t>apical meristem snapped off but it shouldn't be much taller than that height; look up the shoot elongation measurements</t>
+  </si>
+  <si>
+    <t>branch sprouted on red mark so diameter measurement might not be accurate</t>
+  </si>
+  <si>
+    <t>the second shoot mentioned last year died</t>
   </si>
 </sst>
 </file>
@@ -4431,11 +4440,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4639,47 +4655,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5334,7 +5351,7 @@
   <autoFilter ref="A1:AA631" xr:uid="{3F288811-81FB-F847-9587-99D03002EDFF}">
     <filterColumn colId="1">
       <filters>
-        <filter val="2"/>
+        <filter val="1"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
@@ -5577,8 +5594,8 @@
   <dimension ref="A1:AA820"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U578" sqref="U578"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U617" sqref="U617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5593,10 +5610,10 @@
     <col min="8" max="8" width="0.83203125" customWidth="1"/>
     <col min="9" max="9" width="0.33203125" customWidth="1"/>
     <col min="10" max="10" width="20.83203125" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="20.5" style="18" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" customWidth="1"/>
-    <col min="14" max="14" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="28.83203125" customWidth="1"/>
+    <col min="12" max="12" width="18.83203125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="22.1640625" customWidth="1"/>
+    <col min="14" max="14" width="3.1640625" customWidth="1"/>
     <col min="15" max="15" width="21.83203125" customWidth="1"/>
     <col min="16" max="16" width="0.5" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="10.33203125" hidden="1" customWidth="1"/>
@@ -19901,6 +19918,9 @@
       <c r="S272" s="11" t="s">
         <v>1387</v>
       </c>
+      <c r="T272">
+        <v>6.7</v>
+      </c>
       <c r="V272">
         <v>72.2</v>
       </c>
@@ -19947,7 +19967,9 @@
       <c r="Q273" s="3"/>
       <c r="R273" s="3"/>
       <c r="S273" s="3"/>
-      <c r="T273" s="3"/>
+      <c r="T273" s="3">
+        <v>7.17</v>
+      </c>
       <c r="U273" s="3"/>
       <c r="V273" s="3">
         <v>88.9</v>
@@ -19995,6 +20017,9 @@
       <c r="P274">
         <v>37</v>
       </c>
+      <c r="T274">
+        <v>6.64</v>
+      </c>
       <c r="V274">
         <v>70.2</v>
       </c>
@@ -20043,7 +20068,9 @@
       <c r="S275" s="11" t="s">
         <v>1387</v>
       </c>
-      <c r="T275" s="3"/>
+      <c r="T275" s="3">
+        <v>7.39</v>
+      </c>
       <c r="U275" s="3"/>
       <c r="V275" s="3">
         <v>82.9</v>
@@ -20094,6 +20121,9 @@
       <c r="S276" s="11" t="s">
         <v>1387</v>
       </c>
+      <c r="T276">
+        <v>7.27</v>
+      </c>
       <c r="V276">
         <v>71.7</v>
       </c>
@@ -20140,7 +20170,9 @@
       <c r="Q277" s="3"/>
       <c r="R277" s="3"/>
       <c r="S277" s="3"/>
-      <c r="T277" s="3"/>
+      <c r="T277" s="3">
+        <v>5.62</v>
+      </c>
       <c r="U277" s="3"/>
       <c r="V277" s="3" t="s">
         <v>1386</v>
@@ -20188,6 +20220,9 @@
       <c r="P278">
         <v>37</v>
       </c>
+      <c r="T278">
+        <v>7.04</v>
+      </c>
       <c r="V278" s="46" t="s">
         <v>1386</v>
       </c>
@@ -20240,7 +20275,9 @@
       <c r="S279" s="12" t="s">
         <v>1388</v>
       </c>
-      <c r="T279" s="3"/>
+      <c r="T279" s="3">
+        <v>8.25</v>
+      </c>
       <c r="U279" s="3"/>
       <c r="V279" s="3">
         <v>94.2</v>
@@ -20288,6 +20325,9 @@
       <c r="P280">
         <v>37</v>
       </c>
+      <c r="T280">
+        <v>6.67</v>
+      </c>
       <c r="V280">
         <v>80.400000000000006</v>
       </c>
@@ -20334,7 +20374,9 @@
       <c r="Q281" s="3"/>
       <c r="R281" s="3"/>
       <c r="S281" s="3"/>
-      <c r="T281" s="3"/>
+      <c r="T281" s="3">
+        <v>7.85</v>
+      </c>
       <c r="U281" s="3"/>
       <c r="V281" s="3">
         <v>97.9</v>
@@ -20388,17 +20430,23 @@
       <c r="R282" s="30" t="s">
         <v>1407</v>
       </c>
-      <c r="S282" s="17" t="s">
+      <c r="S282" s="48" t="s">
         <v>1415</v>
       </c>
-      <c r="T282" s="30"/>
+      <c r="T282" s="30">
+        <v>5.26</v>
+      </c>
       <c r="U282" s="30"/>
-      <c r="V282" s="30"/>
+      <c r="V282" s="30">
+        <v>77.8</v>
+      </c>
       <c r="W282" s="30"/>
       <c r="X282" s="30"/>
       <c r="Y282" s="30"/>
       <c r="Z282" s="30"/>
-      <c r="AA282" s="30"/>
+      <c r="AA282" s="48" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="283" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
@@ -20444,9 +20492,13 @@
       <c r="S283" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="T283" s="3"/>
+      <c r="T283" s="48" t="s">
+        <v>1386</v>
+      </c>
       <c r="U283" s="3"/>
-      <c r="V283" s="3"/>
+      <c r="V283" s="3" t="s">
+        <v>1386</v>
+      </c>
       <c r="W283" s="3"/>
       <c r="X283" s="3"/>
       <c r="Y283" s="3"/>
@@ -20490,6 +20542,12 @@
       <c r="P284">
         <v>57</v>
       </c>
+      <c r="T284" s="15">
+        <v>7.08</v>
+      </c>
+      <c r="V284">
+        <v>69</v>
+      </c>
     </row>
     <row r="285" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
@@ -20533,9 +20591,13 @@
       <c r="Q285" s="3"/>
       <c r="R285" s="3"/>
       <c r="S285" s="3"/>
-      <c r="T285" s="3"/>
+      <c r="T285" s="3">
+        <v>5.96</v>
+      </c>
       <c r="U285" s="3"/>
-      <c r="V285" s="3"/>
+      <c r="V285" s="3">
+        <v>60.2</v>
+      </c>
       <c r="W285" s="3"/>
       <c r="X285" s="3"/>
       <c r="Y285" s="3"/>
@@ -20579,6 +20641,12 @@
       <c r="P286">
         <v>57</v>
       </c>
+      <c r="T286">
+        <v>7.4</v>
+      </c>
+      <c r="V286">
+        <v>117.4</v>
+      </c>
     </row>
     <row r="287" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
@@ -20622,7 +20690,9 @@
       <c r="Q287" s="3"/>
       <c r="R287" s="3"/>
       <c r="S287" s="3"/>
-      <c r="T287" s="3"/>
+      <c r="T287" s="3">
+        <v>7.56</v>
+      </c>
       <c r="U287" s="3"/>
       <c r="V287" s="3">
         <v>101.6</v>
@@ -20670,6 +20740,9 @@
       <c r="P288">
         <v>37</v>
       </c>
+      <c r="T288">
+        <v>7.72</v>
+      </c>
       <c r="V288">
         <v>66.5</v>
       </c>
@@ -20716,7 +20789,9 @@
       <c r="Q289" s="3"/>
       <c r="R289" s="3"/>
       <c r="S289" s="3"/>
-      <c r="T289" s="3"/>
+      <c r="T289" s="3">
+        <v>7.38</v>
+      </c>
       <c r="U289" s="3"/>
       <c r="V289" s="3">
         <v>90.5</v>
@@ -20764,6 +20839,9 @@
       <c r="P290">
         <v>37</v>
       </c>
+      <c r="T290">
+        <v>7.99</v>
+      </c>
       <c r="V290">
         <v>83.6</v>
       </c>
@@ -20816,7 +20894,9 @@
       <c r="S291" s="12" t="s">
         <v>1388</v>
       </c>
-      <c r="T291" s="3"/>
+      <c r="T291" s="3">
+        <v>6.38</v>
+      </c>
       <c r="U291" s="3"/>
       <c r="V291" s="3">
         <v>80.7</v>
@@ -20867,6 +20947,12 @@
       <c r="S292" s="12" t="s">
         <v>1391</v>
       </c>
+      <c r="T292" s="48" t="s">
+        <v>1386</v>
+      </c>
+      <c r="V292" s="48" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="293" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
@@ -20910,7 +20996,9 @@
       <c r="Q293" s="3"/>
       <c r="R293" s="3"/>
       <c r="S293" s="3"/>
-      <c r="T293" s="3"/>
+      <c r="T293" s="3">
+        <v>8.73</v>
+      </c>
       <c r="U293" s="3"/>
       <c r="V293" s="3">
         <v>101.7</v>
@@ -20961,6 +21049,12 @@
       <c r="S294" s="12" t="s">
         <v>1391</v>
       </c>
+      <c r="T294" s="48" t="s">
+        <v>1386</v>
+      </c>
+      <c r="V294" s="48" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="295" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
@@ -21004,7 +21098,9 @@
       <c r="Q295" s="3"/>
       <c r="R295" s="3"/>
       <c r="S295" s="3"/>
-      <c r="T295" s="3"/>
+      <c r="T295" s="3">
+        <v>7.22</v>
+      </c>
       <c r="U295" s="3"/>
       <c r="V295" s="3">
         <v>122.5</v>
@@ -21052,6 +21148,9 @@
       <c r="P296">
         <v>37</v>
       </c>
+      <c r="T296">
+        <v>7.8</v>
+      </c>
       <c r="V296">
         <v>114.9</v>
       </c>
@@ -21098,9 +21197,13 @@
       <c r="Q297" s="3"/>
       <c r="R297" s="3"/>
       <c r="S297" s="3"/>
-      <c r="T297" s="3"/>
+      <c r="T297" s="3">
+        <v>6.89</v>
+      </c>
       <c r="U297" s="3"/>
-      <c r="V297" s="3"/>
+      <c r="V297" s="3">
+        <v>72.599999999999994</v>
+      </c>
       <c r="W297" s="3"/>
       <c r="X297" s="3"/>
       <c r="Y297" s="3"/>
@@ -21144,6 +21247,12 @@
       <c r="P298">
         <v>57</v>
       </c>
+      <c r="T298">
+        <v>8.86</v>
+      </c>
+      <c r="V298">
+        <v>125.1</v>
+      </c>
     </row>
     <row r="299" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
@@ -21187,14 +21296,20 @@
       <c r="Q299" s="3"/>
       <c r="R299" s="3"/>
       <c r="S299" s="3"/>
-      <c r="T299" s="3"/>
+      <c r="T299" s="3">
+        <v>7.37</v>
+      </c>
       <c r="U299" s="3"/>
-      <c r="V299" s="3"/>
+      <c r="V299" s="3">
+        <v>75.8</v>
+      </c>
       <c r="W299" s="3"/>
       <c r="X299" s="3"/>
       <c r="Y299" s="3"/>
       <c r="Z299" s="3"/>
-      <c r="AA299" s="3"/>
+      <c r="AA299" s="3" t="s">
+        <v>1463</v>
+      </c>
     </row>
     <row r="300" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
@@ -21233,6 +21348,12 @@
       <c r="P300">
         <v>57</v>
       </c>
+      <c r="T300">
+        <v>7.85</v>
+      </c>
+      <c r="V300">
+        <v>68.8</v>
+      </c>
     </row>
     <row r="301" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
@@ -21280,9 +21401,13 @@
       <c r="S301" s="3" t="s">
         <v>1421</v>
       </c>
-      <c r="T301" s="3"/>
+      <c r="T301" s="3">
+        <v>7.66</v>
+      </c>
       <c r="U301" s="3"/>
-      <c r="V301" s="3"/>
+      <c r="V301" s="3">
+        <v>46.3</v>
+      </c>
       <c r="W301" s="3"/>
       <c r="X301" s="3"/>
       <c r="Y301" s="3"/>
@@ -21326,6 +21451,9 @@
       <c r="P302">
         <v>37</v>
       </c>
+      <c r="T302">
+        <v>6.87</v>
+      </c>
       <c r="V302">
         <v>51.5</v>
       </c>
@@ -21372,7 +21500,9 @@
       <c r="Q303" s="3"/>
       <c r="R303" s="3"/>
       <c r="S303" s="3"/>
-      <c r="T303" s="3"/>
+      <c r="T303" s="3">
+        <v>7.09</v>
+      </c>
       <c r="U303" s="3"/>
       <c r="V303" s="3">
         <v>87.6</v>
@@ -21420,6 +21550,9 @@
       <c r="P304">
         <v>37</v>
       </c>
+      <c r="T304">
+        <v>6.19</v>
+      </c>
       <c r="V304">
         <v>78.099999999999994</v>
       </c>
@@ -21466,7 +21599,9 @@
       <c r="Q305" s="3"/>
       <c r="R305" s="3"/>
       <c r="S305" s="3"/>
-      <c r="T305" s="3"/>
+      <c r="T305" s="3">
+        <v>7.89</v>
+      </c>
       <c r="U305" s="3"/>
       <c r="V305" s="3">
         <v>82.3</v>
@@ -21514,6 +21649,9 @@
       <c r="P306">
         <v>37</v>
       </c>
+      <c r="T306">
+        <v>7.62</v>
+      </c>
       <c r="V306">
         <v>90.7</v>
       </c>
@@ -21560,7 +21698,9 @@
       <c r="Q307" s="3"/>
       <c r="R307" s="3"/>
       <c r="S307" s="3"/>
-      <c r="T307" s="3"/>
+      <c r="T307" s="3">
+        <v>7.01</v>
+      </c>
       <c r="U307" s="3"/>
       <c r="V307" s="3">
         <v>88.2</v>
@@ -21608,6 +21748,9 @@
       <c r="P308">
         <v>37</v>
       </c>
+      <c r="T308">
+        <v>7.9</v>
+      </c>
       <c r="V308">
         <v>70.2</v>
       </c>
@@ -21654,7 +21797,9 @@
       <c r="Q309" s="3"/>
       <c r="R309" s="3"/>
       <c r="S309" s="3"/>
-      <c r="T309" s="3"/>
+      <c r="T309" s="3">
+        <v>6.92</v>
+      </c>
       <c r="U309" s="3"/>
       <c r="V309" s="3">
         <v>63.5</v>
@@ -21702,6 +21847,9 @@
       <c r="P310">
         <v>37</v>
       </c>
+      <c r="T310">
+        <v>7.17</v>
+      </c>
       <c r="V310">
         <v>85.4</v>
       </c>
@@ -21748,7 +21896,9 @@
       <c r="Q311" s="3"/>
       <c r="R311" s="3"/>
       <c r="S311" s="3"/>
-      <c r="T311" s="3"/>
+      <c r="T311" s="3">
+        <v>7.32</v>
+      </c>
       <c r="U311" s="3"/>
       <c r="V311" s="3">
         <v>106.9</v>
@@ -21796,6 +21946,12 @@
       <c r="P312">
         <v>57</v>
       </c>
+      <c r="T312">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="V312">
+        <v>96.4</v>
+      </c>
     </row>
     <row r="313" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
@@ -21839,9 +21995,13 @@
       <c r="Q313" s="3"/>
       <c r="R313" s="3"/>
       <c r="S313" s="3"/>
-      <c r="T313" s="3"/>
+      <c r="T313" s="3">
+        <v>8.85</v>
+      </c>
       <c r="U313" s="3"/>
-      <c r="V313" s="3"/>
+      <c r="V313" s="3">
+        <v>106.3</v>
+      </c>
       <c r="W313" s="3"/>
       <c r="X313" s="3"/>
       <c r="Y313" s="3"/>
@@ -21885,6 +22045,12 @@
       <c r="P314">
         <v>57</v>
       </c>
+      <c r="T314">
+        <v>6.65</v>
+      </c>
+      <c r="V314">
+        <v>104</v>
+      </c>
     </row>
     <row r="315" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
@@ -21928,9 +22094,13 @@
       <c r="Q315" s="3"/>
       <c r="R315" s="3"/>
       <c r="S315" s="3"/>
-      <c r="T315" s="3"/>
+      <c r="T315" s="3">
+        <v>9.08</v>
+      </c>
       <c r="U315" s="3"/>
-      <c r="V315" s="3"/>
+      <c r="V315" s="3">
+        <v>108.9</v>
+      </c>
       <c r="W315" s="3"/>
       <c r="X315" s="3"/>
       <c r="Y315" s="3"/>
@@ -21974,6 +22144,15 @@
       <c r="P316">
         <v>57</v>
       </c>
+      <c r="T316">
+        <v>7.79</v>
+      </c>
+      <c r="V316">
+        <v>91.9</v>
+      </c>
+      <c r="AA316" s="48" t="s">
+        <v>1462</v>
+      </c>
     </row>
     <row r="317" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
@@ -22017,7 +22196,9 @@
       <c r="Q317" s="3"/>
       <c r="R317" s="3"/>
       <c r="S317" s="3"/>
-      <c r="T317" s="3"/>
+      <c r="T317" s="3">
+        <v>8.4600000000000009</v>
+      </c>
       <c r="U317" s="3"/>
       <c r="V317" s="3">
         <v>97.5</v>
@@ -22065,6 +22246,9 @@
       <c r="P318">
         <v>37</v>
       </c>
+      <c r="T318">
+        <v>8.8699999999999992</v>
+      </c>
       <c r="V318">
         <v>86.6</v>
       </c>
@@ -22111,7 +22295,9 @@
       <c r="Q319" s="3"/>
       <c r="R319" s="3"/>
       <c r="S319" s="3"/>
-      <c r="T319" s="3"/>
+      <c r="T319" s="3">
+        <v>7.61</v>
+      </c>
       <c r="U319" s="3"/>
       <c r="V319" s="3">
         <v>62</v>
@@ -22166,7 +22352,9 @@
         <v>1427</v>
       </c>
       <c r="S320" s="12"/>
-      <c r="T320" s="30"/>
+      <c r="T320" s="30">
+        <v>9.3800000000000008</v>
+      </c>
       <c r="U320" s="30"/>
       <c r="V320" s="30">
         <v>61.9</v>
@@ -22219,7 +22407,9 @@
       <c r="Q321" s="3"/>
       <c r="R321" s="3"/>
       <c r="S321" s="3"/>
-      <c r="T321" s="3"/>
+      <c r="T321" s="3">
+        <v>9.27</v>
+      </c>
       <c r="U321" s="3"/>
       <c r="V321" s="3">
         <v>83.8</v>
@@ -22267,6 +22457,9 @@
       <c r="P322">
         <v>37</v>
       </c>
+      <c r="T322">
+        <v>9.2799999999999994</v>
+      </c>
       <c r="V322">
         <v>78</v>
       </c>
@@ -22313,7 +22506,9 @@
       <c r="Q323" s="3"/>
       <c r="R323" s="3"/>
       <c r="S323" s="3"/>
-      <c r="T323" s="3"/>
+      <c r="T323" s="3">
+        <v>8.41</v>
+      </c>
       <c r="U323" s="3"/>
       <c r="V323" s="3">
         <v>76.900000000000006</v>
@@ -22361,6 +22556,9 @@
       <c r="P324">
         <v>37</v>
       </c>
+      <c r="T324">
+        <v>6.35</v>
+      </c>
       <c r="V324">
         <v>58.8</v>
       </c>
@@ -22407,7 +22605,9 @@
       <c r="Q325" s="3"/>
       <c r="R325" s="3"/>
       <c r="S325" s="3"/>
-      <c r="T325" s="3"/>
+      <c r="T325" s="3">
+        <v>7.99</v>
+      </c>
       <c r="U325" s="3"/>
       <c r="V325" s="3">
         <v>102.3</v>
@@ -22455,6 +22655,9 @@
       <c r="P326">
         <v>37</v>
       </c>
+      <c r="T326">
+        <v>8.33</v>
+      </c>
       <c r="V326">
         <v>91</v>
       </c>
@@ -22501,9 +22704,13 @@
       <c r="Q327" s="3"/>
       <c r="R327" s="3"/>
       <c r="S327" s="3"/>
-      <c r="T327" s="3"/>
+      <c r="T327" s="3">
+        <v>7.2</v>
+      </c>
       <c r="U327" s="3"/>
-      <c r="V327" s="3"/>
+      <c r="V327" s="3">
+        <v>83.3</v>
+      </c>
       <c r="W327" s="3"/>
       <c r="X327" s="3"/>
       <c r="Y327" s="3"/>
@@ -22550,6 +22757,12 @@
       <c r="S328" s="19" t="s">
         <v>1409</v>
       </c>
+      <c r="T328">
+        <v>7.71</v>
+      </c>
+      <c r="V328">
+        <v>62</v>
+      </c>
     </row>
     <row r="329" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
@@ -22593,9 +22806,13 @@
       <c r="Q329" s="3"/>
       <c r="R329" s="3"/>
       <c r="S329" s="3"/>
-      <c r="T329" s="3"/>
+      <c r="T329" s="3">
+        <v>8.4499999999999993</v>
+      </c>
       <c r="U329" s="3"/>
-      <c r="V329" s="3"/>
+      <c r="V329" s="3">
+        <v>84.2</v>
+      </c>
       <c r="W329" s="3"/>
       <c r="X329" s="3"/>
       <c r="Y329" s="3"/>
@@ -22639,6 +22856,12 @@
       <c r="P330">
         <v>57</v>
       </c>
+      <c r="T330">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="V330">
+        <v>91.4</v>
+      </c>
     </row>
     <row r="331" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
@@ -22682,9 +22905,13 @@
       <c r="Q331" s="3"/>
       <c r="R331" s="3"/>
       <c r="S331" s="3"/>
-      <c r="T331" s="3"/>
+      <c r="T331" s="3">
+        <v>7.02</v>
+      </c>
       <c r="U331" s="3"/>
-      <c r="V331" s="3"/>
+      <c r="V331" s="3">
+        <v>68.3</v>
+      </c>
       <c r="W331" s="3"/>
       <c r="X331" s="3"/>
       <c r="Y331" s="3"/>
@@ -22735,7 +22962,9 @@
         <v>1427</v>
       </c>
       <c r="S332" s="12"/>
-      <c r="T332" s="30"/>
+      <c r="T332" s="30">
+        <v>8.1999999999999993</v>
+      </c>
       <c r="U332" s="30"/>
       <c r="V332" s="30">
         <v>85.2</v>
@@ -22792,7 +23021,9 @@
         <v>1427</v>
       </c>
       <c r="S333" s="12"/>
-      <c r="T333" s="30"/>
+      <c r="T333" s="30">
+        <v>7.26</v>
+      </c>
       <c r="U333" s="30"/>
       <c r="V333" s="30">
         <v>99.6</v>
@@ -22847,7 +23078,9 @@
         <v>1427</v>
       </c>
       <c r="S334" s="12"/>
-      <c r="T334" s="30"/>
+      <c r="T334" s="30">
+        <v>6.75</v>
+      </c>
       <c r="U334" s="30"/>
       <c r="V334" s="30">
         <v>95.4</v>
@@ -22900,7 +23133,9 @@
       <c r="Q335" s="3"/>
       <c r="R335" s="3"/>
       <c r="S335" s="3"/>
-      <c r="T335" s="3"/>
+      <c r="T335" s="3">
+        <v>9.31</v>
+      </c>
       <c r="U335" s="3"/>
       <c r="V335" s="3">
         <v>74.400000000000006</v>
@@ -22948,6 +23183,9 @@
       <c r="P336">
         <v>37</v>
       </c>
+      <c r="T336">
+        <v>7.61</v>
+      </c>
       <c r="V336">
         <v>87.7</v>
       </c>
@@ -23000,7 +23238,9 @@
       <c r="S337" s="12" t="s">
         <v>1388</v>
       </c>
-      <c r="T337" s="30"/>
+      <c r="T337" s="30">
+        <v>8.2200000000000006</v>
+      </c>
       <c r="U337" s="30"/>
       <c r="V337" s="30">
         <v>94.5</v>
@@ -23048,6 +23288,9 @@
       <c r="P338">
         <v>37</v>
       </c>
+      <c r="T338">
+        <v>8.8800000000000008</v>
+      </c>
       <c r="V338">
         <v>71.7</v>
       </c>
@@ -23098,7 +23341,9 @@
         <v>1427</v>
       </c>
       <c r="S339" s="12"/>
-      <c r="T339" s="30"/>
+      <c r="T339" s="30">
+        <v>6.92</v>
+      </c>
       <c r="U339" s="30"/>
       <c r="V339" s="30">
         <v>63.9</v>
@@ -23146,6 +23391,9 @@
       <c r="P340">
         <v>37</v>
       </c>
+      <c r="T340">
+        <v>6.76</v>
+      </c>
       <c r="V340">
         <v>64.3</v>
       </c>
@@ -23192,7 +23440,9 @@
       <c r="Q341" s="3"/>
       <c r="R341" s="3"/>
       <c r="S341" s="3"/>
-      <c r="T341" s="3"/>
+      <c r="T341" s="3">
+        <v>9.11</v>
+      </c>
       <c r="U341" s="3"/>
       <c r="V341" s="3">
         <v>110.4</v>
@@ -23240,6 +23490,12 @@
       <c r="P342">
         <v>57</v>
       </c>
+      <c r="T342">
+        <v>7.78</v>
+      </c>
+      <c r="V342">
+        <v>87.4</v>
+      </c>
     </row>
     <row r="343" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
@@ -23283,9 +23539,13 @@
       <c r="Q343" s="3"/>
       <c r="R343" s="3"/>
       <c r="S343" s="3"/>
-      <c r="T343" s="3"/>
+      <c r="T343" s="3">
+        <v>8.7100000000000009</v>
+      </c>
       <c r="U343" s="3"/>
-      <c r="V343" s="3"/>
+      <c r="V343" s="3">
+        <v>86.4</v>
+      </c>
       <c r="W343" s="3"/>
       <c r="X343" s="3"/>
       <c r="Y343" s="3"/>
@@ -23329,6 +23589,12 @@
       <c r="P344">
         <v>57</v>
       </c>
+      <c r="T344">
+        <v>8.42</v>
+      </c>
+      <c r="V344">
+        <v>106.6</v>
+      </c>
     </row>
     <row r="345" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
@@ -23372,9 +23638,13 @@
       <c r="Q345" s="3"/>
       <c r="R345" s="3"/>
       <c r="S345" s="19"/>
-      <c r="T345" s="3"/>
+      <c r="T345" s="3">
+        <v>7.05</v>
+      </c>
       <c r="U345" s="3"/>
-      <c r="V345" s="3"/>
+      <c r="V345" s="3">
+        <v>100.7</v>
+      </c>
       <c r="W345" s="3"/>
       <c r="X345" s="3"/>
       <c r="Y345" s="3"/>
@@ -23425,9 +23695,13 @@
         <v>1427</v>
       </c>
       <c r="S346" s="17"/>
-      <c r="T346" s="30"/>
+      <c r="T346" s="30">
+        <v>8.24</v>
+      </c>
       <c r="U346" s="30"/>
-      <c r="V346" s="30"/>
+      <c r="V346" s="30">
+        <v>101.7</v>
+      </c>
       <c r="W346" s="30"/>
       <c r="X346" s="30"/>
       <c r="Y346" s="30"/>
@@ -23476,7 +23750,9 @@
       <c r="Q347" s="3"/>
       <c r="R347" s="3"/>
       <c r="S347" s="3"/>
-      <c r="T347" s="3"/>
+      <c r="T347" s="3">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="U347" s="3"/>
       <c r="V347" s="3">
         <v>85.3</v>
@@ -23524,6 +23800,9 @@
       <c r="P348">
         <v>37</v>
       </c>
+      <c r="T348">
+        <v>8.59</v>
+      </c>
       <c r="V348">
         <v>91.9</v>
       </c>
@@ -23570,7 +23849,9 @@
       <c r="Q349" s="3"/>
       <c r="R349" s="3"/>
       <c r="S349" s="3"/>
-      <c r="T349" s="3"/>
+      <c r="T349" s="3">
+        <v>7.68</v>
+      </c>
       <c r="U349" s="3"/>
       <c r="V349" s="3">
         <v>75.900000000000006</v>
@@ -23621,6 +23902,9 @@
       <c r="S350" s="11" t="s">
         <v>1387</v>
       </c>
+      <c r="T350">
+        <v>6.1</v>
+      </c>
       <c r="V350">
         <v>71.8</v>
       </c>
@@ -23667,7 +23951,9 @@
       <c r="Q351" s="3"/>
       <c r="R351" s="3"/>
       <c r="S351" s="3"/>
-      <c r="T351" s="3"/>
+      <c r="T351" s="3">
+        <v>8.1199999999999992</v>
+      </c>
       <c r="U351" s="3"/>
       <c r="V351" s="3">
         <v>91.7</v>
@@ -23715,6 +24001,9 @@
       <c r="P352">
         <v>37</v>
       </c>
+      <c r="T352">
+        <v>8.7200000000000006</v>
+      </c>
       <c r="V352">
         <v>84.1</v>
       </c>
@@ -23760,7 +24049,9 @@
       <c r="Q353" s="3"/>
       <c r="R353" s="3"/>
       <c r="S353" s="3"/>
-      <c r="T353" s="3"/>
+      <c r="T353" s="3">
+        <v>7.53</v>
+      </c>
       <c r="U353" s="3"/>
       <c r="V353" s="3">
         <v>82.8</v>
@@ -23808,6 +24099,9 @@
       <c r="P354">
         <v>37</v>
       </c>
+      <c r="T354">
+        <v>7.43</v>
+      </c>
       <c r="V354">
         <v>82.9</v>
       </c>
@@ -23856,9 +24150,13 @@
       <c r="S355" s="11" t="s">
         <v>1391</v>
       </c>
-      <c r="T355" s="3"/>
+      <c r="T355" s="3" t="s">
+        <v>1386</v>
+      </c>
       <c r="U355" s="3"/>
-      <c r="V355" s="3"/>
+      <c r="V355" s="3" t="s">
+        <v>1386</v>
+      </c>
       <c r="W355" s="3"/>
       <c r="X355" s="3"/>
       <c r="Y355" s="3"/>
@@ -23909,7 +24207,9 @@
         <v>1427</v>
       </c>
       <c r="S356" s="12"/>
-      <c r="T356" s="30"/>
+      <c r="T356" s="30">
+        <v>8</v>
+      </c>
       <c r="U356" s="30"/>
       <c r="V356" s="30">
         <v>87</v>
@@ -23962,9 +24262,13 @@
       <c r="Q357" s="3"/>
       <c r="R357" s="3"/>
       <c r="S357" s="3"/>
-      <c r="T357" s="3"/>
+      <c r="T357" s="3">
+        <v>8.5299999999999994</v>
+      </c>
       <c r="U357" s="3"/>
-      <c r="V357" s="3"/>
+      <c r="V357" s="3">
+        <v>51.8</v>
+      </c>
       <c r="W357" s="3"/>
       <c r="X357" s="3"/>
       <c r="Y357" s="3"/>
@@ -24008,6 +24312,12 @@
       <c r="P358">
         <v>57</v>
       </c>
+      <c r="T358">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="V358">
+        <v>83</v>
+      </c>
     </row>
     <row r="359" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
@@ -24051,9 +24361,13 @@
       <c r="Q359" s="3"/>
       <c r="R359" s="3"/>
       <c r="S359" s="3"/>
-      <c r="T359" s="3"/>
+      <c r="T359" s="3">
+        <v>8.6</v>
+      </c>
       <c r="U359" s="3"/>
-      <c r="V359" s="3"/>
+      <c r="V359" s="3">
+        <v>60.9</v>
+      </c>
       <c r="W359" s="3"/>
       <c r="X359" s="3"/>
       <c r="Y359" s="3"/>
@@ -24097,6 +24411,12 @@
       <c r="P360">
         <v>57</v>
       </c>
+      <c r="T360">
+        <v>8.82</v>
+      </c>
+      <c r="V360">
+        <v>119.4</v>
+      </c>
     </row>
     <row r="361" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
@@ -24140,9 +24460,13 @@
       <c r="Q361" s="3"/>
       <c r="R361" s="3"/>
       <c r="S361" s="3"/>
-      <c r="T361" s="3"/>
+      <c r="T361" s="3">
+        <v>8.3000000000000007</v>
+      </c>
       <c r="U361" s="3"/>
-      <c r="V361" s="3"/>
+      <c r="V361" s="3">
+        <v>122.3</v>
+      </c>
       <c r="W361" s="3"/>
       <c r="X361" s="3"/>
       <c r="Y361" s="3"/>
@@ -33907,7 +34231,7 @@
       <c r="Z541" s="3"/>
       <c r="AA541" s="3"/>
     </row>
-    <row r="542" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>1261</v>
       </c>
@@ -33947,11 +34271,14 @@
       <c r="S542" s="12" t="s">
         <v>1391</v>
       </c>
+      <c r="T542" s="48" t="s">
+        <v>1386</v>
+      </c>
       <c r="X542">
         <v>328</v>
       </c>
     </row>
-    <row r="543" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="3" t="s">
         <v>1264</v>
       </c>
@@ -33993,7 +34320,9 @@
       <c r="Q543" s="3"/>
       <c r="R543" s="3"/>
       <c r="S543" s="3"/>
-      <c r="T543" s="3"/>
+      <c r="T543" s="3">
+        <v>11.22</v>
+      </c>
       <c r="U543" s="3"/>
       <c r="V543" s="3">
         <v>31.7</v>
@@ -34006,7 +34335,7 @@
       <c r="Z543" s="3"/>
       <c r="AA543" s="3"/>
     </row>
-    <row r="544" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>1265</v>
       </c>
@@ -34046,11 +34375,14 @@
       <c r="S544" s="12" t="s">
         <v>1391</v>
       </c>
+      <c r="T544" s="48" t="s">
+        <v>1386</v>
+      </c>
       <c r="X544">
         <v>328</v>
       </c>
     </row>
-    <row r="545" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="3" t="s">
         <v>1266</v>
       </c>
@@ -34092,7 +34424,9 @@
       <c r="Q545" s="3"/>
       <c r="R545" s="3"/>
       <c r="S545" s="3"/>
-      <c r="T545" s="3"/>
+      <c r="T545" s="3">
+        <v>9.26</v>
+      </c>
       <c r="U545" s="3"/>
       <c r="V545" s="3">
         <v>26.7</v>
@@ -34105,7 +34439,7 @@
       <c r="Z545" s="3"/>
       <c r="AA545" s="3"/>
     </row>
-    <row r="546" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>1267</v>
       </c>
@@ -34142,6 +34476,9 @@
       <c r="P546">
         <v>37</v>
       </c>
+      <c r="T546">
+        <v>9.0399999999999991</v>
+      </c>
       <c r="V546">
         <v>23.8</v>
       </c>
@@ -34149,7 +34486,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="547" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="3" t="s">
         <v>1269</v>
       </c>
@@ -34206,7 +34543,7 @@
       <c r="Z547" s="15"/>
       <c r="AA547" s="3"/>
     </row>
-    <row r="548" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>1270</v>
       </c>
@@ -34254,7 +34591,7 @@
       </c>
       <c r="Z548" s="15"/>
     </row>
-    <row r="549" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="3" t="s">
         <v>1271</v>
       </c>
@@ -34311,7 +34648,7 @@
       <c r="Z549" s="15"/>
       <c r="AA549" s="3"/>
     </row>
-    <row r="550" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>1272</v>
       </c>
@@ -34359,7 +34696,7 @@
       </c>
       <c r="Z550" s="15"/>
     </row>
-    <row r="551" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="3" t="s">
         <v>1274</v>
       </c>
@@ -34456,6 +34793,9 @@
       <c r="S552" s="17" t="s">
         <v>1391</v>
       </c>
+      <c r="T552" s="48" t="s">
+        <v>1386</v>
+      </c>
       <c r="X552">
         <v>328</v>
       </c>
@@ -34503,7 +34843,9 @@
       <c r="Q553" s="3"/>
       <c r="R553" s="3"/>
       <c r="S553" s="3"/>
-      <c r="T553" s="3"/>
+      <c r="T553" s="3">
+        <v>9.35</v>
+      </c>
       <c r="U553" s="3"/>
       <c r="V553" s="3">
         <v>24.7</v>
@@ -34556,6 +34898,9 @@
       <c r="S554" s="17" t="s">
         <v>1391</v>
       </c>
+      <c r="T554" s="48" t="s">
+        <v>1386</v>
+      </c>
       <c r="X554">
         <v>328</v>
       </c>
@@ -34603,7 +34948,9 @@
       <c r="Q555" s="3"/>
       <c r="R555" s="3"/>
       <c r="S555" s="3"/>
-      <c r="T555" s="3"/>
+      <c r="T555" s="3">
+        <v>7.21</v>
+      </c>
       <c r="U555" s="3"/>
       <c r="V555" s="3">
         <v>30.1</v>
@@ -34653,6 +35000,9 @@
       <c r="P556">
         <v>57</v>
       </c>
+      <c r="T556">
+        <v>9.6199999999999992</v>
+      </c>
       <c r="V556">
         <v>28.2</v>
       </c>
@@ -34661,7 +35011,7 @@
       </c>
       <c r="Z556" s="15"/>
     </row>
-    <row r="557" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="3" t="s">
         <v>1283</v>
       </c>
@@ -34703,7 +35053,9 @@
       <c r="Q557" s="3"/>
       <c r="R557" s="3"/>
       <c r="S557" s="3"/>
-      <c r="T557" s="3"/>
+      <c r="T557" s="3">
+        <v>9.16</v>
+      </c>
       <c r="U557" s="3"/>
       <c r="V557" s="3">
         <v>24.1</v>
@@ -34716,7 +35068,7 @@
       <c r="Z557" s="15"/>
       <c r="AA557" s="3"/>
     </row>
-    <row r="558" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>1284</v>
       </c>
@@ -34756,12 +35108,15 @@
       <c r="S558" s="12" t="s">
         <v>1391</v>
       </c>
+      <c r="T558" s="48" t="s">
+        <v>1386</v>
+      </c>
       <c r="X558">
         <v>328</v>
       </c>
       <c r="Z558" s="15"/>
     </row>
-    <row r="559" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="3" t="s">
         <v>1286</v>
       </c>
@@ -34805,7 +35160,9 @@
       <c r="S559" s="11" t="s">
         <v>1391</v>
       </c>
-      <c r="T559" s="3"/>
+      <c r="T559" s="3" t="s">
+        <v>1386</v>
+      </c>
       <c r="U559" s="3"/>
       <c r="V559" s="3"/>
       <c r="W559" s="3"/>
@@ -34816,7 +35173,7 @@
       <c r="Z559" s="15"/>
       <c r="AA559" s="3"/>
     </row>
-    <row r="560" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>1287</v>
       </c>
@@ -34856,12 +35213,15 @@
       <c r="S560" s="12" t="s">
         <v>1391</v>
       </c>
+      <c r="T560" s="48" t="s">
+        <v>1386</v>
+      </c>
       <c r="X560">
         <v>328</v>
       </c>
       <c r="Z560" s="15"/>
     </row>
-    <row r="561" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="3" t="s">
         <v>1288</v>
       </c>
@@ -34903,7 +35263,9 @@
       <c r="Q561" s="3"/>
       <c r="R561" s="3"/>
       <c r="S561" s="3"/>
-      <c r="T561" s="3"/>
+      <c r="T561" s="3">
+        <v>6.42</v>
+      </c>
       <c r="U561" s="3"/>
       <c r="V561" s="3">
         <v>21.4</v>
@@ -34916,7 +35278,7 @@
       <c r="Z561" s="15"/>
       <c r="AA561" s="3"/>
     </row>
-    <row r="562" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>1290</v>
       </c>
@@ -34964,7 +35326,7 @@
       </c>
       <c r="Z562" s="15"/>
     </row>
-    <row r="563" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="3" t="s">
         <v>1293</v>
       </c>
@@ -35021,7 +35383,7 @@
       <c r="Z563" s="15"/>
       <c r="AA563" s="3"/>
     </row>
-    <row r="564" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>1295</v>
       </c>
@@ -35069,7 +35431,7 @@
       </c>
       <c r="Z564" s="15"/>
     </row>
-    <row r="565" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="3" t="s">
         <v>1297</v>
       </c>
@@ -35126,7 +35488,7 @@
       <c r="Z565" s="15"/>
       <c r="AA565" s="3"/>
     </row>
-    <row r="566" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>1298</v>
       </c>
@@ -35216,7 +35578,9 @@
       <c r="Q567" s="3"/>
       <c r="R567" s="3"/>
       <c r="S567" s="3"/>
-      <c r="T567" s="3"/>
+      <c r="T567" s="3">
+        <v>8.9</v>
+      </c>
       <c r="U567" s="3"/>
       <c r="V567" s="3">
         <v>33.6</v>
@@ -35266,6 +35630,9 @@
       <c r="P568">
         <v>57</v>
       </c>
+      <c r="T568">
+        <v>10.42</v>
+      </c>
       <c r="V568">
         <v>27.7</v>
       </c>
@@ -35316,7 +35683,9 @@
       <c r="Q569" s="3"/>
       <c r="R569" s="3"/>
       <c r="S569" s="3"/>
-      <c r="T569" s="3"/>
+      <c r="T569" s="3">
+        <v>13.02</v>
+      </c>
       <c r="U569" s="3"/>
       <c r="V569" s="3">
         <v>30.2</v>
@@ -35365,6 +35734,9 @@
       </c>
       <c r="P570">
         <v>57</v>
+      </c>
+      <c r="T570">
+        <v>10.76</v>
       </c>
       <c r="V570">
         <v>34.299999999999997</v>
@@ -35418,7 +35790,9 @@
       <c r="S571" s="11" t="s">
         <v>1391</v>
       </c>
-      <c r="T571" s="3"/>
+      <c r="T571" s="3" t="s">
+        <v>1386</v>
+      </c>
       <c r="U571" s="3"/>
       <c r="V571" s="3"/>
       <c r="W571" s="3"/>
@@ -35429,7 +35803,7 @@
       <c r="Z571" s="15"/>
       <c r="AA571" s="3"/>
     </row>
-    <row r="572" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>1306</v>
       </c>
@@ -35466,6 +35840,9 @@
       <c r="P572">
         <v>37</v>
       </c>
+      <c r="T572">
+        <v>10.18</v>
+      </c>
       <c r="V572">
         <v>28.2</v>
       </c>
@@ -35474,7 +35851,7 @@
       </c>
       <c r="Z572" s="15"/>
     </row>
-    <row r="573" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="3" t="s">
         <v>1308</v>
       </c>
@@ -35514,7 +35891,9 @@
       <c r="Q573" s="3"/>
       <c r="R573" s="3"/>
       <c r="S573" s="3"/>
-      <c r="T573" s="3"/>
+      <c r="T573" s="3">
+        <v>11.89</v>
+      </c>
       <c r="U573" s="3"/>
       <c r="V573" s="3">
         <v>30</v>
@@ -35527,7 +35906,7 @@
       <c r="Z573" s="15"/>
       <c r="AA573" s="3"/>
     </row>
-    <row r="574" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>1310</v>
       </c>
@@ -35567,12 +35946,15 @@
       <c r="S574" s="12" t="s">
         <v>1391</v>
       </c>
+      <c r="T574" s="48" t="s">
+        <v>1386</v>
+      </c>
       <c r="X574">
         <v>328</v>
       </c>
       <c r="Z574" s="15"/>
     </row>
-    <row r="575" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="3" t="s">
         <v>1311</v>
       </c>
@@ -35616,7 +35998,9 @@
       <c r="S575" s="11" t="s">
         <v>1391</v>
       </c>
-      <c r="T575" s="3"/>
+      <c r="T575" s="3" t="s">
+        <v>1386</v>
+      </c>
       <c r="U575" s="3"/>
       <c r="V575" s="3"/>
       <c r="W575" s="3"/>
@@ -35627,7 +36011,7 @@
       <c r="Z575" s="15"/>
       <c r="AA575" s="3"/>
     </row>
-    <row r="576" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>1312</v>
       </c>
@@ -35667,12 +36051,15 @@
       <c r="S576" s="12" t="s">
         <v>1391</v>
       </c>
+      <c r="T576" s="48" t="s">
+        <v>1386</v>
+      </c>
       <c r="X576">
         <v>328</v>
       </c>
       <c r="Z576" s="15"/>
     </row>
-    <row r="577" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="3" t="s">
         <v>1313</v>
       </c>
@@ -35729,7 +36116,7 @@
       <c r="Z577" s="15"/>
       <c r="AA577" s="3"/>
     </row>
-    <row r="578" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>1315</v>
       </c>
@@ -35777,7 +36164,7 @@
       </c>
       <c r="Z578" s="15"/>
     </row>
-    <row r="579" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="3" t="s">
         <v>1316</v>
       </c>
@@ -35834,7 +36221,7 @@
       <c r="Z579" s="15"/>
       <c r="AA579" s="3"/>
     </row>
-    <row r="580" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>1317</v>
       </c>
@@ -35882,7 +36269,7 @@
       </c>
       <c r="Z580" s="15"/>
     </row>
-    <row r="581" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="3" t="s">
         <v>1318</v>
       </c>
@@ -35976,6 +36363,9 @@
       <c r="P582">
         <v>57</v>
       </c>
+      <c r="T582">
+        <v>12.36</v>
+      </c>
       <c r="V582">
         <v>28.4</v>
       </c>
@@ -36028,7 +36418,9 @@
       <c r="S583" s="11" t="s">
         <v>1391</v>
       </c>
-      <c r="T583" s="3"/>
+      <c r="T583" s="3" t="s">
+        <v>1386</v>
+      </c>
       <c r="U583" s="3"/>
       <c r="V583" s="3"/>
       <c r="W583" s="3"/>
@@ -36076,6 +36468,9 @@
       <c r="P584">
         <v>57</v>
       </c>
+      <c r="T584">
+        <v>10.199999999999999</v>
+      </c>
       <c r="V584">
         <v>23.4</v>
       </c>
@@ -36126,7 +36521,9 @@
       <c r="Q585" s="3"/>
       <c r="R585" s="3"/>
       <c r="S585" s="3"/>
-      <c r="T585" s="3"/>
+      <c r="T585" s="3">
+        <v>14.38</v>
+      </c>
       <c r="U585" s="3"/>
       <c r="V585" s="3">
         <v>33.4</v>
@@ -36176,6 +36573,9 @@
       <c r="P586">
         <v>57</v>
       </c>
+      <c r="T586">
+        <v>13.34</v>
+      </c>
       <c r="V586">
         <v>34.5</v>
       </c>
@@ -36184,7 +36584,7 @@
       </c>
       <c r="Z586" s="15"/>
     </row>
-    <row r="587" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="3" t="s">
         <v>1327</v>
       </c>
@@ -36226,7 +36626,9 @@
       <c r="Q587" s="3"/>
       <c r="R587" s="3"/>
       <c r="S587" s="3"/>
-      <c r="T587" s="3"/>
+      <c r="T587" s="3">
+        <v>9.81</v>
+      </c>
       <c r="U587" s="3"/>
       <c r="V587" s="3">
         <v>34.4</v>
@@ -36239,7 +36641,7 @@
       <c r="Z587" s="15"/>
       <c r="AA587" s="3"/>
     </row>
-    <row r="588" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
         <v>1328</v>
       </c>
@@ -36279,12 +36681,15 @@
       <c r="S588" s="12" t="s">
         <v>1391</v>
       </c>
+      <c r="T588" s="48" t="s">
+        <v>1386</v>
+      </c>
       <c r="X588">
         <v>328</v>
       </c>
       <c r="Z588" s="15"/>
     </row>
-    <row r="589" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="3" t="s">
         <v>1329</v>
       </c>
@@ -36328,7 +36733,9 @@
       <c r="S589" s="11" t="s">
         <v>1391</v>
       </c>
-      <c r="T589" s="3"/>
+      <c r="T589" s="3" t="s">
+        <v>1386</v>
+      </c>
       <c r="U589" s="3"/>
       <c r="V589" s="3"/>
       <c r="W589" s="3"/>
@@ -36339,7 +36746,7 @@
       <c r="Z589" s="15"/>
       <c r="AA589" s="3"/>
     </row>
-    <row r="590" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>1330</v>
       </c>
@@ -36379,12 +36786,15 @@
       <c r="S590" s="12" t="s">
         <v>1391</v>
       </c>
+      <c r="T590" s="48" t="s">
+        <v>1386</v>
+      </c>
       <c r="X590">
         <v>328</v>
       </c>
       <c r="Z590" s="15"/>
     </row>
-    <row r="591" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="3" t="s">
         <v>1331</v>
       </c>
@@ -36426,7 +36836,9 @@
       <c r="Q591" s="3"/>
       <c r="R591" s="3"/>
       <c r="S591" s="3"/>
-      <c r="T591" s="3"/>
+      <c r="T591" s="3">
+        <v>7.49</v>
+      </c>
       <c r="U591" s="3"/>
       <c r="V591" s="3">
         <v>24.1</v>
@@ -36439,7 +36851,7 @@
       <c r="Z591" s="15"/>
       <c r="AA591" s="3"/>
     </row>
-    <row r="592" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>1332</v>
       </c>
@@ -36487,7 +36899,7 @@
       </c>
       <c r="Z592" s="15"/>
     </row>
-    <row r="593" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="3" t="s">
         <v>1333</v>
       </c>
@@ -36544,7 +36956,7 @@
       <c r="Z593" s="15"/>
       <c r="AA593" s="3"/>
     </row>
-    <row r="594" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>1335</v>
       </c>
@@ -36589,7 +37001,7 @@
       </c>
       <c r="Z594" s="15"/>
     </row>
-    <row r="595" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="3" t="s">
         <v>1336</v>
       </c>
@@ -36650,7 +37062,7 @@
       <c r="Z595" s="15"/>
       <c r="AA595" s="11"/>
     </row>
-    <row r="596" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>1337</v>
       </c>
@@ -36739,7 +37151,9 @@
       <c r="S597" s="11" t="s">
         <v>1391</v>
       </c>
-      <c r="T597" s="3"/>
+      <c r="T597" s="3" t="s">
+        <v>1386</v>
+      </c>
       <c r="U597" s="3"/>
       <c r="V597" s="3"/>
       <c r="W597" s="3"/>
@@ -36787,6 +37201,9 @@
       <c r="P598">
         <v>57</v>
       </c>
+      <c r="T598">
+        <v>10.54</v>
+      </c>
       <c r="V598">
         <v>29.1</v>
       </c>
@@ -36837,7 +37254,9 @@
       <c r="Q599" s="3"/>
       <c r="R599" s="3"/>
       <c r="S599" s="3"/>
-      <c r="T599" s="3"/>
+      <c r="T599" s="3">
+        <v>11.48</v>
+      </c>
       <c r="U599" s="3"/>
       <c r="V599" s="3">
         <v>35.799999999999997</v>
@@ -36879,13 +37298,16 @@
       </c>
       <c r="K600" s="6"/>
       <c r="L600">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="N600">
         <v>17.399999999999999</v>
       </c>
       <c r="P600">
         <v>57</v>
+      </c>
+      <c r="T600">
+        <v>7.74</v>
       </c>
       <c r="V600">
         <v>27.5</v>
@@ -36937,7 +37359,9 @@
       <c r="Q601" s="3"/>
       <c r="R601" s="3"/>
       <c r="S601" s="3"/>
-      <c r="T601" s="3"/>
+      <c r="T601" s="3">
+        <v>10.57</v>
+      </c>
       <c r="U601" s="3"/>
       <c r="V601" s="3">
         <v>37</v>
@@ -36950,7 +37374,7 @@
       <c r="Z601" s="15"/>
       <c r="AA601" s="3"/>
     </row>
-    <row r="602" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>1347</v>
       </c>
@@ -36990,12 +37414,15 @@
       <c r="S602" s="12" t="s">
         <v>1391</v>
       </c>
+      <c r="T602" s="48" t="s">
+        <v>1386</v>
+      </c>
       <c r="X602">
         <v>328</v>
       </c>
       <c r="Z602" s="15"/>
     </row>
-    <row r="603" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="3" t="s">
         <v>1348</v>
       </c>
@@ -37037,7 +37464,9 @@
       <c r="Q603" s="3"/>
       <c r="R603" s="3"/>
       <c r="S603" s="3"/>
-      <c r="T603" s="3"/>
+      <c r="T603" s="3">
+        <v>9.23</v>
+      </c>
       <c r="U603" s="3"/>
       <c r="V603" s="3">
         <v>24.9</v>
@@ -37050,7 +37479,7 @@
       <c r="Z603" s="15"/>
       <c r="AA603" s="3"/>
     </row>
-    <row r="604" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>1349</v>
       </c>
@@ -37087,6 +37516,9 @@
       <c r="P604">
         <v>37</v>
       </c>
+      <c r="T604">
+        <v>12.23</v>
+      </c>
       <c r="V604">
         <v>37.299999999999997</v>
       </c>
@@ -37095,7 +37527,7 @@
       </c>
       <c r="Z604" s="15"/>
     </row>
-    <row r="605" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="3" t="s">
         <v>1350</v>
       </c>
@@ -37137,7 +37569,9 @@
       <c r="Q605" s="3"/>
       <c r="R605" s="3"/>
       <c r="S605" s="3"/>
-      <c r="T605" s="3"/>
+      <c r="T605" s="3">
+        <v>9.77</v>
+      </c>
       <c r="U605" s="3"/>
       <c r="V605" s="3">
         <v>25.8</v>
@@ -37150,7 +37584,7 @@
       <c r="Z605" s="15"/>
       <c r="AA605" s="3"/>
     </row>
-    <row r="606" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
         <v>1352</v>
       </c>
@@ -37187,6 +37621,9 @@
       <c r="P606">
         <v>37</v>
       </c>
+      <c r="T606">
+        <v>10.8</v>
+      </c>
       <c r="V606">
         <v>33.6</v>
       </c>
@@ -37195,7 +37632,7 @@
       </c>
       <c r="Z606" s="15"/>
     </row>
-    <row r="607" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="3" t="s">
         <v>1353</v>
       </c>
@@ -37252,7 +37689,7 @@
       <c r="Z607" s="15"/>
       <c r="AA607" s="3"/>
     </row>
-    <row r="608" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
         <v>1354</v>
       </c>
@@ -37300,7 +37737,7 @@
       </c>
       <c r="Z608" s="15"/>
     </row>
-    <row r="609" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="3" t="s">
         <v>1355</v>
       </c>
@@ -37357,7 +37794,7 @@
       <c r="Z609" s="15"/>
       <c r="AA609" s="3"/>
     </row>
-    <row r="610" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>1356</v>
       </c>
@@ -37405,7 +37842,7 @@
       </c>
       <c r="Z610" s="15"/>
     </row>
-    <row r="611" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="3" t="s">
         <v>1357</v>
       </c>
@@ -37497,6 +37934,9 @@
       <c r="P612">
         <v>57</v>
       </c>
+      <c r="T612">
+        <v>10.83</v>
+      </c>
       <c r="V612">
         <v>27.4</v>
       </c>
@@ -37547,7 +37987,9 @@
       <c r="Q613" s="3"/>
       <c r="R613" s="3"/>
       <c r="S613" s="3"/>
-      <c r="T613" s="3"/>
+      <c r="T613" s="3">
+        <v>9.92</v>
+      </c>
       <c r="U613" s="3"/>
       <c r="V613" s="3">
         <v>31.6</v>
@@ -37597,6 +38039,9 @@
       <c r="P614">
         <v>57</v>
       </c>
+      <c r="T614">
+        <v>11.45</v>
+      </c>
       <c r="V614">
         <v>29.4</v>
       </c>
@@ -37647,7 +38092,9 @@
       <c r="Q615" s="3"/>
       <c r="R615" s="3"/>
       <c r="S615" s="3"/>
-      <c r="T615" s="3"/>
+      <c r="T615" s="3">
+        <v>10.35</v>
+      </c>
       <c r="U615" s="3"/>
       <c r="V615" s="3">
         <v>32.9</v>
@@ -37700,12 +38147,15 @@
       <c r="S616" s="17" t="s">
         <v>1391</v>
       </c>
+      <c r="T616" s="48" t="s">
+        <v>1386</v>
+      </c>
       <c r="X616">
         <v>328</v>
       </c>
       <c r="Z616" s="15"/>
     </row>
-    <row r="617" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="3" t="s">
         <v>1366</v>
       </c>
@@ -37747,7 +38197,9 @@
       <c r="Q617" s="3"/>
       <c r="R617" s="3"/>
       <c r="S617" s="3"/>
-      <c r="T617" s="3"/>
+      <c r="T617" s="3">
+        <v>9.5399999999999991</v>
+      </c>
       <c r="U617" s="3"/>
       <c r="V617" s="3">
         <v>28.1</v>
@@ -37760,7 +38212,7 @@
       <c r="Z617" s="15"/>
       <c r="AA617" s="3"/>
     </row>
-    <row r="618" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>1368</v>
       </c>
@@ -37797,6 +38249,9 @@
       <c r="P618">
         <v>37</v>
       </c>
+      <c r="T618">
+        <v>5.85</v>
+      </c>
       <c r="V618">
         <v>25.4</v>
       </c>
@@ -37805,7 +38260,7 @@
       </c>
       <c r="Z618" s="15"/>
     </row>
-    <row r="619" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="3" t="s">
         <v>1369</v>
       </c>
@@ -37847,7 +38302,9 @@
       <c r="Q619" s="3"/>
       <c r="R619" s="3"/>
       <c r="S619" s="3"/>
-      <c r="T619" s="3"/>
+      <c r="T619" s="3">
+        <v>9.51</v>
+      </c>
       <c r="U619" s="3"/>
       <c r="V619" s="3">
         <v>29.3</v>
@@ -37860,7 +38317,7 @@
       <c r="Z619" s="15"/>
       <c r="AA619" s="3"/>
     </row>
-    <row r="620" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
         <v>1370</v>
       </c>
@@ -37900,12 +38357,15 @@
       <c r="S620" s="12" t="s">
         <v>1391</v>
       </c>
+      <c r="T620" s="48" t="s">
+        <v>1386</v>
+      </c>
       <c r="X620">
         <v>328</v>
       </c>
       <c r="Z620" s="15"/>
     </row>
-    <row r="621" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="3" t="s">
         <v>1371</v>
       </c>
@@ -37947,7 +38407,9 @@
       <c r="Q621" s="3"/>
       <c r="R621" s="3"/>
       <c r="S621" s="3"/>
-      <c r="T621" s="3"/>
+      <c r="T621" s="3">
+        <v>8.4</v>
+      </c>
       <c r="U621" s="3"/>
       <c r="V621" s="3">
         <v>26.4</v>
@@ -37960,7 +38422,7 @@
       <c r="Z621" s="15"/>
       <c r="AA621" s="3"/>
     </row>
-    <row r="622" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>1372</v>
       </c>
@@ -38008,7 +38470,7 @@
       </c>
       <c r="Z622" s="15"/>
     </row>
-    <row r="623" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="3" t="s">
         <v>1373</v>
       </c>
@@ -38065,7 +38527,7 @@
       <c r="Z623" s="15"/>
       <c r="AA623" s="3"/>
     </row>
-    <row r="624" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>1374</v>
       </c>
@@ -38113,7 +38575,7 @@
       </c>
       <c r="Z624" s="15"/>
     </row>
-    <row r="625" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="3" t="s">
         <v>1375</v>
       </c>
@@ -38170,7 +38632,7 @@
       <c r="Z625" s="15"/>
       <c r="AA625" s="3"/>
     </row>
-    <row r="626" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
         <v>1377</v>
       </c>
@@ -38260,7 +38722,9 @@
       <c r="Q627" s="3"/>
       <c r="R627" s="3"/>
       <c r="S627" s="3"/>
-      <c r="T627" s="3"/>
+      <c r="T627" s="3">
+        <v>9.86</v>
+      </c>
       <c r="U627" s="3"/>
       <c r="V627" s="3">
         <v>27.3</v>
@@ -38310,6 +38774,9 @@
       <c r="P628">
         <v>57</v>
       </c>
+      <c r="T628">
+        <v>11.52</v>
+      </c>
       <c r="V628">
         <v>31.1</v>
       </c>
@@ -38359,7 +38826,9 @@
       <c r="Q629" s="3"/>
       <c r="R629" s="3"/>
       <c r="S629" s="3"/>
-      <c r="T629" s="3"/>
+      <c r="T629" s="3">
+        <v>11.64</v>
+      </c>
       <c r="U629" s="3"/>
       <c r="V629" s="3">
         <v>34.9</v>
@@ -38409,6 +38878,9 @@
       <c r="P630">
         <v>57</v>
       </c>
+      <c r="T630">
+        <v>13.24</v>
+      </c>
       <c r="V630">
         <v>32.4</v>
       </c>
@@ -38458,7 +38930,9 @@
       <c r="Q631" s="3"/>
       <c r="R631" s="3"/>
       <c r="S631" s="3"/>
-      <c r="T631" s="3"/>
+      <c r="T631" s="3">
+        <v>9.9499999999999993</v>
+      </c>
       <c r="U631" s="3"/>
       <c r="V631" s="3">
         <v>32.700000000000003</v>
@@ -39984,7 +40458,7 @@
       <c r="K820" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <tableParts count="1">

--- a/data/treeMeasurements/TreeMeasurements.xlsx
+++ b/data/treeMeasurements/TreeMeasurements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/treeMeasurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C44731-F9C3-AB42-97F7-A86469471232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0809BE55-2DC8-DE49-904D-C1C2604678FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4655,7 +4655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4705,6 +4705,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5349,14 +5351,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3F288811-81FB-F847-9587-99D03002EDFF}" name="Table4" displayName="Table4" ref="A1:AA631" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:AA631" xr:uid="{3F288811-81FB-F847-9587-99D03002EDFF}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="sequoiadendron"/>
+        <filter val="populus"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5594,8 +5591,8 @@
   <dimension ref="A1:AA820"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U617" sqref="U617"/>
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V355" sqref="V355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5613,7 +5610,7 @@
     <col min="11" max="11" width="28.83203125" customWidth="1"/>
     <col min="12" max="12" width="18.83203125" style="18" customWidth="1"/>
     <col min="13" max="13" width="22.1640625" customWidth="1"/>
-    <col min="14" max="14" width="3.1640625" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
     <col min="15" max="15" width="21.83203125" customWidth="1"/>
     <col min="16" max="16" width="0.5" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="10.33203125" hidden="1" customWidth="1"/>
@@ -19878,7 +19875,7 @@
       <c r="Z271" s="3"/>
       <c r="AA271" s="3"/>
     </row>
-    <row r="272" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>838</v>
       </c>
@@ -19925,7 +19922,7 @@
         <v>72.2</v>
       </c>
     </row>
-    <row r="273" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>843</v>
       </c>
@@ -19980,7 +19977,7 @@
       <c r="Z273" s="3"/>
       <c r="AA273" s="3"/>
     </row>
-    <row r="274" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>845</v>
       </c>
@@ -20024,7 +20021,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="275" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>847</v>
       </c>
@@ -20081,7 +20078,7 @@
       <c r="Z275" s="3"/>
       <c r="AA275" s="3"/>
     </row>
-    <row r="276" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>848</v>
       </c>
@@ -20128,8 +20125,8 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="277" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="3" t="s">
+    <row r="277" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="49" t="s">
         <v>850</v>
       </c>
       <c r="B277" s="3">
@@ -20183,8 +20180,8 @@
       <c r="Z277" s="3"/>
       <c r="AA277" s="3"/>
     </row>
-    <row r="278" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="1" t="s">
+    <row r="278" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="50" t="s">
         <v>853</v>
       </c>
       <c r="B278" s="1">
@@ -20227,7 +20224,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="279" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>854</v>
       </c>
@@ -20288,7 +20285,7 @@
       <c r="Z279" s="3"/>
       <c r="AA279" s="3"/>
     </row>
-    <row r="280" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>855</v>
       </c>
@@ -20332,7 +20329,7 @@
         <v>80.400000000000006</v>
       </c>
     </row>
-    <row r="281" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>856</v>
       </c>
@@ -20387,7 +20384,7 @@
       <c r="Z281" s="3"/>
       <c r="AA281" s="3"/>
     </row>
-    <row r="282" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>857</v>
       </c>
@@ -20448,7 +20445,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="283" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>858</v>
       </c>
@@ -20505,7 +20502,7 @@
       <c r="Z283" s="3"/>
       <c r="AA283" s="3"/>
     </row>
-    <row r="284" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>860</v>
       </c>
@@ -20549,7 +20546,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="285" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>862</v>
       </c>
@@ -20604,7 +20601,7 @@
       <c r="Z285" s="3"/>
       <c r="AA285" s="3"/>
     </row>
-    <row r="286" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>864</v>
       </c>
@@ -20648,7 +20645,7 @@
         <v>117.4</v>
       </c>
     </row>
-    <row r="287" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>867</v>
       </c>
@@ -20703,7 +20700,7 @@
       <c r="Z287" s="3"/>
       <c r="AA287" s="3"/>
     </row>
-    <row r="288" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>868</v>
       </c>
@@ -20747,7 +20744,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="289" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>870</v>
       </c>
@@ -20802,7 +20799,7 @@
       <c r="Z289" s="3"/>
       <c r="AA289" s="3"/>
     </row>
-    <row r="290" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>871</v>
       </c>
@@ -20846,7 +20843,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="291" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>873</v>
       </c>
@@ -20907,7 +20904,7 @@
       <c r="Z291" s="3"/>
       <c r="AA291" s="3"/>
     </row>
-    <row r="292" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>874</v>
       </c>
@@ -20954,7 +20951,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="293" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>875</v>
       </c>
@@ -21009,7 +21006,7 @@
       <c r="Z293" s="3"/>
       <c r="AA293" s="3"/>
     </row>
-    <row r="294" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>878</v>
       </c>
@@ -21056,7 +21053,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="295" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>880</v>
       </c>
@@ -21111,7 +21108,7 @@
       <c r="Z295" s="3"/>
       <c r="AA295" s="3"/>
     </row>
-    <row r="296" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>882</v>
       </c>
@@ -21155,7 +21152,7 @@
         <v>114.9</v>
       </c>
     </row>
-    <row r="297" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>883</v>
       </c>
@@ -21210,7 +21207,7 @@
       <c r="Z297" s="3"/>
       <c r="AA297" s="3"/>
     </row>
-    <row r="298" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>884</v>
       </c>
@@ -21254,7 +21251,7 @@
         <v>125.1</v>
       </c>
     </row>
-    <row r="299" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>885</v>
       </c>
@@ -21311,7 +21308,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="300" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>886</v>
       </c>
@@ -21355,7 +21352,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="301" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>888</v>
       </c>
@@ -21414,7 +21411,7 @@
       <c r="Z301" s="3"/>
       <c r="AA301" s="3"/>
     </row>
-    <row r="302" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>890</v>
       </c>
@@ -21458,7 +21455,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="303" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>892</v>
       </c>
@@ -21513,7 +21510,7 @@
       <c r="Z303" s="3"/>
       <c r="AA303" s="3"/>
     </row>
-    <row r="304" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>893</v>
       </c>
@@ -21557,7 +21554,7 @@
         <v>78.099999999999994</v>
       </c>
     </row>
-    <row r="305" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>896</v>
       </c>
@@ -21612,7 +21609,7 @@
       <c r="Z305" s="3"/>
       <c r="AA305" s="3"/>
     </row>
-    <row r="306" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>898</v>
       </c>
@@ -21656,7 +21653,7 @@
         <v>90.7</v>
       </c>
     </row>
-    <row r="307" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
         <v>899</v>
       </c>
@@ -21711,7 +21708,7 @@
       <c r="Z307" s="3"/>
       <c r="AA307" s="3"/>
     </row>
-    <row r="308" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>901</v>
       </c>
@@ -21755,7 +21752,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="309" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>902</v>
       </c>
@@ -21810,7 +21807,7 @@
       <c r="Z309" s="3"/>
       <c r="AA309" s="3"/>
     </row>
-    <row r="310" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>903</v>
       </c>
@@ -21854,7 +21851,7 @@
         <v>85.4</v>
       </c>
     </row>
-    <row r="311" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>904</v>
       </c>
@@ -21909,7 +21906,7 @@
       <c r="Z311" s="3"/>
       <c r="AA311" s="3"/>
     </row>
-    <row r="312" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>905</v>
       </c>
@@ -21953,7 +21950,7 @@
         <v>96.4</v>
       </c>
     </row>
-    <row r="313" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>906</v>
       </c>
@@ -22008,7 +22005,7 @@
       <c r="Z313" s="3"/>
       <c r="AA313" s="3"/>
     </row>
-    <row r="314" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>908</v>
       </c>
@@ -22052,7 +22049,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="315" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>909</v>
       </c>
@@ -22107,7 +22104,7 @@
       <c r="Z315" s="3"/>
       <c r="AA315" s="3"/>
     </row>
-    <row r="316" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>912</v>
       </c>
@@ -22154,7 +22151,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="317" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>914</v>
       </c>
@@ -22209,7 +22206,7 @@
       <c r="Z317" s="3"/>
       <c r="AA317" s="3"/>
     </row>
-    <row r="318" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>915</v>
       </c>
@@ -22253,7 +22250,7 @@
         <v>86.6</v>
       </c>
     </row>
-    <row r="319" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
         <v>917</v>
       </c>
@@ -22308,7 +22305,7 @@
       <c r="Z319" s="3"/>
       <c r="AA319" s="3"/>
     </row>
-    <row r="320" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>919</v>
       </c>
@@ -22365,7 +22362,7 @@
       <c r="Z320" s="30"/>
       <c r="AA320" s="30"/>
     </row>
-    <row r="321" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
         <v>921</v>
       </c>
@@ -22420,7 +22417,7 @@
       <c r="Z321" s="3"/>
       <c r="AA321" s="3"/>
     </row>
-    <row r="322" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>922</v>
       </c>
@@ -22464,7 +22461,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="323" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>923</v>
       </c>
@@ -22519,7 +22516,7 @@
       <c r="Z323" s="3"/>
       <c r="AA323" s="3"/>
     </row>
-    <row r="324" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>924</v>
       </c>
@@ -22563,7 +22560,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="325" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>925</v>
       </c>
@@ -22618,7 +22615,7 @@
       <c r="Z325" s="3"/>
       <c r="AA325" s="3"/>
     </row>
-    <row r="326" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>926</v>
       </c>
@@ -22662,7 +22659,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="327" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>927</v>
       </c>
@@ -22717,7 +22714,7 @@
       <c r="Z327" s="3"/>
       <c r="AA327" s="3"/>
     </row>
-    <row r="328" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>928</v>
       </c>
@@ -22764,7 +22761,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="329" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
         <v>930</v>
       </c>
@@ -22819,7 +22816,7 @@
       <c r="Z329" s="3"/>
       <c r="AA329" s="3"/>
     </row>
-    <row r="330" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>931</v>
       </c>
@@ -22863,7 +22860,7 @@
         <v>91.4</v>
       </c>
     </row>
-    <row r="331" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
         <v>932</v>
       </c>
@@ -22918,7 +22915,7 @@
       <c r="Z331" s="3"/>
       <c r="AA331" s="3"/>
     </row>
-    <row r="332" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>934</v>
       </c>
@@ -22975,7 +22972,7 @@
       <c r="Z332" s="30"/>
       <c r="AA332" s="30"/>
     </row>
-    <row r="333" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>935</v>
       </c>
@@ -23034,7 +23031,7 @@
       <c r="Z333" s="30"/>
       <c r="AA333" s="30"/>
     </row>
-    <row r="334" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>937</v>
       </c>
@@ -23091,7 +23088,7 @@
       <c r="Z334" s="30"/>
       <c r="AA334" s="30"/>
     </row>
-    <row r="335" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>939</v>
       </c>
@@ -23146,7 +23143,7 @@
       <c r="Z335" s="3"/>
       <c r="AA335" s="3"/>
     </row>
-    <row r="336" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>940</v>
       </c>
@@ -23190,7 +23187,7 @@
         <v>87.7</v>
       </c>
     </row>
-    <row r="337" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>941</v>
       </c>
@@ -23251,7 +23248,7 @@
       <c r="Z337" s="30"/>
       <c r="AA337" s="30"/>
     </row>
-    <row r="338" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>943</v>
       </c>
@@ -23295,7 +23292,7 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="339" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>945</v>
       </c>
@@ -23354,7 +23351,7 @@
       <c r="Z339" s="30"/>
       <c r="AA339" s="30"/>
     </row>
-    <row r="340" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>946</v>
       </c>
@@ -23398,7 +23395,7 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="341" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>947</v>
       </c>
@@ -23453,7 +23450,7 @@
       <c r="Z341" s="3"/>
       <c r="AA341" s="3"/>
     </row>
-    <row r="342" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>948</v>
       </c>
@@ -23497,7 +23494,7 @@
         <v>87.4</v>
       </c>
     </row>
-    <row r="343" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>950</v>
       </c>
@@ -23552,7 +23549,7 @@
       <c r="Z343" s="3"/>
       <c r="AA343" s="3"/>
     </row>
-    <row r="344" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>952</v>
       </c>
@@ -23596,7 +23593,7 @@
         <v>106.6</v>
       </c>
     </row>
-    <row r="345" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>954</v>
       </c>
@@ -23651,7 +23648,7 @@
       <c r="Z345" s="3"/>
       <c r="AA345" s="3"/>
     </row>
-    <row r="346" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>956</v>
       </c>
@@ -23708,7 +23705,7 @@
       <c r="Z346" s="30"/>
       <c r="AA346" s="30"/>
     </row>
-    <row r="347" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>959</v>
       </c>
@@ -23763,7 +23760,7 @@
       <c r="Z347" s="3"/>
       <c r="AA347" s="3"/>
     </row>
-    <row r="348" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>962</v>
       </c>
@@ -23807,7 +23804,7 @@
         <v>91.9</v>
       </c>
     </row>
-    <row r="349" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>964</v>
       </c>
@@ -23862,7 +23859,7 @@
       <c r="Z349" s="3"/>
       <c r="AA349" s="3"/>
     </row>
-    <row r="350" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>965</v>
       </c>
@@ -23909,7 +23906,7 @@
         <v>71.8</v>
       </c>
     </row>
-    <row r="351" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>967</v>
       </c>
@@ -23964,7 +23961,7 @@
       <c r="Z351" s="3"/>
       <c r="AA351" s="3"/>
     </row>
-    <row r="352" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>969</v>
       </c>
@@ -24008,7 +24005,7 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="353" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
         <v>971</v>
       </c>
@@ -24062,7 +24059,7 @@
       <c r="Z353" s="3"/>
       <c r="AA353" s="3"/>
     </row>
-    <row r="354" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>972</v>
       </c>
@@ -24106,7 +24103,7 @@
         <v>82.9</v>
       </c>
     </row>
-    <row r="355" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
         <v>974</v>
       </c>
@@ -24163,7 +24160,7 @@
       <c r="Z355" s="3"/>
       <c r="AA355" s="3"/>
     </row>
-    <row r="356" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>976</v>
       </c>
@@ -24220,7 +24217,7 @@
       <c r="Z356" s="30"/>
       <c r="AA356" s="30"/>
     </row>
-    <row r="357" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
         <v>977</v>
       </c>
@@ -24275,7 +24272,7 @@
       <c r="Z357" s="3"/>
       <c r="AA357" s="3"/>
     </row>
-    <row r="358" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>979</v>
       </c>
@@ -24319,7 +24316,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="359" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
         <v>980</v>
       </c>
@@ -24374,7 +24371,7 @@
       <c r="Z359" s="3"/>
       <c r="AA359" s="3"/>
     </row>
-    <row r="360" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>982</v>
       </c>
@@ -24418,7 +24415,7 @@
         <v>119.4</v>
       </c>
     </row>
-    <row r="361" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
         <v>983</v>
       </c>
@@ -34231,7 +34228,7 @@
       <c r="Z541" s="3"/>
       <c r="AA541" s="3"/>
     </row>
-    <row r="542" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>1261</v>
       </c>
@@ -34278,7 +34275,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="543" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="3" t="s">
         <v>1264</v>
       </c>
@@ -34335,7 +34332,7 @@
       <c r="Z543" s="3"/>
       <c r="AA543" s="3"/>
     </row>
-    <row r="544" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>1265</v>
       </c>
@@ -34382,7 +34379,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="545" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="3" t="s">
         <v>1266</v>
       </c>
@@ -34439,7 +34436,7 @@
       <c r="Z545" s="3"/>
       <c r="AA545" s="3"/>
     </row>
-    <row r="546" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>1267</v>
       </c>
@@ -35011,7 +35008,7 @@
       </c>
       <c r="Z556" s="15"/>
     </row>
-    <row r="557" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="3" t="s">
         <v>1283</v>
       </c>
@@ -35068,7 +35065,7 @@
       <c r="Z557" s="15"/>
       <c r="AA557" s="3"/>
     </row>
-    <row r="558" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>1284</v>
       </c>
@@ -35116,7 +35113,7 @@
       </c>
       <c r="Z558" s="15"/>
     </row>
-    <row r="559" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="3" t="s">
         <v>1286</v>
       </c>
@@ -35173,7 +35170,7 @@
       <c r="Z559" s="15"/>
       <c r="AA559" s="3"/>
     </row>
-    <row r="560" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>1287</v>
       </c>
@@ -35221,7 +35218,7 @@
       </c>
       <c r="Z560" s="15"/>
     </row>
-    <row r="561" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="3" t="s">
         <v>1288</v>
       </c>
@@ -35803,7 +35800,7 @@
       <c r="Z571" s="15"/>
       <c r="AA571" s="3"/>
     </row>
-    <row r="572" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>1306</v>
       </c>
@@ -35851,7 +35848,7 @@
       </c>
       <c r="Z572" s="15"/>
     </row>
-    <row r="573" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="3" t="s">
         <v>1308</v>
       </c>
@@ -35906,7 +35903,7 @@
       <c r="Z573" s="15"/>
       <c r="AA573" s="3"/>
     </row>
-    <row r="574" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>1310</v>
       </c>
@@ -35954,7 +35951,7 @@
       </c>
       <c r="Z574" s="15"/>
     </row>
-    <row r="575" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="3" t="s">
         <v>1311</v>
       </c>
@@ -36011,7 +36008,7 @@
       <c r="Z575" s="15"/>
       <c r="AA575" s="3"/>
     </row>
-    <row r="576" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>1312</v>
       </c>
@@ -36584,7 +36581,7 @@
       </c>
       <c r="Z586" s="15"/>
     </row>
-    <row r="587" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="3" t="s">
         <v>1327</v>
       </c>
@@ -36641,7 +36638,7 @@
       <c r="Z587" s="15"/>
       <c r="AA587" s="3"/>
     </row>
-    <row r="588" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
         <v>1328</v>
       </c>
@@ -36689,7 +36686,7 @@
       </c>
       <c r="Z588" s="15"/>
     </row>
-    <row r="589" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="3" t="s">
         <v>1329</v>
       </c>
@@ -36746,7 +36743,7 @@
       <c r="Z589" s="15"/>
       <c r="AA589" s="3"/>
     </row>
-    <row r="590" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>1330</v>
       </c>
@@ -36794,7 +36791,7 @@
       </c>
       <c r="Z590" s="15"/>
     </row>
-    <row r="591" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="3" t="s">
         <v>1331</v>
       </c>
@@ -37374,7 +37371,7 @@
       <c r="Z601" s="15"/>
       <c r="AA601" s="3"/>
     </row>
-    <row r="602" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>1347</v>
       </c>
@@ -37422,7 +37419,7 @@
       </c>
       <c r="Z602" s="15"/>
     </row>
-    <row r="603" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="3" t="s">
         <v>1348</v>
       </c>
@@ -37479,7 +37476,7 @@
       <c r="Z603" s="15"/>
       <c r="AA603" s="3"/>
     </row>
-    <row r="604" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>1349</v>
       </c>
@@ -37527,7 +37524,7 @@
       </c>
       <c r="Z604" s="15"/>
     </row>
-    <row r="605" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="3" t="s">
         <v>1350</v>
       </c>
@@ -37584,7 +37581,7 @@
       <c r="Z605" s="15"/>
       <c r="AA605" s="3"/>
     </row>
-    <row r="606" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
         <v>1352</v>
       </c>
@@ -38155,7 +38152,7 @@
       </c>
       <c r="Z616" s="15"/>
     </row>
-    <row r="617" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="3" t="s">
         <v>1366</v>
       </c>
@@ -38212,7 +38209,7 @@
       <c r="Z617" s="15"/>
       <c r="AA617" s="3"/>
     </row>
-    <row r="618" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>1368</v>
       </c>
@@ -38260,7 +38257,7 @@
       </c>
       <c r="Z618" s="15"/>
     </row>
-    <row r="619" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="3" t="s">
         <v>1369</v>
       </c>
@@ -38317,7 +38314,7 @@
       <c r="Z619" s="15"/>
       <c r="AA619" s="3"/>
     </row>
-    <row r="620" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
         <v>1370</v>
       </c>
@@ -38365,7 +38362,7 @@
       </c>
       <c r="Z620" s="15"/>
     </row>
-    <row r="621" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="3" t="s">
         <v>1371</v>
       </c>

--- a/data/treeMeasurements/TreeMeasurements.xlsx
+++ b/data/treeMeasurements/TreeMeasurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/treeMeasurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0809BE55-2DC8-DE49-904D-C1C2604678FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4B0F82-4245-1648-99CF-5A949B59BCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34620" yWindow="-1200" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4783" uniqueCount="1465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4785" uniqueCount="1466">
   <si>
     <t>tree_ID</t>
   </si>
@@ -4431,6 +4431,9 @@
   </si>
   <si>
     <t>the second shoot mentioned last year died</t>
+  </si>
+  <si>
+    <t>check shoot elongation if stopped at some point and add the max elongation value to the height of last year</t>
   </si>
 </sst>
 </file>
@@ -4705,8 +4708,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5591,8 +5594,8 @@
   <dimension ref="A1:AA820"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V355" sqref="V355"/>
+      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A277" sqref="A277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20178,7 +20181,9 @@
       <c r="X277" s="3"/>
       <c r="Y277" s="3"/>
       <c r="Z277" s="3"/>
-      <c r="AA277" s="3"/>
+      <c r="AA277" s="3" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="278" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="50" t="s">
@@ -20222,6 +20227,9 @@
       </c>
       <c r="V278" s="46" t="s">
         <v>1386</v>
+      </c>
+      <c r="AA278" t="s">
+        <v>1465</v>
       </c>
     </row>
     <row r="279" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
